--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000717285815890609], ["'autoclave' (unit, GLO, None)", 0.0007684225707800679], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.753822852067067e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457611948208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115363849892934e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.328827274546504e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326723141646], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420132641222618e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470593273581952e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00017353956502152542], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043710909427e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000717285815890609], ["'autoclave' (unit, GLO, None)", 0.0007684225707800679], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516121192687e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.400280443932429e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.41024256659529e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002885884849697669], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043710909427e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.966432936227302e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.336894993862023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001964760483848707], ["'mixed heating grid' (megajoule, GLO, None)", -0.00015368737370112837], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985810166885], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361564259990396e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140202083146e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888438451310576], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429278422805], ["'autoclave' (unit, GLO, None)", 0.0010245634277067572], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.278173555265546e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176302905116e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021200294438110897], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008256357059602227], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.619065916489739e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.630677467360438e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930256886225], ["'autoclave' (unit, GLO, None)", 0.0015368451415601365], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861415803822e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813220613047], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.27179068008495e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692509960353e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992159930535e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020553785141e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.630677467360438e-05], ["'wet wipe' (unit, GLO, None)", 0.0002486553723234938], ["'autoclave' (unit, GLO, None)", 0.0015368451415601365], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861415803822e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813220613047], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.27179068008495e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692509960353e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.791917586161798e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457611948208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085989710223e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379703408381e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.479861996701422e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00036314651284431124], ["'autoclave' (unit, GLO, None)", 0.001152633856170102], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720422646403e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665764761628], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.5435813601699e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811526044586784e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.32996079965265e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510276892571e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.479861996701422e-05], ["'wet wipe' (unit, GLO, None)", 0.0002486553723234938], ["'autoclave' (unit, GLO, None)", 0.001152633856170102], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720422646403e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665764761628], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.5435813601699e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.781152604458678e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.791917586161798e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457611948208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786381713723e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044600639455e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247601012249758], ["'autoclave' (unit, GLO, None)", 0.21781507223096913], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423145408073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284904281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00459829630757031], ["'mixed heating grid' (megajoule, GLO, None)", -0.012677318483535819], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14367684004393855], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009379699343], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566183553092], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914697874264103], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080222482148]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247601012249758], ["'autoclave' (unit, GLO, None)", 0.21781507223096913], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18111252741345543], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089340600117], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308717135402], ["'mixed heating grid' (megajoule, GLO, None)", -0.08451545655690547], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080222482148]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.07729168423419296], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.009936564502142281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08127984832658976], ["'mixed heating grid' (megajoule, GLO, None)", -0.0450085822264993], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4043884570773105], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01345643599715336], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048063247965], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478022181025645], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.708572604218402], ["'autoclave' (unit, GLO, None)", 0.29042009630795884], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761335590295], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893523281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314400019187], ["'mixed heating grid' (megajoule, GLO, None)", -0.24179405025887069], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864303833705]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02301679243669817], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803830341822], ["'autoclave' (unit, GLO, None)", 0.43563014446193843], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750413587393], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0417321978385479], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899090758833], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355732553638e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.71939180294703e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021282053577983522]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02301679243669817], ["'wet wipe' (unit, GLO, None)", 0.05727539162520526], ["'autoclave' (unit, GLO, None)", 0.43563014446193843], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750413587393], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0417321978385479], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899090758833], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355732553638e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595029014717], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284904281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046349996214186924], ["'mixed heating grid' (megajoule, GLO, None)", -0.012778508047655728]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01349444465276269], ["'mechanical disinfection' (unit, GLO, None)", 0.1083401915170911], ["'autoclave' (unit, GLO, None)", 0.3267226083464537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248176241764], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805990344311], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579818151767], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045379857103e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695901473505e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026788991761]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01349444465276269], ["'wet wipe' (unit, GLO, None)", 0.05727539162520526], ["'autoclave' (unit, GLO, None)", 0.3267226083464537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248176241764], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805990344311], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579818151767], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045379857102], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595029014717], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284904281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402662403968], ["'mixed heating grid' (megajoule, GLO, None)", -0.01267209777976581]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919235848174], ["'autoclave' (unit, GLO, None)", 0.043642145931195156], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505902635779], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001728282616363009], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027580042543972374], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004551387978211257], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668949819824444], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787105710803], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799064057588042], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163425942478858], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337878439217e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919235848174], ["'autoclave' (unit, GLO, None)", 0.043642145931195156], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700178384489], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169377026675], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386695029314918], ["'mixed heating grid' (megajoule, GLO, None)", -0.003034258652140838], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337878439217e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.004057511484578169], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0005216559456728715], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004875070080030268], ["'mixed heating grid' (megajoule, GLO, None)", -0.001615889987524292], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194903094983702], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246543716216981], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468982511853934], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007307740524], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185263906012356], ["'autoclave' (unit, GLO, None)", 0.05818952790826021], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225402361828], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421036545862], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331829384708], ["'mixed heating grid' (megajoule, GLO, None)", -0.008680846308156276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9491575166825493e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001941428108660832], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851188969291], ["'autoclave' (unit, GLO, None)", 0.08728429186239034], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141581118], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02338253214007842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268484774515e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.938767622201765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000767640078e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640644425891723e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001941428108660832], ["'wet wipe' (unit, GLO, None)", 0.002171900725378876], ["'autoclave' (unit, GLO, None)", 0.08728429186239034], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282141581118], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02338253214007842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268484774515e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.938767622201765e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.65261326322501e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001728282616363009], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018472049471], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716872705302]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011505332709141], ["'mechanical disinfection' (unit, GLO, None)", 0.022144255944846456], ["'autoclave' (unit, GLO, None)", 0.06546321889679274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056212094161092005], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990014233269], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.79453696954903e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401317017844e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000383820033e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.8203222129458616e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011505332709141], ["'wet wipe' (unit, GLO, None)", 0.002171900725378876], ["'autoclave' (unit, GLO, None)", 0.06546321889679274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.056212094161092005], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990014233269], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.79453696954903e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401317017843e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.65261326322501e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001728282616363009], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027568684682112774], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549513650575843]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0100727388957152], ["'autoclave' (unit, GLO, None)", 0.054955644151972516], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801417478201], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963813906], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035968299557493196], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006069880593579732], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720028332718], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797362774794613], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721344151409526], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326734501985554], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4091862922221056e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0100727388957152], ["'autoclave' (unit, GLO, None)", 0.054955644151972516], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373891677783], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733006355136], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002397886637166213], ["'mixed heating grid' (megajoule, GLO, None)", -0.004046587062386488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4091862922221056e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.005875372238279392], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0007553755377016285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006357785007863352], ["'mixed heating grid' (megajoule, GLO, None)", -0.0021550039951742906], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01225384776186361], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002045808213773136], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002325961993340696], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807702822494525], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605741769351], ["'autoclave' (unit, GLO, None)", 0.07327419220263001], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038781334906134605], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183670415095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860221143947299], ["'mixed heating grid' (megajoule, GLO, None)", -0.011577061941099216], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.009045812366053e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002527724806012105], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285250317784], ["'autoclave' (unit, GLO, None)", 0.10991128830394506], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963329944203], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512537186054], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703235994254e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.635535122478685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0381797561185294e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189814523654449e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002527724806012105], ["'wet wipe' (unit, GLO, None)", 0.002406925379832832], ["'autoclave' (unit, GLO, None)", 0.10991128830394506], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963329944203], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512537186054], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703235994254e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.635535122478685e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887759824162e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963813906], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255396277440945], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118330001261799]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001498012107920712], ["'mechanical disinfection' (unit, GLO, None)", 0.02785142625158892], ["'autoclave' (unit, GLO, None)", 0.08243346622795877], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288156908], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534618901256], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140647198851e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396338631844e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898780592567e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094907261827224e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001498012107920712], ["'wet wipe' (unit, GLO, None)", 0.002406925379832832], ["'autoclave' (unit, GLO, None)", 0.08243346622795877], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288156908], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534618901256], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140647198851e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396338631843e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887759824162e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963813906], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000359534872896351], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380928643526]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796378038631], ["'autoclave' (unit, GLO, None)", 2.273677311581497], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0798222900375421], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096305203481], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779095813081144], ["'mixed heating grid' (megajoule, GLO, None)", -0.055964595696966206], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30982763020125165], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829712214918436], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.034201980063121674], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906435370698336], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823973762105]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796378038631], ["'autoclave' (unit, GLO, None)", 2.273677311581497], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619245481765], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008269617368], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063875387429], ["'mixed heating grid' (megajoule, GLO, None)", -0.3730973046464414], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823973762105]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.22603882132126407], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.029057932884513256], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24356038472791666], ["'mixed heating grid' (megajoule, GLO, None)", -0.198692421466811], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314095068342], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526318316744807], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934847075167], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820944706192497], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021689357634], ["'autoclave' (unit, GLO, None)", 3.0315697487753295], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054212624692], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514594858368], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280821057519865], ["'mixed heating grid' (megajoule, GLO, None)", -1.0674107684715557], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001936498339370928]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1107951013644033], ["'mechanical disinfection' (unit, GLO, None)", 2.2763283091195046], ["'autoclave' (unit, GLO, None)", 4.547354623162996], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.38496671213924777], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110445635802], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831200640049], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730484077510775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662719604753], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058786602548]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1107951013644033], ["'wet wipe' (unit, GLO, None)", 0.14056030326718422], ["'autoclave' (unit, GLO, None)", 4.547354623162996], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.38496671213924777], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110445635802], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831200640049], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730484077510775], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541089864296], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096305203481], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889079695011899], ["'mixed heating grid' (megajoule, GLO, None)", -0.05641130160343038]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.06535547188971923], ["'mechanical disinfection' (unit, GLO, None)", 1.1381641545597523], ["'autoclave' (unit, GLO, None)", 3.410515967372246], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612336683487], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352561367726], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662401280097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303635791299755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831359802345], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004697529393301274]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.06535547188971923], ["'wet wipe' (unit, GLO, None)", 0.14056030326718422], ["'autoclave' (unit, GLO, None)", 3.410515967372246], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612336683487], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352561367726], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662401280097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303635791299754], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541089864296], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096305203481], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421381413908], ["'mixed heating grid' (megajoule, GLO, None)", -0.05594154866410025]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149743328859391], ["'autoclave' (unit, GLO, None)", 0.056056070487377485], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298299446038e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221256140933e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001207227880804924], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036679319303443625], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569834442631], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552395208321113], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452895825084265], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01949173288117172], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.652792159705883e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149743328859391], ["'autoclave' (unit, GLO, None)", 0.056056070487377485], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00030830577500997073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475094692164e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185872032827], ["'mixed heating grid' (megajoule, GLO, None)", -0.024452879535629087], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.652792159705883e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0001315727462366495], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.6393319204315294e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02133905526834174], ["'mixed heating grid' (megajoule, GLO, None)", -0.013022345072619953], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29123954832040516], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759636063879077], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0031488090587255212], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490628980611753], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085117439461], ["'autoclave' (unit, GLO, None)", 0.07474142731650331], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669718590726], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270230228113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541497749312], ["'mixed heating grid' (megajoule, GLO, None)", -0.06995833690410225], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000132368992138468]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006855980849288196], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788928775718], ["'autoclave' (unit, GLO, None)", 0.112112140974755], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318664233018], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485923145422], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391609675624994e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899260715751e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342975837366e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542224987416e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006855980849288196], ["'wet wipe' (unit, GLO, None)", 0.03226030805938394], ["'autoclave' (unit, GLO, None)", 0.112112140974755], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318664233018], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485923145422], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391609675624994e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899260715751e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359448781812e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221256140933e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638983279254], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091338582655]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003970127344994953], ["'mechanical disinfection' (unit, GLO, None)", 0.02804394464387859], ["'autoclave' (unit, GLO, None)", 0.08408410573106623], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998726860401], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687718394035], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.478321935124999e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061537813667e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171487918657e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771112493708e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003970127344994953], ["'wet wipe' (unit, GLO, None)", 0.03226030805938394], ["'autoclave' (unit, GLO, None)", 0.08408410573106623], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998726860401], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687718394035], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.478321935124999e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014562061537813666], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359448781812e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221256140933e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307268400097], ["'mixed heating grid' (megajoule, GLO, None)", -0.003666421422733328]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664453482769e-05], ["'autoclave' (unit, GLO, None)", 0.0002131907542052943], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320849547690687e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347569008644707e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.607317803108558e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2255216862729424e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699361901245e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.468288464216467e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547068189228883e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720926755054696e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.370536223938773e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664453482769e-05], ["'autoclave' (unit, GLO, None)", 0.0002131907542052943], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801685213888212e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.890704832044468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785354057053e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.1503477908486284e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.370536223938773e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.170296647617082e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.556284590682668e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.376323409602011e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.145164556909368e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117370071542e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419120620457328e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984605135407325e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.37209204367738e-05], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287119867641], ["'autoclave' (unit, GLO, None)", 0.0002842543389403924], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328690743347083e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520745773569e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224578386376e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.15202618546373e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025523167584e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.347005069485925e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00020048906486077806], ["'autoclave' (unit, GLO, None)", 0.0004263815084105888], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151174766738e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338778514487e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567321068959e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335028745184015e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786234153052e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.41484584720022e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.347005069485925e-05], ["'wet wipe' (unit, GLO, None)", 2.084740830134132e-05], ["'autoclave' (unit, GLO, None)", 0.0004263815084105888], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151174766738e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338778514487e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567321068959e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335028745184015e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.910668037869842e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347569008644707e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111188445726e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.251267598858254e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.97202707176076e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010024453243038903], ["'autoclave' (unit, GLO, None)", 0.0003197861313079415], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.546827385725978e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.89031387310324e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231134642137917e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178245175464e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893117076518e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.70742292360011e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.97202707176076e-06], ["'wet wipe' (unit, GLO, None)", 2.084740830134132e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861313079415], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.546827385725978e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.89031387310324e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231134642137917e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178245175463e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.910668037869842e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347569008644707e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832257274969e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.224193369622253e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268571262098e-06], ["'autoclave' (unit, GLO, None)", 0.0001474554575011944], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2802055304075725e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134579870214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.622296899644329e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.972355762921455e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034296115624e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.27023850618827e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717597031523322e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2932652066963004e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274712816594e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268571262098e-06], ["'autoclave' (unit, GLO, None)", 0.0001474554575011944], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363799900715e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327375748299e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979330962192e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9815705086143034e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274712816594e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.2120582016013967e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5505663089700003e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.635192689072236e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0552824632086269e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447522179737e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.790071783415887e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.2285471112841914e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.6430005822431e-05], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806638991115e-05], ["'autoclave' (unit, GLO, None)", 0.0001966072766682592], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384168986117e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398834785108e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497668215386e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.669163708874677e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.183851571779151e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.894577051081345e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238686823531e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109150023889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0228378920410933e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377778758298e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.383471586108516e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577073653821e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402181990465025e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.989843450054219e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.894577051081345e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484306392e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109150023889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228378920410933e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377778758298e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.383471586108516e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577073653821e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963089054e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134579870214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227909669244e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.99608092092312e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.71687949005657e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.4186193434117655e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318625179162], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2078239461064387e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339173947e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943172217032e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479649042915e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010909952325067e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949217250271096e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.71687949005657e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484306392e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318625179162], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.2078239461064387e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339173947e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943172217032e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479649042915e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963089054e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134579870214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216999716925e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711317036728487e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802519876742216], ["'autoclave' (unit, GLO, None)", 0.02035942410108721], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.22040584887075e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001073077317597599], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003668689169344925], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005041088603061115], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00517656439238301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118832860239276], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651032660741], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680345024711931], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251078444975e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802519876742216], ["'autoclave' (unit, GLO, None)", 0.02035942410108721], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213226820778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130365994995e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024457927795632833], ["'mixed heating grid' (megajoule, GLO, None)", -0.003360725735374077], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251078444975e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00026110121235587265], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.238921444858808e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006484803920766008], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017897495530826354], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01456980044213761], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406195987127916], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089080504846], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.021634774717498403], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666539867365], ["'autoclave' (unit, GLO, None)", 0.02714589880144961], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001723440345583318], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993812282036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997277969696876], ["'mixed heating grid' (megajoule, GLO, None)", -0.00961485059029625], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164094049120355e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001756119927966447], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979863526833], ["'autoclave' (unit, GLO, None)", 0.04071884820217443], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953376001826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904982533943], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541284055517e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950592914498e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813440268657e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462729549710428e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001756119927966447], ["'wet wipe' (unit, GLO, None)", 0.002277559734598622], ["'autoclave' (unit, GLO, None)", 0.04071884820217443], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953376001826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904982533943], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541284055517e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950592914498e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593514179659e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001073077317597599], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972417093214], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081326257348658]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001037048755508939], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989931763416], ["'autoclave' (unit, GLO, None)", 0.030539136151630814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456089205084], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971383721773], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082568111034e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530479931038e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794067201343203e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364774855214e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001037048755508939], ["'wet wipe' (unit, GLO, None)", 0.002277559734598622], ["'autoclave' (unit, GLO, None)", 0.030539136151630814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456089205084], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971383721773], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082568111034e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304799310374e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593514179659e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001073077317597599], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671783498918795], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039012609600105]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1526597108403673], ["'autoclave' (unit, GLO, None)", 0.618174011362173], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663919495454], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718907987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041718630745], ["'mixed heating grid' (megajoule, GLO, None)", -0.01375802391192311], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957009905262942], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500358564176251], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692157088644377], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788882936444576], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0002549417333202006]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1526597108403673], ["'autoclave' (unit, GLO, None)", 0.618174011362173], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468582095114], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242216936757], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04336027812420497], ["'mixed heating grid' (megajoule, GLO, None)", -0.09172015941282073], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0002549417333202006]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.049062394089786195], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.006307677702025024], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11496595457099865], ["'mixed heating grid' (megajoule, GLO, None)", -0.048845436147883704], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1958098814395199], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593312183443086], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03220883634681043], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982783925759036], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371103829573327], ["'autoclave' (unit, GLO, None)", 0.824232015149564], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32384418541113], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727710466506], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1240513593030576], ["'mixed heating grid' (megajoule, GLO, None)", -0.26240630694437356], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930957432289]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03730513903848259], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082831385528], ["'autoclave' (unit, GLO, None)", 1.2363480227243464], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317949814226], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502792254443], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225792652384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055835197423e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000109186626895196], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023096288256936]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03730513903848259], ["'wet wipe' (unit, GLO, None)", 0.04360781087065678], ["'autoclave' (unit, GLO, None)", 1.2363480227243464], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317949814226], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502792254443], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225792652384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055835197423e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000866982149539074], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718907987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956573288732], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867839599255315]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02205022098300535], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541415692764], ["'autoclave' (unit, GLO, None)", 0.9272610170432596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0459303528839634], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085760788169825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845158530477], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030830812608e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.459331344759786e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011548144128468]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02205022098300535], ["'wet wipe' (unit, GLO, None)", 0.04360781087065678], ["'autoclave' (unit, GLO, None)", 0.9272610170432596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0459303528839634], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085760788169825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845158530477], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030830812607], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000866982149539074], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718907987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00650136325984115], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752358157970634]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457040204], ["'autoclave' (unit, GLO, None)", 0.059956320711039436], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019081861862193e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331436269864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064975150025], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008743701702138614], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002844649547503301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568261146528], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518832625271631], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01556651172862697], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.881451471972619e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457040204], ["'autoclave' (unit, GLO, None)", 0.059956320711039436], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668674036655673e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.098308214833203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376650100017], ["'mixed heating grid' (megajoule, GLO, None)", -0.00582913446809241], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.881451471972619e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1381138356488267e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.4021229748007204e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.024682991423024638], ["'mixed heating grid' (megajoule, GLO, None)", -0.0031042969973167807], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463958204655], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427050106363336], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661957977090605], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.043849328813033724], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183572081555], ["'autoclave' (unit, GLO, None)", 0.07994176094805258], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.51230254553681e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280592138534e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612090794827], ["'mixed heating grid' (megajoule, GLO, None)", -0.016676831552044552], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197547067415773e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006970986105768629], ["'mechanical disinfection' (unit, GLO, None)", 0.06180787293404775], ["'autoclave' (unit, GLO, None)", 0.11991264142207891], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867825777486], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604787004772], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449233906488775e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043733974107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179775915756e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678492800862348e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006970986105768629], ["'wet wipe' (unit, GLO, None)", 0.003228268628697324], ["'autoclave' (unit, GLO, None)", 0.11991264142207891], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867825777486], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604787004772], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449233906488775e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043733974107e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263611198502803e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331436269864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525269376461], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493382862182]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004148794101408156], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936467023874], ["'autoclave' (unit, GLO, None)", 0.08993448106655916], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814078271365], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071013090475], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846781297755e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213625888988e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089887957847e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246400431174e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004148794101408156], ["'wet wipe' (unit, GLO, None)", 0.003228268628697324], ["'autoclave' (unit, GLO, None)", 0.08993448106655916], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814078271365], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071013090475], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846781297755e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213625888987e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263611198502803e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331436269864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314370496915], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740100918857869]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108041671945242], ["'autoclave' (unit, GLO, None)", 0.040443095539307625], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000082785601683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180039719747834e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384760551547], ["'mixed heating grid' (megajoule, GLO, None)", -0.008082808461866826], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099419903396036], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994610762101936], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944005240638078], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769656158982256], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008515216573514e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108041671945242], ["'autoclave' (unit, GLO, None)", 0.040443095539307625], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.85794941848385e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.146320080390521e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589840367698], ["'mixed heating grid' (megajoule, GLO, None)", -0.05388538974577884], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008515216573514e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.928995405642347e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.713057860364255e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.016962645415805465], ["'mixed heating grid' (megajoule, GLO, None)", -0.028696585145308377], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003124008913207494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114882850729709], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104177644703904], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695677791262608], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197443936620161], ["'autoclave' (unit, GLO, None)", 0.053924127385743495], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233660333757325e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.4655309161695185e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150955067723], ["'mixed heating grid' (megajoule, GLO, None)", -0.15416312195671522], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68375163914544e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001155830969464858], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330606117824], ["'autoclave' (unit, GLO, None)", 0.08088619107861528], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00034544550904095907], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479558607765], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554125447721195e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051276105378148e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934833162057e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018004038562]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001155830969464858], ["'wet wipe' (unit, GLO, None)", 0.012616880260316711], ["'autoclave' (unit, GLO, None)", 0.08088619107861528], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00034544550904095907], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479558607765], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554125447721195e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051276105378148e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027433960638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180039719747834e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000967298250417596], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324934035858]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0006870474220138363], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665303058912], ["'autoclave' (unit, GLO, None)", 0.06066464330896144], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336867439035], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266567596680656], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825089544239e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.45298150290861e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967416581008e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509002019281e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0006870474220138363], ["'wet wipe' (unit, GLO, None)", 0.012616880260316711], ["'autoclave' (unit, GLO, None)", 0.06066464330896144], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336867439035], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266567596680656], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825089544239e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452981502908609e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027433960638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180039719747834e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432830010172], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479844015665]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00243454514727293], ["'autoclave' (unit, GLO, None)", 0.004683569076034196], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279653391472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283869733355e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.625517477783216e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010323533463151836], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564409219538], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590749571880886], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179600797265289], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092918730014434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.1447087648750825e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00243454514727293], ["'autoclave' (unit, GLO, None)", 0.004683569076034196], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.83808276066163e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221443390964e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083678318522144], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006882355642101225], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.1447087648750825e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.9182240513809497e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.3217783423323614e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008176101187895473], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003665188386232701], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003485440313853181], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003488478026488422], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003668958149382528], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533216543666038], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00696403180333664], ["'autoclave' (unit, GLO, None)", 0.0062447587680455946], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001926220495961023], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533646528485e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822233242376209], ["'mixed heating grid' (megajoule, GLO, None)", -0.001969003912207674], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370821590819e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003624060838761254], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776281160963055], ["'autoclave' (unit, GLO, None)", 0.009367138152068395], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914568725408], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291154449285], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169034545624e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907848231563e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765089353551194e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330636014409346e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003624060838761254], ["'wet wipe' (unit, GLO, None)", 0.0004352277176660198], ["'autoclave' (unit, GLO, None)", 0.009367138152068395], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914568725408], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291154449285], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169034545624e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907848231563e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697731828074e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283869733355e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662438069311594e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405935262291795]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000209672941297061], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888140580481528], ["'autoclave' (unit, GLO, None)", 0.007025353614051294], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275277495222], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937686249225], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338069091248e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101635976143852e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825446767755865e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665318007204673e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000209672941297061], ["'wet wipe' (unit, GLO, None)", 0.0004352277176660198], ["'autoclave' (unit, GLO, None)", 0.007025353614051294], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275277495222], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937686249225], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338069091248e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163597614385e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697731828074e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283869733355e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623612622543849e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319282082219748]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145822980755e-08], ["'autoclave' (unit, GLO, None)", 2.421308690851839e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330465339373e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374933575073e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973086204129e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1820111108563007e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281402942205742e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566716155637832e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932743844862184e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481257663990397e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450889772335e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145822980755e-08], ["'autoclave' (unit, GLO, None)", 2.421308690851839e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172551767248e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928052026679e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315390802752e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.880074072375339e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450889772335e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.640141243923206e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.249281057932293e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.153927622368194e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.1965218705125913e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.582514073137378e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099037133717e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.4020232490025005e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741199341969127e-08], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684922716259e-07], ["'autoclave' (unit, GLO, None)", 3.228411587802452e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655075400704e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8255092756449e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.79830736836839e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.2544456409776875e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.0908675157928255e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 9.839563951592144e-09], ["'mechanical disinfection' (unit, GLO, None)", 2.274198630079557e-07], ["'autoclave' (unit, GLO, None)", 4.842617381703679e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.208554010816505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680777562007e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.606821897089701e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.0319273657770415e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030451068302e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016347412517e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 9.839563951592144e-09], ["'wet wipe' (unit, GLO, None)", 1.0677192354899264e-07], ["'autoclave' (unit, GLO, None)", 4.842617381703679e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.208554010816505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680777562007e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.606821897089701e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.0319273657770415e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749536134e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374933575073e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793549182634e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458496969927e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 5.806816869226039e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993150397785e-07], ["'autoclave' (unit, GLO, None)", 3.631963036277759e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3187138875681114e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058903564e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794179402e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980791091265e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015225534141e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508173706259e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 5.806816869226039e-09], ["'wet wipe' (unit, GLO, None)", 1.0677192354899264e-07], ["'autoclave' (unit, GLO, None)", 3.631963036277759e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138875681114e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058903564e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794179402e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298079109126e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749536134e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374933575073e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073396927303e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243415232864e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847769241062], ["'autoclave' (unit, GLO, None)", 0.0002658427024176084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864294982773e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489100765595e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498113174865234e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.879640377790926e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001442707514838082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698840896516682e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742407797675482e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560532382534006e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759223476345e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847769241062], ["'autoclave' (unit, GLO, None)", 0.0002658427024176084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881915362401e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5977675011528327e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998742116576823e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001253093585193951], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759223476345e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.6690101695138135e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.0806953340842942e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.628196069854379e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.673331478571122e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004060600621233012], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4142142504079334e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.428593270551486e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000212972743169972], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184061299807], ["'autoclave' (unit, GLO, None)", 0.0003544569365568112], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568775668737e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221220804267e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001957978241e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00035850314920022556], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894119953273e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.074831723215986e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591706057289], ["'autoclave' (unit, GLO, None)", 0.000531685404835217], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175307507383e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801795974301e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383943783006516e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483231248481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997279568172e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155447051317637e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.074831723215986e-05], ["'wet wipe' (unit, GLO, None)", 7.631932858405389e-05], ["'autoclave' (unit, GLO, None)", 0.000531685404835217], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175307507383e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801795974301e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383943783006516e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483231248481e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437105312858e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489100765595e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.779742077153171e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.8946435498558908e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.800135365365033e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958530286444], ["'autoclave' (unit, GLO, None)", 0.00039876405362641263], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316035658303e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137374504797e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767887566013032e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312886133245e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498639784078e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.5777235256588185e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.800135365365033e-05], ["'wet wipe' (unit, GLO, None)", 7.631932858405389e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405362641263], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316035658303e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137374504797e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767887566013032e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312886133243e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437105312858e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489100765595e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267090755339e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.8788663145993024e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956145139557], ["'autoclave' (unit, GLO, None)", 0.0004601527922365908], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2088401485917785e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229277862424e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831850142114e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.7447212807922524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488835716379], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499829418439082e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028042166066375e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001444347284245632], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075036577925e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956145139557], ["'autoclave' (unit, GLO, None)", 0.0004601527922365908], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817808412734e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3736997110146625e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0158879000947423e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003163147520528168], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075036577925e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1918491261900085e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5267499379970068e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015950596374067743], ["'mixed heating grid' (megajoule, GLO, None)", -0.00016845295650314625], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349372049411], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1601428346758404e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.719589043147917e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00040685838992834706], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931898423081], ["'autoclave' (unit, GLO, None)", 0.0006135370563154544], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.86699093194725e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864328916245e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001721112279962464], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009049590237258424], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817904694793e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.545269851992256e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004533713197063646], ["'autoclave' (unit, GLO, None)", 0.0009203055844731819], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175421777716e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184352937741], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683584189244e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7899726158783347e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876140114732e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202786500934e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.545269851992256e-05], ["'wet wipe' (unit, GLO, None)", 0.0010932762471389135], ["'autoclave' (unit, GLO, None)", 0.0009203055844731819], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.696175421777716e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184352937741], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683584189244e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7899726158783347e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945294028566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229277862424e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.09585951220589e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593349628998e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.658480970397909e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002266856598531823], ["'autoclave' (unit, GLO, None)", 0.0006902291883548863], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758132675397e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976734023962e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367168378489e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402567011291e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.57438070057364e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.982601393250467e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.658480970397909e-05], ["'wet wipe' (unit, GLO, None)", 0.0010932762471389135], ["'autoclave' (unit, GLO, None)", 0.0006902291883548863], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758132675397e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976734023962e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367168378489e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025670112908e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945294028566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229277862424e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115705200175e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767335696493e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725298927011], ["'autoclave' (unit, GLO, None)", 0.00047168213823721124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814557339674e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.08515087671891e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223467204363e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9117910224268365e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610589991283], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007678911044794e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486659246712748e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001523781980325215], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192644725487e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725298927011], ["'autoclave' (unit, GLO, None)", 0.00047168213823721124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.808690033374924e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3916556764905026e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482311469575e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003274527348284558], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192644725487e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.198638141003665e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.534875815083047e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016310113001095518], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017438447286734102], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973863907779004], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3129907402173644e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577419188859582e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004292343606549902], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208250134898], ["'autoclave' (unit, GLO, None)", 0.000628909517649615], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.91180291091528e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.021695451377469e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599050916616035], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009368241768794785], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687302557633e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.824432710809573e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415411498038], ["'autoclave' (unit, GLO, None)", 0.0009433642764744228], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526634632262e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433577473619], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019703901984e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480333238216e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205161296843e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671183452921e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.824432710809573e-05], ["'wet wipe' (unit, GLO, None)", 0.0016909050539966432], ["'autoclave' (unit, GLO, None)", 0.0009433642764744228], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526634632262e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433577473619], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019703901984e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480333238216e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091498514542e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.08515087671891e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874588448635e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9509966315036245e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.820709686405104e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002322707705749019], ["'autoclave' (unit, GLO, None)", 0.0007075232073558169], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480896768537e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971402383388e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039407803968e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615989124527e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102580648402e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.1228355917264604e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.820709686405104e-05], ["'wet wipe' (unit, GLO, None)", 0.0016909050539966432], ["'autoclave' (unit, GLO, None)", 0.0007075232073558169], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480896768537e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971402383388e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039407803968e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615989124527e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091498514542e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.08515087671891e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423562642174e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.90976827558636e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00200086931258645], ["'autoclave' (unit, GLO, None)", 0.003992612994906825], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287077190707e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865550690598e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331533377441e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.984667288679897e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391677392104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.831083377310191e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813648214337e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611258426553132], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.650765693278987e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00200086931258645], ["'autoclave' (unit, GLO, None)", 0.003992612994906825], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209182061123], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.11056690416074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887688918293], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004656444859119932], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.650765693278987e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.391882228400733e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.025811712089181e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013630610458858158], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002479782868873768], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135515838705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.520736378312225e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892557894633e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806361764938402], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781219869447], ["'autoclave' (unit, GLO, None)", 0.0053234839932090995], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000289893216396088], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.34544913357912e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795554444725], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013321831392292362], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.038619733625889e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007217857451975864], ["'mechanical disinfection' (unit, GLO, None)", 0.00366884684021422], ["'autoclave' (unit, GLO, None)", 0.007985225989813651], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.155955399974727e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002531858846473429], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378032340542e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856090911018e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400958733362e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725513061387975e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007217857451975864], ["'wet wipe' (unit, GLO, None)", 0.009527755133594933], ["'autoclave' (unit, GLO, None)", 0.007985225989813651], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955399974727e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002531858846473429], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378032340542e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856090911018e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2391943161962416e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865550690598e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882899911283e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418466610939e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004263984214761821], ["'mechanical disinfection' (unit, GLO, None)", 0.00183442342010711], ["'autoclave' (unit, GLO, None)", 0.005988919492360237], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.4814951661672077e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001514185401924304], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756064681084e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.142597237548392e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700479366664e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756530693988e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004263984214761821], ["'wet wipe' (unit, GLO, None)", 0.009527755133594933], ["'autoclave' (unit, GLO, None)", 0.005988919492360237], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.4814951661672077e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001514185401924304], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756064681084e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.142597237548392e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2391943161962416e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865550690598e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155895117635e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.981790901303998e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221222469622e-09], ["'autoclave' (unit, GLO, None)", 1.3973319604842483e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993166028649e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021613716151e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.773580270072103e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2586660417404974e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.56138924333358e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950212688486957e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.99033745973377e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076440839746594e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066789042148e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221222469622e-09], ["'autoclave' (unit, GLO, None)", 1.3973319604842483e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892661570412e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613498322609e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8490535133814019e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.391106944936651e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066789042148e-13]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.2515429245856832e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.8943010191858845e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.902602368227993e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.468671676029327e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.565291674448193e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.86957216923259e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652045140243e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.66603053449745e-10], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876189664326e-09], ["'autoclave' (unit, GLO, None)", 1.8631092806456644e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4861669469212432e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015902787498e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039909384532e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.400649321471121e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.372411722578763e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.090138847982693e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.386085120613532e-09], ["'autoclave' (unit, GLO, None)", 2.794663920968498e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230902309404e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776897695542e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578690864833e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596166051657942e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656149010310995e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.112986131246785e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.090138847982693e-10], ["'wet wipe' (unit, GLO, None)", 5.606174954047958e-10], ["'autoclave' (unit, GLO, None)", 2.794663920968498e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230902309404e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776897695542e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578690864833e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596166051657942e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637254055184e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021613716151e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957188145083413e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.268712635450489e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.406434685017515e-11], ["'mechanical disinfection' (unit, GLO, None)", 6.93042560306766e-10], ["'autoclave' (unit, GLO, None)", 2.0959979407263727e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782520269286e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154472891632e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157381729667e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.60991678935528e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3280745051554914e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930656233924e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.406434685017515e-11], ["'wet wipe' (unit, GLO, None)", 5.606174954047958e-10], ["'autoclave' (unit, GLO, None)", 2.0959979407263727e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782520269286e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154472891632e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157381729667e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167893552797e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637254055184e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021613716151e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.772438069456793e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.258147704794255e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592759521732e-07], ["'autoclave' (unit, GLO, None)", 5.87599154769691e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9997296465125097e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659087842687e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006546351372e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8600585705488546e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966021703339875e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1047817839828924e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947444683556e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524006879971504e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452959331672e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592759521732e-07], ["'autoclave' (unit, GLO, None)", 5.87599154769691e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748121718522e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827666845535e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.34533769756758e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9067057136992365e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452959331672e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.494561522367201e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.091122737605527e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.68241034660009e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.015413326661562e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317366834071e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3250713886863754e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.5121175933778525e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499720247879298e-07], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896822194292e-06], ["'autoclave' (unit, GLO, None)", 7.834655396929213e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971301892542e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096642419769e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660462357217e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.454979668206027e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016488731562e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.67209843709234e-08], ["'mechanical disinfection' (unit, GLO, None)", 5.68237461799353e-07], ["'autoclave' (unit, GLO, None)", 1.1751983095393824e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176899466179e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194700164466e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678874517703e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435756218413e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357374086535e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324492529044e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.67209843709234e-08], ["'wet wipe' (unit, GLO, None)", 1.4084972665738484e-07], ["'autoclave' (unit, GLO, None)", 1.1751983095393824e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176899466179e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194700164466e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678874517703e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435756218413e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571292967518e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659087842687e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978679966717e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828873793767706e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.331159457717054e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.841187308996765e-07], ["'autoclave' (unit, GLO, None)", 8.813987321545365e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649386508755e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.82324578730281e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535774903541e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.593182904043995e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178687043247e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.400662246264522e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.331159457717054e-08], ["'wet wipe' (unit, GLO, None)", 1.4084972665738484e-07], ["'autoclave' (unit, GLO, None)", 8.813987321545365e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2684649386508755e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.82324578730281e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535774903541e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931829040439948e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571292967518e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659087842687e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086893096307e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880756914125e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518798786298], ["'autoclave' (unit, GLO, None)", 0.01175889008273985], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792122422208e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045757060557e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002276880795080718], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011548500312195762], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040999563841021096], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003750617480719536], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00035742176544661567], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411172424226305], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639081925526e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518798786298], ["'autoclave' (unit, GLO, None)", 0.01175889008273985], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039632635295], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098408608279e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001517920530053812], ["'mixed heating grid' (megajoule, GLO, None)", -0.007699000208130509], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639081925526e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.104500012237317e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.318021150525617e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004024632457399683], ["'mixed heating grid' (megajoule, GLO, None)", -0.004100091250127242], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612339360242], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288266204107342], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00107669004996986], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059640631623394], ["'waste paper, unsorted, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490921471], ["'autoclave' (unit, GLO, None)", 0.0156785201103198], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00033693069387705064], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.205612863115836e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686744946834], ["'mixed heating grid' (megajoule, GLO, None)", -0.02202641409165601], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319789446534e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997395473994515], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780294786007], ["'autoclave' (unit, GLO, None)", 0.02351778016547971], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004665576251325416], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558711559351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056476907597e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.5468676257651855e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223145639608964e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9387049612163765e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997395473994515], ["'wet wipe' (unit, GLO, None)", 0.012392257743876213], ["'autoclave' (unit, GLO, None)", 0.02351778016547971], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576251325416], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558711559351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056476907597e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.5468676257651855e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.956229743330914e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045757060557e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950547153388837], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679720194968]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001148233448590862], ["'mechanical disinfection' (unit, GLO, None)", 0.005681890147393003], ["'autoclave' (unit, GLO, None)", 0.017638335124109776], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786612416232], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994778818528], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670112953815193e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9354519151975776e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157281980443e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524806081883e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001148233448590862], ["'wet wipe' (unit, GLO, None)", 0.012392257743876213], ["'autoclave' (unit, GLO, None)", 0.017638335124109776], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786612416232], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994778818528], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670112953815193e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451915197577e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.956229743330914e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045757060557e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759431425190845], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744472134146]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858214633804], ["'autoclave' (unit, GLO, None)", 0.0007684225641135926], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228683795798e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.111536364324578e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.328827151978546e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326774589106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135546214125e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594234910401e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001735396243605526], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043694156871e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858214633804], ["'autoclave' (unit, GLO, None)", 0.0007684225641135926], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516229434595e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804412738314e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242428830519e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00028858847679856975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043694156871e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429295582987], ["'autoclave' (unit, GLO, None)", 0.0010245634188181234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.96643298242068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33689498183068e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800441065960224e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012384535238743187], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985954969339], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361573003168724e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140491671771e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440122832468], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6190659117237426e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429295582987], ["'autoclave' (unit, GLO, None)", 0.0010245634188181234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735857562245e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176294896411e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000212002940439735], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008256356825828791], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6190659117237426e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 7.630677128332186e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930176259012], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992125239635e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020348024132e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 7.630677128332186e-05], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085781413622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379579862093e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.479861831343849e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003631465088129506], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155524e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960626198152e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510174012066e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.479861831343849e-05], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155522e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786175151667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044478121972e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010125521857], ["'autoclave' (unit, GLO, None)", 0.217815070164729], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149322913], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296255622591], ["'mixed heating grid' (megajoule, GLO, None)", -0.012677318349180736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404544588], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009990034892], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00463256623166678], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699365581557], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080215760809]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010125521857], ["'autoclave' (unit, GLO, None)", 0.217815070164729], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1811125274394324], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02195708934054955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308370817272], ["'mixed heating grid' (megajoule, GLO, None)", -0.08451545566120491], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080215760809]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726044278589], ["'autoclave' (unit, GLO, None)", 0.290420093552972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424527891], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502119397], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471451409217], ["'mixed heating grid' (megajoule, GLO, None)", -0.03626910715444814], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4043884582327483], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437834085599], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048208184658], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026381919883], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864284711922]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726044278589], ["'autoclave' (unit, GLO, None)", 0.290420093552972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510176133632204], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893508047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314300939484], ["'mixed heating grid' (megajoule, GLO, None)", -0.24179404769632087], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864284711922]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02301679233296458], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803816600085], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391715739775e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002128205335243487]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02301679233296458], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999569056329], ["'mixed heating grid' (megajoule, GLO, None)", -0.01277850791222823]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01349444465976932], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019083000425], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045358821014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695857869877e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026676217435]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01349444465976932], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045358821013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402610477641], ["'mixed heating grid' (megajoule, GLO, None)", -0.012672097645466054]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919622672731], ["'autoclave' (unit, GLO, None)", 0.04364214572201726], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505907635224], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004208238122], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045513873065171475], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895306906989], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787991490073], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776497327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427493622135], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337597527167e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919622672731], ["'autoclave' (unit, GLO, None)", 0.04364214572201726], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181701878], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169374219105], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386694721587479], ["'mixed heating grid' (megajoule, GLO, None)", -0.0030342582043447652], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337597527167e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264039121851], ["'autoclave' (unit, GLO, None)", 0.05818952762935635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0040575114859939], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455458163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497612018376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013021267540554693], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194904009506427], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546382154588], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981665101988], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007744682292], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.949157436764849e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264039121851], ["'autoclave' (unit, GLO, None)", 0.05818952762935635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403296304], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421035700115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331741345587], ["'mixed heating grid' (megajoule, GLO, None)", -0.008680845027036461], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.949157436764849e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001941427841910875], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851153299488], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6300006901504435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640643298284963e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001941427841910875], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018425521916], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716195649773]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001150533121508346], ["'mechanical disinfection' (unit, GLO, None)", 0.02214425576649744], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000345075216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.820321649142482e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001150533121508346], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000275686842207117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549512979158348]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273939296563], ["'autoclave' (unit, GLO, None)", 0.054955643870441356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801418115924], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829894254707], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006069879727702365], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720446157839], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363943428096], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776381654], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673650481523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.40918625568e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273939296563], ["'autoclave' (unit, GLO, None)", 0.054955643870441356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373895909403], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733002671696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978865961698046], ["'mixed heating grid' (megajoule, GLO, None)", -0.00404658648513491], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.40918625568e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605910557022], ["'autoclave' (unit, GLO, None)", 0.07327419182725514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372240085281], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755375349363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290331539988251], ["'mixed heating grid' (megajoule, GLO, None)", -0.001736559043442153], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848937861469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0020458085654977763], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618803680633], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04880770846426827], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0090457084060763e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605910557022], ["'autoclave' (unit, GLO, None)", 0.07327419182725514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491805466], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183669305503], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00686022102665884], ["'mixed heating grid' (megajoule, GLO, None)", -0.011577060289614352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0090457084060763e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002527724467967794], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285203780137], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179652884423e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189813070062463e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002527724467967794], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255395657586355], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118329128473051]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001498011918359469], ["'mechanical disinfection' (unit, GLO, None)", 0.027851426018900685], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396224264305e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898264422035e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094906535031232e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001498011918359469], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4103962242643036e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953486674942224], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380063122738]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796752987794], ["'autoclave' (unit, GLO, None)", 2.2736773098848326], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229008129611], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779095697553312], ["'mixed heating grid' (megajoule, GLO, None)", -0.05596459113224417], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276612678231], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713254497411], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420197980487709], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437291162803], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823717803454]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796752987794], ["'autoclave' (unit, GLO, None)", 2.2736773098848326], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619248385068], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642100826774061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063798368874], ["'mixed heating grid' (megajoule, GLO, None)", -0.37309727421496114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823717803454]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.926021819241528], ["'autoclave' (unit, GLO, None)", 3.03156974651311], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882144516563], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029057932876020095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.039421231255761024], ["'mixed heating grid' (megajoule, GLO, None)", -0.16011160221131587], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314969458596], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321445574732], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934769282093], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.382095011595156], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0019364982665523117]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.926021819241528], ["'autoclave' (unit, GLO, None)", 3.03156974651311], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054220803012], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514589204865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280820837174035], ["'mixed heating grid' (megajoule, GLO, None)", -1.0674106814087725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0019364982665523117]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.110795081682282], ["'mechanical disinfection' (unit, GLO, None)", 2.276328294479558], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662525662357], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058020299649]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.110795081682282], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01388907957856193], ["'mixed heating grid' (megajoule, GLO, None)", -0.056411297002273014]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.065355460525968], ["'mechanical disinfection' (unit, GLO, None)", 1.138164147239779], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303634990213976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831262831147], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046975290101498244]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.065355460525968], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303634990213973], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421265933651], ["'mixed heating grid' (megajoule, GLO, None)", -0.055941544101258026]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.149743328893983], ["'autoclave' (unit, GLO, None)", 0.05605607004512776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298428892488e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278680938311], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036679319029798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569841385924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396970009272], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896051830252], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01949173626096295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.6527921437680975e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.149743328893983], ["'autoclave' (unit, GLO, None)", 0.05605607004512776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00030830578359940805], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475108473074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185787292208], ["'mixed heating grid' (megajoule, GLO, None)", -0.02445287935319867], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.6527921437680975e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085116133038], ["'autoclave' (unit, GLO, None)", 0.07474142672683702], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274990228263], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.639331926668007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812210258231], ["'mixed heating grid' (megajoule, GLO, None)", -0.010493750457326836], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.291239548515829], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.003175964136604732], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.003148809127030021], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629932665621], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013236899168504808]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085116133038], ["'autoclave' (unit, GLO, None)", 0.07474142672683702], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669960546707], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270271741445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541473505489], ["'mixed heating grid' (megajoule, GLO, None)", -0.0699583363821789], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013236899168504808]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006855980826970998], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788894106479], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342762449844e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542179049146e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006855980826970998], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638855153734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091062752806]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003970127350554585], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944470532396], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061487932432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171381224895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771089524573e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003970127350554585], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001456206148793243], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307141341514], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036664213953800343]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664503214043e-05], ["'autoclave' (unit, GLO, None)", 0.00021319075356469573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850786732037e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177888489323e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22552160951556e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.347469980792058e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887945074303e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066621231648e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932422490974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361498412565e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664503214043e-05], ["'autoclave' (unit, GLO, None)", 0.00021319075356469573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801686036055838e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907047995257953e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.404878525899288e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.15034773967704e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361498412565e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287129700997], ["'autoclave' (unit, GLO, None)", 0.000284254338086261], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296998485802e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.556284443521135e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336826783554e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.228039058596967e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117495606786e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419121614536926e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604663067029e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093640138305e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025312364839e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287129700997], ["'autoclave' (unit, GLO, None)", 0.000284254338086261], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328693059312223e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520647814981e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224551189042e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.152026039064644e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025312364839e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.347005039357743e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000200489064287394], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786210214699e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.4148457183437326e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.347005039357743e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111174072281e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2512675214881992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 7.972026912718201e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.000100244532143697], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268996e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893105107342e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7074228591718663e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 7.972026912718201e-06], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268995e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832243021216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22419329289648e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.73726858284468e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545740251284], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205551908717e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968774234943e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9723556601876315e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034310153005e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238698328976e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596878281645e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265242495796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274710464641e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.73726858284468e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545740251284], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.840136394257186e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327375023565e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979182823295e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.981570440125088e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274710464641e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.24180663448635e-05], ["'autoclave' (unit, GLO, None)", 0.00019660727653668378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2120582076900386e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5505663086420255e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246438750494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.503745269396224e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447561688922e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.790071841244643e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.228547065121981e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.64300068308675e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1838515711100356e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.24180663448635e-05], ["'autoclave' (unit, GLO, None)", 0.00019660727653668378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384209175173e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398832601934e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497625833666e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.669163512930815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1838515711100356e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 2.894577038711986e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238678986488e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.40218195316179e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.9898432775897706e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 2.894577038711986e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227887271044e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9960808173692813e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.716879487789784e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.418619339493244e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4024796483068134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201090976580889e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949216387948853e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.716879487789784e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479648306813e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216977505241e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711316009813323e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520051077075], ["'autoclave' (unit, GLO, None)", 0.02035942297630052], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405914536631e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686889257492295], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005041087987441027], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564572251117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835612297163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651097635892], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350510590725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251052096326e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520051077075], ["'autoclave' (unit, GLO, None)", 0.02035942297630052], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213270393465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130323586052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002445792617166153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033607253249606853], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251052096326e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0280666650536483], ["'autoclave' (unit, GLO, None)", 0.02714589730173403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121421538314], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.238921425666865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495916257631484], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014422274124189331], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800948388906], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204270020586], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089276234667], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0216347901706781], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164093974160114e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0280666650536483], ["'autoclave' (unit, GLO, None)", 0.02714589730173403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403578573144], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993684530196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0069972775050876615], ["'mixed heating grid' (megajoule, GLO, None)", -0.00961484941612622], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164093974160114e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001756120151760715], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979378834137], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813031332283e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462728516237954e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001756120151760715], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972171553153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081325636814729]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001037048909272714], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989689417069], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530471684578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794065156661335e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364258118977e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001037048909272714], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304716845774e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781063965004], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039011994233539]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.152659716618304], ["'autoclave' (unit, GLO, None)", 0.6181740082777769], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663925910704], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041644729793], ["'mixed heating grid' (megajoule, GLO, None)", -0.013758022951621617], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0695701038957765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500359997291647], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156713401707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885317655177], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00025494172881542924]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.152659716618304], ["'autoclave' (unit, GLO, None)", 0.6181740082777769], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468586351963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242212395771], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043360277631531954], ["'mixed heating grid' (megajoule, GLO, None)", -0.09172015301081078], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00025494172881542924]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104019143154], ["'autoclave' (unit, GLO, None)", 0.8242320110370358], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049062394107952746], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699970025], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018607703684032088], ["'mixed heating grid' (megajoule, GLO, None)", -0.03936094329428654], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989507089414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316496703013], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835216437054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784596522587], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930829274394]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104019143154], ["'autoclave' (unit, GLO, None)", 0.8242320110370358], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855310412], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727709098588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135789354735], ["'mixed heating grid' (megajoule, GLO, None)", -0.26240628862857696], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930829274394]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03730513521844646], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082777195216], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662565458347], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002309628664482948]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03730513521844646], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956498797908], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867838631288758]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02205021877560415], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541388597608], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030689824669e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593312827291595e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001154814332241474]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02205021877560415], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030689824667], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363185970632], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752357198064608]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457586398], ["'autoclave' (unit, GLO, None)", 0.059956320710927866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908205923033e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064962792397], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008743701876410798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495609046104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568714889945], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000851883184090707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512588542114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814513891434798e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457586398], ["'autoclave' (unit, GLO, None)", 0.059956320710927866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668675346294712e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.098308247260757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376641861598], ["'mixed heating grid' (megajoule, GLO, None)", -0.005829134584273866], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814513891434798e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183544241259], ["'autoclave' (unit, GLO, None)", 0.07994176094790383], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381138915390562e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229894756384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041810083772], ["'mixed heating grid' (megajoule, GLO, None)", -0.0025015247826649916], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463995923573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051471998866], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661955614286773], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933123532991], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197546831772114e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183544241259], ["'autoclave' (unit, GLO, None)", 0.07994176094790383], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302914449216e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280689822637e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612067225167], ["'mixed heating grid' (megajoule, GLO, None)", -0.016676831884433276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197546831772114e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006970986104468701], ["'mechanical disinfection' (unit, GLO, None)", 0.061807872925342115], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179755170384e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678493093421848e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006970986104468701], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525256920195], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493558525395]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004148794101802159], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936462671058], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213366654751e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089877585162e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246546710924e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004148794101802159], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.01821336665475e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314358144376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740101093058285]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004108042018290453], ["'autoclave' (unit, GLO, None)", 0.04044309541691041], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124318125445e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384757294665], ["'mixed heating grid' (megajoule, GLO, None)", -0.008082808463136144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414875753515], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994619230428274], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944015997324502], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670280652626], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008508185245992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004108042018290453], ["'autoclave' (unit, GLO, None)", 0.04044309541691041], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521743802865e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463194320777884e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589838196444], ["'mixed heating grid' (megajoule, GLO, None)", -0.05388538975424097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008508185245992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0119744476001613], ["'autoclave' (unit, GLO, None)", 0.053924127222547205], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929007166721504e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054926459316e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726423283807], ["'mixed heating grid' (megajoule, GLO, None)", -0.023124468297138732], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003124007498142546], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885399449287], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104180885026224], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681769197924], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68374963877726e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0119744476001613], ["'autoclave' (unit, GLO, None)", 0.053924127222547205], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233668096845878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528963205441e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150948855887], ["'mixed heating grid' (megajoule, GLO, None)", -0.15416312198092488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68374963877726e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001155830870585628], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330493791288], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934827694568e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018006169428]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001155830870585628], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982500893081], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324935315309]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00068704738509568], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665246895644], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281104e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967413847262e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509003084714e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00068704738509568], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281103e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432826754631], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479845284461]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545169495901], ["'autoclave' (unit, GLO, None)", 0.004683568686210197], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279870414875e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.62551669375104e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010323529266093976], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564733149484], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752173994117], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001217959640684331], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924072118645], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.144708783808093e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545169495901], ["'autoclave' (unit, GLO, None)", 0.004683568686210197], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082904667814e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221359290549e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083677795834027], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006882352844062652], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.144708783808093e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031591221167], ["'autoclave' (unit, GLO, None)", 0.006244758248280263], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241128371094e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.321778304273164e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001323334762049158], ["'mixed heating grid' (megajoule, GLO, None)", -0.00029535046675564536], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404050255173], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003488478809648715], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00036689568268207494], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218048484126], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370875454037e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031591221167], ["'autoclave' (unit, GLO, None)", 0.006244758248280263], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001926220536526145], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533393186108e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822231746994394], ["'mixed heating grid' (megajoule, GLO, None)", -0.001969003111704302], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370875454037e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003624060465524919], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776279128227595], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088037356859e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330628968596752e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003624060465524919], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662437279021322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405931031733283]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020967293365826], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888139564113798], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101636035399382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440186784193e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665314484298376e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020967293365826], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163603539938e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611838834549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319277886890298]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.656145841239028e-08], ["'autoclave' (unit, GLO, None)", 2.421308690533102e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330484217607e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973076744023e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.182011106813487e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403140043337e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718257253284e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744191684893e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261573276905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450882519967e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.656145841239028e-08], ["'autoclave' (unit, GLO, None)", 2.421308690533102e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172564293926e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928055954318e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0753153844960155e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.880074045423247e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450882519967e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684926332336e-07], ["'autoclave' (unit, GLO, None)", 3.2284115873774687e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.640141249269099e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059709726e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461025487736e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.381668449900265e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.582514128820145e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099669658755e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023353478667e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200443176595e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.090867513729573e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684926332336e-07], ["'autoclave' (unit, GLO, None)", 3.2284115873774687e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655110687124e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509276828054e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307350325164e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.254445633266843e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.090867513729573e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 9.839563813040561e-09], ["'mechanical disinfection' (unit, GLO, None)", 2.2741986269012074e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030435187147e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016279543764e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 9.839563813040561e-09], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793539647018e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458456219096e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 5.806816835771206e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993134506037e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298076839319e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015217593563e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508139771882e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 5.806816835771206e-09], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980768393186e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073387471093e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243374821375e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847791470814], ["'autoclave' (unit, GLO, None)", 0.0002658427006291776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864372981583e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.749811241755736e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.879640337843878e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075364068306], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842721702835e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408006973283e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535754524652e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759220813609e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847791470814], ["'autoclave' (unit, GLO, None)", 0.0002658427006291776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881967118621e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.597767500332517e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998741611704908e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012530935585625854], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759220813609e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184120180913], ["'autoclave' (unit, GLO, None)", 0.00035445693417223675], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.669010191601327e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0806953337130646e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728002720305756e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.3775471237170866e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004060600681939755], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4142147997358046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933335999297e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283815562403], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894112377957e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184120180913], ["'autoclave' (unit, GLO, None)", 0.00035445693417223675], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568921460904e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221218333165e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001813537176e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003585031415811391], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894112377957e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.074831643384513e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591683848763], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997152435081e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155446984256514e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.074831643384513e-05], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420008179055e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.894643509589988e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.800135334484244e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958419243815], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799555e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498576217533e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.577723492128257e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.800135334484244e-05], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799553e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267015055739e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.878866274668705e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956178185733], ["'autoclave' (unit, GLO, None)", 0.000460152790627355], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.20884016528869e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831660019575e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.744721197879222e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888727981984], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499831269229004e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043422234465e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001444347689943862], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075035477947e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956178185733], ["'autoclave' (unit, GLO, None)", 0.000460152790627355], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817919205325e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.373699713225171e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887773346383e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003163147465252815], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075035477947e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931908322962], ["'autoclave' (unit, GLO, None)", 0.0006135370541698067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491309181993e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5267499389973608e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816683655506865e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001357438511867804], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349476418771], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1601433917097e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.719589421553436e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585042095386], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817901565425e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931908322962], ["'autoclave' (unit, GLO, None)", 0.0006135370541698067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990963156431e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864335575137e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001721112243700459], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009049590079118692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817901565425e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.545269723798892e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00045337131488831046], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876108197903e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202647310651e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.545269723798892e-05], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859320565806e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593266054161e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.658480926918063e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668565744415523], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402563568638e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380540989495e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.9826013236553254e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.658480926918063e-05], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025635686376e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115515155931e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767252817607e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006158725330556075], ["'autoclave' (unit, GLO, None)", 0.0004716821363126916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814575880577e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223267278228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.91179093702775e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610950024353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680832469371e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660480711446e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000152378239833042], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192632232941e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006158725330556075], ["'autoclave' (unit, GLO, None)", 0.0004716821363126916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.808690045677766e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655679062261e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482178185485e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003274527291351834], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192632232941e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00176320825929397], ["'autoclave' (unit, GLO, None)", 0.0006289095150835888], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381462540326e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758162468828e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.639857580294641e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014052362408870114], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864009112815], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991318510199e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.857742290613214e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00042923447840293523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687267017135e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00176320825929397], ["'autoclave' (unit, GLO, None)", 0.0006289095150835888], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802945571172e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954521521804e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001759905053529762], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009368241605913408], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687267017135e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.824432581476511e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415360238083], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204825670764e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671040089171e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.824432581476511e-05], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874386926703e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.950996545422889e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.820709643163117e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227076801190415], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.1686159852146775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74510241283536e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.122835520044586e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.820709643163117e-05], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615985214677e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423362798372e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9097681902224425e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869313433622], ["'autoclave' (unit, GLO, None)", 0.0039926129794473015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287096538017e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331496733316e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.984667181699403e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391694674742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837203065488e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813545081745e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259217534223], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507657267701685e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869313433622], ["'autoclave' (unit, GLO, None)", 0.0039926129794473015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209194899058], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669037559151e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887664488878], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046564447877996026], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507657267701685e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781208145086], ["'autoclave' (unit, GLO, None)", 0.005323483972596402], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822338794575e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025811710257167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693226830257], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019982746782373266], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135564481895], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.52073741063136e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892247220112e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.001580636399305415], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0386197431539182e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781208145086], ["'autoclave' (unit, GLO, None)", 0.005323483972596402], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321675772], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449132359634e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795484553516], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013321831188248844], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0386197431539182e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000721785743619718], ["'mechanical disinfection' (unit, GLO, None)", 0.003668846829095649], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400897217022e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725512881794428e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000721785743619718], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882862974667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418358776534e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004263984212110073], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234145478244], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700448608494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756440897214e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004263984212110073], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302836e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.7081558584886e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.98179079436756e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.012221229060956e-09], ["'autoclave' (unit, GLO, None)", 1.397331951325859e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171570859e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802468025443e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2586660327997482e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389234970516e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950213062270907e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903375918012382e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416352270907e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066692429913e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.012221229060956e-09], ["'autoclave' (unit, GLO, None)", 1.397331951325859e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665247952e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497643174e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.849053497868363e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.391106885331655e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066692429913e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.89887627140036e-09], ["'autoclave' (unit, GLO, None)", 1.863109268434479e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429261551126e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.89430101887841e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059797503871e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.600973956627692e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5652916720943507e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573294213409e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652442977595e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032775287581e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3724116950931934e-12]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.89887627140036e-09], ["'autoclave' (unit, GLO, None)", 1.863109268434479e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.48616694795717e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900740785e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039865002584e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.400649304418461e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3724116950931934e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.090138820981277e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.3860851035770505e-09], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148971247214e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.1129861162374985e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.090138820981277e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187910530466e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2687126264383752e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.406434577633651e-11], ["'mechanical disinfection' (unit, GLO, None)", 6.930425517885253e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180965e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074485623601e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930581187493e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.406434577633651e-11], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180963e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380461968172e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2581476958571877e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592795305003e-07], ["'autoclave' (unit, GLO, None)", 5.875991472549415e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.99972964773631e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006351812972e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8600584903498902e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022047831044e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782080356757e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947554940675e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012769507503e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452940337715e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592795305003e-07], ["'autoclave' (unit, GLO, None)", 5.875991472549415e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.990474812983907e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827664297703e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337567875315e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9067056602332603e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452940337715e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896829244402e-06], ["'autoclave' (unit, GLO, None)", 7.834655296732553e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152583273e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227374902262e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7230490136972196e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.182469272864237e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317463793506e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.325072280685385e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117626591482e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721906903522e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016434694956e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896829244402e-06], ["'autoclave' (unit, GLO, None)", 7.834655296732553e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60697130418002e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641652265e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.815366009131481e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.454979515242824e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016434694956e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.672098364103753e-08], ["'mechanical disinfection' (unit, GLO, None)", 5.682374562542722e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357047505117e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324357895e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.672098364103753e-08], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978483875525e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828872985376633e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.331159439628674e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.841187281271361e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178523752538e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4006621789475e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.331159439628674e-08], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993672e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086698638022e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880676748188e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518799270729], ["'autoclave' (unit, GLO, None)", 0.011758889889984074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792625564753e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768807396669936], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011548500126547406], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040999563863926454], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179353285547], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217494487765], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0064111732074657955], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639031856802e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518799270729], ["'autoclave' (unit, GLO, None)", 0.011758889889984074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039966496237], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098451002158e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179204931113292], ["'mixed heating grid' (megajoule, GLO, None)", -0.007699000084364937], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639031856802e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1635073490131902], ["'autoclave' (unit, GLO, None)", 0.015678519853312096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500154716001e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021169710742e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514029958884644], ["'mixed heating grid' (megajoule, GLO, None)", -0.003303962060635433], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612345807115], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267572348077], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010766900017782951], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01805964283793182], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319775202299e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1635073490131902], ["'autoclave' (unit, GLO, None)", 0.015678519853312096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307032815842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056128758864815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686639256433], ["'mixed heating grid' (megajoule, GLO, None)", -0.022026413737569552], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319775202299e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997395455025312], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780141121613], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223144709350846e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.938704930050651e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997395455025312], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546594828505], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679533064776]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001148233446049483], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818900705608065], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157235467537e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524650253255e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001148233446049483], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527334e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430871281805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744286562243]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -91,16 +91,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.002052429295582987], ["'autoclave' (unit, GLO, None)", 0.0010245634188181234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735857562245e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176294896411e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000212002940439735], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008256356825828791], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6190659117237426e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.630677128332186e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930176259012], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992125239635e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020348024132e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.630677128332186e-05], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085781413622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379579862093e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.479861831343849e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003631465088129506], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155524e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960626198152e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510174012066e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.479861831343849e-05], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155522e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786175151667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044478121972e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930176259012], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992125239635e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020348024132e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085781413622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379579862093e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'mechanical disinfection' (unit, GLO, None)", 0.0003631465088129506], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155524e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960626198152e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510174012066e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155522e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786175151667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044478121972e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.2476010125521857], ["'autoclave' (unit, GLO, None)", 0.217815070164729], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149322913], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296255622591], ["'mixed heating grid' (megajoule, GLO, None)", -0.012677318349180736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404544588], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009990034892], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00463256623166678], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699365581557], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080215760809]]</t>
@@ -115,16 +115,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.7085726044278589], ["'autoclave' (unit, GLO, None)", 0.290420093552972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510176133632204], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893508047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314300939484], ["'mixed heating grid' (megajoule, GLO, None)", -0.24179404769632087], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864284711922]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02301679233296458], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803816600085], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391715739775e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002128205335243487]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02301679233296458], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999569056329], ["'mixed heating grid' (megajoule, GLO, None)", -0.01277850791222823]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01349444465976932], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019083000425], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045358821014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695857869877e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026676217435]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01349444465976932], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045358821013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402610477641], ["'mixed heating grid' (megajoule, GLO, None)", -0.012672097645466054]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803816600085], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391715739775e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002128205335243487]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999569056329], ["'mixed heating grid' (megajoule, GLO, None)", -0.01277850791222823]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019083000425], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045358821014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695857869877e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026676217435]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045358821013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402610477641], ["'mixed heating grid' (megajoule, GLO, None)", -0.012672097645466054]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007638919622672731], ["'autoclave' (unit, GLO, None)", 0.04364214572201726], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505907635224], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004208238122], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045513873065171475], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895306906989], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787991490073], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776497327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427493622135], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337597527167e-05]]</t>
@@ -139,16 +139,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.02185264039121851], ["'autoclave' (unit, GLO, None)", 0.05818952762935635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403296304], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421035700115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331741345587], ["'mixed heating grid' (megajoule, GLO, None)", -0.008680845027036461], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.949157436764849e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001941427841910875], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851153299488], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6300006901504435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640643298284963e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001941427841910875], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018425521916], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716195649773]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001150533121508346], ["'mechanical disinfection' (unit, GLO, None)", 0.02214425576649744], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000345075216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.820321649142482e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001150533121508346], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000275686842207117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549512979158348]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851153299488], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6300006901504435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640643298284963e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018425521916], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716195649773]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'mechanical disinfection' (unit, GLO, None)", 0.02214425576649744], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000345075216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.820321649142482e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000275686842207117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549512979158348]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01007273939296563], ["'autoclave' (unit, GLO, None)", 0.054955643870441356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801418115924], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829894254707], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006069879727702365], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720446157839], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363943428096], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776381654], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673650481523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.40918625568e-05]]</t>
@@ -163,16 +163,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.02881605910557022], ["'autoclave' (unit, GLO, None)", 0.07327419182725514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491805466], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183669305503], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00686022102665884], ["'mixed heating grid' (megajoule, GLO, None)", -0.011577060289614352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0090457084060763e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002527724467967794], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285203780137], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179652884423e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189813070062463e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002527724467967794], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255395657586355], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118329128473051]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001498011918359469], ["'mechanical disinfection' (unit, GLO, None)", 0.027851426018900685], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396224264305e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898264422035e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094906535031232e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001498011918359469], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4103962242643036e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953486674942224], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380063122738]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285203780137], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179652884423e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189813070062463e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255395657586355], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118329128473051]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'mechanical disinfection' (unit, GLO, None)", 0.027851426018900685], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396224264305e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898264422035e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094906535031232e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4103962242643036e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953486674942224], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380063122738]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.6735796752987794], ["'autoclave' (unit, GLO, None)", 2.2736773098848326], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229008129611], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779095697553312], ["'mixed heating grid' (megajoule, GLO, None)", -0.05596459113224417], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276612678231], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713254497411], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420197980487709], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437291162803], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823717803454]]</t>
@@ -187,16 +187,16 @@
     <t>[["'H400' (unit, GLO, None)", 1.926021819241528], ["'autoclave' (unit, GLO, None)", 3.03156974651311], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054220803012], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514589204865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280820837174035], ["'mixed heating grid' (megajoule, GLO, None)", -1.0674106814087725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0019364982665523117]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.110795081682282], ["'mechanical disinfection' (unit, GLO, None)", 2.276328294479558], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662525662357], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058020299649]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.110795081682282], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01388907957856193], ["'mixed heating grid' (megajoule, GLO, None)", -0.056411297002273014]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.065355460525968], ["'mechanical disinfection' (unit, GLO, None)", 1.138164147239779], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303634990213976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831262831147], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046975290101498244]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.065355460525968], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303634990213973], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421265933651], ["'mixed heating grid' (megajoule, GLO, None)", -0.055941544101258026]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'mechanical disinfection' (unit, GLO, None)", 2.276328294479558], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662525662357], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058020299649]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01388907957856193], ["'mixed heating grid' (megajoule, GLO, None)", -0.056411297002273014]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'mechanical disinfection' (unit, GLO, None)", 1.138164147239779], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303634990213976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831262831147], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046975290101498244]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303634990213973], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421265933651], ["'mixed heating grid' (megajoule, GLO, None)", -0.055941544101258026]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.149743328893983], ["'autoclave' (unit, GLO, None)", 0.05605607004512776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298428892488e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278680938311], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036679319029798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569841385924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396970009272], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896051830252], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01949173626096295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.6527921437680975e-05]]</t>
@@ -211,16 +211,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.4284085116133038], ["'autoclave' (unit, GLO, None)", 0.07474142672683702], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669960546707], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270271741445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541473505489], ["'mixed heating grid' (megajoule, GLO, None)", -0.0699583363821789], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013236899168504808]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006855980826970998], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788894106479], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342762449844e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542179049146e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006855980826970998], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638855153734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091062752806]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003970127350554585], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944470532396], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061487932432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171381224895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771089524573e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003970127350554585], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001456206148793243], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307141341514], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036664213953800343]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788894106479], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342762449844e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542179049146e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638855153734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091062752806]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944470532396], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061487932432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171381224895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771089524573e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001456206148793243], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307141341514], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036664213953800343]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.476664503214043e-05], ["'autoclave' (unit, GLO, None)", 0.00021319075356469573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850786732037e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177888489323e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22552160951556e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.347469980792058e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887945074303e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066621231648e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932422490974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361498412565e-08]]</t>
@@ -235,16 +235,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0001570287129700997], ["'autoclave' (unit, GLO, None)", 0.000284254338086261], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328693059312223e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520647814981e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224551189042e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.152026039064644e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025312364839e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.347005039357743e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000200489064287394], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786210214699e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.4148457183437326e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.347005039357743e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111174072281e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2512675214881992e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.972026912718201e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.000100244532143697], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268996e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893105107342e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7074228591718663e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.972026912718201e-06], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268995e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832243021216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22419329289648e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000200489064287394], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786210214699e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.4148457183437326e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111174072281e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2512675214881992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000100244532143697], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268996e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893105107342e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7074228591718663e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268995e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832243021216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22419329289648e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 7.73726858284468e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545740251284], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205551908717e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968774234943e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9723556601876315e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034310153005e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238698328976e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596878281645e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265242495796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274710464641e-08]]</t>
@@ -259,16 +259,16 @@
     <t>[["'H400' (unit, GLO, None)", 2.24180663448635e-05], ["'autoclave' (unit, GLO, None)", 0.00019660727653668378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384209175173e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398832601934e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497625833666e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.669163512930815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1838515711100356e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.894577038711986e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238678986488e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.40218195316179e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.9898432775897706e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.894577038711986e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227887271044e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9960808173692813e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.716879487789784e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.418619339493244e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4024796483068134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201090976580889e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949216387948853e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.716879487789784e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479648306813e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216977505241e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711316009813323e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238678986488e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.40218195316179e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.9898432775897706e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227887271044e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9960808173692813e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.418619339493244e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4024796483068134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201090976580889e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949216387948853e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479648306813e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216977505241e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711316009813323e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009802520051077075], ["'autoclave' (unit, GLO, None)", 0.02035942297630052], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405914536631e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686889257492295], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005041087987441027], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564572251117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835612297163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651097635892], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350510590725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251052096326e-05]]</t>
@@ -283,16 +283,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0280666650536483], ["'autoclave' (unit, GLO, None)", 0.02714589730173403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403578573144], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993684530196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0069972775050876615], ["'mixed heating grid' (megajoule, GLO, None)", -0.00961484941612622], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164093974160114e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001756120151760715], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979378834137], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813031332283e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462728516237954e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001756120151760715], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972171553153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081325636814729]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001037048909272714], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989689417069], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530471684578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794065156661335e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364258118977e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001037048909272714], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304716845774e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781063965004], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039011994233539]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979378834137], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813031332283e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462728516237954e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972171553153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081325636814729]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989689417069], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530471684578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794065156661335e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364258118977e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304716845774e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781063965004], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039011994233539]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.152659716618304], ["'autoclave' (unit, GLO, None)", 0.6181740082777769], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663925910704], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041644729793], ["'mixed heating grid' (megajoule, GLO, None)", -0.013758022951621617], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0695701038957765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500359997291647], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156713401707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885317655177], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00025494172881542924]]</t>
@@ -307,16 +307,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.4371104019143154], ["'autoclave' (unit, GLO, None)", 0.8242320110370358], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855310412], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727709098588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135789354735], ["'mixed heating grid' (megajoule, GLO, None)", -0.26240628862857696], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930829274394]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03730513521844646], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082777195216], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662565458347], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002309628664482948]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03730513521844646], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956498797908], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867838631288758]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02205021877560415], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541388597608], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030689824669e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593312827291595e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001154814332241474]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02205021877560415], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030689824667], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363185970632], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752357198064608]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082777195216], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662565458347], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002309628664482948]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956498797908], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867838631288758]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541388597608], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030689824669e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593312827291595e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001154814332241474]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030689824667], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363185970632], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752357198064608]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01108799457586398], ["'autoclave' (unit, GLO, None)", 0.059956320710927866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908205923033e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064962792397], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008743701876410798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495609046104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568714889945], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000851883184090707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512588542114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814513891434798e-06]]</t>
@@ -331,16 +331,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.03189183544241259], ["'autoclave' (unit, GLO, None)", 0.07994176094790383], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302914449216e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280689822637e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612067225167], ["'mixed heating grid' (megajoule, GLO, None)", -0.016676831884433276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197546831772114e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006970986104468701], ["'mechanical disinfection' (unit, GLO, None)", 0.061807872925342115], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179755170384e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678493093421848e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006970986104468701], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525256920195], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493558525395]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004148794101802159], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936462671058], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213366654751e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089877585162e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246546710924e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004148794101802159], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.01821336665475e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314358144376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740101093058285]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'mechanical disinfection' (unit, GLO, None)", 0.061807872925342115], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179755170384e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678493093421848e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525256920195], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493558525395]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936462671058], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213366654751e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089877585162e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246546710924e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.01821336665475e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314358144376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740101093058285]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.004108042018290453], ["'autoclave' (unit, GLO, None)", 0.04044309541691041], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124318125445e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384757294665], ["'mixed heating grid' (megajoule, GLO, None)", -0.008082808463136144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414875753515], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994619230428274], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944015997324502], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670280652626], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008508185245992e-06]]</t>
@@ -355,16 +355,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0119744476001613], ["'autoclave' (unit, GLO, None)", 0.053924127222547205], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233668096845878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528963205441e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150948855887], ["'mixed heating grid' (megajoule, GLO, None)", -0.15416312198092488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68374963877726e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001155830870585628], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330493791288], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934827694568e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018006169428]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001155830870585628], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982500893081], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324935315309]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00068704738509568], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665246895644], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281104e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967413847262e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509003084714e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00068704738509568], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281103e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432826754631], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479845284461]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330493791288], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934827694568e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018006169428]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982500893081], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324935315309]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665246895644], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281104e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967413847262e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509003084714e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281103e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432826754631], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479845284461]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002434545169495901], ["'autoclave' (unit, GLO, None)", 0.004683568686210197], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279870414875e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.62551669375104e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010323529266093976], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564733149484], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752173994117], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001217959640684331], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924072118645], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.144708783808093e-06]]</t>
@@ -379,16 +379,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.006964031591221167], ["'autoclave' (unit, GLO, None)", 0.006244758248280263], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001926220536526145], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533393186108e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822231746994394], ["'mixed heating grid' (megajoule, GLO, None)", -0.001969003111704302], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370875454037e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003624060465524919], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776279128227595], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088037356859e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330628968596752e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003624060465524919], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662437279021322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405931031733283]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020967293365826], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888139564113798], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101636035399382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440186784193e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665314484298376e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020967293365826], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163603539938e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611838834549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319277886890298]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776279128227595], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088037356859e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330628968596752e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662437279021322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405931031733283]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888139564113798], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101636035399382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440186784193e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665314484298376e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163603539938e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611838834549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319277886890298]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.656145841239028e-08], ["'autoclave' (unit, GLO, None)", 2.421308690533102e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330484217607e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973076744023e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.182011106813487e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403140043337e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718257253284e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744191684893e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261573276905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450882519967e-10]]</t>
@@ -403,16 +403,16 @@
     <t>[["'H400' (unit, GLO, None)", 1.335684926332336e-07], ["'autoclave' (unit, GLO, None)", 3.2284115873774687e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655110687124e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509276828054e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307350325164e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.254445633266843e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.090867513729573e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 9.839563813040561e-09], ["'mechanical disinfection' (unit, GLO, None)", 2.2741986269012074e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030435187147e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016279543764e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 9.839563813040561e-09], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793539647018e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458456219096e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 5.806816835771206e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993134506037e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298076839319e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015217593563e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508139771882e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 5.806816835771206e-09], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980768393186e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073387471093e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243374821375e-08]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.2741986269012074e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030435187147e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016279543764e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793539647018e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458456219096e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993134506037e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298076839319e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015217593563e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508139771882e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980768393186e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073387471093e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243374821375e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0003086847791470814], ["'autoclave' (unit, GLO, None)", 0.0002658427006291776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864372981583e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.749811241755736e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.879640337843878e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075364068306], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842721702835e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408006973283e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535754524652e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759220813609e-07]]</t>
@@ -427,16 +427,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0008831184120180913], ["'autoclave' (unit, GLO, None)", 0.00035445693417223675], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568921460904e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221218333165e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001813537176e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003585031415811391], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894112377957e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.074831643384513e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591683848763], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997152435081e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155446984256514e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.074831643384513e-05], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420008179055e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.894643509589988e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.800135334484244e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958419243815], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799555e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498576217533e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.577723492128257e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.800135334484244e-05], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799553e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267015055739e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.878866274668705e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591683848763], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997152435081e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155446984256514e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420008179055e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.894643509589988e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958419243815], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799555e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498576217533e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.577723492128257e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799553e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267015055739e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.878866274668705e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005812956178185733], ["'autoclave' (unit, GLO, None)", 0.000460152790627355], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.20884016528869e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831660019575e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.744721197879222e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888727981984], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499831269229004e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043422234465e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001444347689943862], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075035477947e-07]]</t>
@@ -451,16 +451,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.001663931908322962], ["'autoclave' (unit, GLO, None)", 0.0006135370541698067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990963156431e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864335575137e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001721112243700459], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009049590079118692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817901565425e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.545269723798892e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00045337131488831046], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876108197903e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202647310651e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.545269723798892e-05], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859320565806e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593266054161e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.658480926918063e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668565744415523], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402563568638e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380540989495e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.9826013236553254e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.658480926918063e-05], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025635686376e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115515155931e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767252817607e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'mechanical disinfection' (unit, GLO, None)", 0.00045337131488831046], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876108197903e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202647310651e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859320565806e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593266054161e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668565744415523], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402563568638e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380540989495e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.9826013236553254e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025635686376e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115515155931e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767252817607e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0006158725330556075], ["'autoclave' (unit, GLO, None)", 0.0004716821363126916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814575880577e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223267278228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.91179093702775e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610950024353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680832469371e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660480711446e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000152378239833042], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192632232941e-06]]</t>
@@ -475,16 +475,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.00176320825929397], ["'autoclave' (unit, GLO, None)", 0.0006289095150835888], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802945571172e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954521521804e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001759905053529762], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009368241605913408], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687267017135e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.824432581476511e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415360238083], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204825670764e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671040089171e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.824432581476511e-05], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874386926703e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.950996545422889e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.820709643163117e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227076801190415], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.1686159852146775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74510241283536e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.122835520044586e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.820709643163117e-05], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615985214677e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423362798372e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9097681902224425e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415360238083], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204825670764e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671040089171e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874386926703e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.950996545422889e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227076801190415], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.1686159852146775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74510241283536e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.122835520044586e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615985214677e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423362798372e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9097681902224425e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002000869313433622], ["'autoclave' (unit, GLO, None)", 0.0039926129794473015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287096538017e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331496733316e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.984667181699403e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391694674742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837203065488e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813545081745e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259217534223], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507657267701685e-07]]</t>
@@ -499,16 +499,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.005758781208145086], ["'autoclave' (unit, GLO, None)", 0.005323483972596402], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321675772], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449132359634e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795484553516], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013321831188248844], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0386197431539182e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000721785743619718], ["'mechanical disinfection' (unit, GLO, None)", 0.003668846829095649], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400897217022e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725512881794428e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000721785743619718], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882862974667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418358776534e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004263984212110073], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234145478244], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700448608494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756440897214e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004263984212110073], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302836e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.7081558584886e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.98179079436756e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'mechanical disinfection' (unit, GLO, None)", 0.003668846829095649], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400897217022e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725512881794428e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882862974667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418358776534e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234145478244], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700448608494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756440897214e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302836e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.7081558584886e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.98179079436756e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 1.012221229060956e-09], ["'autoclave' (unit, GLO, None)", 1.397331951325859e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171570859e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802468025443e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2586660327997482e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389234970516e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950213062270907e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903375918012382e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416352270907e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066692429913e-13]]</t>
@@ -523,16 +523,16 @@
     <t>[["'H400' (unit, GLO, None)", 2.89887627140036e-09], ["'autoclave' (unit, GLO, None)", 1.863109268434479e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.48616694795717e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900740785e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039865002584e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.400649304418461e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3724116950931934e-12]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.090138820981277e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.3860851035770505e-09], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148971247214e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.1129861162374985e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.090138820981277e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187910530466e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2687126264383752e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.406434577633651e-11], ["'mechanical disinfection' (unit, GLO, None)", 6.930425517885253e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180965e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074485623601e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930581187493e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.406434577633651e-11], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180963e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380461968172e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2581476958571877e-10]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.3860851035770505e-09], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148971247214e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.1129861162374985e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187910530466e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2687126264383752e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'mechanical disinfection' (unit, GLO, None)", 6.930425517885253e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180965e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074485623601e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930581187493e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180963e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380461968172e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2581476958571877e-10]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.961592795305003e-07], ["'autoclave' (unit, GLO, None)", 5.875991472549415e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.99972964773631e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006351812972e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8600584903498902e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022047831044e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782080356757e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947554940675e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012769507503e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452940337715e-10]]</t>
@@ -547,16 +547,16 @@
     <t>[["'H400' (unit, GLO, None)", 1.419896829244402e-06], ["'autoclave' (unit, GLO, None)", 7.834655296732553e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60697130418002e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641652265e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.815366009131481e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.454979515242824e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016434694956e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.672098364103753e-08], ["'mechanical disinfection' (unit, GLO, None)", 5.682374562542722e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357047505117e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324357895e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.672098364103753e-08], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978483875525e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828872985376633e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.331159439628674e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.841187281271361e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178523752538e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4006621789475e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.331159439628674e-08], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993672e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086698638022e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880676748188e-08]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'mechanical disinfection' (unit, GLO, None)", 5.682374562542722e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357047505117e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324357895e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978483875525e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828872985376633e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.841187281271361e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178523752538e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4006621789475e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993672e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086698638022e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880676748188e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05715518799270729], ["'autoclave' (unit, GLO, None)", 0.011758889889984074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792625564753e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768807396669936], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011548500126547406], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040999563863926454], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179353285547], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217494487765], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0064111732074657955], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639031856802e-05]]</t>
@@ -571,16 +571,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.1635073490131902], ["'autoclave' (unit, GLO, None)", 0.015678519853312096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307032815842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056128758864815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686639256433], ["'mixed heating grid' (megajoule, GLO, None)", -0.022026413737569552], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319775202299e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997395455025312], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780141121613], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223144709350846e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.938704930050651e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997395455025312], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546594828505], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679533064776]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001148233446049483], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818900705608065], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157235467537e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524650253255e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001148233446049483], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527334e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430871281805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744286562243]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780141121613], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223144709350846e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.938704930050651e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546594828505], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679533064776]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818900705608065], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157235467537e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524650253255e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527334e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430871281805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744286562243]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -91,16 +91,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.002052429295582987], ["'autoclave' (unit, GLO, None)", 0.0010245634188181234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735857562245e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176294896411e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000212002940439735], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008256356825828791], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6190659117237426e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930176259012], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992125239635e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020348024132e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085781413622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379579862093e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'mechanical disinfection' (unit, GLO, None)", 0.0003631465088129506], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155524e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960626198152e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510174012066e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155522e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786175151667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044478121972e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930176259012], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992125239635e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020348024132e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085781413622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379579862093e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'mechanical disinfection' (unit, GLO, None)", 0.0003631465088129506], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155524e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960626198152e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510174012066e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155522e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786175151667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044478121972e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.2476010125521857], ["'autoclave' (unit, GLO, None)", 0.217815070164729], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149322913], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296255622591], ["'mixed heating grid' (megajoule, GLO, None)", -0.012677318349180736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404544588], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009990034892], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00463256623166678], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699365581557], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080215760809]]</t>
@@ -115,16 +115,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.7085726044278589], ["'autoclave' (unit, GLO, None)", 0.290420093552972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510176133632204], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893508047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314300939484], ["'mixed heating grid' (megajoule, GLO, None)", -0.24179404769632087], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864284711922]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803816600085], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391715739775e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002128205335243487]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999569056329], ["'mixed heating grid' (megajoule, GLO, None)", -0.01277850791222823]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019083000425], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045358821014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695857869877e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026676217435]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045358821013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402610477641], ["'mixed heating grid' (megajoule, GLO, None)", -0.012672097645466054]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803816600085], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391715739775e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002128205335243487]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999569056329], ["'mixed heating grid' (megajoule, GLO, None)", -0.01277850791222823]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019083000425], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045358821014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695857869877e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026676217435]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045358821013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402610477641], ["'mixed heating grid' (megajoule, GLO, None)", -0.012672097645466054]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007638919622672731], ["'autoclave' (unit, GLO, None)", 0.04364214572201726], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505907635224], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004208238122], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045513873065171475], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895306906989], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787991490073], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776497327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427493622135], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337597527167e-05]]</t>
@@ -139,16 +139,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.02185264039121851], ["'autoclave' (unit, GLO, None)", 0.05818952762935635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403296304], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421035700115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331741345587], ["'mixed heating grid' (megajoule, GLO, None)", -0.008680845027036461], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.949157436764849e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851153299488], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6300006901504435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640643298284963e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018425521916], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716195649773]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'mechanical disinfection' (unit, GLO, None)", 0.02214425576649744], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000345075216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.820321649142482e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000275686842207117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549512979158348]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851153299488], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6300006901504435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640643298284963e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018425521916], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716195649773]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'mechanical disinfection' (unit, GLO, None)", 0.02214425576649744], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000345075216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.820321649142482e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000275686842207117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549512979158348]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01007273939296563], ["'autoclave' (unit, GLO, None)", 0.054955643870441356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801418115924], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829894254707], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006069879727702365], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720446157839], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363943428096], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776381654], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673650481523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.40918625568e-05]]</t>
@@ -163,16 +163,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.02881605910557022], ["'autoclave' (unit, GLO, None)", 0.07327419182725514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491805466], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183669305503], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00686022102665884], ["'mixed heating grid' (megajoule, GLO, None)", -0.011577060289614352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0090457084060763e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285203780137], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179652884423e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189813070062463e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255395657586355], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118329128473051]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'mechanical disinfection' (unit, GLO, None)", 0.027851426018900685], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396224264305e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898264422035e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094906535031232e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4103962242643036e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953486674942224], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380063122738]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285203780137], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179652884423e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189813070062463e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255395657586355], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118329128473051]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'mechanical disinfection' (unit, GLO, None)", 0.027851426018900685], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396224264305e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898264422035e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094906535031232e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4103962242643036e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953486674942224], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380063122738]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.6735796752987794], ["'autoclave' (unit, GLO, None)", 2.2736773098848326], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229008129611], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779095697553312], ["'mixed heating grid' (megajoule, GLO, None)", -0.05596459113224417], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276612678231], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713254497411], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420197980487709], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437291162803], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823717803454]]</t>
@@ -187,16 +187,16 @@
     <t>[["'H400' (unit, GLO, None)", 1.926021819241528], ["'autoclave' (unit, GLO, None)", 3.03156974651311], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054220803012], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514589204865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280820837174035], ["'mixed heating grid' (megajoule, GLO, None)", -1.0674106814087725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0019364982665523117]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'mechanical disinfection' (unit, GLO, None)", 2.276328294479558], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662525662357], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058020299649]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01388907957856193], ["'mixed heating grid' (megajoule, GLO, None)", -0.056411297002273014]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'mechanical disinfection' (unit, GLO, None)", 1.138164147239779], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303634990213976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831262831147], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046975290101498244]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303634990213973], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421265933651], ["'mixed heating grid' (megajoule, GLO, None)", -0.055941544101258026]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'mechanical disinfection' (unit, GLO, None)", 2.276328294479558], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662525662357], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058020299649]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01388907957856193], ["'mixed heating grid' (megajoule, GLO, None)", -0.056411297002273014]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'mechanical disinfection' (unit, GLO, None)", 1.138164147239779], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303634990213976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831262831147], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046975290101498244]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303634990213973], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421265933651], ["'mixed heating grid' (megajoule, GLO, None)", -0.055941544101258026]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.149743328893983], ["'autoclave' (unit, GLO, None)", 0.05605607004512776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298428892488e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278680938311], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036679319029798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569841385924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396970009272], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896051830252], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01949173626096295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.6527921437680975e-05]]</t>
@@ -211,16 +211,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.4284085116133038], ["'autoclave' (unit, GLO, None)", 0.07474142672683702], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669960546707], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270271741445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541473505489], ["'mixed heating grid' (megajoule, GLO, None)", -0.0699583363821789], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013236899168504808]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788894106479], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342762449844e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542179049146e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638855153734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091062752806]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944470532396], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061487932432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171381224895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771089524573e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001456206148793243], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307141341514], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036664213953800343]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788894106479], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342762449844e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542179049146e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638855153734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091062752806]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944470532396], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061487932432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171381224895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771089524573e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001456206148793243], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307141341514], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036664213953800343]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.476664503214043e-05], ["'autoclave' (unit, GLO, None)", 0.00021319075356469573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850786732037e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177888489323e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22552160951556e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.347469980792058e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887945074303e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066621231648e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932422490974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361498412565e-08]]</t>
@@ -235,16 +235,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0001570287129700997], ["'autoclave' (unit, GLO, None)", 0.000284254338086261], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328693059312223e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520647814981e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224551189042e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.152026039064644e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025312364839e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000200489064287394], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786210214699e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.4148457183437326e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111174072281e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2512675214881992e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000100244532143697], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268996e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893105107342e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7074228591718663e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268995e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832243021216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22419329289648e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000200489064287394], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786210214699e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.4148457183437326e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111174072281e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2512675214881992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000100244532143697], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268996e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893105107342e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7074228591718663e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268995e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832243021216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22419329289648e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 7.73726858284468e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545740251284], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205551908717e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968774234943e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9723556601876315e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034310153005e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238698328976e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596878281645e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265242495796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274710464641e-08]]</t>
@@ -259,16 +259,16 @@
     <t>[["'H400' (unit, GLO, None)", 2.24180663448635e-05], ["'autoclave' (unit, GLO, None)", 0.00019660727653668378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384209175173e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398832601934e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497625833666e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.669163512930815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1838515711100356e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238678986488e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.40218195316179e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.9898432775897706e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227887271044e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9960808173692813e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.418619339493244e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4024796483068134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201090976580889e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949216387948853e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479648306813e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216977505241e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711316009813323e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238678986488e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.40218195316179e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.9898432775897706e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227887271044e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9960808173692813e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.418619339493244e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4024796483068134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201090976580889e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949216387948853e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479648306813e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216977505241e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711316009813323e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009802520051077075], ["'autoclave' (unit, GLO, None)", 0.02035942297630052], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405914536631e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686889257492295], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005041087987441027], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564572251117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835612297163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651097635892], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350510590725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251052096326e-05]]</t>
@@ -283,16 +283,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0280666650536483], ["'autoclave' (unit, GLO, None)", 0.02714589730173403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403578573144], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993684530196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0069972775050876615], ["'mixed heating grid' (megajoule, GLO, None)", -0.00961484941612622], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164093974160114e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979378834137], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813031332283e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462728516237954e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972171553153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081325636814729]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989689417069], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530471684578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794065156661335e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364258118977e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304716845774e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781063965004], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039011994233539]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979378834137], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813031332283e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462728516237954e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972171553153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081325636814729]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989689417069], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530471684578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794065156661335e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364258118977e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304716845774e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781063965004], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039011994233539]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.152659716618304], ["'autoclave' (unit, GLO, None)", 0.6181740082777769], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663925910704], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041644729793], ["'mixed heating grid' (megajoule, GLO, None)", -0.013758022951621617], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0695701038957765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500359997291647], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156713401707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885317655177], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00025494172881542924]]</t>
@@ -307,16 +307,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.4371104019143154], ["'autoclave' (unit, GLO, None)", 0.8242320110370358], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855310412], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727709098588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135789354735], ["'mixed heating grid' (megajoule, GLO, None)", -0.26240628862857696], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930829274394]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082777195216], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662565458347], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002309628664482948]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956498797908], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867838631288758]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541388597608], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030689824669e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593312827291595e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001154814332241474]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030689824667], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363185970632], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752357198064608]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082777195216], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662565458347], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002309628664482948]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956498797908], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867838631288758]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541388597608], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030689824669e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593312827291595e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001154814332241474]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030689824667], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363185970632], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752357198064608]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01108799457586398], ["'autoclave' (unit, GLO, None)", 0.059956320710927866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908205923033e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064962792397], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008743701876410798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495609046104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568714889945], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000851883184090707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512588542114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814513891434798e-06]]</t>
@@ -331,16 +331,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.03189183544241259], ["'autoclave' (unit, GLO, None)", 0.07994176094790383], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302914449216e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280689822637e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612067225167], ["'mixed heating grid' (megajoule, GLO, None)", -0.016676831884433276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197546831772114e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'mechanical disinfection' (unit, GLO, None)", 0.061807872925342115], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179755170384e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678493093421848e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525256920195], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493558525395]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936462671058], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213366654751e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089877585162e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246546710924e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.01821336665475e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314358144376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740101093058285]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'mechanical disinfection' (unit, GLO, None)", 0.061807872925342115], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179755170384e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678493093421848e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525256920195], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493558525395]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936462671058], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213366654751e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089877585162e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246546710924e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.01821336665475e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314358144376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740101093058285]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.004108042018290453], ["'autoclave' (unit, GLO, None)", 0.04044309541691041], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124318125445e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384757294665], ["'mixed heating grid' (megajoule, GLO, None)", -0.008082808463136144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414875753515], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994619230428274], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944015997324502], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670280652626], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008508185245992e-06]]</t>
@@ -355,16 +355,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0119744476001613], ["'autoclave' (unit, GLO, None)", 0.053924127222547205], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233668096845878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528963205441e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150948855887], ["'mixed heating grid' (megajoule, GLO, None)", -0.15416312198092488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68374963877726e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330493791288], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934827694568e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018006169428]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982500893081], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324935315309]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665246895644], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281104e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967413847262e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509003084714e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281103e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432826754631], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479845284461]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330493791288], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934827694568e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018006169428]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982500893081], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324935315309]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665246895644], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281104e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967413847262e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509003084714e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281103e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432826754631], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479845284461]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002434545169495901], ["'autoclave' (unit, GLO, None)", 0.004683568686210197], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279870414875e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.62551669375104e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010323529266093976], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564733149484], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752173994117], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001217959640684331], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924072118645], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.144708783808093e-06]]</t>
@@ -379,16 +379,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.006964031591221167], ["'autoclave' (unit, GLO, None)", 0.006244758248280263], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001926220536526145], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533393186108e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822231746994394], ["'mixed heating grid' (megajoule, GLO, None)", -0.001969003111704302], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370875454037e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776279128227595], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088037356859e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330628968596752e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662437279021322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405931031733283]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888139564113798], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101636035399382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440186784193e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665314484298376e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163603539938e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611838834549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319277886890298]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776279128227595], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088037356859e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330628968596752e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662437279021322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405931031733283]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888139564113798], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101636035399382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440186784193e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665314484298376e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163603539938e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611838834549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319277886890298]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.656145841239028e-08], ["'autoclave' (unit, GLO, None)", 2.421308690533102e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330484217607e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973076744023e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.182011106813487e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403140043337e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718257253284e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744191684893e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261573276905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450882519967e-10]]</t>
@@ -403,16 +403,16 @@
     <t>[["'H400' (unit, GLO, None)", 1.335684926332336e-07], ["'autoclave' (unit, GLO, None)", 3.2284115873774687e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655110687124e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509276828054e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307350325164e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.254445633266843e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.090867513729573e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.2741986269012074e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030435187147e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016279543764e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793539647018e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458456219096e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993134506037e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298076839319e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015217593563e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508139771882e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980768393186e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073387471093e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243374821375e-08]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.2741986269012074e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030435187147e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016279543764e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793539647018e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458456219096e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993134506037e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298076839319e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015217593563e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508139771882e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980768393186e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073387471093e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243374821375e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0003086847791470814], ["'autoclave' (unit, GLO, None)", 0.0002658427006291776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864372981583e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.749811241755736e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.879640337843878e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075364068306], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842721702835e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408006973283e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535754524652e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759220813609e-07]]</t>
@@ -427,16 +427,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.0008831184120180913], ["'autoclave' (unit, GLO, None)", 0.00035445693417223675], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568921460904e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221218333165e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001813537176e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003585031415811391], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894112377957e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591683848763], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997152435081e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155446984256514e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420008179055e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.894643509589988e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958419243815], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799555e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498576217533e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.577723492128257e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799553e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267015055739e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.878866274668705e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591683848763], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997152435081e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155446984256514e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420008179055e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.894643509589988e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958419243815], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799555e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498576217533e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.577723492128257e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799553e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267015055739e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.878866274668705e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005812956178185733], ["'autoclave' (unit, GLO, None)", 0.000460152790627355], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.20884016528869e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831660019575e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.744721197879222e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888727981984], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499831269229004e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043422234465e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001444347689943862], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075035477947e-07]]</t>
@@ -451,16 +451,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.001663931908322962], ["'autoclave' (unit, GLO, None)", 0.0006135370541698067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990963156431e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864335575137e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001721112243700459], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009049590079118692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817901565425e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'mechanical disinfection' (unit, GLO, None)", 0.00045337131488831046], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876108197903e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202647310651e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859320565806e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593266054161e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668565744415523], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402563568638e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380540989495e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.9826013236553254e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025635686376e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115515155931e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767252817607e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'mechanical disinfection' (unit, GLO, None)", 0.00045337131488831046], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876108197903e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202647310651e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859320565806e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593266054161e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668565744415523], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402563568638e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380540989495e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.9826013236553254e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025635686376e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115515155931e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767252817607e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0006158725330556075], ["'autoclave' (unit, GLO, None)", 0.0004716821363126916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814575880577e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223267278228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.91179093702775e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610950024353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680832469371e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660480711446e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000152378239833042], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192632232941e-06]]</t>
@@ -475,16 +475,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.00176320825929397], ["'autoclave' (unit, GLO, None)", 0.0006289095150835888], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802945571172e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954521521804e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001759905053529762], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009368241605913408], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687267017135e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415360238083], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204825670764e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671040089171e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874386926703e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.950996545422889e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227076801190415], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.1686159852146775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74510241283536e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.122835520044586e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615985214677e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423362798372e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9097681902224425e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415360238083], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204825670764e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671040089171e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874386926703e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.950996545422889e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227076801190415], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.1686159852146775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74510241283536e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.122835520044586e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615985214677e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423362798372e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9097681902224425e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002000869313433622], ["'autoclave' (unit, GLO, None)", 0.0039926129794473015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287096538017e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331496733316e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.984667181699403e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391694674742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837203065488e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813545081745e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259217534223], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507657267701685e-07]]</t>
@@ -499,16 +499,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.005758781208145086], ["'autoclave' (unit, GLO, None)", 0.005323483972596402], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321675772], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449132359634e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795484553516], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013321831188248844], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0386197431539182e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'mechanical disinfection' (unit, GLO, None)", 0.003668846829095649], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400897217022e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725512881794428e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882862974667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418358776534e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234145478244], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700448608494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756440897214e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302836e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.7081558584886e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.98179079436756e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'mechanical disinfection' (unit, GLO, None)", 0.003668846829095649], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400897217022e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725512881794428e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882862974667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418358776534e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234145478244], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700448608494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756440897214e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302836e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.7081558584886e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.98179079436756e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 1.012221229060956e-09], ["'autoclave' (unit, GLO, None)", 1.397331951325859e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171570859e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802468025443e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2586660327997482e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389234970516e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950213062270907e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903375918012382e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416352270907e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066692429913e-13]]</t>
@@ -523,16 +523,16 @@
     <t>[["'H400' (unit, GLO, None)", 2.89887627140036e-09], ["'autoclave' (unit, GLO, None)", 1.863109268434479e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.48616694795717e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900740785e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039865002584e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.400649304418461e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3724116950931934e-12]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.3860851035770505e-09], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148971247214e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.1129861162374985e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187910530466e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2687126264383752e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'mechanical disinfection' (unit, GLO, None)", 6.930425517885253e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180965e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074485623601e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930581187493e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180963e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380461968172e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2581476958571877e-10]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.3860851035770505e-09], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148971247214e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.1129861162374985e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187910530466e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2687126264383752e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'mechanical disinfection' (unit, GLO, None)", 6.930425517885253e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180965e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074485623601e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930581187493e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180963e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380461968172e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2581476958571877e-10]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.961592795305003e-07], ["'autoclave' (unit, GLO, None)", 5.875991472549415e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.99972964773631e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006351812972e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8600584903498902e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022047831044e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782080356757e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947554940675e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012769507503e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452940337715e-10]]</t>
@@ -547,16 +547,16 @@
     <t>[["'H400' (unit, GLO, None)", 1.419896829244402e-06], ["'autoclave' (unit, GLO, None)", 7.834655296732553e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60697130418002e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641652265e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.815366009131481e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.454979515242824e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016434694956e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'mechanical disinfection' (unit, GLO, None)", 5.682374562542722e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357047505117e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324357895e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978483875525e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828872985376633e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.841187281271361e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178523752538e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4006621789475e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993672e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086698638022e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880676748188e-08]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'mechanical disinfection' (unit, GLO, None)", 5.682374562542722e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357047505117e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324357895e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978483875525e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828872985376633e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.841187281271361e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178523752538e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4006621789475e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993672e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086698638022e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880676748188e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05715518799270729], ["'autoclave' (unit, GLO, None)", 0.011758889889984074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792625564753e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768807396669936], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011548500126547406], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040999563863926454], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179353285547], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217494487765], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0064111732074657955], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639031856802e-05]]</t>
@@ -571,16 +571,16 @@
     <t>[["'H400' (unit, GLO, None)", 0.1635073490131902], ["'autoclave' (unit, GLO, None)", 0.015678519853312096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307032815842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056128758864815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686639256433], ["'mixed heating grid' (megajoule, GLO, None)", -0.022026413737569552], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319775202299e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780141121613], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223144709350846e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.938704930050651e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546594828505], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679533064776]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818900705608065], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157235467537e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524650253255e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527334e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430871281805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744286562243]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780141121613], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223144709350846e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.938704930050651e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546594828505], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679533064776]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818900705608065], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157235467537e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524650253255e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527334e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430871281805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744286562243]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858214633804], ["'autoclave' (unit, GLO, None)", 0.0007684225641135926], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228683795798e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.111536364324578e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.328827151978546e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326774589106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135546214125e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594234910401e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001735396243605526], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043694156871e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858214633804], ["'autoclave' (unit, GLO, None)", 0.0007684225641135926], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516229434595e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804412738314e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242428830519e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00028858847679856975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043694156871e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429295582987], ["'autoclave' (unit, GLO, None)", 0.0010245634188181234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.96643298242068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33689498183068e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800441065960224e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012384535238743187], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985954969339], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361573003168724e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140491671771e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440122832468], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6190659117237426e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429295582987], ["'autoclave' (unit, GLO, None)", 0.0010245634188181234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735857562245e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176294896411e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000212002940439735], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008256356825828791], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6190659117237426e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'mechanical disinfection' (unit, GLO, None)", 0.0007262930176259012], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992125239635e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.267020348024132e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005630100249994989], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0015368451282271856], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861422217253e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001819181323905363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790719931316e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0643692478628831e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085781413622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.363379579862093e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'mechanical disinfection' (unit, GLO, None)", 0.0003631465088129506], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155524e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960626198152e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.633510174012066e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003356241867171992], ["'wet wipe' (unit, GLO, None)", 0.0002486553727446894], ["'autoclave' (unit, GLO, None)", 0.0011526338461703889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720426475823e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966577579007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439862632e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7811525992155522e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175944434683e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576079621405e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786175151667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.327044478121972e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010125521857], ["'autoclave' (unit, GLO, None)", 0.217815070164729], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149322913], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296255622591], ["'mixed heating grid' (megajoule, GLO, None)", -0.012677318349180736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404544588], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009990034892], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00463256623166678], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699365581557], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080215760809]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010125521857], ["'autoclave' (unit, GLO, None)", 0.217815070164729], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1811125274394324], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02195708934054955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308370817272], ["'mixed heating grid' (megajoule, GLO, None)", -0.08451545566120491], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001879080215760809]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726044278589], ["'autoclave' (unit, GLO, None)", 0.290420093552972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424527891], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502119397], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471451409217], ["'mixed heating grid' (megajoule, GLO, None)", -0.03626910715444814], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4043884582327483], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437834085599], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048208184658], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026381919883], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864284711922]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726044278589], ["'autoclave' (unit, GLO, None)", 0.290420093552972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510176133632204], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893508047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314300939484], ["'mixed heating grid' (megajoule, GLO, None)", -0.24179404769632087], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005345864284711922]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'mechanical disinfection' (unit, GLO, None)", 0.2166803816600085], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391715739775e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002128205335243487]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1299286652090859], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.4356301403294581], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750425045545], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219783347041], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102861934], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.514355719983032e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999569056329], ["'mixed heating grid' (megajoule, GLO, None)", -0.01277850791222823]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019083000425], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.881045358821014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695857869877e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010641026676217435]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07737876424746311], ["'wet wipe' (unit, GLO, None)", 0.0572753917305193], ["'autoclave' (unit, GLO, None)", 0.3267226052470935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248244657675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059900406504], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820572387], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005881045358821013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041307425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532848966996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402610477641], ["'mixed heating grid' (megajoule, GLO, None)", -0.012672097645466054]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919622672731], ["'autoclave' (unit, GLO, None)", 0.04364214572201726], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505907635224], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004208238122], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045513873065171475], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895306906989], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787991490073], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776497327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427493622135], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337597527167e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919622672731], ["'autoclave' (unit, GLO, None)", 0.04364214572201726], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181701878], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169374219105], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386694721587479], ["'mixed heating grid' (megajoule, GLO, None)", -0.0030342582043447652], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337597527167e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264039121851], ["'autoclave' (unit, GLO, None)", 0.05818952762935635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0040575114859939], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455458163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497612018376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013021267540554693], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194904009506427], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546382154588], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981665101988], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007744682292], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.949157436764849e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264039121851], ["'autoclave' (unit, GLO, None)", 0.05818952762935635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403296304], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421035700115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331741345587], ["'mixed heating grid' (megajoule, GLO, None)", -0.008680845027036461], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.949157436764849e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'mechanical disinfection' (unit, GLO, None)", 0.04428851153299488], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6300006901504435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.640643298284963e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01088808485616814], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.08728429144403455], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282141812208], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0233825321572761], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486232523e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.9387675696641e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018425521916], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004587716195649773]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'mechanical disinfection' (unit, GLO, None)", 0.02214425576649744], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000345075216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.820321649142482e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006496535208948148], ["'wet wipe' (unit, GLO, None)", 0.002171900744972572], ["'autoclave' (unit, GLO, None)", 0.0654632185830259], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416247183], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002451839], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972465046e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.244401229099484e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133113869905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826159420665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000275686842207117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004549512979158348]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273939296563], ["'autoclave' (unit, GLO, None)", 0.054955643870441356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801418115924], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829894254707], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006069879727702365], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720446157839], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363943428096], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776381654], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673650481523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.40918625568e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273939296563], ["'autoclave' (unit, GLO, None)", 0.054955643870441356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373895909403], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733002671696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978865961698046], ["'mixed heating grid' (megajoule, GLO, None)", -0.00404658648513491], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.40918625568e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605910557022], ["'autoclave' (unit, GLO, None)", 0.07327419182725514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372240085281], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755375349363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290331539988251], ["'mixed heating grid' (megajoule, GLO, None)", -0.001736559043442153], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848937861469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0020458085654977763], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618803680633], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04880770846426827], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0090457084060763e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605910557022], ["'autoclave' (unit, GLO, None)", 0.07327419182725514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491805466], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183669305503], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00686022102665884], ["'mixed heating grid' (megajoule, GLO, None)", -0.011577060289614352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0090457084060763e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'mechanical disinfection' (unit, GLO, None)", 0.05570285203780137], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179652884423e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0189813070062463e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01382035035423272], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.10991128774088274], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330250387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251255945167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703254853595e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6355350541356967e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255395657586355], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006118329128473051]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'mechanical disinfection' (unit, GLO, None)", 0.027851426018900685], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.410396224264305e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898264422035e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.094906535031232e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008245828612831357], ["'wet wipe' (unit, GLO, None)", 0.002406925405558846], ["'autoclave' (unit, GLO, None)", 0.08243346580566203], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288339729], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453463221727], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650970719e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4103962242643036e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887821809218e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119632616433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953486674942224], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006067380063122738]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796752987794], ["'autoclave' (unit, GLO, None)", 2.2736773098848326], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229008129611], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779095697553312], ["'mixed heating grid' (megajoule, GLO, None)", -0.05596459113224417], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276612678231], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713254497411], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420197980487709], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437291162803], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823717803454]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796752987794], ["'autoclave' (unit, GLO, None)", 2.2736773098848326], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619248385068], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642100826774061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063798368874], ["'mixed heating grid' (megajoule, GLO, None)", -0.37309727421496114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823717803454]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021819241528], ["'autoclave' (unit, GLO, None)", 3.03156974651311], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882144516563], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029057932876020095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.039421231255761024], ["'mixed heating grid' (megajoule, GLO, None)", -0.16011160221131587], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314969458596], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321445574732], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934769282093], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.382095011595156], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0019364982665523117]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021819241528], ["'autoclave' (unit, GLO, None)", 3.03156974651311], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054220803012], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514589204865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280820837174035], ["'mixed heating grid' (megajoule, GLO, None)", -1.0674106814087725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0019364982665523117]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'mechanical disinfection' (unit, GLO, None)", 2.276328294479558], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662525662357], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009395058020299649]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.3189665526770596], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 4.547354619769666], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667124051306], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110639710805], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831349758776], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012730483598803296], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01388907957856193], ["'mixed heating grid' (megajoule, GLO, None)", -0.056411297002273014]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'mechanical disinfection' (unit, GLO, None)", 1.138164147239779], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00021303634990213976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831262831147], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046975290101498244]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1897466285994567], ["'wet wipe' (unit, GLO, None)", 0.1405603056687044], ["'autoclave' (unit, GLO, None)", 3.410515964827249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612338271057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352677434835], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269951755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021303634990213973], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395415602151743], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302389636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421265933651], ["'mixed heating grid' (megajoule, GLO, None)", -0.055941544101258026]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149743328893983], ["'autoclave' (unit, GLO, None)", 0.05605607004512776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298428892488e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278680938311], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036679319029798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569841385924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396970009272], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896051830252], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01949173626096295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.6527921437680975e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149743328893983], ["'autoclave' (unit, GLO, None)", 0.05605607004512776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00030830578359940805], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475108473074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185787292208], ["'mixed heating grid' (megajoule, GLO, None)", -0.02445287935319867], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.6527921437680975e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085116133038], ["'autoclave' (unit, GLO, None)", 0.07474142672683702], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274990228263], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.639331926668007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812210258231], ["'mixed heating grid' (megajoule, GLO, None)", -0.010493750457326836], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.291239548515829], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.003175964136604732], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.003148809127030021], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629932665621], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013236899168504808]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085116133038], ["'autoclave' (unit, GLO, None)", 0.07474142672683702], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669960546707], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270271741445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541473505489], ["'mixed heating grid' (megajoule, GLO, None)", -0.0699583363821789], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013236899168504808]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'mechanical disinfection' (unit, GLO, None)", 0.05608788894106479], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342762449844e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.157542179049146e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02939600250250694], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.11211214009025557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318684717073], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485921163289], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610054491774e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.701899230908057e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638855153734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036972091062752806]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944470532396], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4562061487932432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171381224895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.078771089524573e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01743873387160091], ["'wet wipe' (unit, GLO, None)", 0.03226030808563598], ["'autoclave' (unit, GLO, None)", 0.08408410506769165], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998739091303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568770653984], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220108983547e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001456206148793243], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359486386678e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212768028196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307141341514], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036664213953800343]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664503214043e-05], ["'autoclave' (unit, GLO, None)", 0.00021319075356469573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850786732037e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177888489323e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22552160951556e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.347469980792058e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887945074303e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066621231648e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932422490974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361498412565e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664503214043e-05], ["'autoclave' (unit, GLO, None)", 0.00021319075356469573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801686036055838e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907047995257953e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.404878525899288e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.15034773967704e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361498412565e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287129700997], ["'autoclave' (unit, GLO, None)", 0.000284254338086261], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296998485802e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.556284443521135e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336826783554e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.228039058596967e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117495606786e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419121614536926e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604663067029e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093640138305e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025312364839e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287129700997], ["'autoclave' (unit, GLO, None)", 0.000284254338086261], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328693059312223e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520647814981e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224551189042e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.152026039064644e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.744025312364839e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000200489064287394], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786210214699e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.4148457183437326e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.770705086479183e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.00042638150712939163], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151180411435e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338804091337e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567721397099e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.4335027359372865e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111174072281e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.2512675214881992e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000100244532143697], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268996e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893105107342e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7074228591718663e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.843006791902039e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083619909e-05], ["'autoclave' (unit, GLO, None)", 0.0003197861303470436], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273890963913e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313888399548e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135442794198e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.419178013268995e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681247888316e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.834756852108826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832243021216e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.22419329289648e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.73726858284468e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545740251284], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205551908717e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968774234943e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9723556601876315e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034310153005e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238698328976e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596878281645e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265242495796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274710464641e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.73726858284468e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545740251284], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.840136394257186e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327375023565e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979182823295e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.981570440125088e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274710464641e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.24180663448635e-05], ["'autoclave' (unit, GLO, None)", 0.00019660727653668378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2120582076900386e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5505663086420255e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246438750494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.503745269396224e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447561688922e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.790071841244643e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.228547065121981e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.64300068308675e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1838515711100356e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.24180663448635e-05], ["'autoclave' (unit, GLO, None)", 0.00019660727653668378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384209175173e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398832601934e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497625833666e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.669163512930815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1838515711100356e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'mechanical disinfection' (unit, GLO, None)", 8.837238678986488e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.40218195316179e-09], ["'mixed heating grid' (megajoule, GLO, None)", -4.9898432775897706e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.475435088903973e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.0002949109148050258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.022837895244269e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377771074597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715899234353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4356577069255073e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227887271044e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9960808173692813e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.418619339493244e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4024796483068134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201090976580889e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.4949216387948853e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.259050212429936e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843441608e-05], ["'autoclave' (unit, GLO, None)", 0.00022118318610376926], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823948019035e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679334578688e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431798468706e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.402479648306813e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963688772e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134578783611e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216977505241e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.9711316009813323e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520051077075], ["'autoclave' (unit, GLO, None)", 0.02035942297630052], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405914536631e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686889257492295], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005041087987441027], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564572251117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835612297163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651097635892], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350510590725], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251052096326e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520051077075], ["'autoclave' (unit, GLO, None)", 0.02035942297630052], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213270393465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130323586052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002445792617166153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033607253249606853], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172251052096326e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0280666650536483], ["'autoclave' (unit, GLO, None)", 0.02714589730173403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121421538314], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.238921425666865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495916257631484], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014422274124189331], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800948388906], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204270020586], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089276234667], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0216347901706781], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164093974160114e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0280666650536483], ["'autoclave' (unit, GLO, None)", 0.02714589730173403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403578573144], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993684530196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0069972775050876615], ["'mixed heating grid' (megajoule, GLO, None)", -0.00961484941612622], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.3164093974160114e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'mechanical disinfection' (unit, GLO, None)", 0.019751979378834137], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813031332283e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.462728516237954e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02285232814583956], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.04071884595260106], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953471405973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049837354589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541317403964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8375950543635853e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003697972171553153], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005081325636814729]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'mechanical disinfection' (unit, GLO, None)", 0.009875989689417069], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.748530471684578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794065156661335e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.231364258118977e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01364291631456281], ["'wet wipe' (unit, GLO, None)", 0.002277559799566046], ["'autoclave' (unit, GLO, None)", 0.030539134464450786], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456658857325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971390907473], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082634807928e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7485304716845774e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593877359195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773112391742], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781063965004], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005039011994233539]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.152659716618304], ["'autoclave' (unit, GLO, None)", 0.6181740082777769], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663925910704], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041644729793], ["'mixed heating grid' (megajoule, GLO, None)", -0.013758022951621617], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0695701038957765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500359997291647], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156713401707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885317655177], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00025494172881542924]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.152659716618304], ["'autoclave' (unit, GLO, None)", 0.6181740082777769], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468586351963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242212395771], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043360277631531954], ["'mixed heating grid' (megajoule, GLO, None)", -0.09172015301081078], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00025494172881542924]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104019143154], ["'autoclave' (unit, GLO, None)", 0.8242320110370358], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049062394107952746], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699970025], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018607703684032088], ["'mixed heating grid' (megajoule, GLO, None)", -0.03936094329428654], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989507089414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316496703013], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835216437054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784596522587], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930829274394]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104019143154], ["'autoclave' (unit, GLO, None)", 0.8242320110370358], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855310412], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727709098588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135789354735], ["'mixed heating grid' (megajoule, GLO, None)", -0.26240628862857696], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007252930829274394]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'mechanical disinfection' (unit, GLO, None)", 0.5939082777195216], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662565458347], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002309628664482948]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1428551843351491], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 1.2363480165555543], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317953131377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502819785219], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922581156218], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.768055750946794e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956498797908], ["'mixed heating grid' (megajoule, GLO, None)", -0.013867838631288758]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541388597608], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.979030689824669e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593312827291595e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001154814332241474]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08512079160435781], ["'wet wipe' (unit, GLO, None)", 0.04360781115809158], ["'autoclave' (unit, GLO, None)", 0.9272610124166654], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035290376991], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576095281842], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162312436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007979030689824667], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821569725695], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777182271513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363185970632], ["'mixed heating grid' (megajoule, GLO, None)", -0.013752357198064608]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457586398], ["'autoclave' (unit, GLO, None)", 0.059956320710927866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908205923033e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064962792397], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008743701876410798], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495609046104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568714889945], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000851883184090707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512588542114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814513891434798e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457586398], ["'autoclave' (unit, GLO, None)", 0.059956320710927866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668675346294712e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.098308247260757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376641861598], ["'mixed heating grid' (megajoule, GLO, None)", -0.005829134584273866], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814513891434798e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183544241259], ["'autoclave' (unit, GLO, None)", 0.07994176094790383], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381138915390562e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229894756384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041810083772], ["'mixed heating grid' (megajoule, GLO, None)", -0.0025015247826649916], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463995923573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051471998866], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661955614286773], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933123532991], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197546831772114e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183544241259], ["'autoclave' (unit, GLO, None)", 0.07994176094790383], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302914449216e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280689822637e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612067225167], ["'mixed heating grid' (megajoule, GLO, None)", -0.016676831884433276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.197546831772114e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'mechanical disinfection' (unit, GLO, None)", 0.061807872925342115], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179755170384e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4678493093421848e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008600613358165024], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.11991264142185577], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867831613607], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604804219767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.64492345855507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.389043579062648e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525256920195], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008813493558525395]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936462671058], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.018213366654751e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089877585162e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.339246546710924e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005122564605281215], ["'wet wipe' (unit, GLO, None)", 0.003228268643670098], ["'autoclave' (unit, GLO, None)", 0.0899344810663918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814081756077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071023385952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.28984691711014e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.01821336665475e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361200685554e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331484888893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314358144376], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008740101093058285]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042018290453], ["'autoclave' (unit, GLO, None)", 0.04044309541691041], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124318125445e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384757294665], ["'mixed heating grid' (megajoule, GLO, None)", -0.008082808463136144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414875753515], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994619230428274], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944015997324502], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670280652626], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008508185245992e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042018290453], ["'autoclave' (unit, GLO, None)", 0.04044309541691041], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521743802865e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463194320777884e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589838196444], ["'mixed heating grid' (megajoule, GLO, None)", -0.05388538975424097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.7008508185245992e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0119744476001613], ["'autoclave' (unit, GLO, None)", 0.053924127222547205], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929007166721504e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054926459316e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726423283807], ["'mixed heating grid' (megajoule, GLO, None)", -0.023124468297138732], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003124007498142546], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885399449287], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104180885026224], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681769197924], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68374963877726e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0119744476001613], ["'autoclave' (unit, GLO, None)", 0.053924127222547205], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233668096845878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528963205441e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150948855887], ["'mixed heating grid' (megajoule, GLO, None)", -0.15416312198092488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.68374963877726e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'mechanical disinfection' (unit, GLO, None)", 0.04155330493791288], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934827694568e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013569018006169428]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002342453081565948], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.08088619083382084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455076849919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247990301537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554127039065695e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.051274790341893e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982500893081], ["'mixed heating grid' (megajoule, GLO, None)", -0.008147324935315309]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'mechanical disinfection' (unit, GLO, None)", 0.02077665246895644], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281104e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967413847262e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.784509003084714e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001396103833408355], ["'wet wipe' (unit, GLO, None)", 0.012616880235486072], ["'autoclave' (unit, GLO, None)", 0.06066464312536561], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336786475077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569656420156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825407813139e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.452979302281103e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028252076816e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002999951567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432826754631], ["'mixed heating grid' (megajoule, GLO, None)", -0.008079479845284461]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545169495901], ["'autoclave' (unit, GLO, None)", 0.004683568686210197], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279870414875e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.62551669375104e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010323529266093976], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564733149484], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752173994117], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001217959640684331], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924072118645], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.144708783808093e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545169495901], ["'autoclave' (unit, GLO, None)", 0.004683568686210197], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082904667814e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221359290549e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083677795834027], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006882352844062652], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.144708783808093e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031591221167], ["'autoclave' (unit, GLO, None)", 0.006244758248280263], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241128371094e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.321778304273164e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001323334762049158], ["'mixed heating grid' (megajoule, GLO, None)", -0.00029535046675564536], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404050255173], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003488478809648715], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00036689568268207494], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218048484126], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370875454037e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031591221167], ["'autoclave' (unit, GLO, None)", 0.006244758248280263], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001926220536526145], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533393186108e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822231746994394], ["'mixed heating grid' (megajoule, GLO, None)", -0.001969003111704302], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4636370875454037e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'mechanical disinfection' (unit, GLO, None)", 0.0035776279128227595], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088037356859e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7330628968596752e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002122011019283849], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.009367137372420398], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914699398582], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291125249242], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691085942773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.621907883641087e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662437279021322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010405931031733283]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888139564113798], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6101636035399382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440186784193e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.665314484298376e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001261110565372426], ["'wet wipe' (unit, GLO, None)", 0.0004352277216383418], ["'autoclave' (unit, GLO, None)", 0.0070253530293152965], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275355519363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004679937668786056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338217188555e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.610163603539938e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.37269776666333e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283743640575e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611838834549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010319277886890298]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145841239028e-08], ["'autoclave' (unit, GLO, None)", 2.421308690533102e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330484217607e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973076744023e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.182011106813487e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403140043337e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718257253284e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744191684893e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261573276905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450882519967e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145841239028e-08], ["'autoclave' (unit, GLO, None)", 2.421308690533102e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172564293926e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928055954318e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0753153844960155e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.880074045423247e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450882519967e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684926332336e-07], ["'autoclave' (unit, GLO, None)", 3.2284115873774687e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.640141249269099e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059709726e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461025487736e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.381668449900265e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.582514128820145e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099669658755e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023353478667e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200443176595e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.090867513729573e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684926332336e-07], ["'autoclave' (unit, GLO, None)", 3.2284115873774687e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655110687124e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509276828054e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307350325164e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.254445633266843e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.090867513729573e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.2741986269012074e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030435187147e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.9843016279543764e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.172919247112918e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 4.842617381066205e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540130586038e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680776641378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974731464e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.031927364420665e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793539647018e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1914458456219096e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993134506037e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.400298076839319e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015217593563e-11], ["'mixed heating grid' (megajoule, GLO, None)", -9.921508139771882e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.888678630080748e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192357914373e-07], ["'autoclave' (unit, GLO, None)", 3.6319630357996526e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3187138889068544e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268058352979e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794946293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4002980768393186e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33466274958598e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374939463834e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.611073387471093e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.1815243374821375e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847791470814], ["'autoclave' (unit, GLO, None)", 0.0002658427006291776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864372981583e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.749811241755736e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.879640337843878e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075364068306], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842721702835e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408006973283e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535754524652e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759220813609e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847791470814], ["'autoclave' (unit, GLO, None)", 0.0002658427006291776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881967118621e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.597767500332517e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998741611704908e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012530935585625854], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759220813609e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184120180913], ["'autoclave' (unit, GLO, None)", 0.00035445693417223675], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.669010191601327e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0806953337130646e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728002720305756e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.3775471237170866e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004060600681939755], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4142147997358046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933335999297e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283815562403], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894112377957e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184120180913], ["'autoclave' (unit, GLO, None)", 0.00035445693417223675], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568921460904e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221218333165e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001813537176e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003585031415811391], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0152894112377957e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'mechanical disinfection' (unit, GLO, None)", 0.0002498591683848763], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997152435081e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.155446984256514e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002443710737602712], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.0005316854012583553], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175341680528e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801803209116e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944030955312e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.674483226268491e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420008179055e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.894643509589988e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958419243815], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799555e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498576217533e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.577723492128257e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001456498935017106], ["'wet wipe' (unit, GLO, None)", 7.631932883399618e-05], ["'autoclave' (unit, GLO, None)", 0.00039876405094376637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316056062876e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137378831599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888061910625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1169312877799553e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437141372661e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489099535685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267015055739e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.878866274668705e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956178185733], ["'autoclave' (unit, GLO, None)", 0.000460152790627355], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.20884016528869e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831660019575e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.744721197879222e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888727981984], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499831269229004e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043422234465e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001444347689943862], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075035477947e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956178185733], ["'autoclave' (unit, GLO, None)", 0.000460152790627355], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817919205325e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.373699713225171e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887773346383e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003163147465252815], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.57075035477947e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931908322962], ["'autoclave' (unit, GLO, None)", 0.0006135370541698067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491309181993e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5267499389973608e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816683655506865e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001357438511867804], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349476418771], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1601433917097e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.719589421553436e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585042095386], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817901565425e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931908322962], ["'autoclave' (unit, GLO, None)", 0.0006135370541698067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990963156431e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864335575137e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001721112243700459], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009049590079118692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.722817901565425e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'mechanical disinfection' (unit, GLO, None)", 0.00045337131488831046], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876108197903e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.965202647310651e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003263262626782621], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0009203055812547103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.696175424726797e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184341152259], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636569066e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.789972613821097e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859320565806e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.782593266054161e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668565744415523], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.995402563568638e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380540989495e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.9826013236553254e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001944185225313675], ["'wet wipe' (unit, GLO, None)", 0.0010932762472609008], ["'autoclave' (unit, GLO, None)", 0.0006902291859410325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758150284177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672697562e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.900336727313813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9954025635686376e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298621104e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292811766664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115515155931e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.742767252817607e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725330556075], ["'autoclave' (unit, GLO, None)", 0.0004716821363126916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814575880577e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223267278228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.91179093702775e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610950024353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680832469371e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660480711446e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000152378239833042], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192632232941e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725330556075], ["'autoclave' (unit, GLO, None)", 0.0004716821363126916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.808690045677766e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655679062261e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482178185485e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003274527291351834], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192632232941e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00176320825929397], ["'autoclave' (unit, GLO, None)", 0.0006289095150835888], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381462540326e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758162468828e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.639857580294641e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014052362408870114], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864009112815], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991318510199e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.857742290613214e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00042923447840293523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687267017135e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00176320825929397], ["'autoclave' (unit, GLO, None)", 0.0006289095150835888], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802945571172e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954521521804e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001759905053529762], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009368241605913408], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8802687267017135e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'mechanical disinfection' (unit, GLO, None)", 0.0004645415360238083], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204825670764e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.245671040089171e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003331710956482778], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0009433642726253836], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526662691133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433564173673], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761789354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.893480330901794e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874386926703e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.950996545422889e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227076801190415], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.1686159852146775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74510241283536e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.122835520044586e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001984627689947085], ["'wet wipe' (unit, GLO, None)", 0.0016909050541236517], ["'autoclave' (unit, GLO, None)", 0.0007075232044690375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480913522315e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971394429317e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039523578708e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.168615985214677e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33209150354605e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150880574779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423362798372e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9097681902224425e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869313433622], ["'autoclave' (unit, GLO, None)", 0.0039926129794473015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287096538017e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331496733316e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.984667181699403e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391694674742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837203065488e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813545081745e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259217534223], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507657267701685e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869313433622], ["'autoclave' (unit, GLO, None)", 0.0039926129794473015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209194899058], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669037559151e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887664488878], ["'mixed heating grid' (megajoule, GLO, None)", -0.00046564447877996026], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507657267701685e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781208145086], ["'autoclave' (unit, GLO, None)", 0.005323483972596402], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822338794575e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025811710257167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693226830257], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019982746782373266], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135564481895], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.52073741063136e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892247220112e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.001580636399305415], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0386197431539182e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781208145086], ["'autoclave' (unit, GLO, None)", 0.005323483972596402], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321675772], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449132359634e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795484553516], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013321831188248844], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0386197431539182e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'mechanical disinfection' (unit, GLO, None)", 0.003668846829095649], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400897217022e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1725512881794428e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001336897312384], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.007985225958894606], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.15595540692206e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588463535077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378038018313e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.827856153548005e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882862974667e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.040418358776534e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234145478244], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700448608494e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.862756440897214e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007939533333089088], ["'wet wipe' (unit, GLO, None)", 0.009527755134173805], ["'autoclave' (unit, GLO, None)", 0.005988919469170953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495170315417e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854018525846], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756076036626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1425972480302836e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194322824566e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665086554462101e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.7081558584886e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.98179079436756e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221229060956e-09], ["'autoclave' (unit, GLO, None)", 1.397331951325859e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171570859e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802468025443e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2586660327997482e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389234970516e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950213062270907e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903375918012382e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416352270907e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066692429913e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221229060956e-09], ["'autoclave' (unit, GLO, None)", 1.397331951325859e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665247952e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497643174e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.849053497868363e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.391106885331655e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066692429913e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.89887627140036e-09], ["'autoclave' (unit, GLO, None)", 1.863109268434479e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429261551126e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.89430101887841e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059797503871e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.600973956627692e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5652916720943507e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573294213409e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652442977595e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032775287581e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3724116950931934e-12]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.89887627140036e-09], ["'autoclave' (unit, GLO, None)", 1.863109268434479e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.48616694795717e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900740785e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039865002584e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.400649304418461e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3724116950931934e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.3860851035770505e-09], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148971247214e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.1129861162374985e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.916113711826206e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.794663902651719e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230906910425e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776934388095e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697817385e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5596165870968604e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187910530466e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2687126264383752e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'mechanical disinfection' (unit, GLO, None)", 6.930425517885253e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180965e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074485623601e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.0564930581187493e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.524365479989983e-10], ["'wet wipe' (unit, GLO, None)", 5.606174956692578e-10], ["'autoclave' (unit, GLO, None)", 2.0959979269887887e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782523016529e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154494835718e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739563477e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6099167591180963e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7025637334958424e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612697468e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380461968172e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.2581476958571877e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592795305003e-07], ["'autoclave' (unit, GLO, None)", 5.875991472549415e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.99972964773631e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006351812972e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8600584903498902e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022047831044e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782080356757e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947554940675e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012769507503e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452940337715e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592795305003e-07], ["'autoclave' (unit, GLO, None)", 5.875991472549415e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.990474812983907e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827664297703e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337567875315e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9067056602332603e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452940337715e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896829244402e-06], ["'autoclave' (unit, GLO, None)", 7.834655296732553e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152583273e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227374902262e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7230490136972196e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.182469272864237e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317463793506e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.325072280685385e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117626591482e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721906903522e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016434694956e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896829244402e-06], ["'autoclave' (unit, GLO, None)", 7.834655296732553e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60697130418002e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641652265e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.815366009131481e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.454979515242824e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4482016434694956e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'mechanical disinfection' (unit, GLO, None)", 5.682374562542722e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357047505117e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.801324357895e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.858827203906173e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 1.1751982945098835e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176906619599e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.308119471449005e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678916897397e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.520435720694905e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978483875525e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8828872985376633e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.841187281271361e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178523752538e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4006621789475e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.299995114440315e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972719494557e-07], ["'autoclave' (unit, GLO, None)", 8.813987208824123e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.268464942922138e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245795870266e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783379479e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5931828980993672e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299294116e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6149659084022694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086698638022e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.858880676748188e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518799270729], ["'autoclave' (unit, GLO, None)", 0.011758889889984074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792625564753e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768807396669936], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011548500126547406], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040999563863926454], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179353285547], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217494487765], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0064111732074657955], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639031856802e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518799270729], ["'autoclave' (unit, GLO, None)", 0.011758889889984074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039966496237], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098451002158e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179204931113292], ["'mixed heating grid' (megajoule, GLO, None)", -0.007699000084364937], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964639031856802e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490131902], ["'autoclave' (unit, GLO, None)", 0.015678519853312096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500154716001e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021169710742e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514029958884644], ["'mixed heating grid' (megajoule, GLO, None)", -0.003303962060635433], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612345807115], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267572348077], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010766900017782951], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01805964283793182], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319775202299e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490131902], ["'autoclave' (unit, GLO, None)", 0.015678519853312096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307032815842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056128758864815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686639256433], ["'mixed heating grid' (megajoule, GLO, None)", -0.022026413737569552], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.395319775202299e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'mechanical disinfection' (unit, GLO, None)", 0.011363780141121613], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8223144709350846e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.938704930050651e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006459441215195453], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.023517779779968155], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762556581013], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558682098686], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621574224e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.546867616401067e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546594828505], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011640679533064776]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818900705608065], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157235467537e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.693524650253255e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003814492577836441], ["'wet wipe' (unit, GLO, None)", 0.012392257749714723], ["'autoclave' (unit, GLO, None)", 0.01763833483497611], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786615003252], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994761199493], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113243148447e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.935451899527334e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297557269548e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045820622215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430871281805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011543744286562243]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.000717285822073984], ["'autoclave' (unit, DK, None)", 0.0007684225540477247], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228670401408e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576065981134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115363229015722e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.6967504585591164e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038073267751890296], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135588328824e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594272148672e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00017353962504220932], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.263378165661854e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000717285822073984], ["'autoclave' (unit, DK, None)", 0.0007684225540477247], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516220546728e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804403640628e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242152677149e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003131166972372745], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043629122159e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429300185033], ["'autoclave' (unit, DK, None)", 0.0010245634053969662], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.966432978627689e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894977713571e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.180043988087093e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143484701762], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985956657864], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.13615731299217e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140502889352e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440142034066], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4973977756107615e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429300185033], ["'autoclave' (unit, DK, None)", 0.0010245634053969662], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735832526e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176292155843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002120029325391397], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095656467841], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4973977756107615e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940479100887], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930030139469], ["'autoclave' (unit, DK, None)", 0.00153684510809545], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861427455324e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813226671076], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717907197195086e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.843849670589101e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659920557007476e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671749099658e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940479100887], ["'wet wipe' (unit, GLO, None)", 0.0002486553731851088], ["'autoclave' (unit, DK, None)", 0.00153684510809545], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861427455324e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813226671076], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717907197195086e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.843849670589101e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759431159e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576065981134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085363877208e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.734239627289776e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003400295809649526], ["'mechanical disinfection' (unit, DK, None)", 0.00036314650150697344], ["'autoclave' (unit, DK, None)", 0.0011526338310715871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204296034426e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665768384649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439439017e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.647304115772017e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960278503714e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.942335874549829e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003400295809649526], ["'wet wipe' (unit, GLO, None)", 0.0002486553731851088], ["'autoclave' (unit, DK, None)", 0.0011526338310715871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204296034426e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665768384649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439439017e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6473041157720168e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759431159e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576065981134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110785761092198e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.6948162685442766e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010127049158], ["'autoclave' (unit, DK, None)", 0.217815070977597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149098683], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284874782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296257814384], ["'mixed heating grid' (megajoule, DK, None)", -0.01374832333410262], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404957498], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00447100999595775], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566237004007], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.069146993801543], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0002027925358445434]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010127049158], ["'autoclave' (unit, DK, None)", 0.217815070977597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18111252743794454], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089340403364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308385429233], ["'mixed heating grid' (megajoule, DK, None)", -0.09165548889401748], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018790802093500607]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726050600442], ["'autoclave' (unit, DK, None)", 0.29042009463679597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424464394], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502053241], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471457679818], ["'mixed heating grid' (megajoule, DK, None)", -0.03933319322463744], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40438845834896464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437851911673], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048224262414], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026422969863], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005769319295071028]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726050600442], ["'autoclave' (unit, DK, None)", 0.29042009463679597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336280128], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893464012], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314305119885], ["'mixed heating grid' (megajoule, DK, None)", -0.2622212881642496], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005769319295071028]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315824864026], ["'mechanical disinfection' (unit, DK, None)", 0.21668038171034668], ["'autoclave' (unit, DK, None)", 0.4356301419551941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750434775067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219782183425], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910273098], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.792733819117885e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391719419251e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003407960947]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315824864026], ["'wet wipe' (unit, GLO, None)", 0.05727539181197584], ["'autoclave' (unit, DK, None)", 0.4356301419551941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750434775067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219782183425], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910273098], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.792733819117885e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595040939778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284874782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999571265618], ["'mixed heating grid' (megajoule, DK, None)", -0.013858061592028709]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538934153083], ["'mechanical disinfection' (unit, DK, None)", 0.10834019085517334], ["'autoclave' (unit, DK, None)", 0.3267226064663955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224830275205], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059893447463], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820546196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.346892973109286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695859709615e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001703980473]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538934153083], ["'wet wipe' (unit, GLO, None)", 0.05727539181197584], ["'autoclave' (unit, DK, None)", 0.3267226064663955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224830275205], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059893447463], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820546196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0006346892973109285], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595040939778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284874782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0045964026126685325], ["'mixed heating grid' (megajoule, DK, None)", -0.013742661574988902]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919643349559], ["'autoclave' (unit, DK, None)", 0.04364214471464312], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505907045216], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158834211], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758003842717277], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275268026486], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668953054467275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000506578801114519], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063793312268], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427519925441], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.94816894382198e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919643349559], ["'autoclave' (unit, DK, None)", 0.04364214471464312], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181310377], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169373827955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386692284781847], ["'mixed heating grid' (megajoule, DK, None)", -0.004605516845350991], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337374672907e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264061014], ["'autoclave' (unit, DK, None)", 0.05818952628619083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485826823], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455281152], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890496566283441], ["'mixed heating grid' (megajoule, DK, None)", -0.0019764193739338306], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194904005396418], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546441310765], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981715754975], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.037080077520916736], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.8301911014227722e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264061014], ["'autoclave' (unit, DK, None)", 0.05818952628619083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403186022], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210355822865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331044188964], ["'mixed heating grid' (megajoule, DK, None)", -0.01317612915955887], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.8301911014227722e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766951221644], ["'mechanical disinfection' (unit, DK, None)", 0.04428851026145065], ["'autoclave' (unit, DK, None)", 0.08728428942928627], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142007316], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532150982925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684862442454e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8605594448730352e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000076532177e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597269925539671e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766951221644], ["'wet wipe' (unit, GLO, None)", 0.002171900759362438], ["'autoclave' (unit, DK, None)", 0.08728428942928627], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142007316], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532150982925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684862442454e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8605594448730352e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613310202594e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158834211], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018057083507], ["'mixed heating grid' (megajoule, DK, None)", -0.0006963416689621265]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413214482418], ["'mechanical disinfection' (unit, DK, None)", 0.022144255130725325], ["'autoclave' (unit, DK, None)", 0.06546321707196469], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416363681], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002075474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972488491e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.1135250270379557e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000038266082e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.7986349627698355e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413214482418], ["'wet wipe' (unit, GLO, None)", 0.002171900759362438], ["'autoclave' (unit, DK, None)", 0.06546321707196469], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416363681], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002075474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972488491e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.1135250270379554e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613310202594e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158834211], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027568680567008526], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430339993567]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273941998863], ["'autoclave' (unit, DK, None)", 0.054955642592715216], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014180384466], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631844207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035968294289134134], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034489822524358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720444373335], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363968925497], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343798225757], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326736539255174], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3407924329680547e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273941998863], ["'autoclave' (unit, DK, None)", 0.054955642592715216], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373895395299], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733002156643], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978862859422756], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993215016239], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4091862270501348e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605938731101], ["'autoclave' (unit, DK, None)", 0.07327419012362028], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372239865882], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000755375537511628], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001029033020867253], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847176069384004], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848932838858], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002045808573171751], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618869483365], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807708561282186], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.814469611513548e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605938731101], ["'autoclave' (unit, DK, None)", 0.07327419012362028], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038781334916606486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502818366915035], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860220139115025], ["'mixed heating grid' (megajoule, DK, None)", -0.017231450712922668], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.814469611513548e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274688995001], ["'mechanical disinfection' (unit, DK, None)", 0.05570285041511723], ["'autoclave' (unit, DK, None)", 0.10991128518543047], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330505601], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512551295486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325498096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.507621290772533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038178871692537e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166653476633623e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274688995001], ["'wet wipe' (unit, GLO, None)", 0.002406925424488644], ["'autoclave' (unit, DK, None)", 0.10991128518543047], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330505601], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512551295486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325498096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.507621290772533e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8488878202963435e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631844207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003625539096703017], ["'mixed heating grid' (megajoule, DK, None)", -0.000910660255585785]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549529391025], ["'mechanical disinfection' (unit, DK, None)", 0.027851425207558615], ["'autoclave' (unit, DK, None)", 0.08243346388907283], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288492115], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534627339444], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650996192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.196340874067741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190894358462604e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583326738316812e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549529391025], ["'wet wipe' (unit, GLO, None)", 0.002406925424488644], ["'autoclave' (unit, DK, None)", 0.08243346388907283], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288492115], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534627339444], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650996192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.1963408740677404e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8488878202963435e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631844207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953482023445626], ["'mixed heating grid' (megajoule, DK, None)", -0.0009030769288474682]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796774574083], ["'autoclave' (unit, DK, None)", 2.2736772203682296], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229007505302], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0962709630172606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779092358566919], ["'mixed heating grid' (megajoule, DK, None)", -0.06859047847583957], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276612061607], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.038297132727656585], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420197995719041], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064373148544715], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005649494164305453]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796774574083], ["'autoclave' (unit, DK, None)", 2.2736772203682296], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619247970809], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008267298024], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186061572377946], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698565055972], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823540203671]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.92602184104226], ["'autoclave' (unit, DK, None)", 3.03156962715764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882142748663], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287401719], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942122170310549], ["'mixed heating grid' (megajoule, DK, None)", -0.1962335681012429], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314967723065], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321500556837], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934815164648], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950182688654], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0016072453334527224]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.92602184104226], ["'autoclave' (unit, DK, None)", 3.03156962715764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492005421963608], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514587871623], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2628081446873701], ["'mixed heating grid' (megajoule, DK, None)", -1.3082237873416191], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0016072453334527224]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595044089006], ["'mechanical disinfection' (unit, DK, None)", 2.2763281784356075], ["'autoclave' (unit, DK, None)", 4.547354440736461], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125740806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110588467417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831348947256], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00010565984338938365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131656920337586], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629373381546]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595044089006], ["'wet wipe' (unit, GLO, None)", 0.1405603072113241], ["'autoclave' (unit, DK, None)", 4.547354440736461], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125740806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110588467417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831348947256], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00010565984338938365], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541545893186], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0962709630172606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889076212923956], ["'mixed heating grid' (megajoule, DK, None)", -0.06913796338984249]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091722837605], ["'mechanical disinfection' (unit, DK, None)", 1.1381640892178038], ["'autoclave' (unit, DK, None)", 3.410515830552345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612339279847], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863526467885804], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269789451], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00017681486482588906], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565828460168763], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314686690773]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091722837605], ["'wet wipe' (unit, GLO, None)", 0.1405603072113241], ["'autoclave' (unit, DK, None)", 3.410515830552345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612339279847], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863526467885804], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269789451], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0017681486482588903], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541545893186], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0962709630172606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773417928322302], ["'mixed heating grid' (megajoule, DK, None)", -0.0685622319211734]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.149743328941828], ["'autoclave' (unit, DK, None)", 0.05605607034561145], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6462984237805484e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212720241084e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278704422536], ["'mixed heating grid' (megajoule, DK, None)", -0.003944285845810205], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842864437], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396985239172], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896065199448], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736301295318], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5102278830384145e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.149743328941828], ["'autoclave' (unit, DK, None)", 0.05605607034561145], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057832602046], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6224751052858046e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185802948358], ["'mixed heating grid' (megajoule, DK, None)", -0.02629523897206804], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.652792128949066e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.428408511775361], ["'autoclave' (unit, DK, None)", 0.07474142712748193], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274975752396], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319252256254e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812216976938], ["'mixed heating grid' (megajoule, DK, None)", -0.01128438381439781], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2912395485574428], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641411884883], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00314880913105733], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629944026851], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00012831312869783339]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.428408511775361], ["'autoclave' (unit, DK, None)", 0.07474142712748193], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000868466995099168], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001091227026214018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541477984627], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922542931872], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00012831312869783339]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02991410371379571], ["'mechanical disinfection' (unit, DK, None)", 0.05608788904012815], ["'autoclave' (unit, DK, None)", 0.11211214069122294], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001403631871022144], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00889648591938603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610053172962e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.435267971125644e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342801873993e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471473358657e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02991410371379571], ["'wet wipe' (unit, GLO, None)", 0.03226030810530896], ["'autoclave' (unit, DK, None)", 0.11211214069122294], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001403631871022144], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00889648591938603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610053172962e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.435267971125644e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3533594850008e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212720241084e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638878825408], ["'mixed heating grid' (megajoule, DK, None)", -0.003975768889012141]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000451083542], ["'mechanical disinfection' (unit, DK, None)", 0.028043944520064076], ["'autoclave' (unit, DK, None)", 0.08408410551841718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998754319802], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568769591089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220106345925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4115871444066432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171400936971e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735736679328e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000451083542], ["'wet wipe' (unit, GLO, None)", 0.03226030810530896], ["'autoclave' (unit, DK, None)", 0.08408410551841718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998754319802], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568769591089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220106345925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001411587144406643], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3533594850008e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212720241084e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307164816067], ["'mixed heating grid' (megajoule, DK, None)", -0.003942661531645348]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664507749736e-05], ["'autoclave' (unit, DK, None)", 0.00021319075259391415], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850653478687e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568386647288e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177487258668e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225170169224e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699809734923e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887977208893e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066649178712e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.972093247797676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.4435267154432945e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664507749736e-05], ["'autoclave' (unit, DK, None)", 0.00021319075259391415], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.680168594763539e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907047905589523e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.404878499150578e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7581501134461493e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361146147252e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287132891481], ["'autoclave' (unit, DK, None)", 0.0002842543367918855], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296960751442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.556284402942163e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336711993681e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.1836372558132109e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117496117445e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419121624208502e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.9846046714857465e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093655768104e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.951678851846587e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287132891481], ["'autoclave' (unit, DK, None)", 0.0002842543367918855], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328692810240543e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520620803446e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224474662459e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.890915038754739e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.951678851846587e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.9054965041257384e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0002004890628133068], ["'autoclave' (unit, DK, None)", 0.00042638150518782846], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.94015118487701e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338791942682e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567716088381e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5700135722373015e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786142858086e-08], ["'mixed heating grid' (megajoule, DK, None)", -6.945368442866937e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.9054965041257384e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083942062e-05], ["'autoclave' (unit, DK, None)", 0.00042638150518782846], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.94015118487701e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338791942682e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567716088381e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5700135722373015e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681227683874e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568386647288e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6361111336289553e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.1702482430043056e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008317694695e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0001002445314066534], ["'autoclave' (unit, DK, None)", 0.00031978612889087125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273917627587e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.89031388113401e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135432176762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.647620004979172e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893071429035e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.4726842214334686e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008317694695e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083942062e-05], ["'autoclave' (unit, DK, None)", 0.00031978612889087125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273917627587e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.89031388113401e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135432176762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.647620004979172e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681227683874e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568386647288e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6058322029146736e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521400789971e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.737268587160864e-06], ["'autoclave' (unit, DK, None)", 0.0001474554573619763], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205550949204e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577824113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968666487837e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.587618377595958e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343110811445e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238699032594e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596878298287e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2932652426493159e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5525157208188965e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.737268587160864e-06], ["'autoclave' (unit, DK, None)", 0.0001474554573619763], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363936204997e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327374383606e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979110991892e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.391745585063972e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274704182137e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.241806636872244e-05], ["'autoclave' (unit, DK, None)", 0.00019660727648263508], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.212058207418326e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5505663083524157e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246407924643e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0263977899924244e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.5974475643012344e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7900718414564114e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.2285470651269936e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.6430006835192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2951619091823378e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.241806636872244e-05], ["'autoclave' (unit, DK, None)", 0.00019660727648263508], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384207381691e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398830674136e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497605283099e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.842651933282829e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2951619091823378e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613747075537e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238672315694e-05], ["'autoclave' (unit, DK, None)", 0.00029491091472395273], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379006478655e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.024437776020866e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715898377175e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.51435693355686e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4021819350737405e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.022715815534221e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613747075537e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843702086e-05], ["'autoclave' (unit, DK, None)", 0.00029491091472395273], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379006478655e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.024437776020866e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715898377175e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.51435693355686e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963664338e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577824113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227876410331e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.6162545233494135e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897841978537e-06], ["'mechanical disinfection' (unit, DK, None)", 4.418619336157847e-05], ["'autoclave' (unit, DK, None)", 0.0002211831860429645], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823951245489e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679328080284e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179675435e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4248221670537622e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010909675368645e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579077671105e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897841978537e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843702086e-05], ["'autoclave' (unit, DK, None)", 0.0002211831860429645], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823951245489e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679328080284e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179675435e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.424822167053762e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963664338e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577824113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216966734968e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.586140944271742e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520075714522], ["'autoclave' (unit, DK, None)", 0.020359423199683608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405896061398e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773091162876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686890084594847], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698007829154], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564575606418], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835621690293], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651099690088], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0076803505234724605], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.5465667358779687e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520075714522], ["'autoclave' (unit, DK, None)", 0.020359423199683608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213258134198], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130309426983e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002445792672306323], ["'mixed heating grid' (megajoule, DK, None)", -0.004033132005219436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172250361424251e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02806666519360916], ["'autoclave' (unit, DK, None)", 0.027145897599578143], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121369220593], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.238921419259253e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495916494260955], ["'mixed heating grid' (megajoule, DK, None)", -0.001730785164925567], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800957832635], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001540620429829117], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089282422684], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.021634790206964682], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.399884479602195e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02806666519360916], ["'autoclave' (unit, DK, None)", 0.027145897599578143], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403544039998], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000215599936418777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997277662840641], ["'mixed heating grid' (megajoule, DK, None)", -0.011538567766170446], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.399884479602195e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060802820972], ["'mechanical disinfection' (unit, DK, None)", 0.01975197940074708], ["'autoclave' (unit, DK, None)", 0.04071884639936723], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953504700138], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904982454019], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905413142275005e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.892471331974302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813170182158e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0155932999588937e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060802820972], ["'wet wipe' (unit, GLO, None)", 0.002277559824093404], ["'autoclave' (unit, DK, None)", 0.04071884639936723], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953504700138], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904982454019], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905413142275005e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.892471331974302e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593852475553e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773091162876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036979722549235964], ["'mixed heating grid' (megajoule, DK, None)", -0.0006097986319372666]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628226077453], ["'mechanical disinfection' (unit, DK, None)", 0.00987598970037354], ["'autoclave' (unit, DK, None)", 0.030539134799525414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456857654716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971383243785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082628455001e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.840362347415541e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.079406585091071e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.077966499794469e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628226077453], ["'wet wipe' (unit, GLO, None)", 0.002277559824093404], ["'autoclave' (unit, DK, None)", 0.030539134799525414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456857654716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971383243785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082628455001e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.8403623474155405e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593852475553e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773091162876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781890726943], ["'mixed heating grid' (megajoule, DK, None)", -0.000604720665437472]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1526597169823759], ["'autoclave' (unit, DK, None)", 0.6181739946338749], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663925028295], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718140822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065040411243010585], ["'mixed heating grid' (megajoule, DK, None)", -0.01673607503213501], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010388228657], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360030858471], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156742849823], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2478888536445227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00021013730209232462]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1526597169823759], ["'autoclave' (unit, DK, None)", 0.6181739946338749], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149646858576644], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242211819978], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04336027416200706], ["'mixed heating grid' (megajoule, DK, None)", -0.11157383354756674], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000254941725902863]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104054515319], ["'autoclave' (unit, DK, None)", 0.8242319928451666], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04906239410545397], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699709454], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01860770219511424], ["'mixed heating grid' (megajoule, DK, None)", -0.04788098570740837], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989503292578], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316597729377], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835305145955], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784609704866], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005978273246234171]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104054515319], ["'autoclave' (unit, DK, None)", 0.8242319928451666], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32384418551454763], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.041987277089251374], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405134796742837], ["'mixed heating grid' (megajoule, DK, None)", -0.3192065713827224], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005978273246234171]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243932569105], ["'mechanical disinfection' (unit, DK, None)", 0.593908259585257], ["'autoclave' (unit, DK, None)", 1.2363479892677502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956173547], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502810775896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225811894994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.930099542296325e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918661691788396], ["'mixed heating grid' (megajoule, DK, None)", -0.00028095692790365887]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243932569105], ["'wet wipe' (unit, GLO, None)", 0.04360781142279914], ["'autoclave' (unit, DK, None)", 1.2363479892677502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956173547], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502810775896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225811894994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.930099542296325e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821568229142], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718140822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555955974215143], ["'mixed heating grid' (megajoule, DK, None)", -0.016869661337454954]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187453291645], ["'mechanical disinfection' (unit, DK, None)", 0.2969541297926285], ["'autoclave' (unit, DK, None)", 0.9272609919508125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035292193452], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576089893791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162378999], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.576765562319906e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.459330845894184e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846395182943]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187453291645], ["'wet wipe' (unit, GLO, None)", 0.04360781142279914], ["'autoclave' (unit, DK, None)", 0.9272609919508125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035292193452], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576089893791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162378999], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0006576765562319906], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821568229142], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718140822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501362665756217], ["'mixed heating grid' (megajoule, DK, None)", -0.016729182873503123]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457601747], ["'autoclave' (unit, DK, None)", 0.0599563207425555], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019082045309494e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331470986162e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064964518666], ["'mixed heating grid' (megajoule, DK, None)", -0.0011790429759568248], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495606804585], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000745156871613], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831841625238], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512592229555], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.45798630176187e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457601747], ["'autoclave' (unit, DK, None)", 0.0599563207425555], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.666867525392281e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983082379880184e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376643012443], ["'mixed heating grid' (megajoule, DK, None)", -0.007860286506378832], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814514363140475e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183542762093], ["'autoclave' (unit, DK, None)", 0.079941760990074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381138875969877e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229852793095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041810577648], ["'mixed heating grid' (megajoule, DK, None)", -0.0033731767915602608], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463995292682], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051475731067], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661955616450164], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933124571706], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.121749900406304e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183542762093], ["'autoclave' (unit, DK, None)", 0.079941760990074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302888428962e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280661889629e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612070517676], ["'mixed heating grid' (megajoule, DK, None)", -0.022487845277068406], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.121749900406304e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255867806], ["'mechanical disinfection' (unit, DK, None)", 0.06180787292975922], ["'autoclave' (unit, DK, None)", 0.11991264148511102], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867834757185], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604798269992], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234574824254e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3948322482092612e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.344217975806836e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9793188770674292e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255867806], ["'wet wipe' (unit, GLO, None)", 0.00322826864487587], ["'autoclave' (unit, DK, None)", 0.11991264148511102], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867834757185], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604798269992], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234574824254e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3948322482092612e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263612022744723e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331470986162e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525258660244], ["'mixed heating grid' (megajoule, DK, None)", -0.0011884540233301835]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160176148947], ["'mechanical disinfection' (unit, DK, None)", 0.03090393646487961], ["'autoclave' (unit, DK, None)", 0.08993448111383325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083633088], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071019827672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846914964851e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.334160902671674e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089879034149e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.896594385337146e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160176148947], ["'wet wipe' (unit, GLO, None)", 0.00322826864487587], ["'autoclave' (unit, DK, None)", 0.08993448111383325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083633088], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071019827672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846914964851e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.334160902671674e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263612022744723e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331470986162e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314359869934], ["'mixed heating grid' (megajoule, DK, None)", -0.0011785574289448462]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004108042020145753], ["'autoclave' (unit, DK, None)", 0.040443094426055315], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.800012336772795e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002940734268e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384633177133], ["'mixed heating grid' (megajoule, DK, None)", -0.00829424045243007], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414828494242], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994618964369696], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944015824970759], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670371344663], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.616970441707488e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004108042020145753], ["'autoclave' (unit, DK, None)", 0.040443094426055315], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521113165273e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.14631939258148e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0063975897554514214], ["'mixed heating grid' (megajoule, DK, None)", -0.05529493634953381], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.700850016286176e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01197444742304666], ["'autoclave' (unit, DK, None)", 0.053924125901407084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929006897590251e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054747720863e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726068190404], ["'mixed heating grid' (megajoule, DK, None)", -0.0237293635332101], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031240074848410946], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885319373404], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104180833106735], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681794744977], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.445115275617188e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01197444742304666], ["'autoclave' (unit, DK, None)", 0.053924125901407084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233667919201487e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528844227566e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150712126952], ["'mixed heating grid' (megajoule, DK, None)", -0.1581957568880673], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.445115275617188e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534730038187], ["'mechanical disinfection' (unit, DK, None)", 0.04155330480202239], ["'autoclave' (unit, DK, None)", 0.08088618885211066], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455087717314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247983130258], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126956709594e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.89439725015546e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934619332208e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001392395954448424]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534730038187], ["'wet wipe' (unit, GLO, None)", 0.012616880236435866], ["'autoclave' (unit, DK, None)", 0.08088618885211066], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455087717314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247983130258], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126956709594e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.89439725015546e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028495818837e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002940734268e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000967298237578485], ["'mixed heating grid' (megajoule, DK, None)", -0.008360444561538562]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774936138869], ["'mechanical disinfection' (unit, DK, None)", 0.020776652401011196], ["'autoclave' (unit, DK, None)", 0.06066464163908297], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336851363615], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003326656922753977], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253913419188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.19045495838198e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967309666084e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.96197977224212e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774936138869], ["'wet wipe' (unit, GLO, None)", 0.012616880236435866], ["'autoclave' (unit, DK, None)", 0.06066464163908297], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336851363615], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003326656922753977], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253913419188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.190454958381979e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028495818837e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002940734268e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432702688211], ["'mixed heating grid' (megajoule, DK, None)", -0.008290824763816141]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545175767611], ["'autoclave' (unit, DK, None)", 0.0046835686232976955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.030527984294398e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283713356625e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255166950469125e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012522722548607], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564745513341], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752206320633], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596430287942], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924128461483], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.218120652481561e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545175767611], ["'autoclave' (unit, DK, None)", 0.0046835686232976955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082886439465e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221339091988e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083677796697942], ["'mixed heating grid' (megajoule, DK, None)", -0.0008008348481699072], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.1447086272581e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031643006453], ["'autoclave' (unit, DK, None)", 0.006244758164396928], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241050579687e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217782951324127e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013233347624199], ["'mixed heating grid' (megajoule, DK, None)", -0.0003436716360818645], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404085054107], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00034884788193780545], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003668956833883162], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218064355349], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.484522299550925e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031643006453], ["'autoclave' (unit, DK, None)", 0.006244758164396928], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205313913986], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533332340374e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822231749466007], ["'mixed heating grid' (megajoule, DK, None)", -0.002291144240545763], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.484522299550925e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634344692336], ["'mechanical disinfection' (unit, DK, None)", 0.003577627808378828], ["'autoclave' (unit, DK, None)", 0.009367137246595394], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914806590626], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291086691322], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691037754937e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.75920666334368e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088039532305e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.016602742291606e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634344692336], ["'wet wipe' (unit, GLO, None)", 0.0004352277269156194], ["'autoclave' (unit, DK, None)", 0.009367137246595394], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914806590626], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291086691322], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691037754937e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.75920666334368e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697759325652e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283713356625e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6624372803275385e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012108405928437441]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390120859816], ["'mechanical disinfection' (unit, DK, None)", 0.001788813904189414], ["'autoclave' (unit, DK, None)", 0.007025352934946544], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275419523067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376457263816], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338207550987e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6331396599064126e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440197661425e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.008301371145803e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390120859816], ["'wet wipe' (unit, GLO, None)", 0.0004352277269156194], ["'autoclave' (unit, DK, None)", 0.007025352934946544], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275419523067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376457263816], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338207550987e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6331396599064123e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697759325652e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283713356625e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611840129888e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001200757579132286]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.65614584355328e-08], ["'autoclave' (unit, DK, None)", 2.421308690381217e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.991733048347479e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938737044e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973070442205e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459470082736e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.628140314254302e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718269849167e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744201337985e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261599725856e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2615856817999725e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.65614584355328e-08], ["'autoclave' (unit, DK, None)", 2.421308690381217e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.321617256380103e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.601892805546957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315380294803e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.56830631338849e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450849030787e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684927581652e-07], ["'autoclave' (unit, DK, None)", 3.2284115871749563e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.64014124905875e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059490355e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461007458582e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.6770176221752525e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141295236984e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099673449749e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023356386546e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200450627002e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5891314175258704e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684927581652e-07], ["'autoclave' (unit, DK, None)", 3.2284115871749563e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655109298684e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8255092766820296e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307338305727e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.4513450814501677e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5891314175258704e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.248588106852031e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986248091488e-07], ["'autoclave' (unit, DK, None)", 4.842617380762436e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540154532333e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680770823633e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974670697e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.359484613746151e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030424607965e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.1576071580626046e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.248588106852031e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192360168296e-07], ["'autoclave' (unit, DK, None)", 4.842617380762436e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540154532333e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680770823633e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974670697e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.359484613746151e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749585354e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938737044e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793533294899e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2955046998615325e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624516684163e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993124045744e-07], ["'autoclave' (unit, DK, None)", 3.631963035571826e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890336673e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268054873661e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437949341395e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.948443795253711e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8720152123039724e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035790313023e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624516684163e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192360168296e-07], ["'autoclave' (unit, DK, None)", 3.631963035571826e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890336673e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268054873661e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437949341395e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.948443795253711e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749585354e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938737044e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.61107338117187e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166640712193e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847793968818], ["'autoclave' (unit, DK, None)", 0.0002658426977056787], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864366034579e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489092196338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498111119766335e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.005682541656525e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075366876992], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842737675299e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408020690202e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.56053578133215e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.452795634681082e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847793968818], ["'autoclave' (unit, DK, None)", 0.0002658426977056787], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881962508926e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5977674954373747e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.499874074651089e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013371216944376834], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759187037093e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184136332457], ["'autoclave' (unit, DK, None)", 0.00035445693027423824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.669010189634091e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.080695331497794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728002349014918e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.7381469027988436e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040606006827302794], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.414214804543051e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933377319864e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283891076482], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.978048340437635e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184136332457], ["'autoclave' (unit, DK, None)", 0.00035445693027423824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568908475848e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221203587139e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.15200156600995e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003825431268532562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.978048340437635e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024717290273516064], ["'mechanical disinfection' (unit, DK, None)", 0.00024985916403735185], ["'autoclave' (unit, DK, None)", 0.0005316853954113575], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175363752627e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801798010854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944026044301e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.587348797773796e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294996934568361e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.367040385346151e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024717290273516064], ["'wet wipe' (unit, GLO, None)", 7.631932903600988e-05], ["'autoclave' (unit, DK, None)", 0.0005316853954113575], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175363752627e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801798010854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944026044301e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.587348797773796e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.74943714059264e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489092196338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797418700029147e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0216917743989786e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109497166474], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958201867593], ["'autoclave' (unit, DK, None)", 0.000398764046558518], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631606924199e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137375722764e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888052088603e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.676629375631615e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1474984672841724e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835201926730754e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109497166474], ["'wet wipe' (unit, GLO, None)", 7.631932903600988e-05], ["'autoclave' (unit, DK, None)", 0.000398764046558518], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631606924199e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137375722764e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888052088603e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.676629375631614e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.74943714059264e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489092196338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7482668853300818e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0048565724722475e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000581295618231238], ["'autoclave' (unit, DK, None)", 0.0004601527919996568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164530609e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280410685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831648519839e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.969396144482394e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488873691182], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.04998312917207e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.02804344356828e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00014443476947444508], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.178881160918412e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000581295618231238], ["'autoclave' (unit, DK, None)", 0.0004601527919996568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817914175067e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.373699712714283e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887765679893e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003312930762988263], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.570750322387108e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931910604501], ["'autoclave' (unit, DK, None)", 0.0006135370559995424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491307035276e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.526749938766161e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816683622606757e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000142171677237072], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349478932134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.160143398479046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894279799907e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585055618172], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6113335960967254e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931910604501], ["'autoclave' (unit, DK, None)", 0.0006135370559995424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990961739456e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864334036147e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211122415071185], ["'mixed heating grid' (megajoule, DK, None)", -0.0009478111815804798], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6113335960967254e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655875178556], ["'mechanical disinfection' (unit, DK, None)", 0.00045337131496390917], ["'autoclave' (unit, DK, None)", 0.0009203055839993139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754276492752e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184334818186], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636052313e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.7166831538299942e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5148761062673847e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.342375805612949e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655875178556], ["'wet wipe' (unit, GLO, None)", 0.0010932762475810679], ["'autoclave' (unit, DK, None)", 0.0009203055839993139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754276492752e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184334818186], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636052313e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.7166831538299942e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298462092e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280410685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.09585930897428e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.009061554044549e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019703794243301678], ["'mechanical disinfection' (unit, DK, None)", 0.00022668565748195458], ["'autoclave' (unit, DK, None)", 0.0006902291879994852], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758167734113e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672318751e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367272104627e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.872757426629212e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380531336904e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879028064745e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019703794243301678], ["'wet wipe' (unit, GLO, None)", 0.0010932762475810679], ["'autoclave' (unit, DK, None)", 0.0006902291879994852], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758167734113e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672318751e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367272104627e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.872757426629212e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298462092e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280410685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115503660933e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349675016484e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006158725335396966], ["'autoclave' (unit, DK, None)", 0.0004716821380504725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814575114569e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879815023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223260449148e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.141906536603449e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610961838286], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.100768085585286e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660502753803e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015237824035602168], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.73364689367885e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006158725335396966], ["'autoclave' (unit, DK, None)", 0.0004716821380504725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900451694804e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655678555525e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482173632766e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034279376910689664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192600763166e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001763208261808474], ["'autoclave' (unit, DK, None)", 0.0006289095174006299], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381460371164e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.534875816017562e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.639857578340879e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001471071042136287], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864012437929], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991325547948e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577422972532085e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004292344798761175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.769160935891546e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001763208261808474], ["'autoclave' (unit, DK, None)", 0.0006289095174006299], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802944139382e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954519995322e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001759905052227254], ["'mixed heating grid' (megajoule, DK, None)", -0.000980714028090858], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.769160935891546e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706327985577], ["'mechanical disinfection' (unit, DK, None)", 0.00046454153622891144], ["'autoclave' (unit, DK, None)", 0.0009433642761009452], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526694658655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433558165537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761343617e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8204383905582914e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204814206443e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.631977696789485e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706327985577], ["'wet wipe' (unit, GLO, None)", 0.0016909050544586007], ["'autoclave' (unit, DK, None)", 0.0009433642761009452], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526694658655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433558165537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761343617e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8204383905582914e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503364533e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879815023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874380043114e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.182948913337925e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120715992099728], ["'mechanical disinfection' (unit, DK, None)", 0.00023227076811445572], ["'autoclave' (unit, DK, None)", 0.0007075232070757087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480932609921e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971390836134e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039522687235e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.046385056281134e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102407103202e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.3159888483947424e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120715992099728], ["'wet wipe' (unit, GLO, None)", 0.0016909050544586007], ["'autoclave' (unit, DK, None)", 0.0007075232070757087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480932609921e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971390836134e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039522687235e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.046385056281134e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503364533e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879815023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423355972103e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.139789024853977e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869314090184], ["'autoclave' (unit, DK, None)", 0.003992612975488287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709482036e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542900707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331484703431e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.766592253855871e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391695876904], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837232879574e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813547098425e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000561125922285235], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.362331398037155e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869314090184], ["'autoclave' (unit, DK, None)", 0.003992612975488287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209193759303], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669036411757e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887656468954], ["'mixed heating grid' (megajoule, DK, None)", -0.0005844394835903914], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507655928202867e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781211245484], ["'autoclave' (unit, DK, None)", 0.005323483967317716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391882233393055e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.02581170973792e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693192413422], ["'mixed heating grid' (megajoule, DK, None)", -0.0002508073593142838], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135567865456], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.520737419604532e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892253295118e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806364008034792], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.241055673049178e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781211245484], ["'autoclave' (unit, DK, None)", 0.005323483967317716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321672561423], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449132013995e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001470779546160896], ["'mixed heating grid' (megajoule, DK, None)", -0.0016720490620952251], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.241055673049178e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496348008088], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468215059556], ["'autoclave' (unit, DK, None)", 0.007985225950976576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955414064135e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000253185884455815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037866848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.158664102025187e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.294540087702185e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.471692032389957e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496348008088], ["'wet wipe' (unit, GLO, None)", 0.009527755134683626], ["'autoclave' (unit, DK, None)", 0.007985225950976576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955414064135e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000253185884455815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037866848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.158664102025187e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23919432271174e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542900707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.77288285084876e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.836566645533158e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656309040834], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234107529778], ["'autoclave' (unit, DK, None)", 0.00598891946323243], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495174579906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854007788658], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075733695e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3652992888160592e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700438510908e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.358460161949785e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656309040834], ["'wet wipe' (unit, GLO, None)", 0.009527755134683626], ["'autoclave' (unit, DK, None)", 0.00598891946323243], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495174579906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854007788658], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075733695e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.365299288816059e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23919432271174e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542900707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155846463671e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.762982043913659e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.012221229769225e-09], ["'autoclave' (unit, DK, None)", 1.3973319403955308e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171364473e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612523339e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802180169356e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664766367516e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389235980209e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.95021306334896e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903375933403645e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076441643093967e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.594648254511698e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.012221229769225e-09], ["'autoclave' (unit, DK, None)", 1.3973319403955308e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665111005e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497527035e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.849053478677957e-10], ["'mixed heating grid' (megajoule, DK, None)", -8.851109844245012e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066579199377e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.898876273542128e-09], ["'autoclave' (unit, DK, None)", 1.863109253860708e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429260966687e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894301018825852e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059715149834e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.7983804129695014e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5652916723785356e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573297458034e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652447614027e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032797447796e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.445123031900638e-12]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.898876273542128e-09], ["'autoclave' (unit, DK, None)", 1.863109253860708e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4861669479185932e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900390929e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039810099894e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.532253608646334e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.445123031900638e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996818457859e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860850960795657e-09], ["'autoclave' (unit, DK, None)", 2.7946638807910625e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091277661e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776919445197e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697693837e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6074168096254476e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148922923362e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.2288206394886793e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996818457859e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960935218e-10], ["'autoclave' (unit, DK, None)", 2.7946638807910625e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091277661e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776919445197e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697693837e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6074168096254476e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563733518244e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612523339e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187620376727e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.338263827507282e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371445243727e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425480397829e-10], ["'autoclave' (unit, DK, None)", 2.0959979105932963e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782526519189e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154485899075e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157395387675e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.689907317630402e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074461461675e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103197443396e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371445243727e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960935218e-10], ["'autoclave' (unit, DK, None)", 2.0959979105932963e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782526519189e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154485899075e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157395387675e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6899073176304014e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563733518244e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612523339e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380174230623e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197243098385e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592799958188e-07], ["'autoclave' (unit, DK, None)", 5.875991437987567e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647589928e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.61496590824517e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.51800618091686e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850486612567e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022054268706e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782082995866e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947575972298e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012814986232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.43601992912951e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592799958188e-07], ["'autoclave' (unit, DK, None)", 5.875991437987567e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748128867745e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827663249897e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337453944573e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.096323365774171e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452883266748e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896832125682e-06], ["'autoclave' (unit, DK, None)", 7.834655250650089e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.494561525418209e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227374428081e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7230489648047865e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.996197936673684e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.30831746560543e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3250722886283344e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117632927005e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721919714432e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2620195937618445e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896832125682e-06], ["'autoclave' (unit, DK, None)", 7.834655250650089e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971303906409e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641336626e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153659765365259e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.997465291115789e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2620195937618445e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053965999653583e-07], ["'mechanical disinfection' (unit, DK, None)", 5.682374494940922e-07], ["'autoclave' (unit, DK, None)", 1.1751982875975138e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176910727261e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194703788864e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767891548434e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.296480310492216e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978356760613201e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.278805558737693e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053965999653583e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972754071892e-07], ["'autoclave' (unit, DK, None)", 1.1751982875975138e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176910727261e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194703788864e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767891548434e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.296480310492216e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299093918e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.61496590824517e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.59397831161533e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1695841318679166e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758710393682e-07], ["'mechanical disinfection' (unit, DK, None)", 2.841187247470461e-07], ["'autoclave' (unit, DK, None)", 8.813987156981351e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649453747978e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245789470392e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783096868e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3883619335155334e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178380306579e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6394027793688466e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758710393682e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972754071892e-07], ["'autoclave' (unit, DK, None)", 8.813987156981351e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649453747978e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245789470392e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783096868e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3883619335155332e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299093918e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.61496590824517e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086527812288e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190104074228e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518801149502], ["'autoclave' (unit, DK, None)", 0.01175888999170504], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.802579260821907e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045804852728e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768807503933158], ["'mixed heating grid' (megajoule, DK, None)", -0.0012096382090733748], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956387017264], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003750617940601978], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217498997565], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173222202381], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.914235271510975e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518801149502], ["'autoclave' (unit, DK, None)", 0.01175888999170504], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039954986485], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098440484343e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179205002622106], ["'mixed heating grid' (megajoule, DK, None)", -0.008064254727155832], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964638989729205e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.163507349081575], ["'autoclave' (unit, DK, None)", 0.015678519988940053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500149804092e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021164950961e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514029989572058], ["'mixed heating grid' (megajoule, DK, None)", -0.0034607080625874004], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612347565147], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267588219544], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001076690003136818], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642879443328], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.445878193317616e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.163507349081575], ["'autoclave' (unit, DK, None)", 0.015678519988940053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307029573658], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.205612872718117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686659714709], ["'mixed heating grid' (megajoule, DK, None)", -0.023071387083916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.445878193317616e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113666490885], ["'mechanical disinfection' (unit, DK, None)", 0.011363780172783144], ["'autoclave' (unit, DK, None)", 0.02351777998341009], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762657441164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001897155867450214], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621130145e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5801045742499574e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314488941902e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0306806371480756e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113666490885], ["'wet wipe' (unit, GLO, None)", 0.012392257756877101], ["'autoclave' (unit, DK, None)", 0.02351777998341009], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762657441164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001897155867450214], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621130145e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5801045742499574e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297550439207e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045804852728e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546702947894], ["'mixed heating grid' (megajoule, DK, None)", -0.001219293465686032]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096144446725], ["'mechanical disinfection' (unit, DK, None)", 0.005681890086391572], ["'autoclave' (unit, DK, None)", 0.017638334987557562], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786621025549], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994756656356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.67011324226029e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.99107178330492e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157244470946e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403185740378e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096144446725], ["'wet wipe' (unit, GLO, None)", 0.012392257756877101], ["'autoclave' (unit, DK, None)", 0.017638334987557562], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786621025549], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994756656356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.67011324226029e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.9910717833049194e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297550439207e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045804852728e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430978500853], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400625002914]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000717285822073984], ["'autoclave' (unit, DK, None)", 0.0007684225540477247], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228670401408e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576065981134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115363229015722e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.6967504585591164e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038073267751890296], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135588328824e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594272148672e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00017353962504220932], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.263378165661854e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000717285822073984], ["'autoclave' (unit, DK, None)", 0.0007684225540477247], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516220546728e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804403640628e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242152677149e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003131166972372745], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.691043629122159e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429300185033], ["'autoclave' (unit, DK, None)", 0.0010245634053969662], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.966432978627689e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894977713571e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.180043988087093e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143484701762], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985956657864], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.13615731299217e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140502889352e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440142034066], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4973977756107615e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429300185033], ["'autoclave' (unit, DK, None)", 0.0010245634053969662], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735832526e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176292155843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002120029325391397], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095656467841], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4973977756107615e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940479100887], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930030139469], ["'autoclave' (unit, DK, None)", 0.00153684510809545], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861427455324e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813226671076], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717907197195086e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.843849670589101e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659920557007476e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671749099658e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940479100887], ["'wet wipe' (unit, GLO, None)", 0.0002486553731851088], ["'autoclave' (unit, DK, None)", 0.00153684510809545], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861427455324e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813226671076], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717907197195086e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.843849670589101e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759431159e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576065981134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085363877208e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.734239627289776e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003400295809649526], ["'mechanical disinfection' (unit, DK, None)", 0.00036314650150697344], ["'autoclave' (unit, DK, None)", 0.0011526338310715871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204296034426e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665768384649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439439017e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.647304115772017e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960278503714e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.942335874549829e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003400295809649526], ["'wet wipe' (unit, GLO, None)", 0.0002486553731851088], ["'autoclave' (unit, DK, None)", 0.0011526338310715871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204296034426e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665768384649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581439439017e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6473041157720168e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759431159e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576065981134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110785761092198e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.6948162685442766e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010127049158], ["'autoclave' (unit, DK, None)", 0.217815070977597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149098683], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284874782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296257814384], ["'mixed heating grid' (megajoule, DK, None)", -0.01374832333410262], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404957498], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00447100999595775], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566237004007], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.069146993801543], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0002027925358445434]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010127049158], ["'autoclave' (unit, DK, None)", 0.217815070977597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18111252743794454], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089340403364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308385429233], ["'mixed heating grid' (megajoule, DK, None)", -0.09165548889401748], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018790802093500607]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726050600442], ["'autoclave' (unit, DK, None)", 0.29042009463679597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424464394], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502053241], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471457679818], ["'mixed heating grid' (megajoule, DK, None)", -0.03933319322463744], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40438845834896464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437851911673], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048224262414], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026422969863], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005769319295071028]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726050600442], ["'autoclave' (unit, DK, None)", 0.29042009463679597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336280128], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893464012], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314305119885], ["'mixed heating grid' (megajoule, DK, None)", -0.2622212881642496], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005769319295071028]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315824864026], ["'mechanical disinfection' (unit, DK, None)", 0.21668038171034668], ["'autoclave' (unit, DK, None)", 0.4356301419551941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750434775067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219782183425], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910273098], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.792733819117885e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391719419251e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003407960947]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315824864026], ["'wet wipe' (unit, GLO, None)", 0.05727539181197584], ["'autoclave' (unit, DK, None)", 0.4356301419551941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750434775067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04173219782183425], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910273098], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.792733819117885e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595040939778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284874782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999571265618], ["'mixed heating grid' (megajoule, DK, None)", -0.013858061592028709]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538934153083], ["'mechanical disinfection' (unit, DK, None)", 0.10834019085517334], ["'autoclave' (unit, DK, None)", 0.3267226064663955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224830275205], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059893447463], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820546196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.346892973109286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695859709615e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001703980473]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538934153083], ["'wet wipe' (unit, GLO, None)", 0.05727539181197584], ["'autoclave' (unit, DK, None)", 0.3267226064663955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224830275205], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059893447463], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820546196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0006346892973109285], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595040939778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284874782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0045964026126685325], ["'mixed heating grid' (megajoule, DK, None)", -0.013742661574988902]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919643349559], ["'autoclave' (unit, DK, None)", 0.04364214471464312], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505907045216], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158834211], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758003842717277], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275268026486], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668953054467275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000506578801114519], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063793312268], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427519925441], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.94816894382198e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919643349559], ["'autoclave' (unit, DK, None)", 0.04364214471464312], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181310377], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169373827955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386692284781847], ["'mixed heating grid' (megajoule, DK, None)", -0.004605516845350991], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0366337374672907e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264061014], ["'autoclave' (unit, DK, None)", 0.05818952628619083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485826823], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455281152], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890496566283441], ["'mixed heating grid' (megajoule, DK, None)", -0.0019764193739338306], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194904005396418], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546441310765], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981715754975], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.037080077520916736], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.8301911014227722e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264061014], ["'autoclave' (unit, DK, None)", 0.05818952628619083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403186022], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210355822865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331044188964], ["'mixed heating grid' (megajoule, DK, None)", -0.01317612915955887], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.8301911014227722e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766951221644], ["'mechanical disinfection' (unit, DK, None)", 0.04428851026145065], ["'autoclave' (unit, DK, None)", 0.08728428942928627], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142007316], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532150982925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684862442454e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8605594448730352e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000076532177e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597269925539671e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766951221644], ["'wet wipe' (unit, GLO, None)", 0.002171900759362438], ["'autoclave' (unit, DK, None)", 0.08728428942928627], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142007316], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532150982925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684862442454e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8605594448730352e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613310202594e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158834211], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002780018057083507], ["'mixed heating grid' (megajoule, DK, None)", -0.0006963416689621265]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413214482418], ["'mechanical disinfection' (unit, DK, None)", 0.022144255130725325], ["'autoclave' (unit, DK, None)", 0.06546321707196469], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416363681], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002075474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972488491e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.1135250270379557e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000038266082e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.7986349627698355e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413214482418], ["'wet wipe' (unit, GLO, None)", 0.002171900759362438], ["'autoclave' (unit, DK, None)", 0.06546321707196469], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416363681], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01398399002075474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972488491e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.1135250270379554e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613310202594e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158834211], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027568680567008526], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430339993567]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273941998863], ["'autoclave' (unit, DK, None)", 0.054955642592715216], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014180384466], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631844207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035968294289134134], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034489822524358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720444373335], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363968925497], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343798225757], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326736539255174], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3407924329680547e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273941998863], ["'autoclave' (unit, DK, None)", 0.054955642592715216], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373895395299], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733002156643], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978862859422756], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993215016239], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4091862270501348e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605938731101], ["'autoclave' (unit, DK, None)", 0.07327419012362028], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372239865882], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000755375537511628], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001029033020867253], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847176069384004], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848932838858], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002045808573171751], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618869483365], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807708561282186], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.814469611513548e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605938731101], ["'autoclave' (unit, DK, None)", 0.07327419012362028], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038781334916606486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502818366915035], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860220139115025], ["'mixed heating grid' (megajoule, DK, None)", -0.017231450712922668], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.814469611513548e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274688995001], ["'mechanical disinfection' (unit, DK, None)", 0.05570285041511723], ["'autoclave' (unit, DK, None)", 0.10991128518543047], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330505601], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512551295486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325498096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.507621290772533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038178871692537e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166653476633623e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274688995001], ["'wet wipe' (unit, GLO, None)", 0.002406925424488644], ["'autoclave' (unit, DK, None)", 0.10991128518543047], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330505601], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512551295486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325498096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.507621290772533e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8488878202963435e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631844207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003625539096703017], ["'mixed heating grid' (megajoule, DK, None)", -0.000910660255585785]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549529391025], ["'mechanical disinfection' (unit, DK, None)", 0.027851425207558615], ["'autoclave' (unit, DK, None)", 0.08243346388907283], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288492115], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534627339444], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650996192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.196340874067741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190894358462604e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583326738316812e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549529391025], ["'wet wipe' (unit, GLO, None)", 0.002406925424488644], ["'autoclave' (unit, DK, None)", 0.08243346388907283], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288492115], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534627339444], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650996192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.1963408740677404e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8488878202963435e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631844207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953482023445626], ["'mixed heating grid' (megajoule, DK, None)", -0.0009030769288474682]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796774574083], ["'autoclave' (unit, DK, None)", 2.2736772203682296], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229007505302], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0962709630172606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779092358566919], ["'mixed heating grid' (megajoule, DK, None)", -0.06859047847583957], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276612061607], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.038297132727656585], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420197995719041], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064373148544715], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005649494164305453]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796774574083], ["'autoclave' (unit, DK, None)", 2.2736772203682296], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619247970809], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008267298024], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186061572377946], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698565055972], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006806823540203671]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.92602184104226], ["'autoclave' (unit, DK, None)", 3.03156962715764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882142748663], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287401719], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942122170310549], ["'mixed heating grid' (megajoule, DK, None)", -0.1962335681012429], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314967723065], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321500556837], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934815164648], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950182688654], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0016072453334527224]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.92602184104226], ["'autoclave' (unit, DK, None)", 3.03156962715764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492005421963608], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514587871623], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2628081446873701], ["'mixed heating grid' (megajoule, DK, None)", -1.3082237873416191], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0016072453334527224]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595044089006], ["'mechanical disinfection' (unit, DK, None)", 2.2763281784356075], ["'autoclave' (unit, DK, None)", 4.547354440736461], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125740806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110588467417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831348947256], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00010565984338938365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131656920337586], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629373381546]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595044089006], ["'wet wipe' (unit, GLO, None)", 0.1405603072113241], ["'autoclave' (unit, DK, None)", 4.547354440736461], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125740806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110588467417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831348947256], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00010565984338938365], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541545893186], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0962709630172606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889076212923956], ["'mixed heating grid' (megajoule, DK, None)", -0.06913796338984249]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091722837605], ["'mechanical disinfection' (unit, DK, None)", 1.1381640892178038], ["'autoclave' (unit, DK, None)", 3.410515830552345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612339279847], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863526467885804], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269789451], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00017681486482588906], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565828460168763], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314686690773]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091722837605], ["'wet wipe' (unit, GLO, None)", 0.1405603072113241], ["'autoclave' (unit, DK, None)", 3.410515830552345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612339279847], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863526467885804], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566269789451], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0017681486482588903], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541545893186], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0962709630172606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773417928322302], ["'mixed heating grid' (megajoule, DK, None)", -0.0685622319211734]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149743328941828], ["'autoclave' (unit, DK, None)", 0.05605607034561145], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6462984237805484e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212720241084e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278704422536], ["'mixed heating grid' (megajoule, DK, None)", -0.003944285845810205], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842864437], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396985239172], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896065199448], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736301295318], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5102278830384145e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149743328941828], ["'autoclave' (unit, DK, None)", 0.05605607034561145], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057832602046], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6224751052858046e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185802948358], ["'mixed heating grid' (megajoule, DK, None)", -0.02629523897206804], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.652792128949066e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.428408511775361], ["'autoclave' (unit, DK, None)", 0.07474142712748193], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274975752396], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319252256254e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812216976938], ["'mixed heating grid' (megajoule, DK, None)", -0.01128438381439781], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2912395485574428], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641411884883], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00314880913105733], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629944026851], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00012831312869783339]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.428408511775361], ["'autoclave' (unit, DK, None)", 0.07474142712748193], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000868466995099168], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001091227026214018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02302541477984627], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922542931872], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00012831312869783339]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02991410371379571], ["'mechanical disinfection' (unit, DK, None)", 0.05608788904012815], ["'autoclave' (unit, DK, None)", 0.11211214069122294], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001403631871022144], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00889648591938603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610053172962e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.435267971125644e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266342801873993e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471473358657e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02991410371379571], ["'wet wipe' (unit, GLO, None)", 0.03226030810530896], ["'autoclave' (unit, DK, None)", 0.11211214069122294], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001403631871022144], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00889648591938603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610053172962e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.435267971125644e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3533594850008e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212720241084e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168638878825408], ["'mixed heating grid' (megajoule, DK, None)", -0.003975768889012141]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000451083542], ["'mechanical disinfection' (unit, DK, None)", 0.028043944520064076], ["'autoclave' (unit, DK, None)", 0.08408410551841718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998754319802], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568769591089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220106345925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4115871444066432e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171400936971e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735736679328e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000451083542], ["'wet wipe' (unit, GLO, None)", 0.03226030810530896], ["'autoclave' (unit, DK, None)", 0.08408410551841718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998754319802], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568769591089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220106345925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001411587144406643], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3533594850008e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312212720241084e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307164816067], ["'mixed heating grid' (megajoule, DK, None)", -0.003942661531645348]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664507749736e-05], ["'autoclave' (unit, DK, None)", 0.00021319075259391415], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850653478687e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568386647288e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177487258668e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225170169224e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699809734923e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887977208893e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066649178712e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.972093247797676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.4435267154432945e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664507749736e-05], ["'autoclave' (unit, DK, None)", 0.00021319075259391415], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.680168594763539e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907047905589523e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.404878499150578e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7581501134461493e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.3705361146147252e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287132891481], ["'autoclave' (unit, DK, None)", 0.0002842543367918855], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296960751442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.556284402942163e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336711993681e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.1836372558132109e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117496117445e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419121624208502e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.9846046714857465e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093655768104e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.951678851846587e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287132891481], ["'autoclave' (unit, DK, None)", 0.0002842543367918855], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328692810240543e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520620803446e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224474662459e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.890915038754739e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.951678851846587e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.9054965041257384e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0002004890628133068], ["'autoclave' (unit, DK, None)", 0.00042638150518782846], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.94015118487701e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338791942682e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567716088381e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5700135722373015e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786142858086e-08], ["'mixed heating grid' (megajoule, DK, None)", -6.945368442866937e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.9054965041257384e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083942062e-05], ["'autoclave' (unit, DK, None)", 0.00042638150518782846], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.94015118487701e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338791942682e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567716088381e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5700135722373015e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681227683874e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568386647288e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6361111336289553e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.1702482430043056e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008317694695e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0001002445314066534], ["'autoclave' (unit, DK, None)", 0.00031978612889087125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273917627587e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.89031388113401e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135432176762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.647620004979172e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893071429035e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.4726842214334686e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008317694695e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083942062e-05], ["'autoclave' (unit, DK, None)", 0.00031978612889087125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273917627587e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.89031388113401e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135432176762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.647620004979172e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681227683874e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568386647288e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6058322029146736e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521400789971e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268587160864e-06], ["'autoclave' (unit, DK, None)", 0.0001474554573619763], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205550949204e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577824113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968666487837e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.587618377595958e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343110811445e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238699032594e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596878298287e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2932652426493159e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.5525157208188965e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268587160864e-06], ["'autoclave' (unit, DK, None)", 0.0001474554573619763], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363936204997e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327374383606e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979110991892e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.391745585063972e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.676274704182137e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806636872244e-05], ["'autoclave' (unit, DK, None)", 0.00019660727648263508], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.212058207418326e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5505663083524157e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246407924643e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0263977899924244e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.5974475643012344e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7900718414564114e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.2285470651269936e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.6430006835192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2951619091823378e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806636872244e-05], ["'autoclave' (unit, DK, None)", 0.00019660727648263508], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384207381691e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398830674136e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497605283099e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.842651933282829e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2951619091823378e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613747075537e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238672315694e-05], ["'autoclave' (unit, DK, None)", 0.00029491091472395273], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379006478655e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.024437776020866e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715898377175e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.51435693355686e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4021819350737405e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.022715815534221e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613747075537e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843702086e-05], ["'autoclave' (unit, DK, None)", 0.00029491091472395273], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379006478655e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.024437776020866e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715898377175e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.51435693355686e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963664338e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577824113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227876410331e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.6162545233494135e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897841978537e-06], ["'mechanical disinfection' (unit, DK, None)", 4.418619336157847e-05], ["'autoclave' (unit, DK, None)", 0.0002211831860429645], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823951245489e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679328080284e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179675435e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4248221670537622e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010909675368645e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579077671105e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897841978537e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843702086e-05], ["'autoclave' (unit, DK, None)", 0.0002211831860429645], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823951245489e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679328080284e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179675435e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.424822167053762e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963664338e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577824113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216966734968e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.586140944271742e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520075714522], ["'autoclave' (unit, DK, None)", 0.020359423199683608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405896061398e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773091162876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686890084594847], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698007829154], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564575606418], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835621690293], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651099690088], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0076803505234724605], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.5465667358779687e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520075714522], ["'autoclave' (unit, DK, None)", 0.020359423199683608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213258134198], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130309426983e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002445792672306323], ["'mixed heating grid' (megajoule, DK, None)", -0.004033132005219436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5172250361424251e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666519360916], ["'autoclave' (unit, DK, None)", 0.027145897599578143], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121369220593], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.238921419259253e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495916494260955], ["'mixed heating grid' (megajoule, DK, None)", -0.001730785164925567], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800957832635], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001540620429829117], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089282422684], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.021634790206964682], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.399884479602195e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666519360916], ["'autoclave' (unit, DK, None)", 0.027145897599578143], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403544039998], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000215599936418777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997277662840641], ["'mixed heating grid' (megajoule, DK, None)", -0.011538567766170446], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.399884479602195e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060802820972], ["'mechanical disinfection' (unit, DK, None)", 0.01975197940074708], ["'autoclave' (unit, DK, None)", 0.04071884639936723], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953504700138], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904982454019], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905413142275005e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.892471331974302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813170182158e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0155932999588937e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060802820972], ["'wet wipe' (unit, GLO, None)", 0.002277559824093404], ["'autoclave' (unit, DK, None)", 0.04071884639936723], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953504700138], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904982454019], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905413142275005e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.892471331974302e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593852475553e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773091162876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036979722549235964], ["'mixed heating grid' (megajoule, DK, None)", -0.0006097986319372666]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628226077453], ["'mechanical disinfection' (unit, DK, None)", 0.00987598970037354], ["'autoclave' (unit, DK, None)", 0.030539134799525414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456857654716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971383243785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082628455001e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.840362347415541e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.079406585091071e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.077966499794469e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628226077453], ["'wet wipe' (unit, GLO, None)", 0.002277559824093404], ["'autoclave' (unit, DK, None)", 0.030539134799525414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00037652456857654716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971383243785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082628455001e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.8403623474155405e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593852475553e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773091162876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671781890726943], ["'mixed heating grid' (megajoule, DK, None)", -0.000604720665437472]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1526597169823759], ["'autoclave' (unit, DK, None)", 0.6181739946338749], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663925028295], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718140822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065040411243010585], ["'mixed heating grid' (megajoule, DK, None)", -0.01673607503213501], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010388228657], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360030858471], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156742849823], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2478888536445227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00021013730209232462]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1526597169823759], ["'autoclave' (unit, DK, None)", 0.6181739946338749], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149646858576644], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242211819978], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04336027416200706], ["'mixed heating grid' (megajoule, DK, None)", -0.11157383354756674], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000254941725902863]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104054515319], ["'autoclave' (unit, DK, None)", 0.8242319928451666], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04906239410545397], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699709454], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01860770219511424], ["'mixed heating grid' (megajoule, DK, None)", -0.04788098570740837], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989503292578], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316597729377], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835305145955], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784609704866], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005978273246234171]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104054515319], ["'autoclave' (unit, DK, None)", 0.8242319928451666], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32384418551454763], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.041987277089251374], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405134796742837], ["'mixed heating grid' (megajoule, DK, None)", -0.3192065713827224], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005978273246234171]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243932569105], ["'mechanical disinfection' (unit, DK, None)", 0.593908259585257], ["'autoclave' (unit, DK, None)", 1.2363479892677502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956173547], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502810775896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225811894994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.930099542296325e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918661691788396], ["'mixed heating grid' (megajoule, DK, None)", -0.00028095692790365887]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243932569105], ["'wet wipe' (unit, GLO, None)", 0.04360781142279914], ["'autoclave' (unit, DK, None)", 1.2363479892677502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956173547], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502810775896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225811894994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.930099542296325e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821568229142], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718140822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555955974215143], ["'mixed heating grid' (megajoule, DK, None)", -0.016869661337454954]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187453291645], ["'mechanical disinfection' (unit, DK, None)", 0.2969541297926285], ["'autoclave' (unit, DK, None)", 0.9272609919508125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035292193452], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576089893791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162378999], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.576765562319906e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.459330845894184e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846395182943]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187453291645], ["'wet wipe' (unit, GLO, None)", 0.04360781142279914], ["'autoclave' (unit, DK, None)", 0.9272609919508125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035292193452], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03908576089893791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845162378999], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0006576765562319906], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821568229142], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718140822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501362665756217], ["'mixed heating grid' (megajoule, DK, None)", -0.016729182873503123]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457601747], ["'autoclave' (unit, DK, None)", 0.0599563207425555], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019082045309494e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331470986162e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064964518666], ["'mixed heating grid' (megajoule, DK, None)", -0.0011790429759568248], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495606804585], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000745156871613], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831841625238], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512592229555], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.45798630176187e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457601747], ["'autoclave' (unit, DK, None)", 0.0599563207425555], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.666867525392281e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983082379880184e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376643012443], ["'mixed heating grid' (megajoule, DK, None)", -0.007860286506378832], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8814514363140475e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183542762093], ["'autoclave' (unit, DK, None)", 0.079941760990074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381138875969877e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229852793095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041810577648], ["'mixed heating grid' (megajoule, DK, None)", -0.0033731767915602608], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463995292682], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051475731067], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661955616450164], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933124571706], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.121749900406304e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183542762093], ["'autoclave' (unit, DK, None)", 0.079941760990074], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302888428962e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280661889629e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026633612070517676], ["'mixed heating grid' (megajoule, DK, None)", -0.022487845277068406], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.121749900406304e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255867806], ["'mechanical disinfection' (unit, DK, None)", 0.06180787292975922], ["'autoclave' (unit, DK, None)", 0.11991264148511102], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867834757185], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604798269992], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234574824254e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3948322482092612e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.344217975806836e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9793188770674292e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255867806], ["'wet wipe' (unit, GLO, None)", 0.00322826864487587], ["'autoclave' (unit, DK, None)", 0.11991264148511102], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867834757185], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604798269992], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234574824254e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3948322482092612e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263612022744723e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331470986162e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525258660244], ["'mixed heating grid' (megajoule, DK, None)", -0.0011884540233301835]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160176148947], ["'mechanical disinfection' (unit, DK, None)", 0.03090393646487961], ["'autoclave' (unit, DK, None)", 0.08993448111383325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083633088], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071019827672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846914964851e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.334160902671674e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089879034149e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.896594385337146e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160176148947], ["'wet wipe' (unit, GLO, None)", 0.00322826864487587], ["'autoclave' (unit, DK, None)", 0.08993448111383325], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083633088], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071019827672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846914964851e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.334160902671674e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263612022744723e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331470986162e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314359869934], ["'mixed heating grid' (megajoule, DK, None)", -0.0011785574289448462]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042020145753], ["'autoclave' (unit, DK, None)", 0.040443094426055315], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.800012336772795e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002940734268e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384633177133], ["'mixed heating grid' (megajoule, DK, None)", -0.00829424045243007], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414828494242], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994618964369696], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944015824970759], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670371344663], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.616970441707488e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042020145753], ["'autoclave' (unit, DK, None)", 0.040443094426055315], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521113165273e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.14631939258148e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0063975897554514214], ["'mixed heating grid' (megajoule, DK, None)", -0.05529493634953381], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.700850016286176e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444742304666], ["'autoclave' (unit, DK, None)", 0.053924125901407084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929006897590251e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054747720863e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726068190404], ["'mixed heating grid' (megajoule, DK, None)", -0.0237293635332101], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031240074848410946], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885319373404], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104180833106735], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681794744977], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.445115275617188e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444742304666], ["'autoclave' (unit, DK, None)", 0.053924125901407084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233667919201487e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528844227566e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150712126952], ["'mixed heating grid' (megajoule, DK, None)", -0.1581957568880673], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.445115275617188e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534730038187], ["'mechanical disinfection' (unit, DK, None)", 0.04155330480202239], ["'autoclave' (unit, DK, None)", 0.08088618885211066], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455087717314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247983130258], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126956709594e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.89439725015546e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934619332208e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001392395954448424]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534730038187], ["'wet wipe' (unit, GLO, None)", 0.012616880236435866], ["'autoclave' (unit, DK, None)", 0.08088618885211066], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455087717314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000556247983130258], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126956709594e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.89439725015546e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028495818837e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002940734268e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000967298237578485], ["'mixed heating grid' (megajoule, DK, None)", -0.008360444561538562]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774936138869], ["'mechanical disinfection' (unit, DK, None)", 0.020776652401011196], ["'autoclave' (unit, DK, None)", 0.06066464163908297], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336851363615], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003326656922753977], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253913419188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.19045495838198e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967309666084e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.96197977224212e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774936138869], ["'wet wipe' (unit, GLO, None)", 0.012616880236435866], ["'autoclave' (unit, DK, None)", 0.06066464163908297], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626336851363615], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003326656922753977], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253913419188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.190454958381979e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994028495818837e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002940734268e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432702688211], ["'mixed heating grid' (megajoule, DK, None)", -0.008290824763816141]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545175767611], ["'autoclave' (unit, DK, None)", 0.0046835686232976955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.030527984294398e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283713356625e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255166950469125e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012522722548607], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564745513341], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752206320633], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596430287942], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924128461483], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.218120652481561e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545175767611], ["'autoclave' (unit, DK, None)", 0.0046835686232976955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082886439465e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221339091988e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083677796697942], ["'mixed heating grid' (megajoule, DK, None)", -0.0008008348481699072], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.1447086272581e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031643006453], ["'autoclave' (unit, DK, None)", 0.006244758164396928], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241050579687e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217782951324127e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013233347624199], ["'mixed heating grid' (megajoule, DK, None)", -0.0003436716360818645], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404085054107], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00034884788193780545], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003668956833883162], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218064355349], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.484522299550925e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031643006453], ["'autoclave' (unit, DK, None)", 0.006244758164396928], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205313913986], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533332340374e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822231749466007], ["'mixed heating grid' (megajoule, DK, None)", -0.002291144240545763], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.484522299550925e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634344692336], ["'mechanical disinfection' (unit, DK, None)", 0.003577627808378828], ["'autoclave' (unit, DK, None)", 0.009367137246595394], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914806590626], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291086691322], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691037754937e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.75920666334368e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765088039532305e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.016602742291606e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634344692336], ["'wet wipe' (unit, GLO, None)", 0.0004352277269156194], ["'autoclave' (unit, DK, None)", 0.009367137246595394], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914806590626], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291086691322], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581691037754937e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.75920666334368e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697759325652e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283713356625e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6624372803275385e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012108405928437441]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390120859816], ["'mechanical disinfection' (unit, DK, None)", 0.001788813904189414], ["'autoclave' (unit, DK, None)", 0.007025352934946544], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275419523067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376457263816], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338207550987e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6331396599064126e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825440197661425e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.008301371145803e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390120859816], ["'wet wipe' (unit, GLO, None)", 0.0004352277269156194], ["'autoclave' (unit, DK, None)", 0.007025352934946544], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275419523067], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376457263816], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338207550987e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6331396599064123e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697759325652e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283713356625e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623611840129888e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001200757579132286]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.65614584355328e-08], ["'autoclave' (unit, DK, None)", 2.421308690381217e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.991733048347479e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938737044e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973070442205e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459470082736e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.628140314254302e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718269849167e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744201337985e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261599725856e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2615856817999725e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.65614584355328e-08], ["'autoclave' (unit, DK, None)", 2.421308690381217e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.321617256380103e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.601892805546957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315380294803e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.56830631338849e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0864450849030787e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684927581652e-07], ["'autoclave' (unit, DK, None)", 3.2284115871749563e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.64014124905875e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059490355e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461007458582e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.6770176221752525e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141295236984e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099673449749e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023356386546e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200450627002e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5891314175258704e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684927581652e-07], ["'autoclave' (unit, DK, None)", 3.2284115871749563e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655109298684e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8255092766820296e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307338305727e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.4513450814501677e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5891314175258704e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.248588106852031e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986248091488e-07], ["'autoclave' (unit, DK, None)", 4.842617380762436e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540154532333e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680770823633e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974670697e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.359484613746151e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030424607965e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.1576071580626046e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.248588106852031e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192360168296e-07], ["'autoclave' (unit, DK, None)", 4.842617380762436e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540154532333e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680770823633e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974670697e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.359484613746151e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749585354e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938737044e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.649793533294899e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2955046998615325e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624516684163e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993124045744e-07], ["'autoclave' (unit, DK, None)", 3.631963035571826e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890336673e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268054873661e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437949341395e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.948443795253711e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8720152123039724e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035790313023e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624516684163e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192360168296e-07], ["'autoclave' (unit, DK, None)", 3.631963035571826e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890336673e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268054873661e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437949341395e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.948443795253711e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749585354e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938737044e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.61107338117187e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166640712193e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847793968818], ["'autoclave' (unit, DK, None)", 0.0002658426977056787], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864366034579e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489092196338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498111119766335e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.005682541656525e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075366876992], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842737675299e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408020690202e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.56053578133215e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.452795634681082e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847793968818], ["'autoclave' (unit, DK, None)", 0.0002658426977056787], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881962508926e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5977674954373747e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.499874074651089e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013371216944376834], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.568759187037093e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184136332457], ["'autoclave' (unit, DK, None)", 0.00035445693027423824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.669010189634091e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.080695331497794e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728002349014918e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.7381469027988436e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040606006827302794], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.414214804543051e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933377319864e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283891076482], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.978048340437635e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184136332457], ["'autoclave' (unit, DK, None)", 0.00035445693027423824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568908475848e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221203587139e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.15200156600995e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003825431268532562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -6.978048340437635e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024717290273516064], ["'mechanical disinfection' (unit, DK, None)", 0.00024985916403735185], ["'autoclave' (unit, DK, None)", 0.0005316853954113575], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175363752627e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801798010854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944026044301e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.587348797773796e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294996934568361e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.367040385346151e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024717290273516064], ["'wet wipe' (unit, GLO, None)", 7.631932903600988e-05], ["'autoclave' (unit, DK, None)", 0.0005316853954113575], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175363752627e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801798010854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944026044301e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.587348797773796e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.74943714059264e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489092196338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797418700029147e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0216917743989786e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109497166474], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958201867593], ["'autoclave' (unit, DK, None)", 0.000398764046558518], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631606924199e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137375722764e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888052088603e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.676629375631615e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1474984672841724e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835201926730754e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109497166474], ["'wet wipe' (unit, GLO, None)", 7.631932903600988e-05], ["'autoclave' (unit, DK, None)", 0.000398764046558518], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631606924199e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137375722764e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888052088603e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -7.676629375631614e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.74943714059264e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489092196338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7482668853300818e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0048565724722475e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581295618231238], ["'autoclave' (unit, DK, None)", 0.0004601527919996568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164530609e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280410685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831648519839e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.969396144482394e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488873691182], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.04998312917207e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.02804344356828e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00014443476947444508], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.178881160918412e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581295618231238], ["'autoclave' (unit, DK, None)", 0.0004601527919996568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817914175067e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.373699712714283e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887765679893e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003312930762988263], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.570750322387108e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931910604501], ["'autoclave' (unit, DK, None)", 0.0006135370559995424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491307035276e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.526749938766161e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816683622606757e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000142171677237072], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349478932134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.160143398479046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894279799907e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585055618172], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6113335960967254e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931910604501], ["'autoclave' (unit, DK, None)", 0.0006135370559995424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990961739456e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864334036147e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211122415071185], ["'mixed heating grid' (megajoule, DK, None)", -0.0009478111815804798], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6113335960967254e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655875178556], ["'mechanical disinfection' (unit, DK, None)", 0.00045337131496390917], ["'autoclave' (unit, DK, None)", 0.0009203055839993139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754276492752e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184334818186], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636052313e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.7166831538299942e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5148761062673847e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.342375805612949e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655875178556], ["'wet wipe' (unit, GLO, None)", 0.0010932762475810679], ["'autoclave' (unit, DK, None)", 0.0009203055839993139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754276492752e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184334818186], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683636052313e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.7166831538299942e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298462092e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280410685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.09585930897428e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.009061554044549e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019703794243301678], ["'mechanical disinfection' (unit, DK, None)", 0.00022668565748195458], ["'autoclave' (unit, DK, None)", 0.0006902291879994852], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758167734113e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672318751e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367272104627e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.872757426629212e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380531336904e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879028064745e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019703794243301678], ["'wet wipe' (unit, GLO, None)", 0.0010932762475810679], ["'autoclave' (unit, DK, None)", 0.0006902291879994852], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758167734113e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.61397672318751e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367272104627e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.872757426629212e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298462092e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280410685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115503660933e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349675016484e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725335396966], ["'autoclave' (unit, DK, None)", 0.0004716821380504725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814575114569e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879815023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223260449148e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.141906536603449e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610961838286], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.100768085585286e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660502753803e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015237824035602168], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.73364689367885e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725335396966], ["'autoclave' (unit, DK, None)", 0.0004716821380504725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900451694804e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655678555525e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482173632766e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034279376910689664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0124192600763166e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208261808474], ["'autoclave' (unit, DK, None)", 0.0006289095174006299], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381460371164e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.534875816017562e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.639857578340879e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001471071042136287], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864012437929], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991325547948e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577422972532085e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004292344798761175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.769160935891546e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208261808474], ["'autoclave' (unit, DK, None)", 0.0006289095174006299], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802944139382e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954519995322e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001759905052227254], ["'mixed heating grid' (megajoule, DK, None)", -0.000980714028090858], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.769160935891546e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706327985577], ["'mechanical disinfection' (unit, DK, None)", 0.00046454153622891144], ["'autoclave' (unit, DK, None)", 0.0009433642761009452], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526694658655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433558165537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761343617e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8204383905582914e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490204814206443e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.631977696789485e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706327985577], ["'wet wipe' (unit, GLO, None)", 0.0016909050544586007], ["'autoclave' (unit, DK, None)", 0.0009433642761009452], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526694658655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011241433558165537], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019761343617e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.8204383905582914e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503364533e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879815023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874380043114e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.182948913337925e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120715992099728], ["'mechanical disinfection' (unit, DK, None)", 0.00023227076811445572], ["'autoclave' (unit, DK, None)", 0.0007075232070757087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480932609921e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971390836134e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039522687235e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.046385056281134e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102407103202e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.3159888483947424e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120715992099728], ["'wet wipe' (unit, GLO, None)", 0.0016909050544586007], ["'autoclave' (unit, DK, None)", 0.0007075232070757087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480932609921e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971390836134e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039522687235e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.046385056281134e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503364533e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879815023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423355972103e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.139789024853977e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869314090184], ["'autoclave' (unit, DK, None)", 0.003992612975488287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709482036e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542900707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331484703431e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.766592253855871e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391695876904], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837232879574e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813547098425e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000561125922285235], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.362331398037155e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869314090184], ["'autoclave' (unit, DK, None)", 0.003992612975488287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209193759303], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669036411757e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887656468954], ["'mixed heating grid' (megajoule, DK, None)", -0.0005844394835903914], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6507655928202867e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781211245484], ["'autoclave' (unit, DK, None)", 0.005323483967317716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391882233393055e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.02581170973792e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693192413422], ["'mixed heating grid' (megajoule, DK, None)", -0.0002508073593142838], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135567865456], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.520737419604532e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892253295118e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806364008034792], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.241055673049178e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781211245484], ["'autoclave' (unit, DK, None)", 0.005323483967317716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321672561423], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449132013995e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001470779546160896], ["'mixed heating grid' (megajoule, DK, None)", -0.0016720490620952251], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.241055673049178e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496348008088], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468215059556], ["'autoclave' (unit, DK, None)", 0.007985225950976576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955414064135e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000253185884455815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037866848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.158664102025187e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.294540087702185e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.471692032389957e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496348008088], ["'wet wipe' (unit, GLO, None)", 0.009527755134683626], ["'autoclave' (unit, DK, None)", 0.007985225950976576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955414064135e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000253185884455815], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037866848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.158664102025187e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23919432271174e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542900707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.77288285084876e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.836566645533158e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656309040834], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234107529778], ["'autoclave' (unit, DK, None)", 0.00598891946323243], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495174579906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854007788658], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075733695e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3652992888160592e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700438510908e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.358460161949785e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656309040834], ["'wet wipe' (unit, GLO, None)", 0.009527755134683626], ["'autoclave' (unit, DK, None)", 0.00598891946323243], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495174579906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854007788658], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075733695e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.365299288816059e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23919432271174e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542900707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155846463671e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.762982043913659e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221229769225e-09], ["'autoclave' (unit, DK, None)", 1.3973319403955308e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171364473e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612523339e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802180169356e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664766367516e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389235980209e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.95021306334896e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903375933403645e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076441643093967e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.594648254511698e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221229769225e-09], ["'autoclave' (unit, DK, None)", 1.3973319403955308e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665111005e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497527035e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.849053478677957e-10], ["'mixed heating grid' (megajoule, DK, None)", -8.851109844245012e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.339066579199377e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876273542128e-09], ["'autoclave' (unit, DK, None)", 1.863109253860708e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429260966687e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894301018825852e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059715149834e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.7983804129695014e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5652916723785356e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573297458034e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652447614027e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032797447796e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.445123031900638e-12]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876273542128e-09], ["'autoclave' (unit, DK, None)", 1.863109253860708e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4861669479185932e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900390929e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039810099894e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.532253608646334e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.445123031900638e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996818457859e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860850960795657e-09], ["'autoclave' (unit, DK, None)", 2.7946638807910625e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091277661e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776919445197e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697693837e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6074168096254476e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148922923362e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.2288206394886793e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996818457859e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960935218e-10], ["'autoclave' (unit, DK, None)", 2.7946638807910625e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091277661e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776919445197e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578697693837e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.6074168096254476e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563733518244e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612523339e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957187620376727e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.338263827507282e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371445243727e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425480397829e-10], ["'autoclave' (unit, DK, None)", 2.0959979105932963e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782526519189e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154485899075e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157395387675e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.689907317630402e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074461461675e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103197443396e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371445243727e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960935218e-10], ["'autoclave' (unit, DK, None)", 2.0959979105932963e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782526519189e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154485899075e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157395387675e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6899073176304014e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563733518244e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612523339e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380174230623e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197243098385e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592799958188e-07], ["'autoclave' (unit, DK, None)", 5.875991437987567e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647589928e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.61496590824517e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.51800618091686e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850486612567e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022054268706e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782082995866e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947575972298e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012814986232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.43601992912951e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592799958188e-07], ["'autoclave' (unit, DK, None)", 5.875991437987567e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748128867745e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827663249897e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337453944573e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.096323365774171e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.090452883266748e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896832125682e-06], ["'autoclave' (unit, DK, None)", 7.834655250650089e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.494561525418209e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227374428081e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7230489648047865e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.996197936673684e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.30831746560543e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3250722886283344e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117632927005e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721919714432e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2620195937618445e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896832125682e-06], ["'autoclave' (unit, DK, None)", 7.834655250650089e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971303906409e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641336626e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153659765365259e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.997465291115789e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2620195937618445e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053965999653583e-07], ["'mechanical disinfection' (unit, DK, None)", 5.682374494940922e-07], ["'autoclave' (unit, DK, None)", 1.1751982875975138e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176910727261e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194703788864e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767891548434e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.296480310492216e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978356760613201e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.278805558737693e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053965999653583e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972754071892e-07], ["'autoclave' (unit, DK, None)", 1.1751982875975138e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176910727261e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194703788864e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767891548434e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.296480310492216e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299093918e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.61496590824517e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.59397831161533e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1695841318679166e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758710393682e-07], ["'mechanical disinfection' (unit, DK, None)", 2.841187247470461e-07], ["'autoclave' (unit, DK, None)", 8.813987156981351e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649453747978e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245789470392e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783096868e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3883619335155334e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178380306579e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6394027793688466e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758710393682e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972754071892e-07], ["'autoclave' (unit, DK, None)", 8.813987156981351e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649453747978e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245789470392e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535783096868e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3883619335155332e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571299093918e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.61496590824517e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086527812288e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190104074228e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518801149502], ["'autoclave' (unit, DK, None)", 0.01175888999170504], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.802579260821907e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045804852728e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768807503933158], ["'mixed heating grid' (megajoule, DK, None)", -0.0012096382090733748], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956387017264], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003750617940601978], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217498997565], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173222202381], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.914235271510975e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518801149502], ["'autoclave' (unit, DK, None)", 0.01175888999170504], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039954986485], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098440484343e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179205002622106], ["'mixed heating grid' (megajoule, DK, None)", -0.008064254727155832], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8964638989729205e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.163507349081575], ["'autoclave' (unit, DK, None)", 0.015678519988940053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500149804092e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021164950961e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514029989572058], ["'mixed heating grid' (megajoule, DK, None)", -0.0034607080625874004], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612347565147], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267588219544], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001076690003136818], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642879443328], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.445878193317616e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.163507349081575], ["'autoclave' (unit, DK, None)", 0.015678519988940053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307029573658], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.205612872718117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686659714709], ["'mixed heating grid' (megajoule, DK, None)", -0.023071387083916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.445878193317616e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113666490885], ["'mechanical disinfection' (unit, DK, None)", 0.011363780172783144], ["'autoclave' (unit, DK, None)", 0.02351777998341009], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762657441164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001897155867450214], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621130145e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5801045742499574e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314488941902e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0306806371480756e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113666490885], ["'wet wipe' (unit, GLO, None)", 0.012392257756877101], ["'autoclave' (unit, DK, None)", 0.02351777998341009], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046655762657441164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001897155867450214], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056621130145e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.5801045742499574e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297550439207e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045804852728e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950546702947894], ["'mixed heating grid' (megajoule, DK, None)", -0.001219293465686032]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096144446725], ["'mechanical disinfection' (unit, DK, None)", 0.005681890086391572], ["'autoclave' (unit, DK, None)", 0.017638334987557562], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786621025549], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994756656356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.67011324226029e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.99107178330492e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157244470946e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403185740378e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096144446725], ["'wet wipe' (unit, GLO, None)", 0.012392257756877101], ["'autoclave' (unit, DK, None)", 0.017638334987557562], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786621025549], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994756656356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.67011324226029e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -5.9910717833049194e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297550439207e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045804852728e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759430978500853], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400625002914]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858218313292], ["'autoclave' (unit, DK, None)", 0.0007684225884394761], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228664165558e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.111536405155348e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.696750515834289e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038073267753348494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135579303847e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594265459793e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00017353962482195205], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.263378297383169e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858218313292], ["'autoclave' (unit, DK, None)", 0.0007684225884394761], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.163751621640892e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804398522111e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242701035653e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00031311670105561927], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043815084898e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429301171659], ["'autoclave' (unit, DK, None)", 0.001024563451252635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.9664329768618355e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894975397214e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800442234106e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143648562864], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985957068285], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.136157310275915e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140500874408e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440135829636], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978130846417e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429301171659], ["'autoclave' (unit, DK, None)", 0.001024563451252635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.27817358208702e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2181762906139505e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021200294822737347], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095765708576], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978130846417e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940481888066], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930387855131], ["'autoclave' (unit, DK, None)", 0.001536845176878953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.64186142954191e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813254098547], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790714793538e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849916941306e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659921937843073e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671845250376e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940481888066], ["'wet wipe' (unit, GLO, None)", 0.0002486553730669998], ["'autoclave' (unit, DK, None)", 0.001536845176878953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.64186142954191e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813254098547], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790714793538e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849916941306e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759200173e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204086192980411e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7342396850221144e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651939275657], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974537e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960968921512e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.942335922625188e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'wet wipe' (unit, GLO, None)", 0.0002486553730669998], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974534e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759200173e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786583291221e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.694816325795862e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010126911955], ["'autoclave' (unit, DK, None)", 0.21781507589339372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423148947825], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296368140347], ["'mixed heating grid' (megajoule, DK, None)", -0.013748323405392686], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404768223], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009997919], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566239615909], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0691469938289793], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253800881174]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010126911955], ["'autoclave' (unit, DK, None)", 0.21781507589339372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1811125274369435], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089340278384], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655309120935646], ["'mixed heating grid' (megajoule, DK, None)", -0.09165548936928458], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802474341606]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.708572605151076], ["'autoclave' (unit, DK, None)", 0.2904201011911916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424421674], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564501996682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471773316298], ["'mixed heating grid' (megajoule, DK, None)", -0.03933319342859438], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.404388458295692], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437857814465], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048232130455], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.194780264306984], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319356643093]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.708572605151076], ["'autoclave' (unit, DK, None)", 0.2904201011911916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510176133625193], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893426363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314515544206], ["'mixed heating grid' (megajoule, DK, None)", -0.2622212895239625], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319356643093]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315832289203], ["'mechanical disinfection' (unit, DK, None)", 0.21668038620980112], ["'autoclave' (unit, DK, None)", 0.4356301517867876], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750437931739], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0417321978637024], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910189313], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.792733859595182e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391904629004e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003527639172]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315832289203], ["'wet wipe' (unit, GLO, None)", 0.05727539177915544], ["'autoclave' (unit, DK, None)", 0.4356301517867876], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750437931739], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0417321978637024], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910189313], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.792733859595182e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159503775032], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999682472195], ["'mixed heating grid' (megajoule, DK, None)", -0.013858061663887805]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'mechanical disinfection' (unit, DK, None)", 0.10834019310490056], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893040845405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695952314492e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001763819586]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'wet wipe' (unit, GLO, None)", 0.05727539177915544], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006346893040845404], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159503775032], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402722949061], ["'mixed heating grid' (megajoule, DK, None)", -0.01374266164624961]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00763891962301754], ["'autoclave' (unit, DK, None)", 0.04364214636749747], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505906628527], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004257865356], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275560681934], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668953077659773], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787994641215], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776737339], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427484878976], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169625005909e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00763891962301754], ["'autoclave' (unit, DK, None)", 0.04364214636749747], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181033881], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169373488368], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386695052435707], ["'mixed heating grid' (megajoule, DK, None)", -0.004605517040454623], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0366338263477382e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264070391627], ["'autoclave' (unit, DK, None)", 0.058189528489996624], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485708826], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455127473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497753999151], ["'mixed heating grid' (megajoule, DK, None)", -0.001976419457660937], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00919490401192411], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546391638606], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981665824995], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0370800774221943], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912952152884e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264070391627], ["'autoclave' (unit, DK, None)", 0.058189528489996624], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403108136], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210354799894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331835999437], ["'mixed heating grid' (megajoule, DK, None)", -0.01317612971773958], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912952152884e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766958298976], ["'mechanical disinfection' (unit, DK, None)", 0.044288512167769536], ["'autoclave' (unit, DK, None)", 0.08728429273499497], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142100004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532167416453], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684859545316e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559572271675e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000773462183e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597270416835125e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766958298976], ["'wet wipe' (unit, GLO, None)", 0.002171900753863152], ["'autoclave' (unit, DK, None)", 0.08728429273499497], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142100004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532167416453], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684859545316e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559572271675e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297990968e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027800184755452715], ["'mixed heating grid' (megajoule, DK, None)", -0.0006963416984612672]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'mechanical disinfection' (unit, DK, None)", 0.022144256083884768], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.11352524023128e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150003867310858e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.798635208417562e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'wet wipe' (unit, GLO, None)", 0.002171900753863152], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135252402312795e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297990968e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002756868471677967], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430632528495]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273939412592], ["'autoclave' (unit, DK, None)", 0.054955644722680594], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014179846836], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829962352412], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034490199592288], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720447491802], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363947744572], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776954442], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673649422257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407925216329976e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273939412592], ["'autoclave' (unit, DK, None)", 0.054955644722680594], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373895038553], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733001717988], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978866415682747], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993466394859], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091863421108071e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605950563562], ["'autoclave' (unit, DK, None)", 0.07327419296357413], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372239713636], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755374917769], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290331734812022], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847177148154515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848941615998], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00204580856679691], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002325961880540609], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04880770843442978], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144698637596986e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605950563562], ["'autoclave' (unit, DK, None)", 0.07327419296357413], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491560157], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502818366901821], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860221156541353], ["'mixed heating grid' (megajoule, DK, None)", -0.017231451432103008], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144698637596986e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274698134477], ["'mechanical disinfection' (unit, DK, None)", 0.05570285286511797], ["'autoclave' (unit, DK, None)", 0.10991128944536123], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330626814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512572483763], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703251236504e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621456598423e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0381797672034734e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166654109636564e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274698134477], ["'wet wipe' (unit, GLO, None)", 0.002406925417314864], ["'autoclave' (unit, DK, None)", 0.10991128944536123], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330626814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512572483763], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703251236504e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621456598423e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804482878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255396343998924], ["'mixed heating grid' (megajoule, DK, None)", -0.0009106602935935514]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'mechanical disinfection' (unit, DK, None)", 0.027851426432558984], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566566e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898836017287e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583327054818282e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'wet wipe' (unit, GLO, None)", 0.002406925417314864], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566565e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804482878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953487355638836], ["'mixed heating grid' (megajoule, DK, None)", -0.000903076966538733]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796754162288], ["'autoclave' (unit, DK, None)", 2.273677358786343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0798222900715272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01377909593506168], ["'mixed heating grid' (megajoule, DK, None)", -0.0685904810207321], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276614776997], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713256188177], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0342019797909939], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064372802253553], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000564949481055898]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796754162288], ["'autoclave' (unit, DK, None)", 2.273677358786343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619247736851], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008267023126], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063956707788], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698734715474], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806824439643822]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.926021849099848], ["'autoclave' (unit, DK, None)", 3.031569811715124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882141750228], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029057932872773154], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942123193525934], ["'mixed heating grid' (megajoule, DK, None)", -0.19623357538203978], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314975365719], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321450663443], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.1030293476509995], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950085141848], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072455173077606]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.926021849099848], ["'autoclave' (unit, DK, None)", 3.031569811715124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492005421897705], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514587043527], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2628082129017291], ["'mixed heating grid' (megajoule, DK, None)", -1.3082238358802651], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072455173077606]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595066383217], ["'mechanical disinfection' (unit, DK, None)", 2.27632834342339], ["'autoclave' (unit, DK, None)", 4.547354717572688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667126560172], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110729729512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831323086717], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001056598554759607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662924379628], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629800605484]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595066383217], ["'wet wipe' (unit, GLO, None)", 0.14056030652570872], ["'autoclave' (unit, DK, None)", 4.547354717572688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667126560172], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110729729512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831323086717], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001056598554759607], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541433656006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889079817966077], ["'mixed heating grid' (megajoule, DK, None)", -0.06913796595504819]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'mechanical disinfection' (unit, DK, None)", 1.138164171711695], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681488505198837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831462189784], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314900302742]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'wet wipe' (unit, GLO, None)", 0.14056030652570872], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017681488505198835], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541433656006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421503344211], ["'mixed heating grid' (megajoule, DK, None)", -0.06856223446501791]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497433289353224], ["'autoclave' (unit, DK, None)", 0.05605607155877014], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298418793879e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278980583334], ["'mixed heating grid' (megajoule, DK, None)", -0.003944285863677144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842175999], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001055239699278871], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896074231767], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736312055766], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227941178215e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497433289353224], ["'autoclave' (unit, DK, None)", 0.05605607155877014], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057829293135], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475101135074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185987055555], ["'mixed heating grid' (megajoule, DK, None)", -0.026295239091180964], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6527922241708535e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085117938134], ["'autoclave' (unit, DK, None)", 0.07474142874502686], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274961631267], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319233472343e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034538122959850153], ["'mixed heating grid' (megajoule, DK, None)", -0.011284383865514133], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2912395485380662], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641434606794], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0031488091337782075], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629947057962], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001283131303518739]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085117938134], ["'autoclave' (unit, DK, None)", 0.07474142874502686], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669941670803], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270249636605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415306566786], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922577009421], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001283131303518739]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103735438614], ["'mechanical disinfection' (unit, DK, None)", 0.05608789020772387], ["'autoclave' (unit, DK, None)", 0.11211214311754032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318716742807], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485928791893], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610028294516e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.43526807986179e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266343265479045e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471503352786e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103735438614], ["'wet wipe' (unit, GLO, None)", 0.03226030810068472], ["'autoclave' (unit, DK, None)", 0.11211214311754032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318716742807], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485928791893], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610028294516e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.43526807986179e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.35335947665011e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168639157190502], ["'mixed heating grid' (megajoule, DK, None)", -0.003975768907021692]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'mechanical disinfection' (unit, DK, None)", 0.028043945103861934], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871626029287e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171632739496e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735751676393e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'wet wipe' (unit, GLO, None)", 0.03226030810068472], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014115871626029286], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.35335947665011e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307440863137], ["'mixed heating grid' (megajoule, DK, None)", -0.003942661549504929]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664506024624e-05], ["'autoclave' (unit, DK, None)", 0.0002131907553236904], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850570870012e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.607317812790329e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225216703219e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699814264398e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887961288756e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066634073004e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.972093243999293e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4435268470431418e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664506024624e-05], ["'autoclave' (unit, DK, None)", 0.0002131907553236904], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801685892820287e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.890704783866649e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785418602193e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7581501444688133e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.3705363672485195e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287133964959], ["'autoclave' (unit, DK, None)", 0.0002842543404315872], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296937358519e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.5562843726565e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336895278567e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.18363726912633e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117497392298e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419121619417004e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604666935334e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093645068432e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679226239823e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287133964959], ["'autoclave' (unit, DK, None)", 0.0002842543404315872], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328692655831805e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520600643688e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224596852384e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.890915127508865e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679226239823e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496506104125e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00020048906573081205], ["'autoclave' (unit, DK, None)", 0.00042638151064738097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151187301803e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338819096745e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567664321913e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013818362332e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786250406329e-08], ["'mixed heating grid' (megajoule, DK, None)", -6.945368520985902e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496506104125e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083852847e-05], ["'autoclave' (unit, DK, None)", 0.00042638151064738097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151187301803e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338819096745e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567664321913e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013818362332e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681012996653e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111198204776e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.170248289909733e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453286540603], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853378e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893125203157e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.472684260492951e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083852847e-05], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853376e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681012996653e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832266952753e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521447304803e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.737268587587274e-06], ["'autoclave' (unit, DK, None)", 0.00014745545761273875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205550515913e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222969163600234e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.587618414256939e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343108870744e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238700928011e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596880664793e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265243001847e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.552515729830951e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.737268587587274e-06], ["'autoclave' (unit, DK, None)", 0.00014745545761273875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363933329887e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327373979976e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979442400157e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.3917456095046263e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.676274720806206e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.241806638287417e-05], ["'autoclave' (unit, DK, None)", 0.000196607276816985], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2120582072956278e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550566308169755e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246550145752e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0263978004809285e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447563755011e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.790071842026877e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.2285470658398756e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.643000684512246e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619117462104e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.241806638287417e-05], ["'autoclave' (unit, DK, None)", 0.000196607276816985], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.0003842065718e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398829458249e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.0014977000971725e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.84265200320619e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619117462104e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613751823621e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238694158275e-05], ["'autoclave' (unit, DK, None)", 0.0002949109152254776], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379026244463e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377779666942e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.383471589533787e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356950411684e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402182018526504e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.022715877078859e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613751823621e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484370733e-05], ["'autoclave' (unit, DK, None)", 0.0002949109152254776], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379026244463e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377779666942e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.383471589533787e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356950411684e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66424996354177e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227926518362e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.6162545603030204e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'mechanical disinfection' (unit, DK, None)", 4.4186193470791376e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221698743072e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010910092632464e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579385394296e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484370733e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.424822169874307e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66424996354177e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621217016425736e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5861409809176257e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520110312482], ["'autoclave' (unit, DK, None)", 0.020359424917179424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.22040589446555e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686893481866975], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698257645541], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00517656458055512], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835642781576], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000558465112684055], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0076803505754748985], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5465668171111388e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520110312482], ["'autoclave' (unit, DK, None)", 0.020359424917179424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213257075272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130308907362e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024457928987911314], ["'mixed heating grid' (megajoule, DK, None)", -0.0040331321717636944], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.5172251926894883e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02806666519047893], ["'autoclave' (unit, DK, None)", 0.027145899889572566], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121364701514], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.238921419024102e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495917466201733], ["'mixed heating grid' (megajoule, DK, None)", -0.001730785236396655], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800971761101], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204361769792], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089364210182], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.021634790353450423], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884710705423e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02806666519047893], ["'autoclave' (unit, DK, None)", 0.027145899889572566], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403541057106], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993640312412], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997278310801161], ["'mixed heating grid' (megajoule, DK, None)", -0.011538568242644365], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884710705423e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060859891907], ["'mechanical disinfection' (unit, DK, None)", 0.019751980789051188], ["'autoclave' (unit, DK, None)", 0.04071884983435886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953532279695], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904984471154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312217521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714839008956e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813740499355e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.01559334189683e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060859891907], ["'wet wipe' (unit, GLO, None)", 0.002277559816655344], ["'autoclave' (unit, DK, None)", 0.04071884983435886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953532279695], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904984471154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312217521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714839008956e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593750209541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036979725973624905], ["'mixed heating grid' (megajoule, DK, None)", -0.0006097986571183073]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'mechanical disinfection' (unit, DK, None)", 0.009875990394525594], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.8403626016547984e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794068702496696e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.07796670948415e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'wet wipe' (unit, GLO, None)", 0.002277559816655344], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362601654798e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593750209541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671785286600023], ["'mixed heating grid' (megajoule, DK, None)", -0.0006047206904088231]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.152659716639029], ["'autoclave' (unit, DK, None)", 0.6181740187982425], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663924396665], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041725788392], ["'mixed heating grid' (megajoule, DK, None)", -0.016736075468220063], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010393535916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360001295415], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156712373444], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2478888530094292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00021013731242178535]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.152659716639029], ["'autoclave' (unit, DK, None)", 0.6181740187982425], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468585347319], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242211294779], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04336027817192262], ["'mixed heating grid' (megajoule, DK, None)", -0.11157383645480043], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0002549417400786217]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104065806726], ["'autoclave' (unit, DK, None)", 0.8242320250643234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04906239410366532], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699471778], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01860770391593626], ["'mixed heating grid' (megajoule, DK, None)", -0.04788098695502361], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989518230227], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02859331650875319], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03220883521333953], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784591814908], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273540100792]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104065806726], ["'autoclave' (unit, DK, None)", 0.8242320250643234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855027414], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727708766928], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135943957517], ["'mixed heating grid' (megajoule, DK, None)", -0.31920657970015737], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273540100792]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243934643115], ["'mechanical disinfection' (unit, DK, None)", 0.5939082876002371], ["'autoclave' (unit, DK, None)", 1.2363480375964855], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0769231795763707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502834353787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580743401], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099735483391e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662701535504], ["'mixed heating grid' (megajoule, DK, None)", -0.0002809569352244385]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243934643115], ["'wet wipe' (unit, GLO, None)", 0.04360781132597262], ["'autoclave' (unit, DK, None)", 1.2363480375964855], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0769231795763707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502834353787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580743401], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099735483391e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821548995897], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065559565805035115], ["'mixed heating grid' (megajoule, DK, None)", -0.016869661777020813]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'mechanical disinfection' (unit, DK, None)", 0.29695414380011853], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765885605878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593313507677376e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846761221924]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'wet wipe' (unit, GLO, None)", 0.04360781132597262], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006576765885605877], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821548995897], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065013632669958495], ["'mixed heating grid' (megajoule, DK, None)", -0.01672918330940859]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457801528], ["'autoclave' (unit, DK, None)", 0.05995632088351882], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908203629917e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001396406499618732], ["'mixed heating grid' (megajoule, DK, None)", -0.001179042978572477], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002844649562165053], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568716450921], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831842144097], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01556651259248296], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.457986535441257e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457801528], ["'autoclave' (unit, DK, None)", 0.05995632088351882], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.666867519413468e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983082303394193e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00930937666412488], ["'mixed heating grid' (megajoule, DK, None)", -0.007860286523816514], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.881451732227512e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0318918354564018], ["'autoclave' (unit, DK, None)", 0.0799417611780251], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.138113885045466e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229818179765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041819637875], ["'mixed heating grid' (megajoule, DK, None)", -0.003373176799043497], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463999471176], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051476696944], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661955618013167], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933124643088], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499668866108e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0318918354564018], ["'autoclave' (unit, DK, None)", 0.0799417611780251], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302871587235e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280638849145e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02663361213091919], ["'mixed heating grid' (megajoule, DK, None)", -0.022487845326956645], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499668866108e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255991582], ["'mechanical disinfection' (unit, DK, None)", 0.06180787309522924], ["'autoclave' (unit, DK, None)", 0.11991264176703767], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867836605935], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814213536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234526907232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322919132225e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179811232127e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.979318881458456e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255991582], ["'wet wipe' (unit, GLO, None)", 0.00322826864316752], ["'autoclave' (unit, DK, None)", 0.11991264176703767], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867836605935], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814213536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234526907232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322919132225e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.62636118411156e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525290581676], ["'mixed heating grid' (megajoule, DK, None)", -0.0011884540259667134]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654761462], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609758074062e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089905616031e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.89659440729228e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'wet wipe' (unit, GLO, None)", 0.00322826864316752], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160975807406e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.62636118411156e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314391525548], ["'mixed heating grid' (megajoule, DK, None)", -0.001178557431559421]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00410804202821325], ["'autoclave' (unit, DK, None)", 0.040443095550816086], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124415817346e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384813518132], ["'mixed heating grid' (megajoule, DK, None)", -0.0082942404746736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414908083062], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001699461920856086], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016180395983], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670412341556], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705044872564e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00410804202821325], ["'autoclave' (unit, DK, None)", 0.040443095550816086], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521808626462e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463193618212106e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589875678754], ["'mixed heating grid' (megajoule, DK, None)", -0.055294936497824014], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7008509579706207e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01197444770458451], ["'autoclave' (unit, DK, None)", 0.05392412740108811], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929007194385661e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054608516893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726584136037], ["'mixed heating grid' (megajoule, DK, None)", -0.023729363596847613], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003124007507241922], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885392867831], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104180940174306], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681806293397], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115454221656e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01197444770458451], ["'autoclave' (unit, DK, None)", 0.05392412740108811], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.2336681151060464e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528751565957e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303151056090705], ["'mixed heating grid' (megajoule, DK, None)", -0.1581957573123174], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115454221656e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534757287819], ["'mechanical disinfection' (unit, DK, None)", 0.04155330589687234], ["'autoclave' (unit, DK, None)", 0.0808861911016322], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00034544551157508004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479951424878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126987814731e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397367569521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934922079734e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013923959581825578]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534757287819], ["'wet wipe' (unit, GLO, None)", 0.01261688024715039], ["'autoclave' (unit, DK, None)", 0.0808861911016322], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00034544551157508004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479951424878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126987814731e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397367569521e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027632365924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000967298255756532], ["'mixed heating grid' (megajoule, DK, None)", -0.00836044458395964]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'mechanical disinfection' (unit, DK, None)", 0.02077665294843617], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455154866762e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967461039845e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.961979790912789e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'wet wipe' (unit, GLO, None)", 0.01261688024715039], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.19045515486676e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027632365924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432882954944], ["'mixed heating grid' (megajoule, DK, None)", -0.008290824786050512]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545186025267], ["'autoclave' (unit, DK, None)", 0.004683569270134181], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.030527983762682e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255179655312996e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012523543347586], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564747271282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001159075227328018], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596509692212], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924266900323], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120762427624e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545186025267], ["'autoclave' (unit, DK, None)", 0.004683569270134181], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082882911254e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221334743315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083678643687533], ["'mixed heating grid' (megajoule, DK, None)", -0.0008008349028898392], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.144708847790929e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031634804708], ["'autoclave' (unit, DK, None)", 0.006244759026845575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241035522677e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217782931644434e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013233351258984613], ["'mixed heating grid' (megajoule, DK, None)", -0.00034367165956446965], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404090001955], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003488478839530928], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003668956857802743], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218103352204], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223308298842e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031634804708], ["'autoclave' (unit, DK, None)", 0.006244759026845575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205303975365], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533319240518e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822234172656416], ["'mixed heating grid' (megajoule, DK, None)", -0.0022911443970964644], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223308298842e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634507921887], ["'mechanical disinfection' (unit, DK, None)", 0.0035776283448060477], ["'autoclave' (unit, DK, None)", 0.009367138540268365], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914849088118], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291143664486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169099357678e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206868970652e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765090172358488e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0166028800832677e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634507921887], ["'wet wipe' (unit, GLO, None)", 0.0004352277277297738], ["'autoclave' (unit, DK, None)", 0.009367138540268365], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914849088118], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291143664486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169099357678e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206868970652e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697738053927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662438560952852e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012108406755787987]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141724030238], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.633139694316747e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.882545086179234e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0083014400416339e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'wet wipe' (unit, GLO, None)", 0.0004352277277297738], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331396943167467e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697738053927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623613110091071e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012007576611783823]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.656145843700213e-08], ["'autoclave' (unit, DK, None)", 2.421308703053797e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330483158684e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973099126559e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459490256043e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403144134986e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.656671827313011e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.793274420558994e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261602058893e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.261585689187769e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.656145843700213e-08], ["'autoclave' (unit, DK, None)", 2.421308703053797e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172563591276e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928055197105e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315399417706e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.568306326837362e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.086445096309986e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684928308047e-07], ["'autoclave' (unit, DK, None)", 3.2284116040717294e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.640141248969235e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059367053e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461089522934e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.677017627946724e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141299717675e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099674437218e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023357667395e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200451284197e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131438543684e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684928308047e-07], ["'autoclave' (unit, DK, None)", 3.2284116040717294e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655108707826e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8255092765999526e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307393015295e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.451345085297816e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131438543684e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.2485881082920935e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986376246043e-07], ["'autoclave' (unit, DK, None)", 4.842617406107597e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.20855401621015e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680780949863e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974461772e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846275632008e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030472761838e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.1576071614491994e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.2485881082920935e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359452582e-07], ["'autoclave' (unit, DK, None)", 4.842617406107597e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.20855401621015e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680780949863e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974461772e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846275632008e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495758442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6497935622082096e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2955047018949653e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188123021e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443818375644e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8720152363809085e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035807245997e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359452582e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.9484438183756433e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495758442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6110734098444114e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166660877194e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847793396875], ["'autoclave' (unit, DK, None)", 0.00026584271015213346], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864363361052e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498114130352364e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.00568256267242e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075366871508], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842736259813e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408020878004e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535778494833e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4527956966098397e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847793396875], ["'autoclave' (unit, DK, None)", 0.00026584271015213346], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9108819607349035e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.597767493363654e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998742753568242e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000133712170844828], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.568759280148503e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.000883118414079519], ["'autoclave' (unit, DK, None)", 0.0003544569468695113], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.669010188877008e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0806953305593425e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728003210326942e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.738146962924158e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040606006827287355], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.414214804117031e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933377885598e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283883084042], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048516621031e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.000883118414079519], ["'autoclave' (unit, DK, None)", 0.0003544569468695113], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568903478602e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221197340304e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152002140217966e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003825431308616105], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048516621031e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000247172902867514], ["'mechanical disinfection' (unit, DK, None)", 0.0002498591765301857], ["'autoclave' (unit, DK, None)", 0.0005316854203042671], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175371473892e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801808761644e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944006001578e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.5873489135962516e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997439970613e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3670404206265936e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000247172902867514], ["'wet wipe' (unit, GLO, None)", 7.63193289551638e-05], ["'autoclave' (unit, DK, None)", 0.0005316854203042671], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175371473892e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801808761644e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944006001578e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.5873489135962516e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437131464982e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797421734645484e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.021691795582621e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958826509286], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662956945295e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1474987199852985e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835202103132968e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'wet wipe' (unit, GLO, None)", 7.63193289551638e-05], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.676629569452948e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437131464982e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267186264704e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.004856593479488e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956182000259], ["'autoclave' (unit, DK, None)", 0.00046015280894955277], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164149158e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023832040649966e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.96939617011437e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888731402957], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.049983129627897e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043449731467e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000144434769527248], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881222845555e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956182000259], ["'autoclave' (unit, DK, None)", 0.00046015280894955277], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817911643947e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3736997124004287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015888027099977e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003312930780076247], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.570750419836768e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931910582345], ["'autoclave' (unit, DK, None)", 0.0006135370785994037], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491305955094e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5267499386241278e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.581668474446938e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014217167797038867], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349477381628], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.160143399850952e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894298365765e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585057105578], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336137146054e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931910582345], ["'autoclave' (unit, DK, None)", 0.0006135370785994037], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990961026465e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864333090698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211123162979598], ["'mixed heating grid' (megajoule, DK, None)", -0.0009478111864692577], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336137146054e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003307165589489659], ["'mechanical disinfection' (unit, DK, None)", 0.0004533713309224527], ["'autoclave' (unit, DK, None)", 0.0009203056178991059], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754281949243e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184346676682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683633528464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683165411938e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5148761720962456e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.342375848642639e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003307165589489659], ["'wet wipe' (unit, GLO, None)", 0.0010932762474606156], ["'autoclave' (unit, DK, None)", 0.0009203056178991059], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754281949243e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184346676682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683633528464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683165411938e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297417638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859704234365e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.009061579881118e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566546122634], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.87275744601084e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380860481208e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879243213194e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'wet wipe' (unit, GLO, None)", 0.0010932762474606156], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8727574460108397e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297417638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115895629575e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349700637904e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000615872533492754], ["'autoclave' (unit, DK, None)", 0.00047168215606354535], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814574644182e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223676819088e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1419065636158804e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003188361095475814], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680861946218e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.48666051068096e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001523782404315465], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.733646959752816e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000615872533492754], ["'autoclave' (unit, DK, None)", 0.00047168215606354535], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900448573545e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655678166821e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482451212725e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003427937709077254], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0124192703519308e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001763208261818057], ["'autoclave' (unit, DK, None)", 0.0006289095414180604], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381459039134e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758158416561e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6398576974620174e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014710710498643944], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864010445174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991327381871e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577422996411695e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00042923448008886343], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609546891715e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001763208261818057], ["'autoclave' (unit, DK, None)", 0.0006289095414180604], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802943260155e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954518824397e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599051316413464], ["'mixed heating grid' (megajoule, DK, None)", -0.0009807140332429294], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609546891715e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706330247318], ["'mechanical disinfection' (unit, DK, None)", 0.0004645415532480651], ["'autoclave' (unit, DK, None)", 0.000943364312127091], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.762952670000487e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357074572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019758484894e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.820438402915796e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205513187647e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.631977742136614e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706330247318], ["'wet wipe' (unit, GLO, None)", 0.0016909050543384993], ["'autoclave' (unit, DK, None)", 0.000943364312127091], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.762952670000487e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357074572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019758484894e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.820438402915796e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3320915022401014e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874799736493e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1829489405659676e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077662403255], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385076960613e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102756593804e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.315988871068307e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'wet wipe' (unit, GLO, None)", 0.0016909050543384993], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0463850769606123e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3320915022401014e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423772170576e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1397890518552836e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869314300273], ["'autoclave' (unit, DK, None)", 0.003992613011034359], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709414414e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331560072985e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.766592307403173e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391696346458], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.831083725731884e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813550151421e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259227896048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.362331615824725e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869314300273], ["'autoclave' (unit, DK, None)", 0.003992613011034359], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209193310598], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669035832258e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887706715323], ["'mixed heating grid' (megajoule, DK, None)", -0.0005844394871602116], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.650765865697811e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781212378747], ["'autoclave' (unit, DK, None)", 0.0053234840147124785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822332015655e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.02581170947567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693408041548], ["'mixed heating grid' (megajoule, DK, None)", -0.0002508073608462425], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135569187055], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.520737426960039e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892262491901e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806364022242392], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.241055735008363e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781212378747], ["'autoclave' (unit, DK, None)", 0.0053234840147124785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898932167129746], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449131839428e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795605361043], ["'mixed heating grid' (megajoule, DK, None)", -0.0016720490723082834], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.241055735008363e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496355699724], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468545352333], ["'autoclave' (unit, DK, None)", 0.007985226022068722], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955415988836e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588481787273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037395118e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664509343078e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945401003548518e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.4716920413792125e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496355699724], ["'wet wipe' (unit, GLO, None)", 0.009527755134551464], ["'autoclave' (unit, DK, None)", 0.007985226022068722], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955415988836e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588481787273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037395118e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664509343078e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320590518e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.77288292681991e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.836566699507871e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234272676166], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780548e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700501774242e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.358460206896062e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'wet wipe' (unit, GLO, None)", 0.009527755134551464], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780546e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320590518e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155921802185e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.76298209743891e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.01222122969331e-09], ["'autoclave' (unit, DK, None)", 1.397331978537039e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171382978e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802995367717e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664830146024e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389236176905e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.9502130655210253e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.990337596759649e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416429176096e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648378970508e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.01222122969331e-09], ["'autoclave' (unit, DK, None)", 1.397331978537039e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665123284e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497438429e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8490535330245144e-10], ["'mixed heating grid' (megajoule, DK, None)", -8.851109886764018e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.339066856660188e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.898876276747711e-09], ["'autoclave' (unit, DK, None)", 1.863109304716052e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429261019089e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894301018785754e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059948373581e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.79838043121618e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.565291672433897e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573303995319e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.99565245791421e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032796951015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230673083817e-12]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.898876276747711e-09], ["'autoclave' (unit, DK, None)", 1.863109304716052e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.486166947922052e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900124016e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039965582391e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.5322536208107865e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230673083817e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996824055768e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860851335912831e-09], ["'autoclave' (unit, DK, None)", 2.7946639570740788e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230916993046e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.039477695406401e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869725734e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168329023958e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656149059774819e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.2288206501954987e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996824055768e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960378246e-10], ["'autoclave' (unit, DK, None)", 2.7946639570740788e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230916993046e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.039477695406401e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869725734e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168329023958e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373085082e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957188442081953e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3382638339360402e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425667956416e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828587e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3280745298874036e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103250977494e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960378246e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828583e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373085082e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380989093276e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197306850627e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592799842444e-07], ["'autoclave' (unit, DK, None)", 5.875991674870377e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647539243e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006724417462e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850868611416e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.596602205536829e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1047820831213225e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947580657333e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012818659358e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.4360200392070734e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592799842444e-07], ["'autoclave' (unit, DK, None)", 5.875991674870377e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748128531425e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827662865007e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337816278308e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.0963233912407613e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.090453062133759e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896832740202e-06], ["'autoclave' (unit, DK, None)", 7.834655566493836e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152527468e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227374253901e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.723049120297305e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.996198045961445e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317465914917e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.325072289005922e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117634338316e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721920749117e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196250782147e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896832740202e-06], ["'autoclave' (unit, DK, None)", 7.834655566493836e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60697130381167e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641220682e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660801982047e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.997465363974296e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196250782147e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.905396603447249e-07], ["'mechanical disinfection' (unit, DK, None)", 5.682374726028973e-07], ["'autoclave' (unit, DK, None)", 1.175198334974076e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7991769127597774e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194726593223e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678911750075e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480516365128e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357673015058e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.278805622865766e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.905396603447249e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972741225118e-07], ["'autoclave' (unit, DK, None)", 1.175198334974076e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7991769127597774e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194726593223e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678911750075e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480516365128e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571297440582e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.59397885945412e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1695841703727116e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'mechanical disinfection' (unit, DK, None)", 2.8411873630144865e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361967967024e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178836507507e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.639402811432883e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972741225118e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619679670238e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571297440582e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514087071089068e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190142258382e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518801017808], ["'autoclave' (unit, DK, None)", 0.011758890503977368], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792589240212e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768808647187993], ["'mixed heating grid' (megajoule, DK, None)", -0.0012096382162036763], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956386720269], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179449664924], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00035742175040878054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173229132019], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.914235289690724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518801017808], ["'autoclave' (unit, DK, None)", 0.011758890503977368], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039942393037], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098424443635e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179205764791995], ["'mixed heating grid' (megajoule, DK, None)", -0.008064254774691176], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8964639255795024e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1635073490850754], ["'autoclave' (unit, DK, None)", 0.01567852067196982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500144429705e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3180211576918225e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514030316650948], ["'mixed heating grid' (megajoule, DK, None)", -0.003460708082986799], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612346729235], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267601355462], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010766900046701917], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642898963436], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878245037851e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1635073490850754], ["'autoclave' (unit, DK, None)", 0.01567852067196982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307026026208], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.205612867886046e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686877767302], ["'mixed heating grid' (megajoule, DK, None)", -0.023071387219911994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878245037851e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113676908555], ["'mechanical disinfection' (unit, DK, None)", 0.011363780659983832], ["'autoclave' (unit, DK, None)", 0.023517781007954743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267783259], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558712837155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056611875102e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.58010460825069e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314680865854e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0306806491180725e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113676908555], ["'wet wipe' (unit, GLO, None)", 0.01239225775579337], ["'autoclave' (unit, DK, None)", 0.023517781007954743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267783259], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558712837155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056611875102e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.58010460825069e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297520664372e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950547855328117], ["'mixed heating grid' (megajoule, DK, None)", -0.0012192934728732473]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'mechanical disinfection' (unit, DK, None)", 0.005681890329991916], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071840202931e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9111573404329218e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403245590362e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'wet wipe' (unit, GLO, None)", 0.01239225775579337], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.9910718402029306e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297520664372e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002275943212128488], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400696276568]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -100,7 +100,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651939275657], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974537e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960968921512e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.942335922625188e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'wet wipe' (unit, GLO, None)", 0.0002486553730669998], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974534e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759200173e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786583291221e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.694816325795862e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'wet wipe' (unit, GLO, None)", 0.0002486553730669998], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974537e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759200173e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786583291221e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.694816325795862e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.2476010126911955], ["'autoclave' (unit, DK, None)", 0.21781507589339372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423148947825], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296368140347], ["'mixed heating grid' (megajoule, DK, None)", -0.013748323405392686], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404768223], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009997919], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566239615909], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0691469938289793], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253800881174]]</t>
@@ -124,7 +124,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'mechanical disinfection' (unit, DK, None)", 0.10834019310490056], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893040845405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695952314492e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001763819586]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'wet wipe' (unit, GLO, None)", 0.05727539177915544], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006346893040845404], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159503775032], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402722949061], ["'mixed heating grid' (megajoule, DK, None)", -0.01374266164624961]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'wet wipe' (unit, GLO, None)", 0.05727539177915544], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893040845405e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159503775032], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402722949061], ["'mixed heating grid' (megajoule, DK, None)", -0.01374266164624961]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.00763891962301754], ["'autoclave' (unit, DK, None)", 0.04364214636749747], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505906628527], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004257865356], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275560681934], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668953077659773], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787994641215], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776737339], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427484878976], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169625005909e-06]]</t>
@@ -148,7 +148,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'mechanical disinfection' (unit, DK, None)", 0.022144256083884768], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.11352524023128e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150003867310858e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.798635208417562e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'wet wipe' (unit, GLO, None)", 0.002171900753863152], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135252402312795e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297990968e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002756868471677967], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430632528495]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'wet wipe' (unit, GLO, None)", 0.002171900753863152], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.11352524023128e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297990968e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002756868471677967], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430632528495]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01007273939412592], ["'autoclave' (unit, DK, None)", 0.054955644722680594], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014179846836], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829962352412], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034490199592288], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720447491802], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363947744572], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776954442], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673649422257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407925216329976e-05]]</t>
@@ -172,7 +172,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'mechanical disinfection' (unit, DK, None)", 0.027851426432558984], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566566e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898836017287e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583327054818282e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'wet wipe' (unit, GLO, None)", 0.002406925417314864], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566565e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804482878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953487355638836], ["'mixed heating grid' (megajoule, DK, None)", -0.000903076966538733]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'wet wipe' (unit, GLO, None)", 0.002406925417314864], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566566e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804482878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953487355638836], ["'mixed heating grid' (megajoule, DK, None)", -0.000903076966538733]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.6735796754162288], ["'autoclave' (unit, DK, None)", 2.273677358786343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0798222900715272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01377909593506168], ["'mixed heating grid' (megajoule, DK, None)", -0.0685904810207321], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276614776997], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713256188177], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0342019797909939], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064372802253553], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000564949481055898]]</t>
@@ -196,7 +196,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'mechanical disinfection' (unit, DK, None)", 1.138164171711695], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681488505198837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831462189784], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314900302742]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'wet wipe' (unit, GLO, None)", 0.14056030652570872], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017681488505198835], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541433656006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421503344211], ["'mixed heating grid' (megajoule, DK, None)", -0.06856223446501791]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'wet wipe' (unit, GLO, None)", 0.14056030652570872], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681488505198837], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541433656006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421503344211], ["'mixed heating grid' (megajoule, DK, None)", -0.06856223446501791]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1497433289353224], ["'autoclave' (unit, DK, None)", 0.05605607155877014], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298418793879e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278980583334], ["'mixed heating grid' (megajoule, DK, None)", -0.003944285863677144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842175999], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001055239699278871], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896074231767], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736312055766], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227941178215e-05]]</t>
@@ -220,7 +220,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'mechanical disinfection' (unit, DK, None)", 0.028043945103861934], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871626029287e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171632739496e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735751676393e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'wet wipe' (unit, GLO, None)", 0.03226030810068472], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014115871626029286], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.35335947665011e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307440863137], ["'mixed heating grid' (megajoule, DK, None)", -0.003942661549504929]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'wet wipe' (unit, GLO, None)", 0.03226030810068472], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871626029287e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.35335947665011e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307440863137], ["'mixed heating grid' (megajoule, DK, None)", -0.003942661549504929]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.476664506024624e-05], ["'autoclave' (unit, DK, None)", 0.0002131907553236904], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850570870012e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.607317812790329e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225216703219e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699814264398e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887961288756e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066634073004e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.972093243999293e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4435268470431418e-08]]</t>
@@ -244,7 +244,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453286540603], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853378e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893125203157e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.472684260492951e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083852847e-05], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853376e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681012996653e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832266952753e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521447304803e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083852847e-05], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853378e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681012996653e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832266952753e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521447304803e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 7.737268587587274e-06], ["'autoclave' (unit, DK, None)", 0.00014745545761273875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205550515913e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222969163600234e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.587618414256939e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343108870744e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238700928011e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596880664793e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265243001847e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.552515729830951e-08]]</t>
@@ -268,7 +268,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'mechanical disinfection' (unit, DK, None)", 4.4186193470791376e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221698743072e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010910092632464e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579385394296e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484370733e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.424822169874307e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66424996354177e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621217016425736e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5861409809176257e-07]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484370733e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221698743072e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66424996354177e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621217016425736e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5861409809176257e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009802520110312482], ["'autoclave' (unit, DK, None)", 0.020359424917179424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.22040589446555e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686893481866975], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698257645541], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00517656458055512], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835642781576], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000558465112684055], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0076803505754748985], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5465668171111388e-05]]</t>
@@ -292,7 +292,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'mechanical disinfection' (unit, DK, None)", 0.009875990394525594], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.8403626016547984e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794068702496696e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.07796670948415e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'wet wipe' (unit, GLO, None)", 0.002277559816655344], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362601654798e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593750209541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671785286600023], ["'mixed heating grid' (megajoule, DK, None)", -0.0006047206904088231]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'wet wipe' (unit, GLO, None)", 0.002277559816655344], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.8403626016547984e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593750209541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671785286600023], ["'mixed heating grid' (megajoule, DK, None)", -0.0006047206904088231]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.152659716639029], ["'autoclave' (unit, DK, None)", 0.6181740187982425], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663924396665], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041725788392], ["'mixed heating grid' (megajoule, DK, None)", -0.016736075468220063], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010393535916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360001295415], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156712373444], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2478888530094292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00021013731242178535]]</t>
@@ -316,7 +316,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'mechanical disinfection' (unit, DK, None)", 0.29695414380011853], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765885605878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593313507677376e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846761221924]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'wet wipe' (unit, GLO, None)", 0.04360781132597262], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006576765885605877], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821548995897], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065013632669958495], ["'mixed heating grid' (megajoule, DK, None)", -0.01672918330940859]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'wet wipe' (unit, GLO, None)", 0.04360781132597262], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765885605878e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821548995897], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065013632669958495], ["'mixed heating grid' (megajoule, DK, None)", -0.01672918330940859]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01108799457801528], ["'autoclave' (unit, DK, None)", 0.05995632088351882], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908203629917e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001396406499618732], ["'mixed heating grid' (megajoule, DK, None)", -0.001179042978572477], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002844649562165053], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568716450921], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831842144097], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01556651259248296], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.457986535441257e-06]]</t>
@@ -340,7 +340,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654761462], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609758074062e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089905616031e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.89659440729228e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'wet wipe' (unit, GLO, None)", 0.00322826864316752], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160975807406e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.62636118411156e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314391525548], ["'mixed heating grid' (megajoule, DK, None)", -0.001178557431559421]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'wet wipe' (unit, GLO, None)", 0.00322826864316752], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609758074062e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.62636118411156e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314391525548], ["'mixed heating grid' (megajoule, DK, None)", -0.001178557431559421]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.00410804202821325], ["'autoclave' (unit, DK, None)", 0.040443095550816086], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124415817346e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384813518132], ["'mixed heating grid' (megajoule, DK, None)", -0.0082942404746736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414908083062], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001699461920856086], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016180395983], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670412341556], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705044872564e-06]]</t>
@@ -364,7 +364,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'mechanical disinfection' (unit, DK, None)", 0.02077665294843617], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455154866762e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967461039845e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.961979790912789e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'wet wipe' (unit, GLO, None)", 0.01261688024715039], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.19045515486676e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027632365924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432882954944], ["'mixed heating grid' (megajoule, DK, None)", -0.008290824786050512]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'wet wipe' (unit, GLO, None)", 0.01261688024715039], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455154866762e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027632365924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432882954944], ["'mixed heating grid' (megajoule, DK, None)", -0.008290824786050512]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002434545186025267], ["'autoclave' (unit, DK, None)", 0.004683569270134181], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.030527983762682e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255179655312996e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012523543347586], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564747271282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001159075227328018], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596509692212], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924266900323], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120762427624e-06]]</t>
@@ -388,7 +388,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141724030238], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.633139694316747e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.882545086179234e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0083014400416339e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'wet wipe' (unit, GLO, None)", 0.0004352277277297738], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331396943167467e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697738053927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623613110091071e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012007576611783823]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'wet wipe' (unit, GLO, None)", 0.0004352277277297738], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.633139694316747e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697738053927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623613110091071e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012007576611783823]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.656145843700213e-08], ["'autoclave' (unit, DK, None)", 2.421308703053797e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330483158684e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973099126559e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459490256043e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403144134986e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.656671827313011e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.793274420558994e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261602058893e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.261585689187769e-10]]</t>
@@ -412,7 +412,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188123021e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443818375644e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8720152363809085e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035807245997e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359452582e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.9484438183756433e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495758442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6110734098444114e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166660877194e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359452582e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443818375644e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495758442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6110734098444114e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166660877194e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0003086847793396875], ["'autoclave' (unit, DK, None)", 0.00026584271015213346], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864363361052e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498114130352364e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.00568256267242e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075366871508], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842736259813e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408020878004e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535778494833e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4527956966098397e-07]]</t>
@@ -436,7 +436,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958826509286], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662956945295e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1474987199852985e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835202103132968e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'wet wipe' (unit, GLO, None)", 7.63193289551638e-05], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.676629569452948e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437131464982e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267186264704e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.004856593479488e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'wet wipe' (unit, GLO, None)", 7.63193289551638e-05], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662956945295e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437131464982e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267186264704e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.004856593479488e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005812956182000259], ["'autoclave' (unit, DK, None)", 0.00046015280894955277], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164149158e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023832040649966e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.96939617011437e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888731402957], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.049983129627897e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043449731467e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000144434769527248], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881222845555e-07]]</t>
@@ -460,7 +460,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566546122634], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.87275744601084e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380860481208e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879243213194e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'wet wipe' (unit, GLO, None)", 0.0010932762474606156], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8727574460108397e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297417638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115895629575e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349700637904e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'wet wipe' (unit, GLO, None)", 0.0010932762474606156], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.87275744601084e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297417638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115895629575e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349700637904e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.000615872533492754], ["'autoclave' (unit, DK, None)", 0.00047168215606354535], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814574644182e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223676819088e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1419065636158804e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003188361095475814], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680861946218e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.48666051068096e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001523782404315465], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.733646959752816e-07]]</t>
@@ -484,7 +484,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077662403255], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385076960613e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102756593804e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.315988871068307e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'wet wipe' (unit, GLO, None)", 0.0016909050543384993], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0463850769606123e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3320915022401014e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423772170576e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1397890518552836e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'wet wipe' (unit, GLO, None)", 0.0016909050543384993], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385076960613e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3320915022401014e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423772170576e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1397890518552836e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002000869314300273], ["'autoclave' (unit, DK, None)", 0.003992613011034359], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709414414e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331560072985e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.766592307403173e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391696346458], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.831083725731884e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813550151421e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259227896048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.362331615824725e-07]]</t>
@@ -508,7 +508,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234272676166], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780548e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700501774242e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.358460206896062e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'wet wipe' (unit, GLO, None)", 0.009527755134551464], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780546e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320590518e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155921802185e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.76298209743891e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'wet wipe' (unit, GLO, None)", 0.009527755134551464], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780548e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320590518e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155921802185e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.76298209743891e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 1.01222122969331e-09], ["'autoclave' (unit, DK, None)", 1.397331978537039e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171382978e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802995367717e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664830146024e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389236176905e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.9502130655210253e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.990337596759649e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416429176096e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648378970508e-13]]</t>
@@ -532,7 +532,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425667956416e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828587e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3280745298874036e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103250977494e-12]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960378246e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828583e-12], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373085082e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380989093276e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197306850627e-10]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960378246e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828587e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373085082e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380989093276e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197306850627e-10]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.961592799842444e-07], ["'autoclave' (unit, DK, None)", 5.875991674870377e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647539243e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006724417462e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850868611416e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.596602205536829e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1047820831213225e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947580657333e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012818659358e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.4360200392070734e-10]]</t>
@@ -556,7 +556,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'mechanical disinfection' (unit, DK, None)", 2.8411873630144865e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361967967024e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178836507507e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.639402811432883e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972741225118e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619679670238e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571297440582e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514087071089068e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190142258382e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972741225118e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361967967024e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571297440582e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514087071089068e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190142258382e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05715518801017808], ["'autoclave' (unit, DK, None)", 0.011758890503977368], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792589240212e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768808647187993], ["'mixed heating grid' (megajoule, DK, None)", -0.0012096382162036763], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956386720269], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179449664924], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00035742175040878054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173229132019], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.914235289690724e-05]]</t>
@@ -580,7 +580,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'mechanical disinfection' (unit, DK, None)", 0.005681890329991916], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071840202931e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9111573404329218e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403245590362e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'wet wipe' (unit, GLO, None)", 0.01239225775579337], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.9910718402029306e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297520664372e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002275943212128488], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400696276568]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'wet wipe' (unit, GLO, None)", 0.01239225775579337], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071840202931e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297520664372e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002275943212128488], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400696276568]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -14,573 +14,597 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858218313292], ["'autoclave' (unit, DK, None)", 0.0007684225884394761], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228664165558e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.111536405155348e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.696750515834289e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038073267753348494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135579303847e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594265459793e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00017353962482195205], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.263378297383169e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858218313292], ["'autoclave' (unit, DK, None)", 0.0007684225884394761], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.163751621640892e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804398522111e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242701035653e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00031311670105561927], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043815084898e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429301171659], ["'autoclave' (unit, DK, None)", 0.001024563451252635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.9664329768618355e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894975397214e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800442234106e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143648562864], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985957068285], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.136157310275915e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140500874408e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440135829636], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978130846417e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429301171659], ["'autoclave' (unit, DK, None)", 0.001024563451252635], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.27817358208702e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2181762906139505e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021200294822737347], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095765708576], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978130846417e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940481888066], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930387855131], ["'autoclave' (unit, DK, None)", 0.001536845176878953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.64186142954191e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813254098547], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790714793538e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849916941306e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659921937843073e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671845250376e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940481888066], ["'wet wipe' (unit, GLO, None)", 0.0002486553730669998], ["'autoclave' (unit, DK, None)", 0.001536845176878953], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.64186142954191e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813254098547], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790714793538e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849916941306e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759200173e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204086192980411e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7342396850221144e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651939275657], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974537e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960968921512e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.942335922625188e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958110288786], ["'wet wipe' (unit, GLO, None)", 0.0002486553730669998], ["'autoclave' (unit, DK, None)", 0.0011526338826592143], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204308493305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665784787725], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581429587076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041569974537e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79191759200173e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457605830688e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786583291221e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.694816325795862e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010126911955], ["'autoclave' (unit, DK, None)", 0.21781507589339372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423148947825], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296368140347], ["'mixed heating grid' (megajoule, DK, None)", -0.013748323405392686], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404768223], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009997919], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566239615909], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0691469938289793], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253800881174]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010126911955], ["'autoclave' (unit, DK, None)", 0.21781507589339372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1811125274369435], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089340278384], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655309120935646], ["'mixed heating grid' (megajoule, DK, None)", -0.09165548936928458], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802474341606]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.708572605151076], ["'autoclave' (unit, DK, None)", 0.2904201011911916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424421674], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564501996682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471773316298], ["'mixed heating grid' (megajoule, DK, None)", -0.03933319342859438], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.404388458295692], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437857814465], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048232130455], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.194780264306984], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319356643093]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.708572605151076], ["'autoclave' (unit, DK, None)", 0.2904201011911916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510176133625193], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893426363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314515544206], ["'mixed heating grid' (megajoule, DK, None)", -0.2622212895239625], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319356643093]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315832289203], ["'mechanical disinfection' (unit, DK, None)", 0.21668038620980112], ["'autoclave' (unit, DK, None)", 0.4356301517867876], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750437931739], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0417321978637024], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910189313], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.792733859595182e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391904629004e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003527639172]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13178315832289203], ["'wet wipe' (unit, GLO, None)", 0.05727539177915544], ["'autoclave' (unit, DK, None)", 0.4356301517867876], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750437931739], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0417321978637024], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910189313], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.792733859595182e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159503775032], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999682472195], ["'mixed heating grid' (megajoule, DK, None)", -0.013858061663887805]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'mechanical disinfection' (unit, DK, None)", 0.10834019310490056], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893040845405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695952314492e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001763819586]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538937707421], ["'wet wipe' (unit, GLO, None)", 0.05727539177915544], ["'autoclave' (unit, DK, None)", 0.3267226138400906], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224832160034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805991848683], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820378626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893040845405e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159503775032], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284856044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004596402722949061], ["'mixed heating grid' (megajoule, DK, None)", -0.01374266164624961]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00763891962301754], ["'autoclave' (unit, DK, None)", 0.04364214636749747], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505906628527], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004257865356], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275560681934], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668953077659773], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065787994641215], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063776737339], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427484878976], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169625005909e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00763891962301754], ["'autoclave' (unit, DK, None)", 0.04364214636749747], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181033881], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169373488368], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386695052435707], ["'mixed heating grid' (megajoule, DK, None)", -0.004605517040454623], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0366338263477382e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264070391627], ["'autoclave' (unit, DK, None)", 0.058189528489996624], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485708826], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455127473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497753999151], ["'mixed heating grid' (megajoule, DK, None)", -0.001976419457660937], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00919490401192411], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546391638606], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981665824995], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0370800774221943], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912952152884e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264070391627], ["'autoclave' (unit, DK, None)", 0.058189528489996624], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225403108136], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210354799894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331835999437], ["'mixed heating grid' (megajoule, DK, None)", -0.01317612971773958], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912952152884e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766958298976], ["'mechanical disinfection' (unit, DK, None)", 0.044288512167769536], ["'autoclave' (unit, DK, None)", 0.08728429273499497], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142100004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532167416453], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684859545316e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559572271675e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000773462183e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597270416835125e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971766958298976], ["'wet wipe' (unit, GLO, None)", 0.002171900753863152], ["'autoclave' (unit, DK, None)", 0.08728429273499497], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09414282142100004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532167416453], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684859545316e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559572271675e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297990968e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027800184755452715], ["'mixed heating grid' (megajoule, DK, None)", -0.0006963416984612672]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'mechanical disinfection' (unit, DK, None)", 0.022144256083884768], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.11352524023128e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150003867310858e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.798635208417562e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0065464132164455065], ["'wet wipe' (unit, GLO, None)", 0.002171900753863152], ["'autoclave' (unit, DK, None)", 0.0654632195512462], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416419024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990030582857], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536971909063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.11352524023128e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297990968e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158325061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002756868471677967], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430632528495]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273939412592], ["'autoclave' (unit, DK, None)", 0.054955644722680594], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014179846836], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596829962352412], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034490199592288], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720447491802], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363947744572], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343776954442], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673649422257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407925216329976e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273939412592], ["'autoclave' (unit, DK, None)", 0.054955644722680594], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373895038553], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733001717988], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978866415682747], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993466394859], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091863421108071e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605950563562], ["'autoclave' (unit, DK, None)", 0.07327419296357413], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372239713636], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755374917769], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290331734812022], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847177148154515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848941615998], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00204580856679691], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002325961880540609], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04880770843442978], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144698637596986e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605950563562], ["'autoclave' (unit, DK, None)", 0.07327419296357413], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491560157], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502818366901821], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860221156541353], ["'mixed heating grid' (megajoule, DK, None)", -0.017231451432103008], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144698637596986e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274698134477], ["'mechanical disinfection' (unit, DK, None)", 0.05570285286511797], ["'autoclave' (unit, DK, None)", 0.10991128944536123], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330626814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512572483763], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703251236504e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621456598423e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0381797672034734e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166654109636564e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274698134477], ["'wet wipe' (unit, GLO, None)", 0.002406925417314864], ["'autoclave' (unit, DK, None)", 0.10991128944536123], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330626814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512572483763], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703251236504e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621456598423e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804482878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036255396343998924], ["'mixed heating grid' (megajoule, DK, None)", -0.0009106602935935514]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'mechanical disinfection' (unit, DK, None)", 0.027851426432558984], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566566e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190898836017287e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583327054818282e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549531949067], ["'wet wipe' (unit, GLO, None)", 0.002406925417314864], ["'autoclave' (unit, DK, None)", 0.0824334670840209], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0672385128856449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01688453464001115], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140650247301e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341151566566e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804482878e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119631186526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953487355638836], ["'mixed heating grid' (megajoule, DK, None)", -0.000903076966538733]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796754162288], ["'autoclave' (unit, DK, None)", 2.273677358786343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0798222900715272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01377909593506168], ["'mixed heating grid' (megajoule, DK, None)", -0.0685904810207321], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276614776997], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713256188177], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0342019797909939], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064372802253553], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000564949481055898]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796754162288], ["'autoclave' (unit, DK, None)", 2.273677358786343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619247736851], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008267023126], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063956707788], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698734715474], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806824439643822]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021849099848], ["'autoclave' (unit, DK, None)", 3.031569811715124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882141750228], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029057932872773154], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942123193525934], ["'mixed heating grid' (megajoule, DK, None)", -0.19623357538203978], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314975365719], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321450663443], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.1030293476509995], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950085141848], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072455173077606]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021849099848], ["'autoclave' (unit, DK, None)", 3.031569811715124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492005421897705], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514587043527], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2628082129017291], ["'mixed heating grid' (megajoule, DK, None)", -1.3082238358802651], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072455173077606]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595066383217], ["'mechanical disinfection' (unit, DK, None)", 2.27632834342339], ["'autoclave' (unit, DK, None)", 4.547354717572688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667126560172], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110729729512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831323086717], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001056598554759607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131662924379628], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629800605484]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595066383217], ["'wet wipe' (unit, GLO, None)", 0.14056030652570872], ["'autoclave' (unit, DK, None)", 4.547354717572688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667126560172], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110729729512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831323086717], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001056598554759607], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541433656006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889079817966077], ["'mixed heating grid' (megajoule, DK, None)", -0.06913796595504819]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'mechanical disinfection' (unit, DK, None)", 1.138164171711695], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681488505198837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831462189784], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314900302742]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091717308756], ["'wet wipe' (unit, GLO, None)", 0.14056030652570872], ["'autoclave' (unit, DK, None)", 3.410516038179515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123397690852], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.056863527312707794], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662646173433], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681488505198837], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541433656006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301313902], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013773421503344211], ["'mixed heating grid' (megajoule, DK, None)", -0.06856223446501791]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497433289353224], ["'autoclave' (unit, DK, None)", 0.05605607155877014], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.646298418793879e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278980583334], ["'mixed heating grid' (megajoule, DK, None)", -0.003944285863677144], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842175999], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001055239699278871], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896074231767], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736312055766], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227941178215e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497433289353224], ["'autoclave' (unit, DK, None)", 0.05605607155877014], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057829293135], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475101135074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185987055555], ["'mixed heating grid' (megajoule, DK, None)", -0.026295239091180964], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6527922241708535e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085117938134], ["'autoclave' (unit, DK, None)", 0.07474142874502686], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274961631267], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319233472343e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034538122959850153], ["'mixed heating grid' (megajoule, DK, None)", -0.011284383865514133], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2912395485380662], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641434606794], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0031488091337782075], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629947057962], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001283131303518739]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085117938134], ["'autoclave' (unit, DK, None)", 0.07474142874502686], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669941670803], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270249636605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415306566786], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922577009421], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001283131303518739]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103735438614], ["'mechanical disinfection' (unit, DK, None)", 0.05608789020772387], ["'autoclave' (unit, DK, None)", 0.11211214311754032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318716742807], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485928791893], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610028294516e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.43526807986179e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266343265479045e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471503352786e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103735438614], ["'wet wipe' (unit, GLO, None)", 0.03226030810068472], ["'autoclave' (unit, DK, None)", 0.11211214311754032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318716742807], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485928791893], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610028294516e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.43526807986179e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.35335947665011e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012168639157190502], ["'mixed heating grid' (megajoule, DK, None)", -0.003975768907021692]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'mechanical disinfection' (unit, DK, None)", 0.028043945103861934], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871626029287e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171632739496e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735751676393e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000463435405], ["'wet wipe' (unit, GLO, None)", 0.03226030810068472], ["'autoclave' (unit, DK, None)", 0.08408410733815522], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000838099875821367], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0053205687752162925], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220056589033e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871626029287e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.35335947665011e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221265800867e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307440863137], ["'mixed heating grid' (megajoule, DK, None)", -0.003942661549504929]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664506024624e-05], ["'autoclave' (unit, DK, None)", 0.0002131907553236904], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320850570870012e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.607317812790329e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225216703219e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699814264398e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682887961288756e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066634073004e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.972093243999293e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4435268470431418e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664506024624e-05], ["'autoclave' (unit, DK, None)", 0.0002131907553236904], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801685892820287e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.890704783866649e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785418602193e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7581501444688133e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.3705363672485195e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287133964959], ["'autoclave' (unit, DK, None)", 0.0002842543404315872], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296937358519e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.5562843726565e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336895278567e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.18363726912633e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117497392298e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.419121619417004e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604666935334e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093645068432e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679226239823e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287133964959], ["'autoclave' (unit, DK, None)", 0.0002842543404315872], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328692655831805e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520600643688e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224596852384e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.890915127508865e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679226239823e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496506104125e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00020048906573081205], ["'autoclave' (unit, DK, None)", 0.00042638151064738097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151187301803e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338819096745e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567664321913e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013818362332e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786250406329e-08], ["'mixed heating grid' (megajoule, DK, None)", -6.945368520985902e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496506104125e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083852847e-05], ["'autoclave' (unit, DK, None)", 0.00042638151064738097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.940151187301803e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338819096745e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567664321913e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013818362332e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681012996653e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.636111198204776e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.170248289909733e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453286540603], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853378e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893125203157e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.472684260492951e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008326751713e-05], ["'wet wipe' (unit, GLO, None)", 2.08474083852847e-05], ["'autoclave' (unit, DK, None)", 0.00031978613298553563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273932105874e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313897373576e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135328643825e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620416853378e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681012996653e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568286308768e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.605832266952753e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521447304803e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268587587274e-06], ["'autoclave' (unit, DK, None)", 0.00014745545761273875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.280205550515913e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222969163600234e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.587618414256939e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343108870744e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238700928011e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596880664793e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265243001847e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.552515729830951e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268587587274e-06], ["'autoclave' (unit, DK, None)", 0.00014745545761273875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363933329887e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.426327373979976e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979442400157e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.3917456095046263e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.676274720806206e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806638287417e-05], ["'autoclave' (unit, DK, None)", 0.000196607276816985], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2120582072956278e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550566308169755e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246550145752e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0263978004809285e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447563755011e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.790071842026877e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.2285470658398756e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.643000684512246e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619117462104e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806638287417e-05], ["'autoclave' (unit, DK, None)", 0.000196607276816985], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.0003842065718e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398829458249e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.0014977000971725e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.84265200320619e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619117462104e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613751823621e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238694158275e-05], ["'autoclave' (unit, DK, None)", 0.0002949109152254776], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379026244463e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377779666942e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.383471589533787e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356950411684e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402182018526504e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.022715877078859e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.609613751823621e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484370733e-05], ["'autoclave' (unit, DK, None)", 0.0002949109152254776], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379026244463e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377779666942e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.383471589533787e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356950411684e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66424996354177e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227926518362e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.6162545603030204e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'mechanical disinfection' (unit, DK, None)", 4.4186193470791376e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221698743072e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010910092632464e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579385394296e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.339189786939345e-06], ["'wet wipe' (unit, GLO, None)", 8.73468484370733e-05], ["'autoclave' (unit, DK, None)", 0.00022118318641910814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.207823952425693e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679339717364e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179067574e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221698743072e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.66424996354177e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577218946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621217016425736e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5861409809176257e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520110312482], ["'autoclave' (unit, DK, None)", 0.020359424917179424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.22040589446555e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686893481866975], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698257645541], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00517656458055512], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835642781576], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000558465112684055], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0076803505754748985], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5465668171111388e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520110312482], ["'autoclave' (unit, DK, None)", 0.020359424917179424], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213257075272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130308907362e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024457928987911314], ["'mixed heating grid' (megajoule, DK, None)", -0.0040331321717636944], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.5172251926894883e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666519047893], ["'autoclave' (unit, DK, None)", 0.027145899889572566], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121364701514], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.238921419024102e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495917466201733], ["'mixed heating grid' (megajoule, DK, None)", -0.001730785236396655], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800971761101], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204361769792], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089364210182], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.021634790353450423], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884710705423e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666519047893], ["'autoclave' (unit, DK, None)", 0.027145899889572566], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403541057106], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021559993640312412], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997278310801161], ["'mixed heating grid' (megajoule, DK, None)", -0.011538568242644365], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884710705423e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060859891907], ["'mechanical disinfection' (unit, DK, None)", 0.019751980789051188], ["'autoclave' (unit, DK, None)", 0.04071884983435886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953532279695], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904984471154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312217521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714839008956e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813740499355e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.01559334189683e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.023028060859891907], ["'wet wipe' (unit, GLO, None)", 0.002277559816655344], ["'autoclave' (unit, DK, None)", 0.04071884983435886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953532279695], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00793904984471154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312217521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714839008956e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593750209541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036979725973624905], ["'mixed heating grid' (megajoule, DK, None)", -0.0006097986571183073]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'mechanical disinfection' (unit, DK, None)", 0.009875990394525594], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.8403626016547984e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794068702496696e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.07796670948415e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628259206376], ["'wet wipe' (unit, GLO, None)", 0.002277559816655344], ["'autoclave' (unit, DK, None)", 0.03053913737576914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003765245702233054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004747971395307319], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082624435042e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.8403626016547984e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593750209541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773090383803], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671785286600023], ["'mixed heating grid' (megajoule, DK, None)", -0.0006047206904088231]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.152659716639029], ["'autoclave' (unit, DK, None)", 0.6181740187982425], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663924396665], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041725788392], ["'mixed heating grid' (megajoule, DK, None)", -0.016736075468220063], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010393535916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360001295415], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156712373444], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2478888530094292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00021013731242178535]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.152659716639029], ["'autoclave' (unit, DK, None)", 0.6181740187982425], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468585347319], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242211294779], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04336027817192262], ["'mixed heating grid' (megajoule, DK, None)", -0.11157383645480043], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0002549417400786217]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104065806726], ["'autoclave' (unit, DK, None)", 0.8242320250643234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04906239410366532], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699471778], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01860770391593626], ["'mixed heating grid' (megajoule, DK, None)", -0.04788098695502361], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989518230227], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02859331650875319], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03220883521333953], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784591814908], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273540100792]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104065806726], ["'autoclave' (unit, DK, None)", 0.8242320250643234], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855027414], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727708766928], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135943957517], ["'mixed heating grid' (megajoule, DK, None)", -0.31920657970015737], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273540100792]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243934643115], ["'mechanical disinfection' (unit, DK, None)", 0.5939082876002371], ["'autoclave' (unit, DK, None)", 1.2363480375964855], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0769231795763707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502834353787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580743401], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099735483391e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662701535504], ["'mixed heating grid' (megajoule, DK, None)", -0.0002809569352244385]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520243934643115], ["'wet wipe' (unit, GLO, None)", 0.04360781132597262], ["'autoclave' (unit, DK, None)", 1.2363480375964855], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0769231795763707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502834353787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580743401], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099735483391e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821548995897], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065559565805035115], ["'mixed heating grid' (megajoule, DK, None)", -0.016869661777020813]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'mechanical disinfection' (unit, DK, None)", 0.29695414380011853], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765885605878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593313507677376e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846761221924]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187451505997], ["'wet wipe' (unit, GLO, None)", 0.04360781132597262], ["'autoclave' (unit, DK, None)", 0.9272610281973639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04593035293067312], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761039946154], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845161486802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765885605878e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821548995897], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02089777718062078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065013632669958495], ["'mixed heating grid' (megajoule, DK, None)", -0.01672918330940859]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457801528], ["'autoclave' (unit, DK, None)", 0.05995632088351882], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.01908203629917e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001396406499618732], ["'mixed heating grid' (megajoule, DK, None)", -0.001179042978572477], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002844649562165053], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568716450921], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831842144097], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01556651259248296], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.457986535441257e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457801528], ["'autoclave' (unit, DK, None)", 0.05995632088351882], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.666867519413468e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983082303394193e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00930937666412488], ["'mixed heating grid' (megajoule, DK, None)", -0.007860286523816514], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.881451732227512e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0318918354564018], ["'autoclave' (unit, DK, None)", 0.0799417611780251], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.138113885045466e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229818179765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041819637875], ["'mixed heating grid' (megajoule, DK, None)", -0.003373176799043497], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006463999471176], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051476696944], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0025661955618013167], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933124643088], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499668866108e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0318918354564018], ["'autoclave' (unit, DK, None)", 0.0799417611780251], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302871587235e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280638849145e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02663361213091919], ["'mixed heating grid' (megajoule, DK, None)", -0.022487845326956645], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499668866108e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255991582], ["'mechanical disinfection' (unit, DK, None)", 0.06180787309522924], ["'autoclave' (unit, DK, None)", 0.11991264176703767], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867836605935], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814213536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234526907232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322919132225e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179811232127e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.979318881458456e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00944010255991582], ["'wet wipe' (unit, GLO, None)", 0.00322826864316752], ["'autoclave' (unit, DK, None)", 0.11991264176703767], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004509867836605935], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814213536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234526907232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322919132225e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.62636118411156e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525290581676], ["'mixed heating grid' (megajoule, DK, None)", -0.0011884540259667134]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654761462], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609758074062e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089905616031e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.89659440729228e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0056241601769779865], ["'wet wipe' (unit, GLO, None)", 0.00322826864316752], ["'autoclave' (unit, DK, None)", 0.08993448132527823], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814084736965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00048810710293627544], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469053814464e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609758074062e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.62636118411156e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331459518524e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314391525548], ["'mixed heating grid' (megajoule, DK, None)", -0.001178557431559421]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00410804202821325], ["'autoclave' (unit, DK, None)", 0.040443095550816086], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000124415817346e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384813518132], ["'mixed heating grid' (megajoule, DK, None)", -0.0082942404746736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414908083062], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001699461920856086], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016180395983], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670412341556], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705044872564e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00410804202821325], ["'autoclave' (unit, DK, None)", 0.040443095550816086], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521808626462e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463193618212106e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589875678754], ["'mixed heating grid' (megajoule, DK, None)", -0.055294936497824014], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7008509579706207e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444770458451], ["'autoclave' (unit, DK, None)", 0.05392412740108811], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929007194385661e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054608516893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726584136037], ["'mixed heating grid' (megajoule, DK, None)", -0.023729363596847613], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003124007507241922], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885392867831], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104180940174306], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681806293397], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115454221656e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444770458451], ["'autoclave' (unit, DK, None)", 0.05392412740108811], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.2336681151060464e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528751565957e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303151056090705], ["'mixed heating grid' (megajoule, DK, None)", -0.1581957573123174], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115454221656e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534757287819], ["'mechanical disinfection' (unit, DK, None)", 0.04155330589687234], ["'autoclave' (unit, DK, None)", 0.0808861911016322], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00034544551157508004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479951424878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126987814731e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397367569521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934922079734e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013923959581825578]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002569534757287819], ["'wet wipe' (unit, GLO, None)", 0.01261688024715039], ["'autoclave' (unit, DK, None)", 0.0808861911016322], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00034544551157508004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479951424878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554126987814731e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397367569521e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027632365924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000967298255756532], ["'mixed heating grid' (megajoule, DK, None)", -0.00836044458395964]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'mechanical disinfection' (unit, DK, None)", 0.02077665294843617], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455154866762e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967461039845e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.961979790912789e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0015317749453425651], ["'wet wipe' (unit, GLO, None)", 0.01261688024715039], ["'autoclave' (unit, DK, None)", 0.06066464332622413], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337018749824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569945934597], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108253975629461e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455154866762e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027632365924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2180028946150197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432882954944], ["'mixed heating grid' (megajoule, DK, None)", -0.008290824786050512]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545186025267], ["'autoclave' (unit, DK, None)", 0.004683569270134181], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.030527983762682e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255179655312996e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012523543347586], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564747271282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001159075227328018], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596509692212], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924266900323], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120762427624e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545186025267], ["'autoclave' (unit, DK, None)", 0.004683569270134181], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082882911254e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221334743315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003083678643687533], ["'mixed heating grid' (megajoule, DK, None)", -0.0008008349028898392], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.144708847790929e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031634804708], ["'autoclave' (unit, DK, None)", 0.006244759026845575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241035522677e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217782931644434e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013233351258984613], ["'mixed heating grid' (megajoule, DK, None)", -0.00034367165956446965], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404090001955], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003488478839530928], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003668956857802743], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218103352204], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223308298842e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031634804708], ["'autoclave' (unit, DK, None)", 0.006244759026845575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205303975365], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2111533319240518e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822234172656416], ["'mixed heating grid' (megajoule, DK, None)", -0.0022911443970964644], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223308298842e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634507921887], ["'mechanical disinfection' (unit, DK, None)", 0.0035776283448060477], ["'autoclave' (unit, DK, None)", 0.009367138540268365], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914849088118], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291143664486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169099357678e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206868970652e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765090172358488e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0166028800832677e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0021699634507921887], ["'wet wipe' (unit, GLO, None)", 0.0004352277277297738], ["'autoclave' (unit, DK, None)", 0.009367138540268365], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914849088118], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291143664486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169099357678e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206868970652e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697738053927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.662438560952852e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012108406755787987]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141724030238], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.633139694316747e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.882545086179234e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0083014400416339e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001289739021798057], ["'wet wipe' (unit, GLO, None)", 0.0004352277277297738], ["'autoclave' (unit, DK, None)", 0.007025353905201272], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00014561275444898057], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376797993446], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338198715356e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.633139694316747e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697738053927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283706836605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.623613110091071e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012007576611783823]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145843700213e-08], ["'autoclave' (unit, DK, None)", 2.421308703053797e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330483158684e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973099126559e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459490256043e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403144134986e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.656671827313011e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.793274420558994e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261602058893e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.261585689187769e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145843700213e-08], ["'autoclave' (unit, DK, None)", 2.421308703053797e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172563591276e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928055197105e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315399417706e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.568306326837362e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.086445096309986e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684928308047e-07], ["'autoclave' (unit, DK, None)", 3.2284116040717294e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.640141248969235e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059367053e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461089522934e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.677017627946724e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141299717675e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099674437218e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023357667395e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200451284197e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131438543684e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684928308047e-07], ["'autoclave' (unit, DK, None)", 3.2284116040717294e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655108707826e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8255092765999526e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307393015295e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.451345085297816e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131438543684e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.2485881082920935e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986376246043e-07], ["'autoclave' (unit, DK, None)", 4.842617406107597e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.20855401621015e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680780949863e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974461772e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846275632008e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030472761838e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.1576071614491994e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.2485881082920935e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359452582e-07], ["'autoclave' (unit, DK, None)", 4.842617406107597e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.20855401621015e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680780949863e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974461772e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846275632008e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495758442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6497935622082096e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2955047018949653e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188123021e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443818375644e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8720152363809085e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035807245997e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.9338624524017324e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359452582e-07], ["'autoclave' (unit, DK, None)", 3.631963054580696e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890788623e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268060929682e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948923545e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443818375644e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495758442e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938328533e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6110734098444114e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166660877194e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847793396875], ["'autoclave' (unit, DK, None)", 0.00026584271015213346], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864363361052e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498114130352364e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.00568256267242e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075366871508], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842736259813e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408020878004e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535778494833e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4527956966098397e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847793396875], ["'autoclave' (unit, DK, None)", 0.00026584271015213346], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9108819607349035e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.597767493363654e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998742753568242e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000133712170844828], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.568759280148503e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.000883118414079519], ["'autoclave' (unit, DK, None)", 0.0003544569468695113], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.669010188877008e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0806953305593425e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728003210326942e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.738146962924158e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040606006827287355], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.414214804117031e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933377885598e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283883084042], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048516621031e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.000883118414079519], ["'autoclave' (unit, DK, None)", 0.0003544569468695113], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568903478602e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221197340304e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152002140217966e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003825431308616105], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048516621031e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000247172902867514], ["'mechanical disinfection' (unit, DK, None)", 0.0002498591765301857], ["'autoclave' (unit, DK, None)", 0.0005316854203042671], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175371473892e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801808761644e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944006001578e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.5873489135962516e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997439970613e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3670404206265936e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000247172902867514], ["'wet wipe' (unit, GLO, None)", 7.63193289551638e-05], ["'autoclave' (unit, DK, None)", 0.0005316854203042671], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175371473892e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801808761644e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944006001578e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.5873489135962516e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437131464982e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797421734645484e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.021691795582621e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958826509286], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662956945295e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1474987199852985e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835202103132968e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014732109504027866], ["'wet wipe' (unit, GLO, None)", 7.63193289551638e-05], ["'autoclave' (unit, DK, None)", 0.00039876406522820025], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1996316073852309e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.774137382152304e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888012003156e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662956945295e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437131464982e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489089087183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.748267186264704e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.004856593479488e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956182000259], ["'autoclave' (unit, DK, None)", 0.00046015280894955277], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164149158e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023832040649966e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.96939617011437e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029774888731402957], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.049983129627897e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043449731467e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000144434769527248], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881222845555e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956182000259], ["'autoclave' (unit, DK, None)", 0.00046015280894955277], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817911643947e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3736997124004287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015888027099977e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003312930780076247], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.570750419836768e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931910582345], ["'autoclave' (unit, DK, None)", 0.0006135370785994037], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491305955094e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5267499386241278e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.581668474446938e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014217167797038867], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349477381628], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.160143399850952e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894298365765e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585057105578], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336137146054e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931910582345], ["'autoclave' (unit, DK, None)", 0.0006135370785994037], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990961026465e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864333090698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211123162979598], ["'mixed heating grid' (megajoule, DK, None)", -0.0009478111864692577], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336137146054e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003307165589489659], ["'mechanical disinfection' (unit, DK, None)", 0.0004533713309224527], ["'autoclave' (unit, DK, None)", 0.0009203056178991059], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754281949243e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184346676682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683633528464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683165411938e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5148761720962456e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.342375848642639e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003307165589489659], ["'wet wipe' (unit, GLO, None)", 0.0010932762474606156], ["'autoclave' (unit, DK, None)", 0.0009203056178991059], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6961754281949243e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184346676682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683633528464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683165411938e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297417638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859704234365e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.009061579881118e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566546122634], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.87275744601084e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380860481208e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879243213194e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379425457766], ["'wet wipe' (unit, GLO, None)", 0.0010932762474606156], ["'autoclave' (unit, DK, None)", 0.0006902292134243292], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.012775817099215e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976730279518e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367267056927e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.87275744601084e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297417638e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0582292799401195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115895629575e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349700637904e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000615872533492754], ["'autoclave' (unit, DK, None)", 0.00047168215606354535], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814574644182e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223676819088e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1419065636158804e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003188361095475814], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680861946218e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.48666051068096e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001523782404315465], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.733646959752816e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000615872533492754], ["'autoclave' (unit, DK, None)", 0.00047168215606354535], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900448573545e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655678166821e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482451212725e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003427937709077254], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0124192703519308e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208261818057], ["'autoclave' (unit, DK, None)", 0.0006289095414180604], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381459039134e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758158416561e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6398576974620174e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014710710498643944], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864010445174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991327381871e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577422996411695e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00042923448008886343], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609546891715e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208261818057], ["'autoclave' (unit, DK, None)", 0.0006289095414180604], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802943260155e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954518824397e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599051316413464], ["'mixed heating grid' (megajoule, DK, None)", -0.0009807140332429294], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609546891715e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706330247318], ["'mechanical disinfection' (unit, DK, None)", 0.0004645415532480651], ["'autoclave' (unit, DK, None)", 0.000943364312127091], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.762952670000487e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357074572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019758484894e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.820438402915796e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205513187647e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.631977742136614e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003377706330247318], ["'wet wipe' (unit, GLO, None)", 0.0016909050543384993], ["'autoclave' (unit, DK, None)", 0.000943364312127091], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.762952670000487e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357074572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019758484894e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.820438402915796e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3320915022401014e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874799736493e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1829489405659676e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077662403255], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385076960613e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102756593804e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.315988871068307e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716005093], ["'wet wipe' (unit, GLO, None)", 0.0016909050543384993], ["'autoclave' (unit, DK, None)", 0.000707523234095318], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935802114e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.72297139835975e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.913203951696979e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385076960613e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3320915022401014e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.085150879232235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423772170576e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1397890518552836e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869314300273], ["'autoclave' (unit, DK, None)", 0.003992613011034359], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709414414e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331560072985e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.766592307403173e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391696346458], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.831083725731884e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813550151421e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259227896048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.362331615824725e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869314300273], ["'autoclave' (unit, DK, None)", 0.003992613011034359], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209193310598], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669035832258e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887706715323], ["'mixed heating grid' (megajoule, DK, None)", -0.0005844394871602116], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.650765865697811e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781212378747], ["'autoclave' (unit, DK, None)", 0.0053234840147124785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822332015655e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.02581170947567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693408041548], ["'mixed heating grid' (megajoule, DK, None)", -0.0002508073608462425], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135569187055], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.520737426960039e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892262491901e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806364022242392], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.241055735008363e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781212378747], ["'autoclave' (unit, DK, None)", 0.0053234840147124785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898932167129746], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449131839428e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795605361043], ["'mixed heating grid' (megajoule, DK, None)", -0.0016720490723082834], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.241055735008363e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496355699724], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468545352333], ["'autoclave' (unit, DK, None)", 0.007985226022068722], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955415988836e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588481787273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037395118e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664509343078e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945401003548518e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.4716920413792125e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496355699724], ["'wet wipe' (unit, GLO, None)", 0.009527755134551464], ["'autoclave' (unit, DK, None)", 0.007985226022068722], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955415988836e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588481787273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037395118e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664509343078e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320590518e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.77288292681991e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.836566699507871e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234272676166], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780548e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700501774242e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.358460206896062e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656313492107], ["'wet wipe' (unit, GLO, None)", 0.009527755134551464], ["'autoclave' (unit, DK, None)", 0.005988919516551539], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175729133e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854029441626], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756074790236e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993569780548e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320590518e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542031858e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155921802185e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.76298209743891e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.01222122969331e-09], ["'autoclave' (unit, DK, None)", 1.397331978537039e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171382978e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735802995367717e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664830146024e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389236176905e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.9502130655210253e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.990337596759649e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.0764416429176096e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648378970508e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.01222122969331e-09], ["'autoclave' (unit, DK, None)", 1.397331978537039e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665123284e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497438429e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8490535330245144e-10], ["'mixed heating grid' (megajoule, DK, None)", -8.851109886764018e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.339066856660188e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876276747711e-09], ["'autoclave' (unit, DK, None)", 1.863109304716052e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429261019089e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894301018785754e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059948373581e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.79838043121618e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.565291672433897e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573303995319e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.99565245791421e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032796951015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230673083817e-12]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876276747711e-09], ["'autoclave' (unit, DK, None)", 1.863109304716052e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.486166947922052e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900124016e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039965582391e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.5322536208107865e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230673083817e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996824055768e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860851335912831e-09], ["'autoclave' (unit, DK, None)", 2.7946639570740788e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230916993046e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.039477695406401e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869725734e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168329023958e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656149059774819e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.2288206501954987e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996824055768e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960378246e-10], ["'autoclave' (unit, DK, None)", 2.7946639570740788e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1959230916993046e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.039477695406401e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869725734e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168329023958e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373085082e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957188442081953e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3382638339360402e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425667956416e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828587e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3280745298874036e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103250977494e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.586371447586717e-10], ["'wet wipe' (unit, GLO, None)", 5.606174960378246e-10], ["'autoclave' (unit, DK, None)", 2.0959979678055585e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529036798e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506602956e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.180915739451468e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073565828587e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373085082e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612390492e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7724380989093276e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197306850627e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592799842444e-07], ["'autoclave' (unit, DK, None)", 5.875991674870377e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647539243e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006724417462e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850868611416e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.596602205536829e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1047820831213225e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947580657333e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012818659358e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.4360200392070734e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592799842444e-07], ["'autoclave' (unit, DK, None)", 5.875991674870377e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748128531425e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827662865007e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337816278308e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.0963233912407613e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.090453062133759e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896832740202e-06], ["'autoclave' (unit, DK, None)", 7.834655566493836e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152527468e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227374253901e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.723049120297305e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.996198045961445e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317465914917e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.325072289005922e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117634338316e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721920749117e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196250782147e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896832740202e-06], ["'autoclave' (unit, DK, None)", 7.834655566493836e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60697130381167e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.263096641220682e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660801982047e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.997465363974296e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196250782147e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.905396603447249e-07], ["'mechanical disinfection' (unit, DK, None)", 5.682374726028973e-07], ["'autoclave' (unit, DK, None)", 1.175198334974076e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7991769127597774e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194726593223e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678911750075e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480516365128e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357673015058e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.278805622865766e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.905396603447249e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972741225118e-07], ["'autoclave' (unit, DK, None)", 1.175198334974076e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7991769127597774e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194726593223e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678911750075e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480516365128e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571297440582e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.59397885945412e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1695841703727116e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'mechanical disinfection' (unit, DK, None)", 2.8411873630144865e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361967967024e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178836507507e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.639402811432883e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3277758728706236e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972741225118e-07], ["'autoclave' (unit, DK, None)", 8.813987512305566e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649465884004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.823245803108602e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782350015e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361967967024e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571297440582e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908187463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514087071089068e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190142258382e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518801017808], ["'autoclave' (unit, DK, None)", 0.011758890503977368], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792589240212e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768808647187993], ["'mixed heating grid' (megajoule, DK, None)", -0.0012096382162036763], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956386720269], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179449664924], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00035742175040878054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173229132019], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.914235289690724e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518801017808], ["'autoclave' (unit, DK, None)", 0.011758890503977368], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961039942393037], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098424443635e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179205764791995], ["'mixed heating grid' (megajoule, DK, None)", -0.008064254774691176], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8964639255795024e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490850754], ["'autoclave' (unit, DK, None)", 0.01567852067196982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500144429705e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3180211576918225e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514030316650948], ["'mixed heating grid' (megajoule, DK, None)", -0.003460708082986799], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612346729235], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267601355462], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010766900046701917], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642898963436], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878245037851e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490850754], ["'autoclave' (unit, DK, None)", 0.01567852067196982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307026026208], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.205612867886046e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686877767302], ["'mixed heating grid' (megajoule, DK, None)", -0.023071387219911994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878245037851e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113676908555], ["'mechanical disinfection' (unit, DK, None)", 0.011363780659983832], ["'autoclave' (unit, DK, None)", 0.023517781007954743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267783259], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558712837155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056611875102e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.58010460825069e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314680865854e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0306806491180725e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113676908555], ["'wet wipe' (unit, GLO, None)", 0.01239225775579337], ["'autoclave' (unit, DK, None)", 0.023517781007954743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267783259], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558712837155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056611875102e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.58010460825069e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297520664372e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950547855328117], ["'mixed heating grid' (megajoule, DK, None)", -0.0012192934728732473]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'mechanical disinfection' (unit, DK, None)", 0.005681890329991916], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071840202931e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9111573404329218e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403245590362e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096150524039], ["'wet wipe' (unit, GLO, None)", 0.01239225775579337], ["'autoclave' (unit, DK, None)", 0.01763833575596605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002785786622243108], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994779582722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113223750205e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071840202931e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297520664372e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045780802698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002275943212128488], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400696276568]]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>H200 REC</t>
+  </si>
+  <si>
+    <t>H200 SU</t>
+  </si>
+  <si>
+    <t>H400 REC</t>
+  </si>
+  <si>
+    <t>H400 SU</t>
+  </si>
+  <si>
+    <t>alubox (large + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (large + wipe)</t>
+  </si>
+  <si>
+    <t>alubox (small + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (small + wipe)</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858226591937], ["'autoclave' (unit, DK, None)", 0.0006586479267069374], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228667757341e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576060969367e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115363732081532e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.69675049848159e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326776840562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135640914011e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.047059433354684e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001735396260925506], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.263378270762066e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858226591937], ["'autoclave' (unit, DK, None)", 0.0006586479267069374], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516218792255e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.400280440029792e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242488054355e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003131166998987727], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043748863505e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429302680412], ["'autoclave' (unit, DK, None)", 0.0013172958534138743], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.966432977878948e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894976200846e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800441320114405e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143598917753], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985961306219], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361573288187796e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140521384811e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440171621145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.497397805511107e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429302680412], ["'autoclave' (unit, DK, None)", 0.0013172958534138743], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.278173582758382e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176291148892e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002120029421340962], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095732611834], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.497397805511107e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940490337893], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930278072025], ["'autoclave' (unit, DK, None)", 0.0018442141947794248], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861428665694e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813259370892], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790715924905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849867153106e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992140152941e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671816119527e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940490337893], ["'wet wipe' (unit, GLO, None)", 0.0002486553732354672], ["'autoclave' (unit, DK, None)", 0.0018442141947794248], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861428665694e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813259370892], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790715924905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849867153106e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.791917592242258e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576060969367e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085870958457e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.734239667530908e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958160552415], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651390360127], ["'autoclave' (unit, DK, None)", 0.0010245634415441249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204303261474e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665787940867], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.54358143184981e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.647304148665723e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.32996070076468e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9423359080597636e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958160552415], ["'wet wipe' (unit, GLO, None)", 0.0002486553732354672], ["'autoclave' (unit, DK, None)", 0.0010245634415441249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204303261474e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665787940867], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.54358143184981e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.647304148665723e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.791917592242258e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576060969367e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786263950837e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.6948163084503094e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010127823798], ["'autoclave' (unit, DK, None)", 0.18669863499106892], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149017276], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0329205328486104], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296314403834], ["'mixed heating grid' (megajoule, DK, None)", -0.013748323381857584], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404927765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0044710100035857715], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566245467953], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699393969453], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253746076608]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476010127823798], ["'autoclave' (unit, DK, None)", 0.18669863499106892], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18111252743740436], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02195708934031171], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308762692228], ["'mixed heating grid' (megajoule, DK, None)", -0.0916554892123839], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802298013516]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726059190411], ["'autoclave' (unit, DK, None)", 0.3733972699821377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424441342], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502011762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471619579105], ["'mixed heating grid' (megajoule, DK, None)", -0.03933319336126175], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4043884583405961], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437874869798], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048249759032], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.1947802646188579], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000576931934105154]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726059190411], ["'autoclave' (unit, DK, None)", 0.3733972699821377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336264912], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893436402], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314413052743], ["'mixed heating grid' (megajoule, DK, None)", -0.2622212890750783], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000576931934105154]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1317831584141486], ["'mechanical disinfection' (unit, DK, None)", 0.21668038422672006], ["'autoclave' (unit, DK, None)", 0.5227561779749931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750436945835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.041732197870350624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910203986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7927338493453405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391814418811e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003488129612]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1317831584141486], ["'wet wipe' (unit, GLO, None)", 0.05727539178886122], ["'autoclave' (unit, DK, None)", 0.5227561779749931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750436945835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.041732197870350624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910203986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7927338493453405e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595038076576], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0329205328486104], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999628306761], ["'mixed heating grid' (megajoule, DK, None)", -0.013858061640164848]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538944073462], ["'mechanical disinfection' (unit, DK, None)", 0.10834019211336003], ["'autoclave' (unit, DK, None)", 0.2904200988749961], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224831571357], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805992246282], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820407972], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893023692964e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8596959072093953e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001744064806]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538944073462], ["'wet wipe' (unit, GLO, None)", 0.05727539178886122], ["'autoclave' (unit, DK, None)", 0.2904200988749961], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224831571357], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805992246282], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820407972], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893023692964e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595038076576], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0329205328486104], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0045964026692346775], ["'mixed heating grid' (megajoule, DK, None)", -0.013742661622724198]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919670045573], ["'autoclave' (unit, DK, None)", 0.037407553904578755], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505906759464], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158410813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004133148085], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275469466219], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895316113155], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000506578803805052], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063825368242], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427574919279], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169419211386e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919670045573], ["'autoclave' (unit, DK, None)", 0.037407553904578755], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181120765], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001152716937354556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386694220987234], ["'mixed heating grid' (megajoule, DK, None)", -0.004605516979644146], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0366337886479625e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264058719703], ["'autoclave' (unit, DK, None)", 0.07481510780915748], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485745904], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455153355], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497397189931], ["'mixed heating grid' (megajoule, DK, None)", -0.001976419431564625], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00919490403541782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546522287973], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981812319736], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007767582896], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912366680492e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02185264058719703], ["'autoclave' (unit, DK, None)", 0.07481510780915748], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026782254031326103], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210354972183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331598126625], ["'mixed heating grid' (megajoule, DK, None)", -0.013176129543764164], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912366680492e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971767012049759], ["'mechanical disinfection' (unit, DK, None)", 0.044288511747391186], ["'autoclave' (unit, DK, None)", 0.10474115093282053], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0941428214204173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532168961512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486009764e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559533782889e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000564093014e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597270263706704e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971767012049759], ["'wet wipe' (unit, GLO, None)", 0.002171900767704054], ["'autoclave' (unit, DK, None)", 0.10474115093282053], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0941428214204173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532168961512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486009764e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559533782889e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526132988780384e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158410813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027800183498325154], ["'mixed heating grid' (megajoule, DK, None)", -0.0006963416892668878]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413248577291], ["'mechanical disinfection' (unit, DK, None)", 0.022144255873695593], ["'autoclave' (unit, DK, None)", 0.0581895282960114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416384229], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990031506884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972019528e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135251758228043e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150002820465007e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.798635131853352e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413248577291], ["'wet wipe' (unit, GLO, None)", 0.002171900767704054], ["'autoclave' (unit, DK, None)", 0.0581895282960114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416384229], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990031506884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972019528e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135251758228043e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526132988780384e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158410813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002756868347012057], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430541350343]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273945460103], ["'autoclave' (unit, DK, None)", 0.04710483816657805], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801418001601], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963129921], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035968298005138066], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034490081852992], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720458203427], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797364003462018], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343839306579], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326736609805545], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407924944521637e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01007273945460103], ["'autoclave' (unit, DK, None)", 0.04710483816657805], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01376737389515081], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733001793143], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002397886533675871], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993387901995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091862929043894e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605936291776], ["'autoclave' (unit, DK, None)", 0.09420967633315608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372239761544], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000755375537495178], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290331271800718], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847176811308894], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848971764613], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0020458085835662384], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00232596189932344], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807708760015625], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697864319466e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605936291776], ["'autoclave' (unit, DK, None)", 0.09420967633315608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491591779], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502818366904085], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860220847867149], ["'mixed heating grid' (megajoule, DK, None)", -0.017231451207539262], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697864319466e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274767164595], ["'mechanical disinfection' (unit, DK, None)", 0.05570285231606565], ["'autoclave' (unit, DK, None)", 0.13189354686641858], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330551378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251257447877], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325194935e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621405763382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0381794955168475e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166653911981673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274767164595], ["'wet wipe' (unit, GLO, None)", 0.002406925435130668], ["'autoclave' (unit, DK, None)", 0.13189354686641858], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330551378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251257447877], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325194935e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621405763382e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887805625194e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963129921], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003625539471269501], ["'mixed heating grid' (megajoule, DK, None)", -0.000910660281725643]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549573241752], ["'mechanical disinfection' (unit, DK, None)", 0.027851426158032825], ["'autoclave' (unit, DK, None)", 0.07327419270356586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288519449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534641204273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05314065038987e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341066497437e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.019089747758416e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583326955990837e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549573241752], ["'wet wipe' (unit, GLO, None)", 0.002406925435130668], ["'autoclave' (unit, DK, None)", 0.07327419270356586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288519449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534641204273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05314065038987e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341066497437e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887805625194e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963129921], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953485737919255], ["'mixed heating grid' (megajoule, DK, None)", -0.0009030769547696521]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796795611869], ["'autoclave' (unit, DK, None)", 1.9488662975921178], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229007273822], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301400173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779094869828711], ["'mixed heating grid' (megajoule, DK, None)", -0.06859048021907874], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276621982173], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713294442374], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420198021756549], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437360086945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005649494539222513]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796795611869], ["'autoclave' (unit, DK, None)", 1.9488662975921178], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619247817209], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008267080666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063246552474], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698681271916], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806823937900574]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.926021838467711], ["'autoclave' (unit, DK, None)", 3.8977325951842343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882142093162], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287303355], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942122888768669], ["'mixed heating grid' (megajoule, DK, None)", -0.19623357308855377], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314995645189], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321565797434], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934893599508], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950310104072], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454401142528]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.926021838467711], ["'autoclave' (unit, DK, None)", 3.8977325951842343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492005421920341], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934251458721686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2628081925845781], ["'mixed heating grid' (megajoule, DK, None)", -1.3082238205903585], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454401142528]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595530609607], ["'mechanical disinfection' (unit, DK, None)", 2.276328305813541], ["'autoclave' (unit, DK, None)", 5.456825633257931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125772412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110740666696], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831328092375], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565985040128181], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131661136119346], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629666027891]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595530609607], ["'wet wipe' (unit, GLO, None)", 0.1405603077450922], ["'autoclave' (unit, DK, None)", 5.456825633257931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125772412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110740666696], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831328092375], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565985040128181], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541442160486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301400173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889078744230484], ["'mixed heating grid' (megajoule, DK, None)", -0.06913796514699608]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091994796994], ["'mechanical disinfection' (unit, DK, None)", 1.1381641529067705], ["'autoclave' (unit, DK, None)", 3.0315697962544057], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123392987187], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352737811793], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566265618475], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487655984383], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565830568059642], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314833013946]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091994796994], ["'wet wipe' (unit, GLO, None)", 0.1405603077450922], ["'autoclave' (unit, DK, None)", 3.0315697962544057], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123392987187], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352737811793], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566265618475], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487655984383], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541442160486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301400173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01377342043854992], ["'mixed heating grid' (megajoule, DK, None)", -0.06856223366369467]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497433289582103], ["'autoclave' (unit, DK, None)", 0.0480480609708392], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6462984204243843e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221267060093e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278842007464], ["'mixed heating grid' (megajoule, DK, None)", -0.0039442858578861515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842513453], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552397004822919], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896087251372], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736336521102], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227926531214e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497433289582103], ["'autoclave' (unit, DK, None)", 0.0480480609708392], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00030830578303750586], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475101974943e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185894671642], ["'mixed heating grid' (megajoule, DK, None)", -0.026295239052574346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6527921803649834e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085119813798], ["'autoclave' (unit, DK, None)", 0.09609612194167835], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274966248491], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319237273125e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812256339225], ["'mixed heating grid' (megajoule, DK, None)", -0.011284383848946422], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29123954854756406], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641470826255], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0031488091377002065], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.054906299539496065], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831312993517597]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085119813798], ["'autoclave' (unit, DK, None)", 0.09609612194167835], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669944718477], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270252166609], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415042261518], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922565964281], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831312993517597]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103755080485], ["'mechanical disinfection' (unit, DK, None)", 0.05608788967142218], ["'autoclave' (unit, DK, None)", 0.13453457071834976], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318712920821], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485929849788], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610031888509e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268052468188e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266343032844746e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471493631155e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103755080485], ["'wet wipe' (unit, GLO, None)", 0.03226030810332918], ["'autoclave' (unit, DK, None)", 0.13453457071834976], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318712920821], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485929849788], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610031888509e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268052468188e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359477468088e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221267060093e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001216863901750853], ["'mixed heating grid' (megajoule, DK, None)", -0.003975768901184477]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000475256657], ["'mechanical disinfection' (unit, DK, None)", 0.02804394483571109], ["'autoclave' (unit, DK, None)", 0.07474142817686097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998755931586], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568775848969], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220063777018e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871580187881e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171516422348e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735746815578e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000475256657], ["'wet wipe' (unit, GLO, None)", 0.03226030810332918], ["'autoclave' (unit, DK, None)", 0.07474142817686097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998755931586], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568775848969], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220063777018e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871580187881e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359477468088e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221267060093e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307302344335], ["'mixed heating grid' (megajoule, DK, None)", -0.00394266154371632]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664513112171e-05], ["'autoclave' (unit, DK, None)", 0.0001827349326534077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.532085060058128e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568307478477e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177883087976e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225201015897e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699826747102e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.468288801950332e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.654706669834639e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932567473615e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.443526790246677e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664513112171e-05], ["'autoclave' (unit, DK, None)", 0.0001827349326534077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.680168591253524e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907047852786104e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785255391982e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7581501340105984e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.3705362150246597e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287134844438], ["'autoclave' (unit, DK, None)", 0.0003654698653068153], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296945772083e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.556284379046256e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336825238258e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.1836372646382735e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117500905641e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.4191216369378915e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604686296918e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093680978485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679064657476e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001570287134844438], ["'autoclave' (unit, DK, None)", 0.0003654698653068153], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328692711366885e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520604897052e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224550158844e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.89091509758849e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679064657476e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496514259425e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00020048906472753], ["'autoclave' (unit, DK, None)", 0.0005116578114295416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.9401511862084845e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338822163144e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567673823293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013712138564e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786209307948e-08], ["'mixed heating grid' (megajoule, DK, None)", -6.945368494650802e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496514259425e-05], ["'wet wipe' (unit, GLO, None)", 2.084740840460968e-05], ["'autoclave' (unit, DK, None)", 0.0005116578114295416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.9401511862084845e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338822163144e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567673823293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013712138564e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681029545086e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568307478477e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6361111735278345e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.170248274097195e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008375573158e-05], ["'mechanical disinfection' (unit, DK, None)", 0.000100244532363765], ["'autoclave' (unit, DK, None)", 0.00028425433968307865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273925577737e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313899207443e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135347646586e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620239094822e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893104653966e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.472684247325401e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008375573158e-05], ["'wet wipe' (unit, GLO, None)", 2.084740840460968e-05], ["'autoclave' (unit, DK, None)", 0.00028425433968307865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273925577737e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313899207443e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135347646586e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620239094822e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681029545086e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568307478477e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6058322424813033e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521431623941e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.73726859172265e-06], ["'autoclave' (unit, DK, None)", 0.00012639039216766912], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2802055507044645e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577388021e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968893245063e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5876184000137285e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034311812633e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238702303642e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.071759688205796e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2932652433219998e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.552515730413409e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.73726859172265e-06], ["'autoclave' (unit, DK, None)", 0.00012639039216766912], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.840136393458103e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4263273740927444e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979262163374e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.3917456000091523e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.676274715791669e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.241806640748683e-05], ["'autoclave' (unit, DK, None)", 0.0002527807843353382], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2120582073490213e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5505663082207878e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246472798632e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0263977964060247e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.59744756636006e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7900718424409017e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.22854706625955e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.643000685414084e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619119119157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.241806640748683e-05], ["'autoclave' (unit, DK, None)", 0.0002527807843353382], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384206924234e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398829797949e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497648532425e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.842651976040164e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619119119157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.6096137554401205e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238683618169e-05], ["'autoclave' (unit, DK, None)", 0.00035389309806947364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379025149506e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377783936953e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715895861085e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356951501028e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402181973140619e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.022715853168063e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.6096137554401205e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843764487e-05], ["'autoclave' (unit, DK, None)", 0.00035389309806947364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379025149506e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377783936953e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715895861085e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356951501028e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963553948e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577388021e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227899267049e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.616254545946121e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897890764636e-06], ["'mechanical disinfection' (unit, DK, None)", 4.418619341809084e-05], ["'autoclave' (unit, DK, None)", 0.0001966072767052631], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2078239523603137e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679342271056e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179172217e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221700566017e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010909865703036e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579265840314e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897890764636e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843764487e-05], ["'autoclave' (unit, DK, None)", 0.0001966072767052631], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2078239523603137e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679342271056e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179172217e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221700566017e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963553948e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577388021e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216989401352e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5861409666802803e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00980252014182502], ["'autoclave' (unit, DK, None)", 0.017450935017400405], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405897500531e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773092819217], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003668689141706093], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698153856273], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564586942474], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835661945047], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651146251063], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350611648717], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.546566798391152e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00980252014182502], ["'autoclave' (unit, DK, None)", 0.017450935017400405], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213259089137], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130310531717e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024457927611373953], ["'mixed heating grid' (megajoule, DK, None)", -0.0040331321025708486], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.5172251055663012e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02806666551542845], ["'autoclave' (unit, DK, None)", 0.034901870034800796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000261101213732959], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2389214197591946e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495916875472135], ["'mixed heating grid' (megajoule, DK, None)", -0.001730785206703119], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01456980098973875], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204419446256], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089422682018], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0216347904553485], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884657448246e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02806666551542845], ["'autoclave' (unit, DK, None)", 0.034901870034800796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403546729966], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002155999364520558], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997277916981429], ["'mixed heating grid' (megajoule, DK, None)", -0.01153856804468746], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884657448246e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02302806089505195], ["'mechanical disinfection' (unit, DK, None)", 0.019751979909376383], ["'autoclave' (unit, DK, None)", 0.04886261804872114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953538219157], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049849098713], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312864749e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714488897815e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813393869956e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0155933244732024e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02302806089505195], ["'wet wipe' (unit, GLO, None)", 0.00227755982353291], ["'autoclave' (unit, DK, None)", 0.04886261804872114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953538219157], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049849098713], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312864749e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714488897815e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593764829642e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773092819217], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036979723892337706], ["'mixed heating grid' (megajoule, DK, None)", -0.0006097986466565365]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628280335024], ["'mechanical disinfection' (unit, DK, None)", 0.009875989954688191], ["'autoclave' (unit, DK, None)", 0.027145898915956188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000376524570577947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00474797139793108], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082625729498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362543065979e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794066969349696e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.077966622366012e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628280335024], ["'wet wipe' (unit, GLO, None)", 0.00227755982353291], ["'autoclave' (unit, DK, None)", 0.027145898915956188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000376524570577947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00474797139793108], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082625729498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362543065979e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593764829642e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773092819217], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671783222644294], ["'mixed heating grid' (megajoule, DK, None)", -0.0006047206800341705]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1526597173361643], ["'autoclave' (unit, DK, None)", 0.5298634426122286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01732566392457103], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777180733063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041538172455], ["'mixed heating grid' (megajoule, DK, None)", -0.016736075328198128], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010405474157], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360064925764], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156783752755], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885434586788], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002101373088044763]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1526597173361643], ["'autoclave' (unit, DK, None)", 0.5298634426122286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149646858546302], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242211369668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0433602769211497], ["'mixed heating grid' (megajoule, DK, None)", -0.11157383552132086], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00025494173327643644]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104052309813], ["'autoclave' (unit, DK, None)", 1.0597268852244568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049062394104159086], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699505668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018607703379177432], ["'mixed heating grid' (megajoule, DK, None)", -0.04788098655442859], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989551831238], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316700262005], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835428361116], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784629461068], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273437190638]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4371104052309813], ["'autoclave' (unit, DK, None)", 1.0597268852244568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855060006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727708789487], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135586118299], ["'mixed heating grid' (megajoule, DK, None)", -0.3192065770295239], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273437190638]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520244012503153], ["'mechanical disinfection' (unit, DK, None)", 0.5939082810980539], ["'autoclave' (unit, DK, None)", 1.4836176393142404], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956513373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502836311372], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580821295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099667830554e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662386575172], ["'mixed heating grid' (megajoule, DK, None)", -0.0002809569328738197]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520244012503153], ["'wet wipe' (unit, GLO, None)", 0.04360781152855054], ["'autoclave' (unit, DK, None)", 1.4836176393142404], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956513373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502836311372], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580821295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099667830554e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550131685], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777180733063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956391390036], ["'mixed heating grid' (megajoule, DK, None)", -0.01686966163588123]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187497994071], ["'mechanical disinfection' (unit, DK, None)", 0.29695414054902697], ["'autoclave' (unit, DK, None)", 0.8242320218412446], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.045930352923963594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761051653546], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742384516164259], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765772393262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.459331193287572e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846643690985]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187497994071], ["'wet wipe' (unit, GLO, None)", 0.04360781152855054], ["'autoclave' (unit, DK, None)", 0.8242320218412446], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.045930352923963594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761051653546], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742384516164259], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765772393262e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550131685], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777180733063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363079457175], ["'mixed heating grid' (megajoule, DK, None)", -0.01672918316944432]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457987285], ["'autoclave' (unit, DK, None)", 0.05139113210610976], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019082039147108e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331461652804e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064973539035], ["'mixed heating grid' (megajoule, DK, None)", -0.001179042977407093], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495623263473], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568718480272], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831843563223], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512595910414], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.4579863997242436e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01108799457987285], ["'autoclave' (unit, DK, None)", 0.05139113210610976], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668675213032214e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983082317629255e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376649026023], ["'mixed heating grid' (megajoule, DK, None)", -0.007860286516047288], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.8814513941053107e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183548179637], ["'autoclave' (unit, DK, None)", 0.10278226421221948], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381138858519382e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229824621766e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041813158326], ["'mixed heating grid' (megajoule, DK, None)", -0.003373176795709398], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00800646399992515], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00224270514828047], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002566195562228811], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933125608568], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499282759793e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183548179637], ["'autoclave' (unit, DK, None)", 0.10278226421221948], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302876910485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280643137285e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02663361208772219], ["'mixed heating grid' (megajoule, DK, None)", -0.022487845304729318], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499282759793e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009440102563652977], ["'mechanical disinfection' (unit, DK, None)", 0.06180787296307181], ["'autoclave' (unit, DK, None)", 0.14389516989710735], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00045098678340503063], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814455077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.644923453297334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.394832266530705e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179773211305e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9793188795020675e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009440102563652977], ["'wet wipe' (unit, GLO, None)", 0.003228268643250344], ["'autoclave' (unit, DK, None)", 0.14389516989710735], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00045098678340503063], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814455077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.644923453297334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.394832266530705e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263611845020122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331461652804e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525267752613], ["'mixed heating grid' (megajoule, DK, None)", -0.0011884540247920274]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160179057123], ["'mechanical disinfection' (unit, DK, None)", 0.030903936481535905], ["'autoclave' (unit, DK, None)", 0.07994176105394851], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083211015], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071029507209], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846906594668e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160933331417e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089886605622e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.896594397510337e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160179057123], ["'wet wipe' (unit, GLO, None)", 0.003228268643250344], ["'autoclave' (unit, DK, None)", 0.07994176105394851], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083211015], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071029507209], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846906594668e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160933331417e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263611845020122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331461652804e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314368886589], ["'mixed heating grid' (megajoule, DK, None)", -0.0011785574303945171]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004108042023276777], ["'autoclave' (unit, DK, None)", 0.03466551062285033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000123372492416e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002840009741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384696739785], ["'mixed heating grid' (megajoule, DK, None)", -0.008294240464656535], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414945728245], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994619203750867], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016230792234], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002376967066017416], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705081543326e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004108042023276777], ["'autoclave' (unit, DK, None)", 0.03466551062285033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521116326743e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463193254009924e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589797826523], ["'mixed heating grid' (megajoule, DK, None)", -0.05529493643104357], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7008513370491205e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01197444731836038], ["'autoclave' (unit, DK, None)", 0.06933102124570063], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929006898939441e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054443699126e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002745472625003964], ["'mixed heating grid' (megajoule, DK, None)", -0.02372936356818934], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00312400751783742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885391420163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000510418095535557], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0066956818761053985], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115464654257e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01197444731836038], ["'autoclave' (unit, DK, None)", 0.06933102124570063], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233667920092041e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528641854434e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150833359774], ["'mixed heating grid' (megajoule, DK, None)", -0.15819575712126224], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115464654257e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0025695347597404035], ["'mechanical disinfection' (unit, DK, None)", 0.04155330483960337], ["'autoclave' (unit, DK, None)", 0.09706342974398093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455139515004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479914222882], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.55412712754977e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397374427882e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934726038037e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013923959565009423]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0025695347597404035], ["'wet wipe' (unit, GLO, None)", 0.01261688024638785], ["'autoclave' (unit, DK, None)", 0.09706342974398093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455139515004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479914222882], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.55412712754977e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397374427882e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027328858793e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002840009741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982439854856], ["'mixed heating grid' (megajoule, DK, None)", -0.008360444573862619]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774982228031], ["'mechanical disinfection' (unit, DK, None)", 0.020776652419801686], ["'autoclave' (unit, DK, None)", 0.05392412763554495], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337160644406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569723447], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825425509954e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455166343783e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967363018997e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.961979782504712e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774982228031], ["'wet wipe' (unit, GLO, None)", 0.01261688024638785], ["'autoclave' (unit, DK, None)", 0.05392412763554495], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337160644406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569723447], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825425509954e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455166343783e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027328858793e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002840009741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432766224688], ["'mixed heating grid' (megajoule, DK, None)", -0.00829082477603757]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545194762226], ["'autoclave' (unit, DK, None)", 0.004014487739979474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279846304835e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283714322388e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.625517275047016e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012523206715093], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001238356476665282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752326279144], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596564027851], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924364239562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120798097954e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545194762226], ["'autoclave' (unit, DK, None)", 0.004014487739979474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082888669563e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221339736125e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00030836781833646775], ["'mixed heating grid' (megajoule, DK, None)", -0.0008008348804476729], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.144708790445019e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031748665449], ["'autoclave' (unit, DK, None)", 0.008028975479958945], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241060096868e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217782954239136e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001323334928354724], ["'mixed heating grid' (megajoule, DK, None)", -0.0003436716499336001], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404144552646], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00034884788554820725], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00036689568741707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218130771708], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223409778671e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031748665449], ["'autoclave' (unit, DK, None)", 0.008028975479958945], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205320195953], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.211153333428076e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822232855698167], ["'mixed heating grid' (megajoule, DK, None)", -0.002291144332890667], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223409778671e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002169963461003405], ["'mechanical disinfection' (unit, DK, None)", 0.003577628078856629], ["'autoclave' (unit, DK, None)", 0.011240565671942529], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914887559349], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291155119421], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169101203225e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206935683198e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765089013207715e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0166028235710743e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002169963461003405], ["'wet wipe' (unit, GLO, None)", 0.0004352277293286648], ["'autoclave' (unit, DK, None)", 0.011240565671942529], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914887559349], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291155119421], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169101203225e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206935683198e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697742719664e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283714322388e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6624378649571665e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012108406416468514]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390279115323], ["'mechanical disinfection' (unit, DK, None)", 0.0017888140394283145], ["'autoclave' (unit, DK, None)", 0.006244758706634737], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001456127546786899], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376866500013], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.31633820240645e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397054806571e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825445066038473e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0083014117855372e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390279115323], ["'wet wipe' (unit, GLO, None)", 0.0004352277293286648], ["'autoclave' (unit, DK, None)", 0.006244758706634737], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001456127546786899], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376866500013], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.31633820240645e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397054806571e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697742719664e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283714322388e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6236124198911385e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001200757627528996]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.656145846387809e-08], ["'autoclave' (unit, DK, None)", 2.0754074563963613e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.991733048329439e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938405473e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6129730869374675e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459483487755e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403149268273e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718291701777e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744225271267e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.748126164131226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2615856862194592e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.656145846387809e-08], ["'autoclave' (unit, DK, None)", 2.0754074563963613e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172563681324e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928055248423e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315391291645e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.568306322325171e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0864450892065541e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684929439003e-07], ["'autoclave' (unit, DK, None)", 4.150814912792721e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.6401412490076644e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059390277e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461054650616e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.677017626010354e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141314165675e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099680026748e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023363596159e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200462341483e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5891314300990307e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.335684929439003e-07], ["'autoclave' (unit, DK, None)", 4.150814912792721e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655108961486e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509276615412e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307369767084e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.451345084006903e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5891314300990307e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.24858811138415e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986321427013e-07], ["'autoclave' (unit, DK, None)", 5.811140877909812e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540155011238e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680783125938e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974499218e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846220117102e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030452299394e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.157607160312973e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.24858811138415e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359589722e-07], ["'autoclave' (unit, DK, None)", 5.811140877909812e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540155011238e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680783125938e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974499218e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846220117102e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749576468e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938405473e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6497935499218255e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2955047012127342e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.933862454261581e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993160713506e-07], ["'autoclave' (unit, DK, None)", 3.228411598838784e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890365268e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268062231089e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948998436e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443809085586e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015226149687e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035801564865e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.933862454261581e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359589722e-07], ["'autoclave' (unit, DK, None)", 3.228411598838784e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890365268e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268062231089e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948998436e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443809085586e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749576468e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938405473e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.61107339766034e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166654111693e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847796506381], ["'autoclave' (unit, DK, None)", 0.00022786517763341807], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864364946365e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489090299649e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498112883486535e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0056825562388964e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075372559255], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842759688063e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408046053028e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535825999307e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.452795679219959e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003086847796506381], ["'autoclave' (unit, DK, None)", 0.00022786517763341807], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9108819617868405e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5977674941723347e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998741922324355e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013371217041592646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.568759238916677e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184148803699], ["'autoclave' (unit, DK, None)", 0.00045573035526683597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6690101893259334e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0806953309253068e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728002853605518e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.738146944518203e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040606006843295914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.414214811168252e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933453722326e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297284016899462], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.97804846714792e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184148803699], ["'autoclave' (unit, DK, None)", 0.00045573035526683597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568906441805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221199776359e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001902403684e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00038254312963454686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.97804846714792e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471729031981041], ["'mechanical disinfection' (unit, DK, None)", 0.00024985917218284785], ["'autoclave' (unit, DK, None)", 0.0006380224973735706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175367209972e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801810950884e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944010666248e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348881072771e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997230652961e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3670404098263136e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471729031981041], ["'wet wipe' (unit, GLO, None)", 7.631932902168678e-05], ["'autoclave' (unit, DK, None)", 0.0006380224973735706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175367209972e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801810950884e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944010666248e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348881072771e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437132497617e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489090299649e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420477827247e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0216917890977456e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000147321095237403], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958609142392], ["'autoclave' (unit, DK, None)", 0.000354456942985317], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631607130635e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.7741373834615854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888021332496e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.676629515027023e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498615326472e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835202049131568e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000147321095237403], ["'wet wipe' (unit, GLO, None)", 7.631932902168678e-05], ["'autoclave' (unit, DK, None)", 0.000354456942985317], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631607130635e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.7741373834615854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888021332496e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.676629515027023e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437132497617e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489090299649e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7482670616294687e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.004856587048614e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956185708715], ["'autoclave' (unit, DK, None)", 0.00039441668885716583], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164341389e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280067866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831853469855e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.9693961614596856e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488873781305], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499831320070234e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043474482327e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00014443476999407564], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881206715838e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956185708715], ["'autoclave' (unit, DK, None)", 0.00039441668885716583], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817912919497e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3736997124856313e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887902313237e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033129307743064574], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.570750378901961e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931913019943], ["'autoclave' (unit, DK, None)", 0.0007888333777143313], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491306499448e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.526749938662686e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816684208957427e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014217167772278291], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349479185792], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1601434070114296e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894372924753e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00040685850702556526], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.611333609125803e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931913019943], ["'autoclave' (unit, DK, None)", 0.0007888333777143313], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990961385775e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864333347362e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211122805971631], ["'mixed heating grid' (megajoule, DK, None)", -0.0009478111848185527], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.611333609125803e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655931470116], ["'mechanical disinfection' (unit, DK, None)", 0.0004533713242946716], ["'autoclave' (unit, DK, None)", 0.0011043667288000644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.69617542826472e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184349546312], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683634040398e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7166831623952724e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876140673377e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.342375834113583e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655931470116], ["'wet wipe' (unit, GLO, None)", 0.001093276247491259], ["'autoclave' (unit, DK, None)", 0.0011043667288000644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.69617542826472e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184349546312], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683634040398e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7166831623952724e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297526986e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280067866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859515560195e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.009061571157352e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379427621062], ["'mechanical disinfection' (unit, DK, None)", 0.0002266856621473358], ["'autoclave' (unit, DK, None)", 0.0006135370715555914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758171408896e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976731995708e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367268080797e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757440962647e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380703366865e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879170567916e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379427621062], ["'wet wipe' (unit, GLO, None)", 0.001093276247491259], ["'autoclave' (unit, DK, None)", 0.0006135370715555914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758171408896e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976731995708e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367268080797e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757440962647e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297526986e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280067866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115708526546e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349691986784e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006158725338788586], ["'autoclave' (unit, DK, None)", 0.0004042989860713273], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814574852046e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508793744794e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223475830418e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.141906554546331e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610961307325], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680885977239e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660535626308e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000152378240901363], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.733646943561125e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006158725338788586], ["'autoclave' (unit, DK, None)", 0.0004042989860713273], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900449952823e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3916556782616942e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482317220279e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034279377030308877], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0124192661412216e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001763208264375804], ["'autoclave' (unit, DK, None)", 0.0008085979721426542], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381459627755e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758158845905e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6398576399602697e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014710710472696465], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864012288487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991334614509e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577423071556552e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004292344814122902], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.769160950082738e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001763208264375804], ["'autoclave' (unit, DK, None)", 0.0008085979721426542], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802943648684e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954519110193e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599050933068478], ["'mixed heating grid' (megajoule, DK, None)", -0.0009807140315130976], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.769160950082738e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033777063339493295], ["'mechanical disinfection' (unit, DK, None)", 0.0004645415460823831], ["'autoclave' (unit, DK, None)", 0.0011320371609997166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526700288727e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357350579], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759023934e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8204383998875396e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205175777835e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.631977726911105e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033777063339493295], ["'wet wipe' (unit, GLO, None)", 0.001690905054369013], ["'autoclave' (unit, DK, None)", 0.0011320371609997166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526700288727e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357350579], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759023934e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8204383998875396e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091502358902e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508793744794e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874597143544e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.182948931424026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716026997894], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077304119155], ["'autoclave' (unit, DK, None)", 0.0006289095338887314], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935971603e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971400010417e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039518047869e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385071893023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102587888898e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.3159888634555525e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716026997894], ["'wet wipe' (unit, GLO, None)", 0.001690905054369013], ["'autoclave' (unit, DK, None)", 0.0006289095338887314], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935971603e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971400010417e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039518047869e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385071893023e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091502358902e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508793744794e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423571264676e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1397890427894696e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869314931992], ["'autoclave' (unit, DK, None)", 0.0034222397125911958], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709469486e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542505166e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331521284594e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.76659228926344e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391697588802], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837301153252e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813554345996e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259235503555], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3623315687261636e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002000869314931992], ["'autoclave' (unit, DK, None)", 0.0034222397125911958], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209193676028], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669036147942e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887680856396], ["'mixed heating grid' (megajoule, DK, None)", -0.0005844394859508961], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6507657129881664e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00575878121648915], ["'autoclave' (unit, DK, None)", 0.006844479425182389], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822333575165e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0258117096185325e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693297070105], ["'mixed heating grid' (megajoule, DK, None)", -0.00025080736032727477], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002979613557268372], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.52073744015292e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892275127553e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.001580636404367199], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2410557216091205e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00575878121648915], ["'autoclave' (unit, DK, None)", 0.006844479425182389], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321672326845], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449131934524e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001470779553138008], ["'mixed heating grid' (megajoule, DK, None)", -0.0016720490688484984], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2410557216091205e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496362878311], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468380402014], ["'autoclave' (unit, DK, None)", 0.00958227119525535], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955416382422e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588487419335], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037521862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664421256844e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.294540093843249e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.471692038334004e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496362878311], ["'wet wipe' (unit, GLO, None)", 0.009527755134648076], ["'autoclave' (unit, DK, None)", 0.00958227119525535], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955416382422e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588487419335], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037521862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664421256844e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320932964e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542505166e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882887721911e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.836566681223348e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656317768512], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234190201007], ["'autoclave' (unit, DK, None)", 0.005323483997364082], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175964141e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854032809895], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075043723e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993422373975e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700469216228e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.35846019167002e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656317768512], ["'wet wipe' (unit, GLO, None)", 0.009527755134648076], ["'autoclave' (unit, DK, None)", 0.005323483997364082], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175964141e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854032809895], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075043723e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993422373975e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320932964e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542505166e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155883029767e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.762982079306647e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.012221230263815e-09], ["'autoclave' (unit, DK, None)", 1.1977131191407548e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171324564e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612366602e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.773580260866542e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664807094509e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389237596376e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950213069866764e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903376019302092e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076441654027156e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648347610134e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.012221230263815e-09], ["'autoclave' (unit, DK, None)", 1.1977131191407548e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665084523e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497422495e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8490535072443615e-10], ["'mixed heating grid' (megajoule, DK, None)", -8.85110987139634e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.339066802417907e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.89887627596207e-09], ["'autoclave' (unit, DK, None)", 2.3954262382815088e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429260853673e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8943010187785433e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059837740192e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.798380424621269e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.565291672833417e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573317074727e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652473489901e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.66603282824551e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230583865537e-12]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.89887627596207e-09], ["'autoclave' (unit, DK, None)", 2.3954262382815088e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4861669479111335e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900076016e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039891826798e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.532253616414179e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230583865537e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996830618303e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860851139509168e-09], ["'autoclave' (unit, DK, None)", 3.353596733594114e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091843302e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776954555508e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869747005e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168270372117e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148994857156e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.2288206463257245e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996830618303e-10], ["'wet wipe' (unit, GLO, None)", 5.60617496136197e-10], ["'autoclave' (unit, DK, None)", 3.353596733594114e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091843302e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776954555508e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869747005e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168270372117e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373076724e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612366602e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957188052293022e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.338263831612489e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.5863714549016217e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425569754584e-10], ["'autoclave' (unit, DK, None)", 1.863109296441174e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529896597e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506896895e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.18091573949401e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073467678554e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074497428572e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103231628622e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.5863714549016217e-10], ["'wet wipe' (unit, GLO, None)", 5.60617496136197e-10], ["'autoclave' (unit, DK, None)", 1.863109296441174e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529896597e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506896895e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.18091573949401e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073467678554e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373076724e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612366602e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.772438060255023e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197283808603e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592805295296e-07], ["'autoclave' (unit, DK, None)", 5.03656423743514e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647569839e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908210481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006483820395e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850739474976e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.596602206529781e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782087217874e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947624736004e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.952401290146705e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.4360200086026186e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592805295296e-07], ["'autoclave' (unit, DK, None)", 5.03656423743514e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748128734443e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827663018535e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337655880264e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.0963233826316654e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.090452975020507e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896834739364e-06], ["'autoclave' (unit, DK, None)", 1.0073128474870276e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152536132e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.091122737432338e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.723049051463814e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.996198009016224e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317468709648e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3250723013353486e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117647616485e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721944075227e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.262019616371441e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.419896834739364e-06], ["'autoclave' (unit, DK, None)", 1.0073128474870276e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971303868858e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.26309664126693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660343092109e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.997465339344149e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.262019616371441e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053966093330176e-07], ["'mechanical disinfection' (unit, DK, None)", 5.682374635841752e-07], ["'autoclave' (unit, DK, None)", 1.4102379864818394e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176912342024e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194730504059e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678912575037e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.29648045912705e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357269112634e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.278805601186981e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053966093330176e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972753230704e-07], ["'autoclave' (unit, DK, None)", 1.4102379864818394e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176912342024e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194730504059e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678912575037e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.29648045912705e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.22257129761102e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908210481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978616936624e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.169584157355992e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.327775876472764e-07], ["'mechanical disinfection' (unit, DK, None)", 2.841187317920876e-07], ["'autoclave' (unit, DK, None)", 7.834655480454663e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649463389625e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.82324580544749e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782515007e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619583886044e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178634556296e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6394028005934905e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.327775876472764e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972753230704e-07], ["'autoclave' (unit, DK, None)", 7.834655480454663e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649463389625e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.82324580544749e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782515007e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619583886044e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.22257129761102e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908210481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086830591084e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190129350057e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518801870324], ["'autoclave' (unit, DK, None)", 0.010079048847215128], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.802579259569551e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045785994637e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002276880805801659], ["'mixed heating grid' (megajoule, DK, None)", -0.001209638213771233], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956386846203], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179489714354], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217508363854], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173236826346], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.91423528785304e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518801870324], ["'autoclave' (unit, DK, None)", 0.010079048847215128], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001196103994667646], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098427906515e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001517920537201106], ["'mixed heating grid' (megajoule, DK, None)", -0.008064254758474887], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.896463915728065e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1635073491629384], ["'autoclave' (unit, DK, None)", 0.02015809769443025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500146257701e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021159258932e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514030148092266], ["'mixed heating grid' (megajoule, DK, None)", -0.0034607080760277135], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612347083684], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267613409175], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010766900059582998], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642920637595], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878239809756e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1635073491629384], ["'autoclave' (unit, DK, None)", 0.02015809769443025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00033693070272328065], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056128689291975e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0043426867653948474], ["'mixed heating grid' (megajoule, DK, None)", -0.023071387173518088], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878239809756e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113683616828], ["'mechanical disinfection' (unit, DK, None)", 0.011363780435646318], ["'autoclave' (unit, DK, None)", 0.02822133677220236], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267326003], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558716528085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056613243279e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046048137556e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314581958681e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0306806450346073e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113683616828], ["'wet wipe' (unit, GLO, None)", 0.01239225775661088], ["'autoclave' (unit, DK, None)", 0.02822133677220236], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267326003], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558716528085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056613243279e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046048137556e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297524015912e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045785994637e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950547261453986], ["'mixed heating grid' (megajoule, DK, None)", -0.0012192934704213882]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096154557076], ["'mechanical disinfection' (unit, DK, None)", 0.005681890217823159], ["'autoclave' (unit, DK, None)", 0.01567852042900131], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00027857866219700836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994781790092], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113226486557e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071834451446e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9111572909793356e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403225173036e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096154557076], ["'wet wipe' (unit, GLO, None)", 0.01239225775661088], ["'autoclave' (unit, DK, None)", 0.01567852042900131], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00027857866219700836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994781790092], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113226486557e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071834451446e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297524015912e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045785994637e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759431532356106], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400671962152]]</t>
   </si>
 </sst>
 </file>
@@ -938,79 +962,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1073,9 +1097,12 @@
       <c r="U2" t="s">
         <v>181</v>
       </c>
+      <c r="V2" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -1138,9 +1165,12 @@
       <c r="U3" t="s">
         <v>182</v>
       </c>
+      <c r="V3" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -1203,9 +1233,12 @@
       <c r="U4" t="s">
         <v>183</v>
       </c>
+      <c r="V4" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -1268,9 +1301,12 @@
       <c r="U5" t="s">
         <v>184</v>
       </c>
+      <c r="V5" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -1333,9 +1369,12 @@
       <c r="U6" t="s">
         <v>185</v>
       </c>
+      <c r="V6" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
@@ -1398,9 +1437,12 @@
       <c r="U7" t="s">
         <v>186</v>
       </c>
+      <c r="V7" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -1463,9 +1505,12 @@
       <c r="U8" t="s">
         <v>187</v>
       </c>
+      <c r="V8" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -1527,6 +1572,9 @@
       </c>
       <c r="U9" t="s">
         <v>188</v>
+      </c>
+      <c r="V9" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_case1_cut_off_recipe.xlsx
@@ -103,508 +103,508 @@
     <t>alubox (small + wipe)</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858226591937], ["'autoclave' (unit, DK, None)", 0.0006586479267069374], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228667757341e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576060969367e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115363732081532e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.69675049848159e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326776840562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135640914011e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.047059433354684e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001735396260925506], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.263378270762066e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858226591937], ["'autoclave' (unit, DK, None)", 0.0006586479267069374], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516218792255e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.400280440029792e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242488054355e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003131166998987727], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043748863505e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429302680412], ["'autoclave' (unit, DK, None)", 0.0013172958534138743], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.966432977878948e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894976200846e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800441320114405e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143598917753], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985961306219], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361573288187796e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140521384811e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440171621145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.497397805511107e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429302680412], ["'autoclave' (unit, DK, None)", 0.0013172958534138743], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.278173582758382e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176291148892e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002120029421340962], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095732611834], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.497397805511107e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940490337893], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930278072025], ["'autoclave' (unit, DK, None)", 0.0018442141947794248], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861428665694e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813259370892], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790715924905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849867153106e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.865992140152941e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671816119527e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005703940490337893], ["'wet wipe' (unit, GLO, None)", 0.0002486553732354672], ["'autoclave' (unit, DK, None)", 0.0018442141947794248], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861428665694e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813259370892], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.271790715924905e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849867153106e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.791917592242258e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576060969367e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1204085870958457e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.734239667530908e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958160552415], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651390360127], ["'autoclave' (unit, DK, None)", 0.0010245634415441249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204303261474e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665787940867], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.54358143184981e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.647304148665723e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.32996070076468e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9423359080597636e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034002958160552415], ["'wet wipe' (unit, GLO, None)", 0.0002486553732354672], ["'autoclave' (unit, DK, None)", 0.0010245634415441249], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.3687204303261474e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010879665787940867], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.54358143184981e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.647304148665723e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.791917592242258e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0994576060969367e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1110786263950837e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.6948163084503094e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010127823798], ["'autoclave' (unit, DK, None)", 0.18669863499106892], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423149017276], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0329205328486104], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296314403834], ["'mixed heating grid' (megajoule, DK, None)", -0.013748323381857584], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436768404927765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0044710100035857715], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566245467953], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699393969453], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253746076608]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010127823798], ["'autoclave' (unit, DK, None)", 0.18669863499106892], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18111252743740436], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02195708934031171], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308762692228], ["'mixed heating grid' (megajoule, DK, None)", -0.0916554892123839], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802298013516]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726059190411], ["'autoclave' (unit, DK, None)", 0.3733972699821377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424441342], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502011762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471619579105], ["'mixed heating grid' (megajoule, DK, None)", -0.03933319336126175], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4043884583405961], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437874869798], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048249759032], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.1947802646188579], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000576931934105154]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726059190411], ["'autoclave' (unit, DK, None)", 0.3733972699821377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336264912], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893436402], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314413052743], ["'mixed heating grid' (megajoule, DK, None)", -0.2622212890750783], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000576931934105154]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1317831584141486], ["'mechanical disinfection' (unit, DK, None)", 0.21668038422672006], ["'autoclave' (unit, DK, None)", 0.5227561779749931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750436945835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.041732197870350624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910203986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7927338493453405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391814418811e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003488129612]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1317831584141486], ["'wet wipe' (unit, GLO, None)", 0.05727539178886122], ["'autoclave' (unit, DK, None)", 0.5227561779749931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750436945835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.041732197870350624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910203986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7927338493453405e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595038076576], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0329205328486104], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004634999628306761], ["'mixed heating grid' (megajoule, DK, None)", -0.013858061640164848]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538944073462], ["'mechanical disinfection' (unit, DK, None)", 0.10834019211336003], ["'autoclave' (unit, DK, None)", 0.2904200988749961], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224831571357], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805992246282], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820407972], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893023692964e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8596959072093953e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001744064806]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07848538944073462], ["'wet wipe' (unit, GLO, None)", 0.05727539178886122], ["'autoclave' (unit, DK, None)", 0.2904200988749961], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003621224831571357], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02495805992246282], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820407972], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893023692964e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595038076576], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0329205328486104], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0045964026692346775], ["'mixed heating grid' (megajoule, DK, None)", -0.013742661622724198]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919670045573], ["'autoclave' (unit, DK, None)", 0.037407553904578755], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505906759464], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158410813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004133148085], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275469466219], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895316113155], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000506578803805052], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063825368242], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427574919279], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169419211386e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007638919670045573], ["'autoclave' (unit, DK, None)", 0.037407553904578755], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700181120765], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001152716937354556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386694220987234], ["'mixed heating grid' (megajoule, DK, None)", -0.004605516979644146], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0366337886479625e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264058719703], ["'autoclave' (unit, DK, None)", 0.07481510780915748], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485745904], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455153355], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497397189931], ["'mixed heating grid' (megajoule, DK, None)", -0.001976419431564625], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00919490403541782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546522287973], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981812319736], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007767582896], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912366680492e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264058719703], ["'autoclave' (unit, DK, None)", 0.07481510780915748], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026782254031326103], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210354972183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331598126625], ["'mixed heating grid' (megajoule, DK, None)", -0.013176129543764164], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912366680492e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971767012049759], ["'mechanical disinfection' (unit, DK, None)", 0.044288511747391186], ["'autoclave' (unit, DK, None)", 0.10474115093282053], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0941428214204173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532168961512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486009764e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559533782889e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000564093014e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597270263706704e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010971767012049759], ["'wet wipe' (unit, GLO, None)", 0.002171900767704054], ["'autoclave' (unit, DK, None)", 0.10474115093282053], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0941428214204173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532168961512], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268486009764e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559533782889e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526132988780384e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158410813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027800183498325154], ["'mixed heating grid' (megajoule, DK, None)", -0.0006963416892668878]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413248577291], ["'mechanical disinfection' (unit, DK, None)", 0.022144255873695593], ["'autoclave' (unit, DK, None)", 0.0581895282960114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416384229], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990031506884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972019528e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135251758228043e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150002820465007e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.798635131853352e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.006546413248577291], ["'wet wipe' (unit, GLO, None)", 0.002171900767704054], ["'autoclave' (unit, DK, None)", 0.0581895282960114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05621209416384229], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990031506884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536972019528e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135251758228043e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526132988780384e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826158410813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002756868347012057], ["'mixed heating grid' (megajoule, DK, None)", -0.0006905430541350343]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273945460103], ["'autoclave' (unit, DK, None)", 0.04710483816657805], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002074801418001601], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963129921], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035968298005138066], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034490081852992], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720458203427], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797364003462018], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343839306579], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326736609805545], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407924944521637e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273945460103], ["'autoclave' (unit, DK, None)", 0.04710483816657805], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01376737389515081], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733001793143], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002397886533675871], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993387901995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091862929043894e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605936291776], ["'autoclave' (unit, DK, None)", 0.09420967633315608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372239761544], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000755375537495178], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290331271800718], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847176811308894], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848971764613], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0020458085835662384], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00232596189932344], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807708760015625], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697864319466e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605936291776], ["'autoclave' (unit, DK, None)", 0.09420967633315608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491591779], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502818366904085], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860220847867149], ["'mixed heating grid' (megajoule, DK, None)", -0.017231451207539262], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697864319466e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274767164595], ["'mechanical disinfection' (unit, DK, None)", 0.05570285231606565], ["'autoclave' (unit, DK, None)", 0.13189354686641858], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330551378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251257447877], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325194935e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621405763382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0381794955168475e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166653911981673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.013932274767164595], ["'wet wipe' (unit, GLO, None)", 0.002406925435130668], ["'autoclave' (unit, DK, None)", 0.13189354686641858], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963330551378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02823251257447877], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570325194935e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.507621405763382e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887805625194e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963129921], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003625539471269501], ["'mixed heating grid' (megajoule, DK, None)", -0.000910660281725643]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549573241752], ["'mechanical disinfection' (unit, DK, None)", 0.027851426158032825], ["'autoclave' (unit, DK, None)", 0.07327419270356586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288519449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534641204273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05314065038987e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341066497437e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.019089747758416e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583326955990837e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008312549573241752], ["'wet wipe' (unit, GLO, None)", 0.002406925435130668], ["'autoclave' (unit, DK, None)", 0.07327419270356586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288519449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534641204273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05314065038987e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341066497437e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887805625194e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963129921], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035953485737919255], ["'mixed heating grid' (megajoule, DK, None)", -0.0009030769547696521]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796795611869], ["'autoclave' (unit, DK, None)", 1.9488662975921178], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229007273822], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301400173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779094869828711], ["'mixed heating grid' (megajoule, DK, None)", -0.06859048021907874], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276621982173], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713294442374], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420198021756549], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437360086945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005649494539222513]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6735796795611869], ["'autoclave' (unit, DK, None)", 1.9488662975921178], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619247817209], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421008267080666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186063246552474], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698681271916], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806823937900574]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021838467711], ["'autoclave' (unit, DK, None)", 3.8977325951842343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882142093162], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287303355], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942122888768669], ["'mixed heating grid' (megajoule, DK, None)", -0.19623357308855377], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314995645189], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321565797434], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934893599508], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950310104072], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454401142528]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021838467711], ["'autoclave' (unit, DK, None)", 3.8977325951842343], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492005421920341], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934251458721686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2628081925845781], ["'mixed heating grid' (megajoule, DK, None)", -1.3082238205903585], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454401142528]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595530609607], ["'mechanical disinfection' (unit, DK, None)", 2.276328305813541], ["'autoclave' (unit, DK, None)", 5.456825633257931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125772412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110740666696], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831328092375], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565985040128181], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131661136119346], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629666027891]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32319595530609607], ["'wet wipe' (unit, GLO, None)", 0.1405603077450922], ["'autoclave' (unit, DK, None)", 5.456825633257931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667125772412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110740666696], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831328092375], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565985040128181], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541442160486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301400173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013889078744230484], ["'mixed heating grid' (megajoule, DK, None)", -0.06913796514699608]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091994796994], ["'mechanical disinfection' (unit, DK, None)", 1.1381641529067705], ["'autoclave' (unit, DK, None)", 3.0315697962544057], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123392987187], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352737811793], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566265618475], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487655984383], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565830568059642], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314833013946]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.19227091994796994], ["'wet wipe' (unit, GLO, None)", 0.1405603077450922], ["'autoclave' (unit, DK, None)", 3.0315697962544057], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22986123392987187], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352737811793], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566265618475], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487655984383], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541442160486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096301400173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01377342043854992], ["'mixed heating grid' (megajoule, DK, None)", -0.06856223366369467]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497433289582103], ["'autoclave' (unit, DK, None)", 0.0480480609708392], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6462984204243843e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221267060093e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278842007464], ["'mixed heating grid' (megajoule, DK, None)", -0.0039442858578861515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569842513453], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552397004822919], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896087251372], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736336521102], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227926531214e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497433289582103], ["'autoclave' (unit, DK, None)", 0.0480480609708392], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00030830578303750586], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475101974943e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185894671642], ["'mixed heating grid' (megajoule, DK, None)", -0.026295239052574346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6527921803649834e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085119813798], ["'autoclave' (unit, DK, None)", 0.09609612194167835], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157274966248491], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319237273125e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812256339225], ["'mixed heating grid' (megajoule, DK, None)", -0.011284383848946422], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29123954854756406], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641470826255], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0031488091377002065], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.054906299539496065], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831312993517597]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085119813798], ["'autoclave' (unit, DK, None)", 0.09609612194167835], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669944718477], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270252166609], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415042261518], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922565964281], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831312993517597]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103755080485], ["'mechanical disinfection' (unit, DK, None)", 0.05608788967142218], ["'autoclave' (unit, DK, None)", 0.13453457071834976], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318712920821], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485929849788], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610031888509e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268052468188e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266343032844746e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471493631155e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.029914103755080485], ["'wet wipe' (unit, GLO, None)", 0.03226030810332918], ["'autoclave' (unit, DK, None)", 0.13453457071834976], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0014036318712920821], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485929849788], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610031888509e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268052468188e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359477468088e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221267060093e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001216863901750853], ["'mixed heating grid' (megajoule, DK, None)", -0.003975768901184477]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000475256657], ["'mechanical disinfection' (unit, DK, None)", 0.02804394483571109], ["'autoclave' (unit, DK, None)", 0.07474142817686097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998755931586], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568775848969], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220063777018e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871580187881e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171516422348e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.310735746815578e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017748000475256657], ["'wet wipe' (unit, GLO, None)", 0.03226030810332918], ["'autoclave' (unit, DK, None)", 0.07474142817686097], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008380998755931586], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005320568775848969], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220063777018e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871580187881e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359477468088e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221267060093e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012067307302344335], ["'mixed heating grid' (megajoule, DK, None)", -0.00394266154371632]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664513112171e-05], ["'autoclave' (unit, DK, None)", 0.0001827349326534077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.532085060058128e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568307478477e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073177883087976e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.137225201015897e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699826747102e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.468288801950332e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.654706669834639e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932567473615e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.443526790246677e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664513112171e-05], ["'autoclave' (unit, DK, None)", 0.0001827349326534077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.680168591253524e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907047852786104e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785255391982e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7581501340105984e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.3705362150246597e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287134844438], ["'autoclave' (unit, DK, None)", 0.0003654698653068153], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296945772083e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.556284379046256e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336825238258e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.1836372646382735e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117500905641e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.4191216369378915e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604686296918e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093680978485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679064657476e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001570287134844438], ["'autoclave' (unit, DK, None)", 0.0003654698653068153], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328692711366885e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.695520604897052e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224550158844e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.89091509758849e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679064657476e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496514259425e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00020048906472753], ["'autoclave' (unit, DK, None)", 0.0005116578114295416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.9401511862084845e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338822163144e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567673823293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013712138564e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.055786209307948e-08], ["'mixed heating grid' (megajoule, DK, None)", -6.945368494650802e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.905496514259425e-05], ["'wet wipe' (unit, GLO, None)", 2.084740840460968e-05], ["'autoclave' (unit, DK, None)", 0.0005116578114295416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.9401511862084845e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3193338822163144e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567673823293e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013712138564e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681029545086e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568307478477e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6361111735278345e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.170248274097195e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008375573158e-05], ["'mechanical disinfection' (unit, DK, None)", 0.000100244532363765], ["'autoclave' (unit, DK, None)", 0.00028425433968307865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273925577737e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313899207443e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135347646586e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620239094822e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893104653966e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.472684247325401e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.9235008375573158e-05], ["'wet wipe' (unit, GLO, None)", 2.084740840460968e-05], ["'autoclave' (unit, DK, None)", 0.00028425433968307865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5468273925577737e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.890313899207443e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231135347646586e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.647620239094822e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681029545086e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568307478477e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6058322424813033e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.135521431623941e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.73726859172265e-06], ["'autoclave' (unit, DK, None)", 0.00012639039216766912], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2802055507044645e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577388021e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222968893245063e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5876184000137285e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.344034311812633e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238702303642e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.071759688205796e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2932652433219998e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.552515730413409e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.73726859172265e-06], ["'autoclave' (unit, DK, None)", 0.00012639039216766912], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.840136393458103e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4263273740927444e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979262163374e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.3917456000091523e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.676274715791669e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806640748683e-05], ["'autoclave' (unit, DK, None)", 0.0002527807843353382], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2120582073490213e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5505663082207878e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246472798632e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0263977964060247e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.59744756636006e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7900718424409017e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.22854706625955e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.643000685414084e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619119119157e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.241806640748683e-05], ["'autoclave' (unit, DK, None)", 0.0002527807843353382], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384206924234e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398829797949e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497648532425e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.842651976040164e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619119119157e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.6096137554401205e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238683618169e-05], ["'autoclave' (unit, DK, None)", 0.00035389309806947364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379025149506e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377783936953e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715895861085e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356951501028e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402181973140619e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.022715853168063e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.6096137554401205e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843764487e-05], ["'autoclave' (unit, DK, None)", 0.00035389309806947364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0228379025149506e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0244377783936953e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715895861085e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356951501028e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963553948e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577388021e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.643227899267049e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.616254545946121e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897890764636e-06], ["'mechanical disinfection' (unit, DK, None)", 4.418619341809084e-05], ["'autoclave' (unit, DK, None)", 0.0001966072767052631], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2078239523603137e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679342271056e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179172217e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221700566017e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010909865703036e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.0113579265840314e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3391897890764636e-06], ["'wet wipe' (unit, GLO, None)", 8.734684843764487e-05], ["'autoclave' (unit, DK, None)", 0.0001966072767052631], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2078239523603137e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.126679342271056e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943179172217e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221700566017e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963553948e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.137134577388021e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.621216989401352e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.5861409666802803e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00980252014182502], ["'autoclave' (unit, DK, None)", 0.017450935017400405], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405897500531e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773092819217], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003668689141706093], ["'mixed heating grid' (megajoule, DK, None)", -0.0006049698153856273], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564586942474], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835661945047], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651146251063], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350611648717], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.546566798391152e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00980252014182502], ["'autoclave' (unit, DK, None)", 0.017450935017400405], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213259089137], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.157130310531717e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024457927611373953], ["'mixed heating grid' (megajoule, DK, None)", -0.0040331321025708486], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.5172251055663012e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666551542845], ["'autoclave' (unit, DK, None)", 0.034901870034800796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000261101213732959], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2389214197591946e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495916875472135], ["'mixed heating grid' (megajoule, DK, None)", -0.001730785206703119], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01456980098973875], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204419446256], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089422682018], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0216347904553485], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884657448246e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666551542845], ["'autoclave' (unit, DK, None)", 0.034901870034800796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403546729966], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002155999364520558], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997277916981429], ["'mixed heating grid' (megajoule, DK, None)", -0.01153856804468746], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884657448246e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02302806089505195], ["'mechanical disinfection' (unit, DK, None)", 0.019751979909376383], ["'autoclave' (unit, DK, None)", 0.04886261804872114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953538219157], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049849098713], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312864749e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714488897815e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813393869956e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0155933244732024e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02302806089505195], ["'wet wipe' (unit, GLO, None)", 0.00227755982353291], ["'autoclave' (unit, DK, None)", 0.04886261804872114], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006305953538219157], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007939049849098713], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790541312864749e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924714488897815e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593764829642e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773092819217], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036979723892337706], ["'mixed heating grid' (megajoule, DK, None)", -0.0006097986466565365]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628280335024], ["'mechanical disinfection' (unit, DK, None)", 0.009875989954688191], ["'autoclave' (unit, DK, None)", 0.027145898915956188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000376524570577947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00474797139793108], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082625729498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362543065979e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0794066969349696e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.077966622366012e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.013747628280335024], ["'wet wipe' (unit, GLO, None)", 0.00227755982353291], ["'autoclave' (unit, DK, None)", 0.027145898915956188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000376524570577947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00474797139793108], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082625729498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362543065979e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593764829642e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010730773092819217], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036671783222644294], ["'mixed heating grid' (megajoule, DK, None)", -0.0006047206800341705]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1526597173361643], ["'autoclave' (unit, DK, None)", 0.5298634426122286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01732566392457103], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777180733063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041538172455], ["'mixed heating grid' (megajoule, DK, None)", -0.016736075328198128], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010405474157], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.009500360064925764], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156783752755], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885434586788], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002101373088044763]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1526597173361643], ["'autoclave' (unit, DK, None)", 0.5298634426122286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149646858546302], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242211369668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0433602769211497], ["'mixed heating grid' (megajoule, DK, None)", -0.11157383552132086], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00025494173327643644]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104052309813], ["'autoclave' (unit, DK, None)", 1.0597268852244568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049062394104159086], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677699505668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018607703379177432], ["'mixed heating grid' (megajoule, DK, None)", -0.04788098655442859], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989551831238], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316700262005], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835428361116], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784629461068], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273437190638]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371104052309813], ["'autoclave' (unit, DK, None)", 1.0597268852244568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3238441855060006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727708789487], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405135586118299], ["'mixed heating grid' (megajoule, DK, None)", -0.3192065770295239], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273437190638]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520244012503153], ["'mechanical disinfection' (unit, DK, None)", 0.5939082810980539], ["'autoclave' (unit, DK, None)", 1.4836176393142404], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956513373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502836311372], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580821295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099667830554e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662386575172], ["'mixed heating grid' (megajoule, DK, None)", -0.0002809569328738197]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14520244012503153], ["'wet wipe' (unit, GLO, None)", 0.04360781152855054], ["'autoclave' (unit, DK, None)", 1.4836176393142404], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07692317956513373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06535502836311372], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922580821295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.930099667830554e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550131685], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777180733063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006555956391390036], ["'mixed heating grid' (megajoule, DK, None)", -0.01686966163588123]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187497994071], ["'mechanical disinfection' (unit, DK, None)", 0.29695414054902697], ["'autoclave' (unit, DK, None)", 0.8242320218412446], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.045930352923963594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761051653546], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742384516164259], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765772393262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.459331193287572e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014047846643690985]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08652187497994071], ["'wet wipe' (unit, GLO, None)", 0.04360781152855054], ["'autoclave' (unit, DK, None)", 0.8242320218412446], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.045930352923963594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.039085761051653546], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742384516164259], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765772393262e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550131685], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777180733063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006501363079457175], ["'mixed heating grid' (megajoule, DK, None)", -0.01672918316944432]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457987285], ["'autoclave' (unit, DK, None)", 0.05139113210610976], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019082039147108e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331461652804e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064973539035], ["'mixed heating grid' (megajoule, DK, None)", -0.001179042977407093], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495623263473], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568718480272], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831843563223], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512595910414], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.4579863997242436e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799457987285], ["'autoclave' (unit, DK, None)", 0.05139113210610976], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668675213032214e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983082317629255e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376649026023], ["'mixed heating grid' (megajoule, DK, None)", -0.007860286516047288], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.8814513941053107e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183548179637], ["'autoclave' (unit, DK, None)", 0.10278226421221948], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381138858519382e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021229824621766e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003995041813158326], ["'mixed heating grid' (megajoule, DK, None)", -0.003373176795709398], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00800646399992515], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00224270514828047], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002566195562228811], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933125608568], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499282759793e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183548179637], ["'autoclave' (unit, DK, None)", 0.10278226421221948], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512302876910485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.333280643137285e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02663361208772219], ["'mixed heating grid' (megajoule, DK, None)", -0.022487845304729318], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499282759793e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.009440102563652977], ["'mechanical disinfection' (unit, DK, None)", 0.06180787296307181], ["'autoclave' (unit, DK, None)", 0.14389516989710735], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00045098678340503063], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814455077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.644923453297334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.394832266530705e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179773211305e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9793188795020675e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.009440102563652977], ["'wet wipe' (unit, GLO, None)", 0.003228268643250344], ["'autoclave' (unit, DK, None)", 0.14389516989710735], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00045098678340503063], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008161604814455077], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.644923453297334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.394832266530705e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263611845020122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331461652804e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014075525267752613], ["'mixed heating grid' (megajoule, DK, None)", -0.0011884540247920274]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160179057123], ["'mechanical disinfection' (unit, DK, None)", 0.030903936481535905], ["'autoclave' (unit, DK, None)", 0.07994176105394851], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083211015], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071029507209], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846906594668e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160933331417e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089886605622e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.896594397510337e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005624160179057123], ["'wet wipe' (unit, GLO, None)", 0.003228268643250344], ["'autoclave' (unit, DK, None)", 0.07994176105394851], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002692814083211015], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004881071029507209], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846906594668e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160933331417e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263611845020122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331461652804e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013958314368886589], ["'mixed heating grid' (megajoule, DK, None)", -0.0011785574303945171]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042023276777], ["'autoclave' (unit, DK, None)", 0.03466551062285033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8000123372492416e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002840009741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384696739785], ["'mixed heating grid' (megajoule, DK, None)", -0.008294240464656535], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099414945728245], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00016994619203750867], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016230792234], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002376967066017416], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705081543326e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042023276777], ["'autoclave' (unit, DK, None)", 0.03466551062285033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579521116326743e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463193254009924e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589797826523], ["'mixed heating grid' (megajoule, DK, None)", -0.05529493643104357], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7008513370491205e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444731836038], ["'autoclave' (unit, DK, None)", 0.06933102124570063], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929006898939441e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713054443699126e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002745472625003964], ["'mixed heating grid' (megajoule, DK, None)", -0.02372936356818934], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00312400751783742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885391420163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000510418095535557], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0066956818761053985], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115464654257e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444731836038], ["'autoclave' (unit, DK, None)", 0.06933102124570063], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233667920092041e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.465528641854434e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303150833359774], ["'mixed heating grid' (megajoule, DK, None)", -0.15819575712126224], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115464654257e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0025695347597404035], ["'mechanical disinfection' (unit, DK, None)", 0.04155330483960337], ["'autoclave' (unit, DK, None)", 0.09706342974398093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455139515004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479914222882], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.55412712754977e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397374427882e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109934726038037e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013923959565009423]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0025695347597404035], ["'wet wipe' (unit, GLO, None)", 0.01261688024638785], ["'autoclave' (unit, DK, None)", 0.09706342974398093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003454455139515004], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005562479914222882], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.55412712754977e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397374427882e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027328858793e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002840009741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009672982439854856], ["'mixed heating grid' (megajoule, DK, None)", -0.008360444573862619]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774982228031], ["'mechanical disinfection' (unit, DK, None)", 0.020776652419801686], ["'autoclave' (unit, DK, None)", 0.05392412763554495], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337160644406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569723447], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825425509954e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455166343783e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967363018997e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.961979782504712e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001531774982228031], ["'wet wipe' (unit, GLO, None)", 0.01261688024638785], ["'autoclave' (unit, DK, None)", 0.05392412763554495], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020626337160644406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00033266569723447], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.710825425509954e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455166343783e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994027328858793e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.218002840009741e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009592432766224688], ["'mixed heating grid' (megajoule, DK, None)", -0.00829082477603757]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545194762226], ["'autoclave' (unit, DK, None)", 0.004014487739979474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279846304835e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283714322388e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.625517275047016e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012012523206715093], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001238356476665282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752326279144], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596564027851], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924364239562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120798097954e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545194762226], ["'autoclave' (unit, DK, None)", 0.004014487739979474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082888669563e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221339736125e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00030836781833646775], ["'mixed heating grid' (megajoule, DK, None)", -0.0008008348804476729], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.144708790445019e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031748665449], ["'autoclave' (unit, DK, None)", 0.008028975479958945], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182241060096868e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217782954239136e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001323334928354724], ["'mixed heating grid' (megajoule, DK, None)", -0.0003436716499336001], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854404144552646], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00034884788554820725], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00036689568741707], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004533218130771708], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223409778671e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031748665449], ["'autoclave' (unit, DK, None)", 0.008028975479958945], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205320195953], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.211153333428076e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822232855698167], ["'mixed heating grid' (megajoule, DK, None)", -0.002291144332890667], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223409778671e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002169963461003405], ["'mechanical disinfection' (unit, DK, None)", 0.003577628078856629], ["'autoclave' (unit, DK, None)", 0.011240565671942529], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914887559349], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291155119421], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169101203225e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206935683198e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765089013207715e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0166028235710743e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002169963461003405], ["'wet wipe' (unit, GLO, None)", 0.0004352277293286648], ["'autoclave' (unit, DK, None)", 0.011240565671942529], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024386914887559349], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007825291155119421], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169101203225e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.759206935683198e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697742719664e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283714322388e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6624378649571665e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00012108406416468514]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390279115323], ["'mechanical disinfection' (unit, DK, None)", 0.0017888140394283145], ["'autoclave' (unit, DK, None)", 0.006244758706634737], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001456127546786899], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376866500013], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.31633820240645e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397054806571e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8825445066038473e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0083014117855372e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012897390279115323], ["'wet wipe' (unit, GLO, None)", 0.0004352277293286648], ["'autoclave' (unit, DK, None)", 0.006244758706634737], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001456127546786899], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046799376866500013], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.31633820240645e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397054806571e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697742719664e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283714322388e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6236124198911385e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001200757627528996]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145846387809e-08], ["'autoclave' (unit, DK, None)", 2.0754074563963613e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.991733048329439e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938405473e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6129730869374675e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2852459483487755e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403149268273e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718291701777e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744225271267e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.748126164131226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2615856862194592e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.656145846387809e-08], ["'autoclave' (unit, DK, None)", 2.0754074563963613e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172563681324e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928055248423e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315391291645e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.568306322325171e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0864450892065541e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684929439003e-07], ["'autoclave' (unit, DK, None)", 4.150814912792721e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.6401412490076644e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281059390277e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3197461054650616e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.677017626010354e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141314165675e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.986099680026748e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023363596159e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200462341483e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5891314300990307e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684929439003e-07], ["'autoclave' (unit, DK, None)", 4.150814912792721e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655108961486e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509276615412e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.798307369767084e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.451345084006903e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5891314300990307e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.24858811138415e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986321427013e-07], ["'autoclave' (unit, DK, None)", 5.811140877909812e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540155011238e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680783125938e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974499218e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846220117102e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030452299394e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.157607160312973e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.24858811138415e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359589722e-07], ["'autoclave' (unit, DK, None)", 5.811140877909812e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2085540155011238e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0651680783125938e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218974499218e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3594846220117102e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749576468e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938405473e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6497935499218255e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2955047012127342e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.933862454261581e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993160713506e-07], ["'autoclave' (unit, DK, None)", 3.228411598838784e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890365268e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268062231089e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948998436e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443809085586e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015226149687e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0788035801564865e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.933862454261581e-08], ["'wet wipe' (unit, GLO, None)", 1.0677192359589722e-07], ["'autoclave' (unit, DK, None)", 3.228411598838784e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.318713890365268e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.370268062231089e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437948998436e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.948443809085586e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749576468e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374938405473e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.61107339766034e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2847166654111693e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847796506381], ["'autoclave' (unit, DK, None)", 0.00022786517763341807], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.893864364946365e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489090299649e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498112883486535e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0056825562388964e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075372559255], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842759688063e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408046053028e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535825999307e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.452795679219959e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847796506381], ["'autoclave' (unit, DK, None)", 0.00022786517763341807], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9108819617868405e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5977674941723347e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998741922324355e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013371217041592646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.568759238916677e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184148803699], ["'autoclave' (unit, DK, None)", 0.00045573035526683597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6690101893259334e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0806953309253068e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728002853605518e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.738146944518203e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040606006843295914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.414214811168252e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933453722326e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297284016899462], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.97804846714792e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184148803699], ["'autoclave' (unit, DK, None)", 0.00045573035526683597], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568906441805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221199776359e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152001902403684e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00038254312963454686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.97804846714792e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471729031981041], ["'mechanical disinfection' (unit, DK, None)", 0.00024985917218284785], ["'autoclave' (unit, DK, None)", 0.0006380224973735706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175367209972e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801810950884e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944010666248e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348881072771e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997230652961e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3670404098263136e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471729031981041], ["'wet wipe' (unit, GLO, None)", 7.631932902168678e-05], ["'autoclave' (unit, DK, None)", 0.0006380224973735706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0091175367209972e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.982801810950884e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4383944010666248e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348881072771e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437132497617e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489090299649e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7797420477827247e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0216917890977456e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000147321095237403], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958609142392], ["'autoclave' (unit, DK, None)", 0.000354456942985317], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631607130635e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.7741373834615854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888021332496e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.676629515027023e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498615326472e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6835202049131568e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000147321095237403], ["'wet wipe' (unit, GLO, None)", 7.631932902168678e-05], ["'autoclave' (unit, DK, None)", 0.000354456942985317], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.199631607130635e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.7741373834615854e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8767888021332496e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.676629515027023e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437132497617e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489090299649e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7482670616294687e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.004856587048614e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956185708715], ["'autoclave' (unit, DK, None)", 0.00039441668885716583], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840164341389e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280067866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831853469855e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.9693961614596856e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488873781305], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0499831320070234e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043474482327e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00014443476999407564], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881206715838e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956185708715], ["'autoclave' (unit, DK, None)", 0.00039441668885716583], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817912919497e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3736997124856313e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887902313237e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033129307743064574], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.570750378901961e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931913019943], ["'autoclave' (unit, DK, None)", 0.0007888333777143313], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491306499448e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.526749938662686e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816684208957427e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014217167772278291], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349479185792], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1601434070114296e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894372924753e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00040685850702556526], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.611333609125803e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931913019943], ["'autoclave' (unit, DK, None)", 0.0007888333777143313], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990961385775e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0162864333347362e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211122805971631], ["'mixed heating grid' (megajoule, DK, None)", -0.0009478111848185527], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.611333609125803e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655931470116], ["'mechanical disinfection' (unit, DK, None)", 0.0004533713242946716], ["'autoclave' (unit, DK, None)", 0.0011043667288000644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.69617542826472e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184349546312], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683634040398e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7166831623952724e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876140673377e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.342375834113583e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033071655931470116], ["'wet wipe' (unit, GLO, None)", 0.001093276247491259], ["'autoclave' (unit, DK, None)", 0.0011043667288000644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.69617542826472e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011059184349546312], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683634040398e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7166831623952724e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297526986e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280067866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.095859515560195e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.009061571157352e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379427621062], ["'mechanical disinfection' (unit, DK, None)", 0.0002266856621473358], ["'autoclave' (unit, DK, None)", 0.0006135370715555914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758171408896e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976731995708e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367268080797e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757440962647e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380703366865e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.1711879170567916e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001970379427621062], ["'wet wipe' (unit, GLO, None)", 0.001093276247491259], ["'autoclave' (unit, DK, None)", 0.0006135370715555914], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0127758171408896e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.613976731995708e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367268080797e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757440962647e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945297526986e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229280067866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.020115708526546e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.967349691986784e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725338788586], ["'autoclave' (unit, DK, None)", 0.0004042989860713273], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814574852046e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508793744794e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.227223475830418e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.141906554546331e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610961307325], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680885977239e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660535626308e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000152378240901363], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.733646943561125e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006158725338788586], ["'autoclave' (unit, DK, None)", 0.0004042989860713273], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900449952823e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3916556782616942e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.151482317220279e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034279377030308877], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0124192661412216e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208264375804], ["'autoclave' (unit, DK, None)", 0.0008085979721426542], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1986381459627755e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758158845905e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6398576399602697e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014710710472696465], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864012288487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991334614509e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577423071556552e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004292344814122902], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.769160950082738e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208264375804], ["'autoclave' (unit, DK, None)", 0.0008085979721426542], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802943648684e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954519110193e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599050933068478], ["'mixed heating grid' (megajoule, DK, None)", -0.0009807140315130976], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.769160950082738e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033777063339493295], ["'mechanical disinfection' (unit, DK, None)", 0.0004645415460823831], ["'autoclave' (unit, DK, None)", 0.0011320371609997166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526700288727e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357350579], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759023934e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8204383998875396e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205175777835e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.631977726911105e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00033777063339493295], ["'wet wipe' (unit, GLO, None)", 0.001690905054369013], ["'autoclave' (unit, DK, None)", 0.0011320371609997166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7629526700288727e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001124143357350579], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759023934e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8204383998875396e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091502358902e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508793744794e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.300874597143544e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.182948931424026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716026997894], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077304119155], ["'autoclave' (unit, DK, None)", 0.0006289095338887314], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935971603e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971400010417e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039518047869e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385071893023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102587888898e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.3159888634555525e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020120716026997894], ["'wet wipe' (unit, GLO, None)", 0.001690905054369013], ["'autoclave' (unit, DK, None)", 0.0006289095338887314], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0526480935971603e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.722971400010417e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039518047869e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.046385071893023e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091502358902e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508793744794e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.223423571264676e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1397890427894696e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869314931992], ["'autoclave' (unit, DK, None)", 0.0034222397125911958], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550928709469486e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542505166e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331521284594e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.76659228926344e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391697588802], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.8310837301153252e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813554345996e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259235503555], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3623315687261636e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869314931992], ["'autoclave' (unit, DK, None)", 0.0034222397125911958], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209193676028], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669036147942e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887680856396], ["'mixed heating grid' (megajoule, DK, None)", -0.0005844394859508961], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6507657129881664e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00575878121648915], ["'autoclave' (unit, DK, None)", 0.006844479425182389], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822333575165e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0258117096185325e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693297070105], ["'mixed heating grid' (megajoule, DK, None)", -0.00025080736032727477], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002979613557268372], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.52073744015292e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892275127553e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.001580636404367199], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2410557216091205e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00575878121648915], ["'autoclave' (unit, DK, None)", 0.006844479425182389], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321672326845], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345449131934524e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001470779553138008], ["'mixed heating grid' (megajoule, DK, None)", -0.0016720490688484984], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2410557216091205e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496362878311], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468380402014], ["'autoclave' (unit, DK, None)", 0.00958227119525535], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955416382422e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588487419335], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037521862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664421256844e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.294540093843249e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.471692038334004e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013573496362878311], ["'wet wipe' (unit, GLO, None)", 0.009527755134648076], ["'autoclave' (unit, DK, None)", 0.00958227119525535], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.155955416382422e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025318588487419335], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378037521862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664421256844e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320932964e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542505166e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.772882887721911e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.836566681223348e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656317768512], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234190201007], ["'autoclave' (unit, DK, None)", 0.005323483997364082], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175964141e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854032809895], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075043723e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993422373975e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700469216228e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.35846019167002e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008061656317768512], ["'wet wipe' (unit, GLO, None)", 0.009527755134648076], ["'autoclave' (unit, DK, None)", 0.005323483997364082], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.481495175964141e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00015141854032809895], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756075043723e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993422373975e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320932964e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865542505166e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.708155883029767e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.762982079306647e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221230263815e-09], ["'autoclave' (unit, DK, None)", 1.1977131191407548e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993171324564e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612366602e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.773580260866542e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3276664807094509e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389237596376e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.950213069866764e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903376019302092e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076441654027156e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648347610134e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221230263815e-09], ["'autoclave' (unit, DK, None)", 1.1977131191407548e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892665084523e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613497422495e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8490535072443615e-10], ["'mixed heating grid' (megajoule, DK, None)", -8.85110987139634e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.339066802417907e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.89887627596207e-09], ["'autoclave' (unit, DK, None)", 2.3954262382815088e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429260853673e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8943010187785433e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059837740192e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.798380424621269e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.565291672833417e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573317074727e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652473489901e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.66603282824551e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230583865537e-12]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.89887627596207e-09], ["'autoclave' (unit, DK, None)", 2.3954262382815088e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4861669479111335e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9266015900076016e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039891826798e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.532253616414179e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230583865537e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996830618303e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860851139509168e-09], ["'autoclave' (unit, DK, None)", 3.353596733594114e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091843302e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776954555508e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869747005e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168270372117e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656148994857156e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.2288206463257245e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.019996830618303e-10], ["'wet wipe' (unit, GLO, None)", 5.60617496136197e-10], ["'autoclave' (unit, DK, None)", 3.353596733594114e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.195923091843302e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0394776954555508e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.090457869747005e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168270372117e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373076724e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612366602e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7957188052293022e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.338263831612489e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.5863714549016217e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425569754584e-10], ["'autoclave' (unit, DK, None)", 1.863109296441174e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529896597e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506896895e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.18091573949401e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073467678554e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074497428572e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1144103231628622e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.5863714549016217e-10], ["'wet wipe' (unit, GLO, None)", 5.60617496136197e-10], ["'autoclave' (unit, DK, None)", 1.863109296441174e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.140782529896597e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2197154506896895e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.18091573949401e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073467678554e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70256373076724e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.589021612366602e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.772438060255023e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3271197283808603e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592805295296e-07], ["'autoclave' (unit, DK, None)", 5.03656423743514e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647569839e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908210481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.518006483820395e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1444850739474976e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.596602206529781e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782087217874e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.1658947624736004e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.952401290146705e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.4360200086026186e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592805295296e-07], ["'autoclave' (unit, DK, None)", 5.03656423743514e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748128734443e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827663018535e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337655880264e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.0963233826316654e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.090452975020507e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896834739364e-06], ["'autoclave' (unit, DK, None)", 1.0073128474870276e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152536132e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.091122737432338e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.723049051463814e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.996198009016224e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317468709648e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3250723013353486e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117647616485e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.499721944075227e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.262019616371441e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896834739364e-06], ["'autoclave' (unit, DK, None)", 1.0073128474870276e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971303868858e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.26309664126693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660343092109e-07], ["'mixed heating grid' (megajoule, DK, None)", -5.997465339344149e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.262019616371441e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053966093330176e-07], ["'mechanical disinfection' (unit, DK, None)", 5.682374635841752e-07], ["'autoclave' (unit, DK, None)", 1.4102379864818394e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176912342024e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194730504059e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678912575037e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.29648045912705e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357269112634e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.278805601186981e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9053966093330176e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972753230704e-07], ["'autoclave' (unit, DK, None)", 1.4102379864818394e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.799176912342024e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3081194730504059e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5567678912575037e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.29648045912705e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.22257129761102e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908210481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.593978616936624e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.169584157355992e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.327775876472764e-07], ["'mechanical disinfection' (unit, DK, None)", 2.841187317920876e-07], ["'autoclave' (unit, DK, None)", 7.834655480454663e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649463389625e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.82324580544749e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782515007e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619583886044e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178634556296e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6394028005934905e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.327775876472764e-07], ["'wet wipe' (unit, GLO, None)", 1.4084972753230704e-07], ["'autoclave' (unit, DK, None)", 7.834655480454663e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2684649463389625e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.82324580544749e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535782515007e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619583886044e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.22257129761102e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908210481e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.514086830591084e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.143190129350057e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518801870324], ["'autoclave' (unit, DK, None)", 0.010079048847215128], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.802579259569551e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045785994637e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002276880805801659], ["'mixed heating grid' (megajoule, DK, None)", -0.001209638213771233], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956386846203], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00037506179489714354], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003574217508363854], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173236826346], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.91423528785304e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518801870324], ["'autoclave' (unit, DK, None)", 0.010079048847215128], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001196103994667646], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098427906515e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001517920537201106], ["'mixed heating grid' (megajoule, DK, None)", -0.008064254758474887], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.896463915728065e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073491629384], ["'autoclave' (unit, DK, None)", 0.02015809769443025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500146257701e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021159258932e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514030148092266], ["'mixed heating grid' (megajoule, DK, None)", -0.0034607080760277135], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11539612347083684], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267613409175], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010766900059582998], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642920637595], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878239809756e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073491629384], ["'autoclave' (unit, DK, None)", 0.02015809769443025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00033693070272328065], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056128689291975e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0043426867653948474], ["'mixed heating grid' (megajoule, DK, None)", -0.023071387173518088], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878239809756e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113683616828], ["'mechanical disinfection' (unit, DK, None)", 0.011363780435646318], ["'autoclave' (unit, DK, None)", 0.02822133677220236], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267326003], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558716528085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056613243279e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046048137556e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314581958681e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0306806450346073e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006596113683616828], ["'wet wipe' (unit, GLO, None)", 0.01239225775661088], ["'autoclave' (unit, DK, None)", 0.02822133677220236], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0004665576267326003], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018971558716528085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056613243279e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046048137556e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297524015912e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045785994637e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022950547261453986], ["'mixed heating grid' (megajoule, DK, None)", -0.0012192934704213882]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096154557076], ["'mechanical disinfection' (unit, DK, None)", 0.005681890217823159], ["'autoclave' (unit, DK, None)", 0.01567852042900131], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00027857866219700836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994781790092], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113226486557e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071834451446e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9111572909793356e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0153403225173036e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003896096154557076], ["'wet wipe' (unit, GLO, None)", 0.01239225775661088], ["'autoclave' (unit, DK, None)", 0.01567852042900131], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00027857866219700836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011345994781790092], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113226486557e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071834451446e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9562297524015912e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045785994637e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022759431532356106], ["'mixed heating grid' (megajoule, DK, None)", -0.0012091400671962152]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858205863946], ["'autoclave' (unit, DK, None)", 0.0006586479140918968], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228624848747e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457602289149e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115363975528922e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.696750534067648e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038073267743248034], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135610257765e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594286672244e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001735396252266313], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.26337824753722e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858205863946], ["'autoclave' (unit, DK, None)", 0.0006586479140918968], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516190320196e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4002804374901022e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242650352614e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003131167022711766], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043699981958e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0020524291165043033], ["'autoclave' (unit, DK, None)", 0.001317295828183793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.966432965728196e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894964707614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800442016603936e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013437143700727498], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001071598595422544], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361573195921425e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.1541405072644035e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440147229051], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973977989037851e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0020524291165043033], ["'autoclave' (unit, DK, None)", 0.001317295828183793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2781735747380836e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.218176283498382e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021200294677735973], ["'mixed heating grid' (megajoule, DK, None)", -0.0008958095800484998], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973977989037851e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005658675302902503], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930241710929], ["'autoclave' (unit, DK, None)", 0.0018442141594573113], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861439707584e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813290168943], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.27179070143793e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849823716764e-08], ["'steel recycling' (kilogram, RER, None)", 1.1649763533363691e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3112359570284574e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659921810216815e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.884671875859637e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005658675302902503], ["'wet wipe' (unit, GLO, None)", 0.00032791746251556334], ["'autoclave' (unit, DK, None)", 0.0018442141594573113], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.641861439707584e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018191813290168943], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.27179070143793e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849823716764e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175955196715e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.929260099697123e-06], ["'steel recycling' (kilogram, RER, None)", 1.1649763533363691e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3112359570284574e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.023177440670613e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.548851612869608e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003355217248733331], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651208554645], ["'autoclave' (unit, DK, None)", 0.0010245634219207284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720436919191e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966580635973], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.54358140287586e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.647304141396934e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763533363691e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3112359570284574e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960905108382e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9423359379298183e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003355217248733331], ["'wet wipe' (unit, GLO, None)", 0.00032791746251556334], ["'autoclave' (unit, DK, None)", 0.0010245634219207284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.368720436919191e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001087966580635973], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.54358140287586e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.647304141396934e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175955196715e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.929260099697123e-06], ["'steel recycling' (kilogram, RER, None)", 1.1649763533363691e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3112359570284574e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 2.0138474797655035e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.509428253490307e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.24760101241326887], ["'autoclave' (unit, DK, None)", 0.18669863312578538], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423148377905], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292053284792927], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296332425239], ["'mixed heating grid' (megajoule, DK, None)", -0.013748323601210524], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14367684045139065], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004471009998428143], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00463256623687179], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699379375142], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253669246698]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.24760101241326887], ["'autoclave' (unit, DK, None)", 0.18669863312578538], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18111252743316178], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089339857416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03065530888283493], ["'mixed heating grid' (megajoule, DK, None)", -0.09165549067473683], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802209114958]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085725581597672], ["'autoclave' (unit, DK, None)", 0.3733972662515706], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424260285], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564501806175], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471671137349], ["'mixed heating grid' (megajoule, DK, None)", -0.039333193988818384], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4043884582241128], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437859346838], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048223864125], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026420775052], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319319193918]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085725581597672], ["'autoclave' (unit, DK, None)", 0.3733972662515706], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336145403], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893299552], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314447424907], ["'mixed heating grid' (megajoule, DK, None)", -0.26222129325878923], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319319193918]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13082826039811923], ["'mechanical disinfection' (unit, DK, None)", 0.21668038390009445], ["'autoclave' (unit, DK, None)", 0.5227561727521991], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750448357139], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.041732197950755466], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910037175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7927338349762024e-05], ["'steel recycling' (kilogram, RER, None)", 4.5502732628198714e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.235390355838331e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391844672253e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023080003856368447]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13082826039811923], ["'wet wipe' (unit, GLO, None)", 0.08585707876156477], ["'autoclave' (unit, DK, None)", 0.5227561727521991], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.006064750448357139], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.041732197950755466], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003748789910037175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7927338349762024e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159504363656], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.061612740375941034], ["'steel recycling' (kilogram, RER, None)", 4.5502732628198714e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.235390355838331e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008369648916367108], ["'mixed heating grid' (megajoule, DK, None)", -0.025024190137403843]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07753618474616533], ["'mechanical disinfection' (unit, DK, None)", 0.10834019195004722], ["'autoclave' (unit, DK, None)", 0.2904200959734439], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248383849753], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059970549167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749757982007435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346892999647147e-05], ["'steel recycling' (kilogram, RER, None)", 4.5502732628198714e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.235390355838331e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695922336116e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011540001928184224]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07753618474616533], ["'wet wipe' (unit, GLO, None)", 0.08585707876156477], ["'autoclave' (unit, DK, None)", 0.2904200959734439], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0036212248383849753], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.024958059970549167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749757982007435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346892999647147e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001512159504363656], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.061612740375941034], ["'steel recycling' (kilogram, RER, None)", 4.5502732628198714e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.235390355838331e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.008331051957143742], ["'mixed heating grid' (megajoule, DK, None)", -0.024908790118121995]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919561047276], ["'autoclave' (unit, DK, None)", 0.037407553266391565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505904468685], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826157431009], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027580042970701355], ["'mixed heating grid' (megajoule, DK, None)", -0.0006908275350266147], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0032668952965982843], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065788033030177], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063815254859], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427551433137], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169306876899e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007638919561047276], ["'autoclave' (unit, DK, None)", 0.037407553266391565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700179600715], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001152716937289206], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386695313800903], ["'mixed heating grid' (megajoule, DK, None)", -0.004605516900177431], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.036633776892336e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.021852634144319098], ["'autoclave' (unit, DK, None)", 0.0748151065327831], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511485097207], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559454857616], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890497866161857], ["'mixed heating grid' (megajoule, DK, None)", -0.001976419397462143], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194903980491859], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015246546507178202], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001746898178185439], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007760967082], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912047095988e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.021852634144319098], ["'autoclave' (unit, DK, None)", 0.0748151065327831], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026782254027044275], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034724210353003584], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260331910774576], ["'mixed heating grid' (megajoule, DK, None)", -0.013176129316414285], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912047095988e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010888301486931772], ["'mechanical disinfection' (unit, DK, None)", 0.04428851143839778], ["'autoclave' (unit, DK, None)", 0.10474114914589638], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0941428214260934], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532148563853], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684853293363e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8605595127734962e-06], ["'steel recycling' (kilogram, RER, None)", 1.1090349532632585e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.226125879282773e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000839277223e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1597270063599534e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010888301486931772], ["'wet wipe' (unit, GLO, None)", 0.0029106156841292993], ["'autoclave' (unit, DK, None)", 0.10474114914589638], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0941428214260934], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023382532148563853], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684853293363e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8605595127734962e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133160254533e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003234583978088005], ["'steel recycling' (kilogram, RER, None)", 1.1090349532632585e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.226125879282773e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005020017416784042], ["'mixed heating grid' (megajoule, DK, None)", -0.0012574187290105598]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006463587547771937], ["'mechanical disinfection' (unit, DK, None)", 0.02214425571919889], ["'autoclave' (unit, DK, None)", 0.05818952730327576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056212094167231455], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990019308007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7945369706586725e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.113525140664954e-06], ["'steel recycling' (kilogram, RER, None)", 1.1090349532632585e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.226125879282773e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.315000419638605e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.798635031799767e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006463587547771937], ["'wet wipe' (unit, GLO, None)", 0.0029106156841292993], ["'autoclave' (unit, DK, None)", 0.05818952730327576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056212094167231455], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013983990019308007], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7945369706586725e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.113525140664954e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526133160254533e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003234583978088005], ["'steel recycling' (kilogram, RER, None)", 1.1090349532632585e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.226125879282773e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004996867412587654], ["'mixed heating grid' (megajoule, DK, None)", -0.0012516200939787596]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010072739314005463], ["'autoclave' (unit, DK, None)", 0.047104837342575714], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014177070775], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119630028243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596830012042021], ["'mixed heating grid' (megajoule, DK, None)", -0.0009034489925563646], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720433140629], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000679736399693118], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343826311881], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326736579123026], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407924804293115e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010072739314005463], ["'autoclave' (unit, DK, None)", 0.047104837342575714], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373893196494], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733000945442], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002397886674694681], ["'mixed heating grid' (megajoule, DK, None)", -0.006022993283709098], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091862778093556e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605097634806], ["'autoclave' (unit, DK, None)", 0.09420967468515139], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372238927519], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755374568157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001029033187697125], ["'mixed heating grid' (megajoule, DK, None)", -0.0025847176364173718], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848901223626], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002045808581600646], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618954089433], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807708673586], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.814469746537819e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02881605097634806], ["'autoclave' (unit, DK, None)", 0.09420967468515139], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878133491041266], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183668785491], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860221251314171], ["'mixed heating grid' (megajoule, DK, None)", -0.017231450909449143], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.814469746537819e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013834249646306904], ["'mechanical disinfection' (unit, DK, None)", 0.0557028519235494], ["'autoclave' (unit, DK, None)", 0.131893544559212], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963331285734], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512548890133], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703243182535e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5076213795370986e-06], ["'steel recycling' (kilogram, RER, None)", 1.6246278654093398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.653603782980557e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179850619925e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5166653649610872e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.013834249646306904], ["'wet wipe' (unit, GLO, None)", 0.003389624636749687], ["'autoclave' (unit, DK, None)", 0.131893544559212], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11260963331285734], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028232512548890133], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703243182535e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5076213795370986e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.84888782790347e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004683787527087855], ["'steel recycling' (kilogram, RER, None)", 1.6246278654093398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.653603782980557e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006546816959220764], ["'mixed heating grid' (megajoule, DK, None)", -0.001644424442205143]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008215346836304755], ["'mechanical disinfection' (unit, DK, None)", 0.0278514259617747], ["'autoclave' (unit, DK, None)", 0.07327419142178444], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288957929], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534625900914], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140648636507e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341022609459e-06], ["'steel recycling' (kilogram, RER, None)", 1.6246278654093398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.653603782980557e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190899253099546e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.583326824805436e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008215346836304755], ["'wet wipe' (unit, GLO, None)", 0.003389624636749687], ["'autoclave' (unit, DK, None)", 0.07327419142178444], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06723851288957929], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016884534625900914], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140648636507e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341022609459e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.84888782790347e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004683787527087855], ["'steel recycling' (kilogram, RER, None)", 1.6246278654093398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.653603782980557e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000651662605996766], ["'mixed heating grid' (megajoule, DK, None)", -0.0016368411153803372]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796700220829], ["'autoclave' (unit, DK, None)", 1.9488662354871225], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982229005149853], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096300527713], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01377909630576992], ["'mixed heating grid' (megajoule, DK, None)", -0.06859047799334395], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30982766051905947], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03829713290213816], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.03420198016520232], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.4906437339876016], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005649494444443155]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6735796700220829], ["'autoclave' (unit, DK, None)", 1.9488662354871225], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5296619246407847], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642100826649876], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186064203846614], ["'mixed heating grid' (megajoule, DK, None)", -0.4572698532889597], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806823873305348]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.9260213122074363], ["'autoclave' (unit, DK, None)", 3.897732470974243], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22603882136078557], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287040016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942123299583512], ["'mixed heating grid' (megajoule, DK, None)", -0.19623356672084957], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314948384124], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321553070708], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934877825731], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.3820950253171878], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454131501252]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.9260213122074363], ["'autoclave' (unit, DK, None)", 3.897732470974243], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054215233371], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514585463935], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280821997223436], ["'mixed heating grid' (megajoule, DK, None)", -1.308223778138997], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454131501252]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.33421637479300087], ["'mechanical disinfection' (unit, DK, None)", 2.276328269120939], ["'autoclave' (unit, DK, None)", 5.456825459363944], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667130996048], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110579469481], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831269497913], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565984862866787], ["'steel recycling' (kilogram, RER, None)", 0.00010347067817054482], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.001908537184665573], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023131663546706237], ["'mixed heating grid' (megajoule, DK, None)", -0.0011514629292382573]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.33421637479300087], ["'wet wipe' (unit, GLO, None)", 0.19973879266298872], ["'autoclave' (unit, DK, None)", 5.456825459363944], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3849667130996048], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09508110579469481], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019957831269497913], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565984862866787], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541603269752], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1801768481933627], ["'steel recycling' (kilogram, RER, None)", 0.00010347067817054482], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.001908537184665573], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0250802014761149], ["'mixed heating grid' (megajoule, DK, None)", -0.12484585122579775]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.20331356214259727], ["'mechanical disinfection' (unit, DK, None)", 1.1381641345604696], ["'autoclave' (unit, DK, None)", 3.031569699646635], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612342417719], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352641407339], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662538995826], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487359348988], ["'steel recycling' (kilogram, RER, None)", 0.00010347067817054482], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.001908537184665573], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011565831773353087], ["'mixed heating grid' (megajoule, DK, None)", -0.0005757314646191287]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.20331356214259727], ["'wet wipe' (unit, GLO, None)", 0.19973879266298872], ["'autoclave' (unit, DK, None)", 3.031569699646635], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2298612342417719], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05686352641407339], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039915662538995826], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487359348988], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002839541603269752], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1801768481933627], ["'steel recycling' (kilogram, RER, None)", 0.00010347067817054482], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.001908537184665573], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.024964543158381355], ["'mixed heating grid' (megajoule, DK, None)", -0.12427011976117859]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14974332885109987], ["'autoclave' (unit, DK, None)", 0.048048060438174854], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6462984030992795e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.431221250925408e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278869267412], ["'mixed heating grid' (megajoule, DK, None)", -0.003944285896801069], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569841024731], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396988237327], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001045289606196788], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736298240532], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227899541624e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14974332885109987], ["'autoclave' (unit, DK, None)", 0.048048060438174854], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057818878961], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475091213552e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185912844941], ["'mixed heating grid' (megajoule, DK, None)", -0.02629523931200713], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.652792154041665e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.42840849703410855], ["'autoclave' (unit, DK, None)", 0.09609612087634967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001315727491718768], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.639331918857302e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003453812264138146], ["'mixed heating grid' (megajoule, DK, None)", -0.01128438396027985], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29123954850566297], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0031759641420908455], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0031488091300838593], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.054906299431663474], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831312916733922]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.42840849703410855], ["'autoclave' (unit, DK, None)", 0.09609612087634967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684669912335102], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270219749215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415094254324], ["'mixed heating grid' (megajoule, DK, None)", -0.07522922640186568], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831312916733922]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029713374389728035], ["'mechanical disinfection' (unit, DK, None)", 0.05608788953117762], ["'autoclave' (unit, DK, None)", 0.1345345692268896], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001403631873521387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485963250713], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391609987292891e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268001990823e-06], ["'steel recycling' (kilogram, RER, None)", 1.0320653557603569e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4620957840514524e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.02663430786074e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.621471558959589e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029713374389728035], ["'wet wipe' (unit, GLO, None)", 0.04985519743772935], ["'autoclave' (unit, DK, None)", 0.1345345692268896], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001403631873521387], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008896485963250713], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391609987292891e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268001990823e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359490496782e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010164854451273242], ["'steel recycling' (kilogram, RER, None)", 1.0320653557603569e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4620957840514524e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002197351550480752], ["'mixed heating grid' (megajoule, DK, None)", -0.0071792433100090645]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01754879560438505], ["'mechanical disinfection' (unit, DK, None)", 0.028043944